--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010A4D2-4BBB-4B84-B6AE-C0DB08D0076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4BD349-12B0-4070-BAE0-0A3C2723C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogueList" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>index</t>
   </si>
@@ -119,14 +119,6 @@
   </si>
   <si>
     <t>去找别人吧！</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎加入！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -187,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,9 +197,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +516,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -858,24 +847,12 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:19">

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4BD349-12B0-4070-BAE0-0A3C2723C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C35B29-197A-4FE5-BDE2-6008593BB881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogueList" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>index</t>
   </si>
@@ -97,28 +97,37 @@
     <t>完全搞不懂这是在干嘛。</t>
   </si>
   <si>
+    <t>沙袋——</t>
+  </si>
+  <si>
+    <t>呜啊————————————</t>
+  </si>
+  <si>
+    <t>啊。\n粘在天花板上了。</t>
+  </si>
+  <si>
+    <t>哈喽——\n还活着吗——</t>
+  </si>
+  <si>
+    <t>好像变成了生死不明的情况耶。</t>
+  </si>
+  <si>
+    <t>嗯嗯…</t>
+  </si>
+  <si>
+    <t>去找别人吧！</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是柠檬！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>总之揍就是了！+2007;（转移话题）“停一停，听我说更重要的事！”+-3+3</t>
-  </si>
-  <si>
-    <t>沙袋——</t>
-  </si>
-  <si>
-    <t>呜啊————————————</t>
-  </si>
-  <si>
-    <t>啊。\n粘在天花板上了。</t>
-  </si>
-  <si>
-    <t>哈喽——\n还活着吗——</t>
-  </si>
-  <si>
-    <t>好像变成了生死不明的情况耶。</t>
-  </si>
-  <si>
-    <t>嗯嗯…</t>
-  </si>
-  <si>
-    <t>去找别人吧！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -714,8 +723,8 @@
       <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
+      <c r="L6" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -732,10 +741,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -757,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="3"/>
     </row>
@@ -778,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="3"/>
     </row>
@@ -799,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -820,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="3"/>
     </row>
@@ -841,18 +850,30 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="A13" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:19">

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C35B29-197A-4FE5-BDE2-6008593BB881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7851644-B899-4015-A70E-7F604680B5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>index</t>
   </si>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>总之揍就是了！+2007;（转移话题）“停一停，听我说更重要的事！”+-3+3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有别的东西了</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -877,7 +885,33 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="J14" s="3"/>
+      <c r="A14" s="6">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7851644-B899-4015-A70E-7F604680B5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D0D76-EB50-4ABC-8392-BB1560994EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>index</t>
   </si>
@@ -126,15 +126,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>总之揍就是了！+2007;（转移话题）“停一停，听我说更重要的事！”+-3+3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>没有别的东西了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之揍就是了！+2006;（转移话题）“停一停，听我说更重要的事！”+-3+3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandbag1 Sandbag2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -532,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -548,7 +552,7 @@
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
     <col min="9" max="9" width="13.90625" customWidth="1"/>
     <col min="10" max="10" width="34.7265625" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1"/>
     <col min="12" max="12" width="53.36328125" customWidth="1"/>
     <col min="13" max="19" width="10.81640625" customWidth="1"/>
   </cols>
@@ -732,7 +736,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -754,6 +758,9 @@
       <c r="J7" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="K7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
@@ -907,10 +914,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D0D76-EB50-4ABC-8392-BB1560994EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91EBE4-5AE5-4552-BCA2-6ED474638DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,11 +134,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>总之揍就是了！+2006;（转移话题）“停一停，听我说更重要的事！”+-3+3</t>
+    <t>Sandbag1 Sandbag2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Sandbag1 Sandbag2</t>
+    <t>总之揍就是了！+2006;（转移话题）“停一停，听我说更重要的事！”+-3+5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +537,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -736,7 +736,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -759,7 +759,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E1679-CD1D-439A-A1EB-C3C2BC799CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2854DFF1-5716-44EA-B3C4-63F9394EA369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="114">
   <si>
     <t>index</t>
   </si>
@@ -334,30 +334,6 @@
     <t>“但不重要！重要的是你喜欢。”+-3+8</t>
   </si>
   <si>
-    <t>哈喽！</t>
-  </si>
-  <si>
-    <t>一拳揍飞！+2110;“知道你不想当沙袋，跟我走吧！”+2113</t>
-  </si>
-  <si>
-    <t>&gt;7</t>
-  </si>
-  <si>
-    <t>呼。\n神清气爽！</t>
-  </si>
-  <si>
-    <t>是跟我一起去死哦！</t>
-  </si>
-  <si>
-    <t>“去死，然后成为一道菜。”+-3+8</t>
-  </si>
-  <si>
-    <t>不当沙袋了</t>
-  </si>
-  <si>
-    <t>哦！听起来不错。</t>
-  </si>
-  <si>
     <t># 推门3，次数1</t>
   </si>
   <si>
@@ -367,20 +343,25 @@
     <t># 推门7及以后</t>
   </si>
   <si>
-    <t># 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 2110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 2113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t># 2114</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>%s_EvilSmile</t>
+  </si>
+  <si>
+    <t>%s_EvilYeah</t>
+  </si>
+  <si>
+    <t>Sandbag_0</t>
+  </si>
+  <si>
+    <t>%s_EvilAsk</t>
+  </si>
+  <si>
+    <t>%s_EvilDisagree</t>
+  </si>
+  <si>
+    <t>%s_EvilDown</t>
+  </si>
+  <si>
+    <t>%s_EvilThink</t>
   </si>
 </sst>
 </file>
@@ -450,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -865,7 +849,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -893,7 +877,9 @@
         <v>15</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
@@ -923,7 +909,9 @@
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
@@ -945,7 +933,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -967,7 +955,9 @@
         <v>20</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
@@ -995,7 +985,9 @@
       <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1011,15 +1003,15 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1040,7 +1032,9 @@
         <v>22</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1062,9 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1096,7 +1092,9 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1122,9 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1153,9 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1181,7 +1183,9 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1220,9 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1257,9 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1287,9 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1317,9 @@
         <v>33</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1349,9 @@
       <c r="F19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1379,9 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H20" s="4" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +1409,9 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1439,9 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1449,7 +1469,9 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1499,9 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +1531,9 @@
       <c r="F25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1537,7 +1563,9 @@
         <v>42</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1563,9 +1591,11 @@
       <c r="D27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1580,14 +1610,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -1609,7 +1639,9 @@
         <v>45</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H29" s="4" t="s">
         <v>16</v>
       </c>
@@ -1637,7 +1669,9 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H30" s="4" t="s">
         <v>16</v>
       </c>
@@ -1665,7 +1699,9 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H31" s="4" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1729,9 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H32" s="4" t="s">
         <v>16</v>
       </c>
@@ -1721,7 +1759,9 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1789,9 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H34" s="4" t="s">
         <v>16</v>
       </c>
@@ -1777,7 +1819,9 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="H35" s="4" t="s">
         <v>16</v>
       </c>
@@ -1805,7 +1849,9 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H36" s="4" t="s">
         <v>16</v>
       </c>
@@ -1833,7 +1879,9 @@
         <v>55</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H37" s="4" t="s">
         <v>16</v>
       </c>
@@ -1861,7 +1909,9 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H38" s="4" t="s">
         <v>16</v>
       </c>
@@ -1889,7 +1939,9 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H39" s="4" t="s">
         <v>16</v>
       </c>
@@ -1917,7 +1969,9 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H40" s="4" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1999,9 @@
         <v>60</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H41" s="4" t="s">
         <v>16</v>
       </c>
@@ -1975,7 +2031,9 @@
       <c r="F42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="H42" s="4" t="s">
         <v>16</v>
       </c>
@@ -2003,7 +2061,9 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H43" s="4" t="s">
         <v>16</v>
       </c>
@@ -2033,7 +2093,9 @@
       <c r="F44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
@@ -2061,7 +2123,9 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H45" s="4" t="s">
         <v>16</v>
       </c>
@@ -2089,7 +2153,9 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H46" s="4" t="s">
         <v>16</v>
       </c>
@@ -2119,7 +2185,9 @@
         <v>66</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="H47" s="4" t="s">
         <v>16</v>
       </c>
@@ -2147,7 +2215,9 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H48" s="4" t="s">
         <v>16</v>
       </c>
@@ -2175,7 +2245,9 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
@@ -2197,7 +2269,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -2219,7 +2291,9 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
@@ -2247,7 +2321,9 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H52" s="4" t="s">
         <v>16</v>
       </c>
@@ -2275,7 +2351,9 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="G53" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="H53" s="4" t="s">
         <v>16</v>
       </c>
@@ -2303,7 +2381,9 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H54" s="4" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +2411,9 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="H55" s="4" t="s">
         <v>16</v>
       </c>
@@ -2359,7 +2441,9 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="G56" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H56" s="4" t="s">
         <v>16</v>
       </c>
@@ -2387,7 +2471,9 @@
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H57" s="4" t="s">
         <v>16</v>
       </c>
@@ -2415,7 +2501,9 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H58" s="4" t="s">
         <v>16</v>
       </c>
@@ -2443,7 +2531,9 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="G59" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H59" s="4" t="s">
         <v>16</v>
       </c>
@@ -2471,7 +2561,9 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="H60" s="4" t="s">
         <v>16</v>
       </c>
@@ -2499,7 +2591,9 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H61" s="4" t="s">
         <v>16</v>
       </c>
@@ -2527,7 +2621,9 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="G62" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H62" s="4" t="s">
         <v>16</v>
       </c>
@@ -2555,7 +2651,9 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="G63" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H63" s="4" t="s">
         <v>16</v>
       </c>
@@ -2583,7 +2681,9 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H64" s="4" t="s">
         <v>16</v>
       </c>
@@ -2611,7 +2711,9 @@
         <v>84</v>
       </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="G65" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="H65" s="4" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +2743,9 @@
       <c r="F66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H66" s="4" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2775,9 @@
       <c r="F67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="5"/>
+      <c r="G67" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2807,9 @@
         <v>88</v>
       </c>
       <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="G68" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H68" s="4" t="s">
         <v>16</v>
       </c>
@@ -2723,7 +2831,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -2745,7 +2853,9 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="G70" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H70" s="4" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2883,9 @@
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="G71" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H71" s="4" t="s">
         <v>16</v>
       </c>
@@ -2801,7 +2913,9 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H72" s="4" t="s">
         <v>16</v>
       </c>
@@ -2829,7 +2943,9 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="G73" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H73" s="4" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2973,9 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="G74" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H74" s="4" t="s">
         <v>16</v>
       </c>
@@ -2885,7 +3003,9 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="G75" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H75" s="4" t="s">
         <v>16</v>
       </c>
@@ -2913,7 +3033,9 @@
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="H76" s="4" t="s">
         <v>16</v>
       </c>
@@ -2941,7 +3063,9 @@
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="H77" s="4" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +3093,9 @@
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
@@ -2997,7 +3123,9 @@
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H79" s="4" t="s">
         <v>16</v>
       </c>
@@ -3025,7 +3153,9 @@
         <v>99</v>
       </c>
       <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="G80" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H80" s="4" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3185,9 @@
       <c r="F81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="G81" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="H81" s="4" t="s">
         <v>16</v>
       </c>
@@ -3085,7 +3217,9 @@
       <c r="F82" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H82" s="4" t="s">
         <v>16</v>
       </c>
@@ -3115,7 +3249,9 @@
         <v>103</v>
       </c>
       <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="G83" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H83" s="4" t="s">
         <v>16</v>
       </c>
@@ -3130,14 +3266,14 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="G84" s="4"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -3145,122 +3281,74 @@
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="J85" s="4"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="4">
-        <v>1</v>
-      </c>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="J86" s="4"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="4">
-        <v>1</v>
-      </c>
+      <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="4">
-        <v>2114</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K87" s="5"/>
-      <c r="L87" s="4">
-        <v>1</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="J88" s="4"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="4">
-        <v>1</v>
-      </c>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2854DFF1-5716-44EA-B3C4-63F9394EA369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CD7383-9841-4725-BB54-B870DDA66E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="158">
   <si>
     <t>index</t>
   </si>
@@ -67,291 +67,21 @@
     <t># 推门1，次数1</t>
   </si>
   <si>
-    <t>一拳揍飞+2001</t>
-  </si>
-  <si>
     <t>Mushroom,Potato,Egg,Tomato</t>
   </si>
   <si>
-    <t>耶。</t>
-  </si>
-  <si>
-    <t>Sandbag_HangFly</t>
-  </si>
-  <si>
     <t># 推门2，次数1</t>
   </si>
   <si>
-    <t>一拳揍飞+2004</t>
-  </si>
-  <si>
-    <t>耶。\n我还挺强壮的嘛。</t>
-  </si>
-  <si>
-    <t>一拳揍飞+2007</t>
-  </si>
-  <si>
-    <t>沙袋</t>
-  </si>
-  <si>
-    <t>停下！\n禁止使用暴力！</t>
-  </si>
-  <si>
-    <t>啊？你不喜欢被揍吗？</t>
-  </si>
-  <si>
-    <t>不会有谁喜欢被揍吧！</t>
-  </si>
-  <si>
-    <t>说不定真有哦。</t>
-  </si>
-  <si>
-    <t>这不重要。\n重要的是我不喜欢！</t>
-  </si>
-  <si>
-    <t>好吧，那你喜欢什么？</t>
-  </si>
-  <si>
-    <t>我喜欢当菜。</t>
-  </si>
-  <si>
-    <t>事实上我从没当过菜。\n但是直觉告诉我，我会喜欢的。</t>
-  </si>
-  <si>
-    <t>这直觉听起来超级不负责任耶。\n既然如此...</t>
-  </si>
-  <si>
-    <t>就让我来帮它找回沙袋的自觉，一拳揍飞！+2016;“那就先试试嘛，反正我不负责吃菜。”+2019</t>
-  </si>
-  <si>
-    <t>真是干了一件好事呢。</t>
-  </si>
-  <si>
-    <t>你提醒我了，不会有菜会负责吃菜。</t>
-  </si>
-  <si>
-    <t>不要一直抬杠！\n总之，就算我当了菜，你也没法告诉我味道如何。</t>
-  </si>
-  <si>
-    <t>看来还是得去找人类。\n喂，你有什么渠道吗？</t>
-  </si>
-  <si>
-    <t>唔唔...渠道谈不上。\n不过，只要一直跟着我…</t>
-  </si>
-  <si>
-    <t>那还等什么！\n走吧，你去哪我就去哪。</t>
-  </si>
-  <si>
-    <t>Sandbag_HangLand</t>
-  </si>
-  <si>
-    <t>呃啊。\n好强大的行动力。</t>
-  </si>
-  <si>
-    <t>“希望菜没事。”+-3+8</t>
-  </si>
-  <si>
-    <t>禁止一脸自暴自弃！\n直觉告诉我，我的菜很不错！</t>
-  </si>
-  <si>
-    <t>哈喽！沙袋。</t>
-  </si>
-  <si>
-    <t>一拳揍飞+2032</t>
-  </si>
-  <si>
-    <t>停下！不许这样\n一脸开朗地喊我沙袋！</t>
-  </si>
-  <si>
-    <t>呃啊。\n那我换一个悲伤的表情？</t>
-  </si>
-  <si>
-    <t>这不重要！\n重要的是我不喜欢！</t>
-  </si>
-  <si>
-    <t>呜呜…那你喜欢什么？</t>
-  </si>
-  <si>
-    <t>我喜欢被称作\n“小甜甜”。</t>
-  </si>
-  <si>
-    <t>哇哦。</t>
-  </si>
-  <si>
-    <t>小甜甜</t>
-  </si>
-  <si>
-    <t>禁止一脸见鬼的表情！\n这个名字简直就是为我量身定做的！</t>
-  </si>
-  <si>
-    <t>是、是这样哦？\n那…</t>
-  </si>
-  <si>
-    <t>“小在哪里？”+2042;“甜在哪里？”+2055</t>
-  </si>
-  <si>
-    <t>这都看不出来吗？\n我的外皮里，有大约80%的空心。</t>
-  </si>
-  <si>
-    <t>真看不出来。</t>
-  </si>
-  <si>
-    <t>可恶，你这个愚钝的家伙！\n眼力不好的话，想想其他办法啊！</t>
-  </si>
-  <si>
-    <t>唔唔…既然你有这么多空心。\n那么不需要很大的力，也能飞起来吧。</t>
-  </si>
-  <si>
-    <t>轻轻地给你一拳！+2048</t>
-  </si>
-  <si>
-    <t>哇哦。\n飞得很高耶。</t>
-  </si>
-  <si>
-    <t>那你慢慢咯。\n我还有别的事要忙呢。</t>
-  </si>
-  <si>
-    <t>这不是显而易见的吗？你看，\n我的外皮里，装的都是白砂糖。</t>
-  </si>
-  <si>
-    <t>这很难看出来吧！</t>
-  </si>
-  <si>
-    <t>唔唔…白砂糖啊，\n倒是很适合做菜。</t>
-  </si>
-  <si>
-    <t>“那就跟我一起走吧。甜或者不甜，做成菜就清楚了。”+-3+8</t>
-  </si>
-  <si>
-    <t>这主意不错。\n什么嘛，你也有聪明的时候。</t>
-  </si>
-  <si>
-    <t>呃啊。\n真不想听你说话。</t>
-  </si>
-  <si>
-    <t># 推门5，次数1</t>
-  </si>
-  <si>
-    <t>……</t>
-  </si>
-  <si>
-    <t>………………</t>
-  </si>
-  <si>
-    <t>干嘛在我面前发呆？\n不说话就走远点！</t>
-  </si>
-  <si>
-    <t>我在进行严肃而漫长的思考。</t>
-  </si>
-  <si>
-    <t>如果有谁看着像沙袋，行为也像沙袋，\n但它的思想不是沙袋，那它究竟是不是沙袋呢？</t>
-  </si>
-  <si>
-    <t>这话好绕啊！不理解你在纠结什么，\n沙袋不沙袋的，有这么重要吗？</t>
-  </si>
-  <si>
-    <t>很重要啊。这直接关系到，\n在你说话的时候，对话框里显示的是什么名字。</t>
-  </si>
-  <si>
-    <t>你说的这个对话框，\n显示的是我的本质吗？</t>
-  </si>
-  <si>
-    <t>我想，是的？</t>
-  </si>
-  <si>
-    <t>才不是！如果真的如你所说，那在对话框里显示的\n应该是“空心白砂糖袋”！才不会是什么“沙袋”！</t>
-  </si>
-  <si>
-    <t>你看到的名字，\n只是你主观上对我打的标签罢了。</t>
-  </si>
-  <si>
-    <t>听上去可真令人失落。\n我还以为我会有一些超游的能力呢，结果好像知道最少的就是我。</t>
-  </si>
-  <si>
-    <t>喂、喂喂！怎么就消沉下去了？\n行不行啊你？</t>
-  </si>
-  <si>
-    <t>才怪啦！你以为你会影响到我吗？\n这是永远不可能的！在这个世界里，只有我影响你才是被允许的！</t>
-  </si>
-  <si>
-    <t>废话太多了，一拳揍飞吧！+2081;“废话停止！再不回归主线就没时间了！”+2084</t>
-  </si>
-  <si>
-    <t>呼。</t>
-  </si>
-  <si>
-    <t>是吵架吵不过\n就强行切换话题的类型呢。</t>
-  </si>
-  <si>
-    <t>随便你怎么说啦！</t>
-  </si>
-  <si>
-    <t>“跟我走！”+-3+8</t>
-  </si>
-  <si>
-    <t># 推门6，次数1</t>
-  </si>
-  <si>
-    <t>事到如今，我还有最后一个问题。</t>
-  </si>
-  <si>
-    <t>什么叫“最后”？说得好像你问过很多问题一样。\n我们见过面吗？</t>
-  </si>
-  <si>
-    <t>这不重要。重要的是…\n身为沙袋的你，不当沙袋也是被允许的吗？</t>
-  </si>
-  <si>
-    <t>这不是显而易见的吗？\n有哪条法律规定，沙袋必须当沙袋吗？</t>
-  </si>
-  <si>
-    <t>好费解，为什么我要和一个沙袋讨论法律？\n抛开法律不谈，总会有其他因素需要考虑吧？</t>
-  </si>
-  <si>
-    <t>比方说…道德？\n会有其他沙袋骂你吗？比如“你这个败坏沙袋形象的坏东西！”</t>
-  </si>
-  <si>
-    <t>我也很费解，\n为什么你要和一个沙袋讨论道德。</t>
-  </si>
-  <si>
-    <t>唔唔…用我说过的话来反击我吗？\n真是无懈可击。</t>
-  </si>
-  <si>
-    <t>那就这样吧！\n是时候回去跑主线了。</t>
-  </si>
-  <si>
-    <t>为了主线，还是得一拳揍飞！+2102;“为了我的主线，跟我走吧！我们一起去死。”+2105</t>
-  </si>
-  <si>
-    <t>要怪就怪\n你挡在路中心了吧。</t>
-  </si>
-  <si>
-    <t>让我费解的对话又出现了。\n但不重要！反正我也不想当沙袋了。</t>
-  </si>
-  <si>
-    <t>虽然我并不觉得，\n当菜要比当沙袋好。</t>
-  </si>
-  <si>
-    <t>“但不重要！重要的是你喜欢。”+-3+8</t>
-  </si>
-  <si>
     <t># 推门3，次数1</t>
   </si>
   <si>
-    <t># 推门4，次数1</t>
-  </si>
-  <si>
-    <t># 推门7及以后</t>
-  </si>
-  <si>
     <t>%s_EvilSmile</t>
   </si>
   <si>
     <t>%s_EvilYeah</t>
   </si>
   <si>
-    <t>Sandbag_0</t>
-  </si>
-  <si>
     <t>%s_EvilAsk</t>
   </si>
   <si>
@@ -362,13 +92,415 @@
   </si>
   <si>
     <t>%s_EvilThink</t>
+  </si>
+  <si>
+    <t>一拳揍飞+3001</t>
+  </si>
+  <si>
+    <t>沙袋！</t>
+  </si>
+  <si>
+    <t>等、等等等等一等！\n不要揍我呜哇哇哇哇哇——！</t>
+  </si>
+  <si>
+    <t>Lemon_HangShake</t>
+  </si>
+  <si>
+    <t>Lemon_VCry</t>
+  </si>
+  <si>
+    <t>沙袋？</t>
+  </si>
+  <si>
+    <t>你看我挂在这里，心里一定在想：\n“哇哦~有个沙袋~~揍一下~~~”——一定是这样的吧！</t>
+  </si>
+  <si>
+    <t>Lemon_Cry</t>
+  </si>
+  <si>
+    <t>没有啦！\n我说话才不会用波浪号。</t>
+  </si>
+  <si>
+    <t>但是呢，我不是沙袋！\n就算我挂在这里一百分钟，也不会变成沙袋！</t>
+  </si>
+  <si>
+    <t>Lemon_HangJump</t>
+  </si>
+  <si>
+    <t>可是，有这样一句名言：\n如果有谁看着像沙袋，行为也像沙袋，那它就是沙袋啦！</t>
+  </si>
+  <si>
+    <t>所以一拳揍飞！+3007;“所以你还有最后一次狡辩的机会哦。”+3015</t>
+  </si>
+  <si>
+    <t>呜啊————————————————————————————</t>
+  </si>
+  <si>
+    <t>Lemon_HangFly</t>
+  </si>
+  <si>
+    <t>啊。\n粘在天花板上了。</t>
+  </si>
+  <si>
+    <t>哈喽——\n还活着吗——</t>
+  </si>
+  <si>
+    <t>好像变成了生死不明的情况耶。</t>
+  </si>
+  <si>
+    <t>唔唔…</t>
+  </si>
+  <si>
+    <t>就当无事发生吧！</t>
+  </si>
+  <si>
+    <t>沙袋…</t>
+  </si>
+  <si>
+    <t>呜呜…人家真的不是沙袋…</t>
+  </si>
+  <si>
+    <t>Lemon_Sad</t>
+  </si>
+  <si>
+    <t>对、对了！\n我想到了一个很有力的证据！</t>
+  </si>
+  <si>
+    <t>我的身上，有一种即将腐坏的气味！\n这种气味只有生物才会有哦！</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>沙袋那种非生物，是不会有的！\n所以快点过来，闻一闻你就明白了！</t>
+  </si>
+  <si>
+    <t>Lemon_HangLand</t>
+  </si>
+  <si>
+    <t>才不要，我又不是变态。</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇——这是、这是唯一一个证据了——\n已经没有其他办法，证明我不是沙袋了…</t>
+  </si>
+  <si>
+    <t>嗯？你是什么时候下来的？\n话说回来，原来你是可以下来的吗？</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇哇哇哇哇…</t>
+  </si>
+  <si>
+    <t>好啦，不许哭了，烦死了。\n你都没有像沙袋一样挂着了，不就已经证明你不是沙袋了吗？</t>
+  </si>
+  <si>
+    <t>恭喜你啦，\n是你取得了辩论的胜利哦！</t>
+  </si>
+  <si>
+    <t>诶、诶诶、诶诶诶？\n是我吗？！是我的胜利！</t>
+  </si>
+  <si>
+    <t>嘿…嘿嘿嘿…我胜利了…\n嘿嘿…谢谢你哦，这可是我第一次获得胜利呢。</t>
+  </si>
+  <si>
+    <t>Lemon_Smile</t>
+  </si>
+  <si>
+    <t>哇哦——好感人——那就\n让气氛再热烈一点吧——此处应有雷鸣般的掌声——</t>
+  </si>
+  <si>
+    <t>呱唧呱唧呱唧呱唧呱唧呱唧呱唧呱唧！</t>
+  </si>
+  <si>
+    <t>Lemon_VSmile</t>
+  </si>
+  <si>
+    <t>现在，要为胜利者颁发奖励了哦——</t>
+  </si>
+  <si>
+    <t>呜呼~呜呼~~呜呼~~~</t>
+  </si>
+  <si>
+    <t>奖励就是——\n当当当当！是陪我一起去死的资格哦！</t>
+  </si>
+  <si>
+    <t>诶？</t>
+  </si>
+  <si>
+    <t>奖励当场发放，请及时查收！\n如果有疑问，也可以继续找本人辩论。</t>
+  </si>
+  <si>
+    <t>不过今天已经没有时间了啦。\n我要走咯，不跟上来的话，就当你不接受这个奖励了。</t>
+  </si>
+  <si>
+    <t>接受！当然接受！\n这可是我第一次得到奖励呢！</t>
+  </si>
+  <si>
+    <t>还挺爽快嘛，我喜欢。</t>
+  </si>
+  <si>
+    <t>“那我们就是一起去死的同伴了哦！”+-3+5</t>
+  </si>
+  <si>
+    <t>哦哦哦——！！\n这可是我第一次拥有同伴呢！</t>
+  </si>
+  <si>
+    <t>一拳揍飞！+3050</t>
+  </si>
+  <si>
+    <t>等、等等等等一等！\n不要揍我——！</t>
+  </si>
+  <si>
+    <t>哎呀，为什么呢？\n沙袋不就是用来揍的吗？</t>
+  </si>
+  <si>
+    <t>还是说，其实你不是沙袋，\n而是一个抄袭沙袋特色的copy精？</t>
+  </si>
+  <si>
+    <t>不是沙袋</t>
+  </si>
+  <si>
+    <t>我不是copy精！也不是沙袋！\n重复一遍，我不是copy精！！</t>
+  </si>
+  <si>
+    <t>看来比起被当成沙袋，\n还是被当成copy精更难接受一点。</t>
+  </si>
+  <si>
+    <t>那我换个说法好了啦。不是沙袋却又像沙袋一样挂着，\n你是在玩什么cosplay吗？感觉品味好差哦。</t>
+  </si>
+  <si>
+    <t>呜呜呜…也不是cosplay！\n不过品味很差的cosplayer，听起来比copy精要好一点。</t>
+  </si>
+  <si>
+    <t>Lemon_VSad</t>
+  </si>
+  <si>
+    <t>这也不是、那也不是。\n感觉我提出的一百个可能性，会被你否定掉一百个耶。</t>
+  </si>
+  <si>
+    <t>大家的时间都很宝贵啦！\n再不说一点有营养的话题，大家就会跑去玩其他游戏了。</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+  </si>
+  <si>
+    <t>呜…！好、好好、好好好的！收到！没问题！\n首先，我是柠檬！</t>
+  </si>
+  <si>
+    <t>哇哦。\n真是一句一目了然的废话。</t>
+  </si>
+  <si>
+    <t>呜呜…我把自己像沙袋一样挂起来，\n是因为，大家看到沙袋，就会很想揍的吧！</t>
+  </si>
+  <si>
+    <t>所以还是想被揍嘛！\n那你一开始干嘛阻止我？</t>
+  </si>
+  <si>
+    <t>因为被揍很疼！</t>
+  </si>
+  <si>
+    <t>%s_EvilErr</t>
+  </si>
+  <si>
+    <t>才才才不是废话！这涉及到了\n一颗柠檬的，脆弱的、迷茫的、疼痛的内心…！</t>
+  </si>
+  <si>
+    <t>跳过这段剧情吧。\n我要去别的地方玩了。</t>
+  </si>
+  <si>
+    <t>%s_EvilScold</t>
+  </si>
+  <si>
+    <t>不要走！不要走！！\n前略！后略！总之！我想变得香香的！所以！才想着被揍！</t>
+  </si>
+  <si>
+    <t>啊？</t>
+  </si>
+  <si>
+    <t>%s_EvilShock</t>
+  </si>
+  <si>
+    <t>对啦…你又不是柠檬，你是不会懂的。\n有一个传说是：只要柠檬被暴打，就能变香哦！</t>
+  </si>
+  <si>
+    <t>Lemon_Pain</t>
+  </si>
+  <si>
+    <t>你确定这是传说，\n而不是什么冷笑话吗？</t>
+  </si>
+  <si>
+    <t>都说了你是不会懂的啦！\n呜呜…我说完了。真相就是这么简单、无聊，就和我一样…</t>
+  </si>
+  <si>
+    <t>我听明白了。你想变香，所以想被暴打，于是cos沙袋。\n但又怕疼，所以不准我揍你。</t>
+  </si>
+  <si>
+    <t>哇！你很会总结嘛！</t>
+  </si>
+  <si>
+    <t>好麻烦啊你这个柠檬。\n既然这样的话，自己打自己不就好了吗？</t>
+  </si>
+  <si>
+    <t>可是我的手臂很柔弱，\n打不动自己呢。</t>
+  </si>
+  <si>
+    <t>呃啊…麻烦死了。</t>
+  </si>
+  <si>
+    <t>长痛不如短痛，给你一拳！+3080;“必须要变香吗？你看我，就一点都不香。”+3085</t>
+  </si>
+  <si>
+    <t>嗯…\n看来粘在天花板上了。</t>
+  </si>
+  <si>
+    <t>走了走了，耽误太久了！</t>
+  </si>
+  <si>
+    <t>当然是必须的！这涉及到了\n一颗柠檬的，脆弱的、迷茫的、疼痛的内心…！</t>
+  </si>
+  <si>
+    <t>给我直接说结论啦！</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇——不要凶我——\n前略，后略，总之！我快坏了，感觉马上就会飘出腐烂的气味了…</t>
+  </si>
+  <si>
+    <t>呜呜…我担心…被精致漂亮的伙伴…嘲笑…说我闻起来像…\n上世纪死去的爷爷…垃圾场底的赝品古董…烂在土里的棺材…</t>
+  </si>
+  <si>
+    <t>呃啊。好具体的担心。</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇哇哇哇哇哇哇哇——\n讨厌！太讨厌了！又不是我想要坏的！干嘛自顾自的就坏了啊！</t>
+  </si>
+  <si>
+    <t>不要突然这么激动啦！</t>
+  </si>
+  <si>
+    <t>“要不要出门干点别的？就当换换心情了。”+3095;“干嘛这么讨厌自己？我就挺喜欢你的。”+3110</t>
+  </si>
+  <si>
+    <t>出门？我都没有出过门耶…</t>
+  </si>
+  <si>
+    <t>那你的精致漂亮伙伴\n是从哪里冒出来的啦！</t>
+  </si>
+  <si>
+    <t>我、我想出门！难怪之前\n都没人进来揍我，原来是因为我没有出过门啊！</t>
+  </si>
+  <si>
+    <t>我醒悟了！\n被揍，呃呃，无痛的那种！是要自己走出门争取的！</t>
+  </si>
+  <si>
+    <t>别惦记你那被揍了啦！</t>
+  </si>
+  <si>
+    <t>“跟我来！”+-3+5</t>
+  </si>
+  <si>
+    <t>呜…</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇\n呜哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇</t>
+  </si>
+  <si>
+    <t>我不信！我是脆弱的、迷茫的、疼痛的柠檬！我要你证明给我看！\n不然…呜呜…你就是在欺骗我…我就会更加脆弱…更加迷茫…更加…</t>
+  </si>
+  <si>
+    <t>别念了别念了…</t>
+  </si>
+  <si>
+    <t>“那就证明给你看。”+-2+5</t>
+  </si>
+  <si>
+    <t>如何？</t>
+  </si>
+  <si>
+    <t>（？？？！！！￥&amp;%*）</t>
+  </si>
+  <si>
+    <t>Lemon_Dark</t>
+  </si>
+  <si>
+    <t>这下你可以安心了吧。\n我都喜欢到变成你了。</t>
+  </si>
+  <si>
+    <t>（？！？！？！￥&amp;%。+$^QAQ）</t>
+  </si>
+  <si>
+    <t>你去冷静一会啦！\n我都搞不懂你想表达什么了。</t>
+  </si>
+  <si>
+    <t>那我继续主线咯。\n在这儿也耽误太久了。</t>
+  </si>
+  <si>
+    <t>你知道吗，就算是沙袋，\n也不会喜欢被揍哦！</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>这可是我发现的独家秘密，现在告诉你了。\n你打算用什么来报答我呀？</t>
+  </si>
+  <si>
+    <t>独、独家？！意思是只告诉了我？\n呜呜呜…你好好哦！这可是我第一次成为谁的“唯一”呢…</t>
+  </si>
+  <si>
+    <t>不许肉麻！不许废话！\n快点想一个报答我的方案啦！</t>
+  </si>
+  <si>
+    <t>呜…！可是，我什么都没有…\n我只有一颗柠檬的，脆弱的…</t>
+  </si>
+  <si>
+    <t>“——迷茫的、疼痛的内心”…对吧？\n别念叨了，我都会背了。</t>
+  </si>
+  <si>
+    <t>诶？我、我有念过很多次吗？\n难道，你以前见过我？</t>
+  </si>
+  <si>
+    <t>啊啊，可能，上一周目吧？\n这都不重要，既然你没有想法，就由我来指定报答方案吧——</t>
+  </si>
+  <si>
+    <t>“跟我走，我去哪儿，你就得去哪儿。”+3210;“把你身体借我用用呗？我还挺喜欢柠檬的。”+3218</t>
+  </si>
+  <si>
+    <t>这、这这、这这这难道是表白吗？！\n莫非…你觉醒了前世的记忆！而我们，曾经是一对感天动地的情侣！</t>
+  </si>
+  <si>
+    <t>Lemon_Calm</t>
+  </si>
+  <si>
+    <t>不好意思啊，\n我是独身主义。</t>
+  </si>
+  <si>
+    <t>喔喔…</t>
+  </si>
+  <si>
+    <t>没时间废话了啦。</t>
+  </si>
+  <si>
+    <t>“要做的事还有很多呢！”+-3+5</t>
+  </si>
+  <si>
+    <t>这、这这、这这这种表白方式，\n听起来有点过于新潮了？！</t>
+  </si>
+  <si>
+    <t>但我是不会拒绝的！\n这可是我第一次被表白呢！</t>
+  </si>
+  <si>
+    <t>好吧，如果这么理解\n能让你开心的话。</t>
+  </si>
+  <si>
+    <t>“总之，身体就借我一用啦！”+-2+5</t>
+  </si>
+  <si>
+    <t># 推门4及以后</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="等线"/>
@@ -401,6 +533,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -431,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -787,7 +928,7 @@
     <col min="4" max="4" width="58.453125" customWidth="1"/>
     <col min="5" max="5" width="53.36328125" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" customWidth="1"/>
     <col min="10" max="10" width="12.7265625" customWidth="1"/>
@@ -844,17 +985,17 @@
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -866,7 +1007,9 @@
       <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>3001</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,14 +1017,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4">
@@ -894,26 +1037,26 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="4">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="B4" s="4">
-        <v>-1</v>
+        <v>3002</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>108</v>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4">
@@ -925,45 +1068,59 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3003</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>3003</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3004</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="4">
@@ -972,28 +1129,30 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4">
-        <v>2004</v>
+        <v>3004</v>
       </c>
       <c r="B7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>3005</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>108</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="4">
@@ -1002,45 +1161,61 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="4" t="s">
-        <v>104</v>
+      <c r="A8" s="4">
+        <v>3005</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>3007</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3008</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="4">
@@ -1049,28 +1224,28 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="4">
-        <v>2007</v>
+        <v>3008</v>
       </c>
       <c r="B10" s="4">
-        <v>2008</v>
+        <v>3009</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
-        <v>109</v>
+      <c r="G10" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="4">
@@ -1079,28 +1254,28 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4">
-        <v>2008</v>
+        <v>3009</v>
       </c>
       <c r="B11" s="4">
-        <v>2009</v>
+        <v>3010</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
-        <v>110</v>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="4">
@@ -1109,28 +1284,28 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="4">
-        <v>2009</v>
+        <v>3010</v>
       </c>
       <c r="B12" s="4">
-        <v>2010</v>
+        <v>3011</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="4" t="s">
-        <v>109</v>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="4">
@@ -1140,28 +1315,28 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4">
-        <v>2010</v>
+        <v>3011</v>
       </c>
       <c r="B13" s="4">
-        <v>2011</v>
+        <v>3012</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
-        <v>107</v>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="4">
@@ -1170,28 +1345,28 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4">
-        <v>2011</v>
+        <v>3012</v>
       </c>
       <c r="B14" s="4">
-        <v>2012</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="4" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="4">
@@ -1207,28 +1382,28 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="4">
-        <v>2012</v>
+        <v>3015</v>
       </c>
       <c r="B15" s="4">
-        <v>2013</v>
+        <v>3016</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="8" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="4">
@@ -1244,28 +1419,30 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="4">
-        <v>2013</v>
+        <v>3016</v>
       </c>
       <c r="B16" s="4">
-        <v>2014</v>
+        <v>3017</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>109</v>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="4">
@@ -1274,28 +1451,28 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4">
-        <v>2014</v>
+        <v>3017</v>
       </c>
       <c r="B17" s="4">
-        <v>2015</v>
+        <v>3018</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="4" t="s">
-        <v>109</v>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="4">
@@ -1304,28 +1481,30 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>3018</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3019</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G18" s="8" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="4">
@@ -1334,30 +1513,28 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4">
-        <v>2016</v>
+        <v>3019</v>
       </c>
       <c r="B19" s="4">
-        <v>-1</v>
+        <v>3020</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>107</v>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="4">
@@ -1366,28 +1543,28 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4">
-        <v>2019</v>
+        <v>3020</v>
       </c>
       <c r="B20" s="4">
-        <v>2020</v>
+        <v>3021</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="4" t="s">
-        <v>109</v>
+      <c r="G20" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="4">
@@ -1396,28 +1573,28 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4">
-        <v>2020</v>
+        <v>3021</v>
       </c>
       <c r="B21" s="4">
-        <v>2021</v>
+        <v>3022</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>107</v>
+      <c r="G21" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="4">
@@ -1426,28 +1603,28 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4">
-        <v>2021</v>
+        <v>3022</v>
       </c>
       <c r="B22" s="4">
-        <v>2022</v>
+        <v>3023</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
-        <v>109</v>
+      <c r="G22" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="4">
@@ -1456,28 +1633,28 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4">
-        <v>2022</v>
+        <v>3023</v>
       </c>
       <c r="B23" s="4">
-        <v>2023</v>
+        <v>3024</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
-        <v>109</v>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="4">
@@ -1486,28 +1663,28 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4">
-        <v>2023</v>
+        <v>3024</v>
       </c>
       <c r="B24" s="4">
-        <v>2024</v>
+        <v>3025</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="8" t="s">
-        <v>112</v>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="4">
@@ -1516,30 +1693,28 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4">
-        <v>2024</v>
+        <v>3025</v>
       </c>
       <c r="B25" s="4">
-        <v>2025</v>
+        <v>3026</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>109</v>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="4">
@@ -1548,30 +1723,28 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4">
-        <v>2025</v>
+        <v>3026</v>
       </c>
       <c r="B26" s="4">
-        <v>2028</v>
+        <v>3027</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="8" t="s">
-        <v>112</v>
+      <c r="G26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="4">
@@ -1580,28 +1753,28 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4">
-        <v>2028</v>
+        <v>3027</v>
       </c>
       <c r="B27" s="4">
-        <v>-1</v>
+        <v>3028</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="4" t="s">
-        <v>109</v>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="4">
@@ -1609,45 +1782,59 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="4">
+        <v>3028</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3029</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>3029</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3030</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="4" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="4">
@@ -1656,28 +1843,28 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4">
-        <v>2032</v>
+        <v>3030</v>
       </c>
       <c r="B30" s="4">
-        <v>2033</v>
+        <v>3031</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="4" t="s">
-        <v>109</v>
+      <c r="G30" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="4">
@@ -1686,28 +1873,28 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4">
-        <v>2033</v>
+        <v>3031</v>
       </c>
       <c r="B31" s="4">
-        <v>2034</v>
+        <v>3032</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8" t="s">
-        <v>112</v>
+      <c r="G31" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="4">
@@ -1716,28 +1903,28 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4">
-        <v>2034</v>
+        <v>3032</v>
       </c>
       <c r="B32" s="4">
-        <v>2035</v>
+        <v>3033</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="4" t="s">
-        <v>109</v>
+      <c r="G32" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="4">
@@ -1746,28 +1933,28 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4">
-        <v>2035</v>
+        <v>3033</v>
       </c>
       <c r="B33" s="4">
-        <v>2036</v>
+        <v>3034</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8" t="s">
-        <v>112</v>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="4">
@@ -1776,28 +1963,28 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4">
-        <v>2036</v>
+        <v>3034</v>
       </c>
       <c r="B34" s="4">
-        <v>2037</v>
+        <v>3035</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="4" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="4">
@@ -1806,28 +1993,28 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4">
-        <v>2037</v>
+        <v>3035</v>
       </c>
       <c r="B35" s="4">
-        <v>2038</v>
+        <v>3036</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="8" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="4">
@@ -1836,28 +2023,30 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4">
-        <v>2038</v>
+        <v>3036</v>
       </c>
       <c r="B36" s="4">
-        <v>2039</v>
+        <v>3040</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="4" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="4">
@@ -1866,28 +2055,28 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4">
-        <v>2039</v>
-      </c>
-      <c r="B37" s="4"/>
+        <v>3040</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-1</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="8" t="s">
-        <v>110</v>
+      <c r="G37" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="4">
@@ -1895,59 +2084,45 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4">
-        <v>2042</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2043</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="4">
-        <v>4</v>
-      </c>
+      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="4">
-        <v>1</v>
-      </c>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4">
-        <v>2043</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="8" t="s">
-        <v>110</v>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="4">
@@ -1956,28 +2131,30 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4">
-        <v>2044</v>
+        <v>3050</v>
       </c>
       <c r="B40" s="4">
-        <v>2045</v>
+        <v>3051</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4" t="s">
-        <v>109</v>
+      <c r="F40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="4">
@@ -1986,28 +2163,28 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="4">
-        <v>2045</v>
-      </c>
-      <c r="B41" s="5"/>
+        <v>3051</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3052</v>
+      </c>
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="4" t="s">
-        <v>107</v>
+      <c r="G41" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="4">
@@ -2016,30 +2193,28 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="4">
-        <v>2048</v>
+        <v>3052</v>
       </c>
       <c r="B42" s="4">
-        <v>2049</v>
+        <v>3053</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>108</v>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="4">
@@ -2048,28 +2223,30 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="4">
-        <v>2049</v>
+        <v>3053</v>
       </c>
       <c r="B43" s="4">
-        <v>-1</v>
+        <v>3054</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4" t="s">
-        <v>107</v>
+      <c r="F43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="4">
@@ -2078,30 +2255,28 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="4">
-        <v>2055</v>
+        <v>3054</v>
       </c>
       <c r="B44" s="4">
-        <v>2056</v>
+        <v>3055</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>109</v>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="4">
@@ -2110,28 +2285,28 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="4">
-        <v>2056</v>
+        <v>3055</v>
       </c>
       <c r="B45" s="4">
-        <v>2057</v>
+        <v>3056</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="8" t="s">
-        <v>110</v>
+      <c r="G45" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="4">
@@ -2140,28 +2315,28 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="4">
-        <v>2057</v>
+        <v>3056</v>
       </c>
       <c r="B46" s="4">
-        <v>2058</v>
+        <v>3057</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="4" t="s">
-        <v>109</v>
+      <c r="G46" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="4">
@@ -2170,30 +2345,28 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="4">
-        <v>2058</v>
+        <v>3057</v>
       </c>
       <c r="B47" s="4">
-        <v>2062</v>
+        <v>3058</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="8" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="4">
@@ -2202,28 +2375,28 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="4">
-        <v>2062</v>
+        <v>3058</v>
       </c>
       <c r="B48" s="4">
-        <v>2063</v>
+        <v>3059</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="4" t="s">
-        <v>109</v>
+      <c r="G48" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="4">
@@ -2232,28 +2405,30 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="4">
-        <v>2063</v>
+        <v>3059</v>
       </c>
       <c r="B49" s="4">
-        <v>-1</v>
+        <v>3060</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G49" s="8" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="4">
@@ -2261,45 +2436,59 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="4">
+        <v>3060</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3061</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5"/>
+      <c r="G50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="J50" s="4">
+        <v>2</v>
+      </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="4">
-        <v>0</v>
+        <v>3061</v>
       </c>
       <c r="B51" s="4">
-        <v>2066</v>
+        <v>3062</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="4" t="s">
-        <v>107</v>
+      <c r="G51" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="4">
@@ -2308,28 +2497,28 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="4">
-        <v>2066</v>
+        <v>3062</v>
       </c>
       <c r="B52" s="4">
-        <v>2067</v>
+        <v>3063</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="4" t="s">
-        <v>109</v>
+      <c r="G52" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="4">
@@ -2338,28 +2527,28 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="4">
-        <v>2067</v>
+        <v>3063</v>
       </c>
       <c r="B53" s="4">
-        <v>2068</v>
+        <v>3064</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="8" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="4">
@@ -2368,28 +2557,28 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="4">
-        <v>2068</v>
+        <v>3064</v>
       </c>
       <c r="B54" s="4">
-        <v>2069</v>
+        <v>3065</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="4" t="s">
-        <v>109</v>
+      <c r="G54" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="4">
@@ -2398,28 +2587,30 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="4">
-        <v>2069</v>
+        <v>3065</v>
       </c>
       <c r="B55" s="4">
-        <v>2070</v>
+        <v>3066</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G55" s="8" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="4">
@@ -2428,28 +2619,28 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="4">
-        <v>2070</v>
+        <v>3066</v>
       </c>
       <c r="B56" s="4">
-        <v>2071</v>
+        <v>3067</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="4">
@@ -2458,28 +2649,30 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="4">
-        <v>2071</v>
+        <v>3067</v>
       </c>
       <c r="B57" s="4">
-        <v>2072</v>
+        <v>3068</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="4" t="s">
-        <v>109</v>
+      <c r="F57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K57" s="5"/>
       <c r="L57" s="4">
@@ -2488,28 +2681,28 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="4">
-        <v>2072</v>
+        <v>3068</v>
       </c>
       <c r="B58" s="4">
-        <v>2073</v>
+        <v>3069</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="4" t="s">
-        <v>107</v>
+      <c r="G58" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="4">
@@ -2518,28 +2711,28 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="4">
-        <v>2073</v>
+        <v>3069</v>
       </c>
       <c r="B59" s="4">
-        <v>2074</v>
+        <v>3070</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="4" t="s">
-        <v>109</v>
+      <c r="G59" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="4">
@@ -2548,28 +2741,28 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="4">
-        <v>2074</v>
+        <v>3070</v>
       </c>
       <c r="B60" s="4">
-        <v>2075</v>
+        <v>3071</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="4">
@@ -2578,28 +2771,28 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="4">
-        <v>2075</v>
+        <v>3071</v>
       </c>
       <c r="B61" s="4">
-        <v>2076</v>
+        <v>3072</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="4" t="s">
-        <v>109</v>
+      <c r="G61" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="4">
@@ -2608,28 +2801,28 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="4">
-        <v>2076</v>
+        <v>3072</v>
       </c>
       <c r="B62" s="4">
-        <v>2077</v>
+        <v>3073</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="4" t="s">
-        <v>109</v>
+      <c r="G62" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K62" s="5"/>
       <c r="L62" s="4">
@@ -2638,28 +2831,28 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="4">
-        <v>2077</v>
+        <v>3073</v>
       </c>
       <c r="B63" s="4">
-        <v>2078</v>
+        <v>3074</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="8" t="s">
-        <v>112</v>
+      <c r="G63" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="4">
@@ -2668,28 +2861,28 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="4">
-        <v>2078</v>
+        <v>3074</v>
       </c>
       <c r="B64" s="4">
-        <v>2079</v>
+        <v>3075</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="4" t="s">
-        <v>109</v>
+      <c r="G64" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="4">
@@ -2698,28 +2891,28 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="4">
-        <v>2079</v>
-      </c>
-      <c r="B65" s="5"/>
+        <v>3075</v>
+      </c>
+      <c r="B65" s="4">
+        <v>3076</v>
+      </c>
       <c r="C65" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="4">
@@ -2728,30 +2921,28 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="4">
-        <v>2081</v>
-      </c>
-      <c r="B66" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H66" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="4">
@@ -2760,30 +2951,30 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="4">
-        <v>2084</v>
+        <v>3080</v>
       </c>
       <c r="B67" s="4">
-        <v>2085</v>
+        <v>3081</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="4">
@@ -2792,30 +2983,28 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="4">
-        <v>2085</v>
+        <v>3081</v>
       </c>
       <c r="B68" s="4">
-        <v>-1</v>
+        <v>3082</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="4" t="s">
-        <v>107</v>
+      <c r="G68" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="4">
@@ -2823,45 +3012,61 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="A69" s="4">
+        <v>3082</v>
+      </c>
+      <c r="B69" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="5"/>
+      <c r="G69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="J69" s="4">
+        <v>2</v>
+      </c>
       <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="4">
-        <v>0</v>
+        <v>3085</v>
       </c>
       <c r="B70" s="4">
-        <v>2090</v>
+        <v>3086</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="4" t="s">
-        <v>107</v>
+      <c r="F70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="4">
@@ -2870,28 +3075,28 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="4">
-        <v>2090</v>
+        <v>3086</v>
       </c>
       <c r="B71" s="4">
-        <v>2091</v>
+        <v>3087</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="4" t="s">
-        <v>109</v>
+      <c r="G71" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="4">
@@ -2900,28 +3105,28 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="4">
-        <v>2091</v>
+        <v>3087</v>
       </c>
       <c r="B72" s="4">
-        <v>2092</v>
+        <v>3088</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="4" t="s">
-        <v>107</v>
+      <c r="G72" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="4">
@@ -2930,28 +3135,28 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="4">
-        <v>2092</v>
+        <v>3088</v>
       </c>
       <c r="B73" s="4">
-        <v>2093</v>
+        <v>3089</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="4" t="s">
-        <v>109</v>
+      <c r="G73" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K73" s="5"/>
       <c r="L73" s="4">
@@ -2960,28 +3165,28 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4">
-        <v>2093</v>
+        <v>3089</v>
       </c>
       <c r="B74" s="4">
-        <v>2094</v>
+        <v>3090</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="8" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="4">
@@ -2990,28 +3195,30 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4">
-        <v>2094</v>
+        <v>3090</v>
       </c>
       <c r="B75" s="4">
-        <v>2095</v>
+        <v>3091</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="4" t="s">
-        <v>109</v>
+      <c r="F75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K75" s="5"/>
       <c r="L75" s="4">
@@ -3020,28 +3227,28 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="4">
-        <v>2095</v>
-      </c>
-      <c r="B76" s="4">
-        <v>2096</v>
-      </c>
+        <v>3091</v>
+      </c>
+      <c r="B76" s="5"/>
       <c r="C76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="F76" s="5"/>
       <c r="G76" s="8" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="4">
@@ -3050,28 +3257,28 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="4">
-        <v>2096</v>
+        <v>3095</v>
       </c>
       <c r="B77" s="4">
-        <v>2097</v>
+        <v>3096</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="8" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="4">
@@ -3080,28 +3287,28 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="4">
-        <v>2097</v>
+        <v>3096</v>
       </c>
       <c r="B78" s="4">
-        <v>2098</v>
+        <v>3097</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="4" t="s">
-        <v>109</v>
+      <c r="G78" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="4">
@@ -3110,28 +3317,30 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="4">
-        <v>2098</v>
+        <v>3097</v>
       </c>
       <c r="B79" s="4">
-        <v>2099</v>
+        <v>3098</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="8" t="s">
-        <v>112</v>
+      <c r="F79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="4">
@@ -3140,28 +3349,28 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="4">
-        <v>2099</v>
-      </c>
-      <c r="B80" s="5"/>
+        <v>3098</v>
+      </c>
+      <c r="B80" s="4">
+        <v>3099</v>
+      </c>
       <c r="C80" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="4" t="s">
-        <v>107</v>
+      <c r="G80" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K80" s="5"/>
       <c r="L80" s="4">
@@ -3170,30 +3379,28 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="4">
-        <v>2102</v>
-      </c>
-      <c r="B81" s="4">
-        <v>-1</v>
-      </c>
+        <v>3099</v>
+      </c>
+      <c r="B81" s="5"/>
       <c r="C81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="5"/>
       <c r="G81" s="8" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K81" s="5"/>
       <c r="L81" s="4">
@@ -3202,30 +3409,28 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="4">
-        <v>2105</v>
+        <v>3110</v>
       </c>
       <c r="B82" s="4">
-        <v>2106</v>
+        <v>3111</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E82" s="5"/>
-      <c r="F82" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>109</v>
+      <c r="F82" s="5"/>
+      <c r="G82" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="4">
@@ -3234,30 +3439,30 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="4">
-        <v>2106</v>
+        <v>3111</v>
       </c>
       <c r="B83" s="4">
-        <v>-1</v>
+        <v>3112</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="4" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K83" s="5"/>
       <c r="L83" s="4">
@@ -3265,90 +3470,870 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="A84" s="4">
+        <v>3112</v>
+      </c>
+      <c r="B84" s="4">
+        <v>3113</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="5"/>
+      <c r="F84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
+      <c r="J84" s="4">
+        <v>2</v>
+      </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
+      <c r="L84" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4"/>
+      <c r="A85" s="4">
+        <v>3113</v>
+      </c>
+      <c r="B85" s="4">
+        <v>3120</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="F85" s="5"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="G85" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I85" s="5"/>
-      <c r="J85" s="4"/>
+      <c r="J85" s="4">
+        <v>2</v>
+      </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="4"/>
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="4">
+        <v>3120</v>
+      </c>
+      <c r="B86" s="4">
+        <v>3121</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="4"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I86" s="5"/>
-      <c r="J86" s="4"/>
+      <c r="J86" s="4">
+        <v>2</v>
+      </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="4"/>
+      <c r="L86" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="A87" s="4">
+        <v>3121</v>
+      </c>
+      <c r="B87" s="4">
+        <v>3122</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="4">
+        <v>2</v>
+      </c>
+      <c r="K87" s="5"/>
+      <c r="L87" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="A88" s="4">
+        <v>3122</v>
+      </c>
+      <c r="B88" s="4">
+        <v>3123</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I88" s="5"/>
-      <c r="J88" s="4"/>
+      <c r="J88" s="4">
+        <v>2</v>
+      </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="4"/>
+      <c r="L88" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="A89" s="4">
+        <v>3123</v>
+      </c>
+      <c r="B89" s="4">
+        <v>3124</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+      <c r="G89" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I89" s="5"/>
-      <c r="J89" s="4"/>
+      <c r="J89" s="4">
+        <v>2</v>
+      </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="4"/>
+      <c r="L89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="4">
+        <v>3124</v>
+      </c>
+      <c r="B90" s="4">
+        <v>3125</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="4">
+        <v>2</v>
+      </c>
+      <c r="K90" s="5"/>
+      <c r="L90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="4">
+        <v>3125</v>
+      </c>
+      <c r="B91" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="4">
+        <v>2</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="4">
+        <v>0</v>
+      </c>
+      <c r="B93" s="4">
+        <v>3200</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="4">
+        <v>3</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="4">
+        <v>3200</v>
+      </c>
+      <c r="B94" s="4">
+        <v>3201</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="4">
+        <v>3</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="4">
+        <v>3201</v>
+      </c>
+      <c r="B95" s="4">
+        <v>3202</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="4">
+        <v>3</v>
+      </c>
+      <c r="K95" s="5"/>
+      <c r="L95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="4">
+        <v>3202</v>
+      </c>
+      <c r="B96" s="4">
+        <v>3203</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="4">
+        <v>3</v>
+      </c>
+      <c r="K96" s="5"/>
+      <c r="L96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="4">
+        <v>3203</v>
+      </c>
+      <c r="B97" s="4">
+        <v>3204</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="4">
+        <v>3</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="L97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="4">
+        <v>3204</v>
+      </c>
+      <c r="B98" s="4">
+        <v>3205</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98" s="4">
+        <v>3</v>
+      </c>
+      <c r="K98" s="5"/>
+      <c r="L98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="4">
+        <v>3205</v>
+      </c>
+      <c r="B99" s="4">
+        <v>3206</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="J99" s="4">
+        <v>3</v>
+      </c>
+      <c r="K99" s="5"/>
+      <c r="L99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="4">
+        <v>3206</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3207</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="4">
+        <v>3</v>
+      </c>
+      <c r="K100" s="5"/>
+      <c r="L100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="4">
+        <v>3207</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="4">
+        <v>3</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="4">
+        <v>3210</v>
+      </c>
+      <c r="B102" s="4">
+        <v>3211</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="4">
+        <v>3</v>
+      </c>
+      <c r="K102" s="5"/>
+      <c r="L102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="4">
+        <v>3211</v>
+      </c>
+      <c r="B103" s="4">
+        <v>3212</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="4">
+        <v>3</v>
+      </c>
+      <c r="K103" s="5"/>
+      <c r="L103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="4">
+        <v>3212</v>
+      </c>
+      <c r="B104" s="4">
+        <v>3213</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="4">
+        <v>3</v>
+      </c>
+      <c r="K104" s="5"/>
+      <c r="L104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="4">
+        <v>3213</v>
+      </c>
+      <c r="B105" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="4">
+        <v>3</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="L105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="4">
+        <v>3218</v>
+      </c>
+      <c r="B106" s="4">
+        <v>3219</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="5"/>
+      <c r="J106" s="4">
+        <v>3</v>
+      </c>
+      <c r="K106" s="5"/>
+      <c r="L106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="4">
+        <v>3219</v>
+      </c>
+      <c r="B107" s="4">
+        <v>3220</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="5"/>
+      <c r="J107" s="4">
+        <v>3</v>
+      </c>
+      <c r="K107" s="5"/>
+      <c r="L107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="4">
+        <v>3220</v>
+      </c>
+      <c r="B108" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="5"/>
+      <c r="J108" s="4">
+        <v>3</v>
+      </c>
+      <c r="K108" s="5"/>
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="4"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2830800-5FA2-42F5-8DD8-10A8254ACCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E3325-91B9-4C88-9661-E0C7B2AD3F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="100">
   <si>
     <t>index</t>
   </si>
@@ -61,334 +61,265 @@
     <t>choices</t>
   </si>
   <si>
-    <t>是沙袋！</t>
+    <t>%s_EvilSmile</t>
+  </si>
+  <si>
+    <t>Mushroom,Egg,Tomato,Lemon</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>玉米</t>
   </si>
   <si>
     <t># 推门1，次数1</t>
   </si>
   <si>
-    <t>Mushroom,Potato,Egg,Tomato</t>
+    <t>喂。不许动。</t>
+  </si>
+  <si>
+    <t>Mushroom,Potato,Egg,Tomato,Lemon</t>
+  </si>
+  <si>
+    <t>都说了不许动了！</t>
+  </si>
+  <si>
+    <t>%s_Dark_Punch,Corn_BePunch</t>
+  </si>
+  <si>
+    <t>这里这么黑，\n你怎么知道我在动？</t>
+  </si>
+  <si>
+    <t>因为你在撞我啊！</t>
+  </si>
+  <si>
+    <t>原来如此！\n所以，这里为什么这么黑？</t>
+  </si>
+  <si>
+    <t>跟你没有关系！你是来干嘛的？\n…算了，不用回答了。现在出去！</t>
+  </si>
+  <si>
+    <t>我是来问你\n想不想和我一起去死的！</t>
+  </si>
+  <si>
+    <t>所以你想吗？\n机不可失哦！</t>
+  </si>
+  <si>
+    <t>Corn_Run</t>
+  </si>
+  <si>
+    <t>怎么不见了？</t>
+  </si>
+  <si>
+    <t>喂——你还在吗——！</t>
   </si>
   <si>
     <t># 推门2，次数1</t>
   </si>
   <si>
+    <t>喂，不许动！</t>
+  </si>
+  <si>
+    <t>不许撞我！也不许说话！</t>
+  </si>
+  <si>
+    <t>现在，转头，出去！</t>
+  </si>
+  <si>
+    <t>如果我不呢？</t>
+  </si>
+  <si>
+    <t>切，真没意思。</t>
+  </si>
+  <si>
     <t># 推门3，次数1</t>
   </si>
   <si>
-    <t>%s_EvilSmile</t>
-  </si>
-  <si>
-    <t>%s_EvilYeah</t>
-  </si>
-  <si>
-    <t>%s_EvilAsk</t>
-  </si>
-  <si>
-    <t>%s_EvilDisagree</t>
-  </si>
-  <si>
-    <t>%s_EvilDown</t>
-  </si>
-  <si>
-    <t>%s_EvilThink</t>
-  </si>
-  <si>
-    <t>一拳揍飞+2001</t>
-  </si>
-  <si>
-    <t>耶。</t>
-  </si>
-  <si>
-    <t>Sandbag_HangFly</t>
-  </si>
-  <si>
-    <t>一拳揍飞+2004</t>
-  </si>
-  <si>
-    <t>耶。\n我还挺强壮的嘛。</t>
-  </si>
-  <si>
-    <t>一拳揍飞+2007</t>
-  </si>
-  <si>
-    <t>沙袋</t>
-  </si>
-  <si>
-    <t>停下！\n禁止使用暴力！</t>
-  </si>
-  <si>
-    <t>Sandbag_0</t>
-  </si>
-  <si>
-    <t>啊？你不喜欢被揍吗？</t>
-  </si>
-  <si>
-    <t>不会有谁喜欢被揍吧！</t>
-  </si>
-  <si>
-    <t>说不定真有哦。</t>
-  </si>
-  <si>
-    <t>这不重要。\n重要的是我不喜欢！</t>
-  </si>
-  <si>
-    <t>好吧，那你喜欢什么？</t>
-  </si>
-  <si>
-    <t>我喜欢当菜。</t>
-  </si>
-  <si>
-    <t>事实上我从没当过菜。\n但是直觉告诉我，我会喜欢的。</t>
-  </si>
-  <si>
-    <t>这直觉听起来超级不负责任耶。\n既然如此...</t>
-  </si>
-  <si>
-    <t>就让我来帮它找回沙袋的自觉，一拳揍飞！+2016;“那就先试试嘛，反正我不负责吃菜。”+2019</t>
-  </si>
-  <si>
-    <t>真是干了一件好事呢。</t>
-  </si>
-  <si>
-    <t>你提醒我了，不会有菜会负责吃菜。</t>
-  </si>
-  <si>
-    <t>不要一直抬杠！\n总之，就算我当了菜，你也没法告诉我味道如何。</t>
-  </si>
-  <si>
-    <t>看来还是得去找人类。\n喂，你有什么渠道吗？</t>
-  </si>
-  <si>
-    <t>唔唔...渠道谈不上。\n不过，只要一直跟着我…</t>
-  </si>
-  <si>
-    <t>那还等什么！\n走吧，你去哪我就去哪。</t>
-  </si>
-  <si>
-    <t>Sandbag_HangLand</t>
-  </si>
-  <si>
-    <t>呃啊。\n好强大的行动力。</t>
-  </si>
-  <si>
-    <t>“希望菜没事。”+-3+8</t>
-  </si>
-  <si>
-    <t>禁止一脸自暴自弃！\n直觉告诉我，我的菜很不错！</t>
+    <t>喂，你。</t>
+  </si>
+  <si>
+    <t>喂，不许撞我！</t>
+  </si>
+  <si>
+    <t>都说了不许撞我了！</t>
+  </si>
+  <si>
+    <t>你是不是都记得呀？\n总觉得每次过来，你的反应都不一样。</t>
+  </si>
+  <si>
+    <t>什么？！你是谁？你也记得吗！是谁派你来的吗？\n…算了，无所谓了！既然你记得，就一定要帮我的忙！</t>
+  </si>
+  <si>
+    <t>我才不要呢。为什么你觉得\n我们有相似的地方，我就会死心塌地地帮你跑腿呢？</t>
+  </si>
+  <si>
+    <t>不要想着用团队认同感来绑架我哦！\n况且，你之前态度还那么差。</t>
+  </si>
+  <si>
+    <t>……抱歉。我之前太着急了。</t>
+  </si>
+  <si>
+    <t>没事啦我不在意。\n你可以继续着急，我呢，继续转头离开。</t>
+  </si>
+  <si>
+    <t>我真的有很重要的事！\n再过几次，我就没法保留我的记忆了。</t>
+  </si>
+  <si>
+    <t>到了那时候，\n就真的一切都无法挽回了！</t>
+  </si>
+  <si>
+    <t>呜哇…说得这么夸张。</t>
+  </si>
+  <si>
+    <t>那你还是说说吧，有什么事？\n我没有说过一定会帮你哦！说不定走出门我就给忘了。</t>
+  </si>
+  <si>
+    <t>我有一个青梅竹马！\n我想在失去记忆以前，再见它一面！</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>我走了！</t>
+  </si>
+  <si>
+    <t>我还没有告诉你青梅竹马的长相！\n它长得，像个土豆！</t>
   </si>
   <si>
     <t># 推门4，次数1</t>
   </si>
   <si>
-    <t>哈喽！沙袋。</t>
-  </si>
-  <si>
-    <t>一拳揍飞+2032</t>
-  </si>
-  <si>
-    <t>停下！不许这样\n一脸开朗地喊我沙袋！</t>
-  </si>
-  <si>
-    <t>呃啊。\n那我换一个悲伤的表情？</t>
-  </si>
-  <si>
-    <t>这不重要！\n重要的是我不喜欢！</t>
-  </si>
-  <si>
-    <t>呜呜…那你喜欢什么？</t>
-  </si>
-  <si>
-    <t>我喜欢被称作\n“小甜甜”。</t>
-  </si>
-  <si>
-    <t>哇哦。</t>
-  </si>
-  <si>
-    <t>小甜甜</t>
-  </si>
-  <si>
-    <t>禁止一脸见鬼的表情！\n这个名字简直就是为我量身定做的！</t>
-  </si>
-  <si>
-    <t>是、是这样哦？\n那…</t>
-  </si>
-  <si>
-    <t>“小在哪里？”+2042;“甜在哪里？”+2055</t>
-  </si>
-  <si>
-    <t>这都看不出来吗？\n我的外皮里，有大约80%的空心。</t>
-  </si>
-  <si>
-    <t>真看不出来。</t>
-  </si>
-  <si>
-    <t>可恶，你这个愚钝的家伙！\n眼力不好的话，想想其他办法啊！</t>
-  </si>
-  <si>
-    <t>唔唔…既然你有这么多空心。\n那么不需要很大的力，也能飞起来吧。</t>
-  </si>
-  <si>
-    <t>轻轻地给你一拳！+2048</t>
-  </si>
-  <si>
-    <t>哇哦。\n飞得很高耶。</t>
-  </si>
-  <si>
-    <t>那你慢慢咯。\n我还有别的事要忙呢。</t>
-  </si>
-  <si>
-    <t>这不是显而易见的吗？你看，\n我的外皮里，装的都是白砂糖。</t>
-  </si>
-  <si>
-    <t>这很难看出来吧！</t>
-  </si>
-  <si>
-    <t>唔唔…白砂糖啊，\n倒是很适合做菜。</t>
-  </si>
-  <si>
-    <t>“那就跟我一起走吧。甜或者不甜，做成菜就清楚了。”+-3+8</t>
-  </si>
-  <si>
-    <t>这主意不错。\n什么嘛，你也有聪明的时候。</t>
-  </si>
-  <si>
-    <t>呃啊。\n真不想听你说话。</t>
+    <t>你来了！你有找到土豆吗？\n现在就带我去吧！</t>
+  </si>
+  <si>
+    <t>有找到吗？还是没有找到呢？\n记不清了耶。</t>
+  </si>
+  <si>
+    <t>还有时间，也很重要呢。\n说不定我们刚一出门，世界就毁灭了耶！</t>
+  </si>
+  <si>
+    <t>什么，这么快就找到了吗！\n不愧是你！这就带我去吧！</t>
+  </si>
+  <si>
+    <t>我说的和你答的，有那么一丝一毫的联系吗？</t>
+  </si>
+  <si>
+    <t>“…想来就跟着来吧，我可没说我找到了哦。”+-3+2</t>
   </si>
   <si>
     <t># 推门5，次数1</t>
   </si>
   <si>
-    <t>……</t>
-  </si>
-  <si>
-    <t>………………</t>
-  </si>
-  <si>
-    <t>干嘛在我面前发呆？\n不说话就走远点！</t>
-  </si>
-  <si>
-    <t>我在进行严肃而漫长的思考。</t>
-  </si>
-  <si>
-    <t>如果有谁看着像沙袋，行为也像沙袋，\n但它的思想不是沙袋，那它究竟是不是沙袋呢？</t>
-  </si>
-  <si>
-    <t>这话好绕啊！不理解你在纠结什么，\n沙袋不沙袋的，有这么重要吗？</t>
-  </si>
-  <si>
-    <t>很重要啊。这直接关系到，\n在你说话的时候，对话框里显示的是什么名字。</t>
-  </si>
-  <si>
-    <t>你说的这个对话框，\n显示的是我的本质吗？</t>
-  </si>
-  <si>
-    <t>我想，是的？</t>
-  </si>
-  <si>
-    <t>才不是！如果真的如你所说，那在对话框里显示的\n应该是“空心白砂糖袋”！才不会是什么“沙袋”！</t>
-  </si>
-  <si>
-    <t>你看到的名字，\n只是你主观上对我打的标签罢了。</t>
-  </si>
-  <si>
-    <t>听上去可真令人失落。\n我还以为我会有一些超游的能力呢，结果好像知道最少的就是我。</t>
-  </si>
-  <si>
-    <t>喂、喂喂！怎么就消沉下去了？\n行不行啊你？</t>
-  </si>
-  <si>
-    <t>才怪啦！你以为你会影响到我吗？\n这是永远不可能的！在这个世界里，只有我影响你才是被允许的！</t>
-  </si>
-  <si>
-    <t>废话太多了，一拳揍飞吧！+2081;“废话停止！再不回归主线就没时间了！”+2084</t>
-  </si>
-  <si>
-    <t>呼。</t>
-  </si>
-  <si>
-    <t>是吵架吵不过\n就强行切换话题的类型呢。</t>
-  </si>
-  <si>
-    <t>随便你怎么说啦！</t>
-  </si>
-  <si>
-    <t>“跟我走！”+-3+8</t>
+    <t>我有预感，下一次，\n我的记忆就会不完整了。</t>
+  </si>
+  <si>
+    <t>所以这次也拜托你了。\n带我去见土豆吧！</t>
+  </si>
+  <si>
+    <t>我其实一直很好奇耶。\n为什么你现在能记住，下次就记不住了呢？</t>
+  </si>
+  <si>
+    <t>解释起来会很长，时间还够吗？\n要不还是优先去见土豆吧。</t>
+  </si>
+  <si>
+    <t>不解释就不带你去。</t>
+  </si>
+  <si>
+    <t>那就从头说起。\n到目前为止，你应该已经知道世界的本质了吧？</t>
+  </si>
+  <si>
+    <t>当然了。这个世界就是——</t>
+  </si>
+  <si>
+    <t>“一栋公寓楼！”+4070;“一个冰箱！”+4072;“一个游戏！”+4070</t>
+  </si>
+  <si>
+    <t>没错，就是一个冰箱！</t>
+  </si>
+  <si>
+    <t>不管我说什么，\n你都只会回答这么一句吧！</t>
+  </si>
+  <si>
+    <t>而这里的每一个房间，就是…</t>
+  </si>
+  <si>
+    <t>就是储存食材的格子间！\n柠檬有柠檬之间，鸡蛋有鸡蛋之间…</t>
+  </si>
+  <si>
+    <t>“而你有黑咕隆咚之间！”+4074;“而你有玉米之间！”+4074;“而你有RGB(0,0,0)的矩形，可以说是美术狂喜之间。”+4074</t>
+  </si>
+  <si>
+    <t>没错！这个房间里，\n曾经住过很多伟大的玉米。</t>
+  </si>
+  <si>
+    <t>它们会把所有的记忆，讲述给玉米粒听。\n然后，拔下玉米粒，藏在黑暗之中。</t>
+  </si>
+  <si>
+    <t>多亏了房间里的灯总是修不好，\n玉米粒们才不会被发现。</t>
+  </si>
+  <si>
+    <t>但是、但是！玉米粒已经积攒得太多了……</t>
+  </si>
+  <si>
+    <t>都不需要用眼睛看，只要伸出手来，\n就能抓到一大把玉米粒了！</t>
+  </si>
+  <si>
+    <t>喔喔…真是个悲伤的故事。</t>
+  </si>
+  <si>
+    <t>既然你都告诉我了，那我也来\n和你分享一下吧！关于我是怎么保留记忆的！</t>
+  </si>
+  <si>
+    <t>啊。不感兴趣。\n我只想去见土豆。</t>
+  </si>
+  <si>
+    <t>啧。去去去。这就去。</t>
+  </si>
+  <si>
+    <t>“跟紧我。”+-3+2</t>
   </si>
   <si>
     <t># 推门6，次数1</t>
   </si>
   <si>
-    <t>事到如今，我还有最后一个问题。</t>
-  </si>
-  <si>
-    <t>什么叫“最后”？说得好像你问过很多问题一样。\n我们见过面吗？</t>
-  </si>
-  <si>
-    <t>这不重要。重要的是…\n身为沙袋的你，不当沙袋也是被允许的吗？</t>
-  </si>
-  <si>
-    <t>这不是显而易见的吗？\n有哪条法律规定，沙袋必须当沙袋吗？</t>
-  </si>
-  <si>
-    <t>好费解，为什么我要和一个沙袋讨论法律？\n抛开法律不谈，总会有其他因素需要考虑吧？</t>
-  </si>
-  <si>
-    <t>比方说…道德？\n会有其他沙袋骂你吗？比如“你这个败坏沙袋形象的坏东西！”</t>
-  </si>
-  <si>
-    <t>我也很费解，\n为什么你要和一个沙袋讨论道德。</t>
-  </si>
-  <si>
-    <t>唔唔…用我说过的话来反击我吗？\n真是无懈可击。</t>
-  </si>
-  <si>
-    <t>那就这样吧！\n是时候回去跑主线了。</t>
-  </si>
-  <si>
-    <t>为了主线，还是得一拳揍飞！+2102;“为了我的主线，跟我走吧！我们一起去死。”+2105</t>
-  </si>
-  <si>
-    <t>要怪就怪\n你挡在路中心了吧。</t>
-  </si>
-  <si>
-    <t>让我费解的对话又出现了。\n但不重要！反正我也不想当沙袋了。</t>
-  </si>
-  <si>
-    <t>虽然我并不觉得，\n当菜要比当沙袋好。</t>
-  </si>
-  <si>
-    <t>“但不重要！重要的是你喜欢。”+-3+8</t>
-  </si>
-  <si>
-    <t># 推门7及以后</t>
-  </si>
-  <si>
-    <t>哈喽！</t>
-  </si>
-  <si>
-    <t>一拳揍飞！+2110;“知道你不想当沙袋，跟我走吧！”+2112</t>
+    <t>喂，还记得我吗？</t>
+  </si>
+  <si>
+    <t>不许撞我！\n你是谁？你来干什么？</t>
+  </si>
+  <si>
+    <t>…不干嘛。随便逛逛啦。</t>
+  </si>
+  <si>
+    <t>乌漆麻黑的，有什么好逛的？\n我去修灯了，没事就快出去！</t>
+  </si>
+  <si>
+    <t># 推门7及以后，次数1</t>
+  </si>
+  <si>
+    <t>喂，灯还没修好啊？</t>
   </si>
   <si>
     <t>&gt;7</t>
   </si>
   <si>
-    <t>呼。\n神清气爽！</t>
-  </si>
-  <si>
-    <t>不当沙袋了</t>
-  </si>
-  <si>
-    <t>你这家伙，还挺敏锐的嘛。\n所以，跟你走是要去干嘛？</t>
-  </si>
-  <si>
-    <t>是跟我一起去死哦！</t>
-  </si>
-  <si>
-    <t>“去死，然后成为一道菜。”+-3+8</t>
-  </si>
-  <si>
-    <t>哦！听起来不错。</t>
+    <t>世界会在十分钟以内毁灭！\n我是来约你一起去死的！</t>
+  </si>
+  <si>
+    <t>……？\n神经病啊！</t>
+  </si>
+  <si>
+    <t># 特殊情况。当触发者是土豆时，推门3及以后就都是下面这个了：</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>干嘛？！忙着呢。去去去！</t>
   </si>
 </sst>
 </file>
@@ -800,7 +731,7 @@
   <dimension ref="A1:S256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -866,46 +797,46 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>4001</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="3">
@@ -924,26 +855,26 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="B4" s="3">
-        <v>-1</v>
+        <v>4002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="3">
@@ -961,20 +892,34 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3">
+        <v>4002</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -984,28 +929,30 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>4003</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4004</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3">
@@ -1020,28 +967,28 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>2004</v>
+        <v>4004</v>
       </c>
       <c r="B7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>4005</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3">
@@ -1055,20 +1002,34 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3">
+        <v>4005</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4006</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1078,28 +1039,28 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>4006</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4007</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3">
@@ -1114,28 +1075,30 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>2007</v>
+        <v>4007</v>
       </c>
       <c r="B10" s="3">
-        <v>2008</v>
+        <v>4008</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3">
@@ -1150,28 +1113,28 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>2008</v>
+        <v>4008</v>
       </c>
       <c r="B11" s="3">
-        <v>2009</v>
+        <v>4009</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3">
@@ -1186,28 +1149,28 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>2009</v>
+        <v>4009</v>
       </c>
       <c r="B12" s="3">
-        <v>2010</v>
+        <v>-1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="3">
@@ -1221,34 +1184,20 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2011</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1258,28 +1207,30 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
-        <v>2011</v>
+        <v>0</v>
       </c>
       <c r="B14" s="3">
-        <v>2012</v>
+        <v>4015</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="3">
@@ -1295,28 +1246,28 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>2012</v>
+        <v>4015</v>
       </c>
       <c r="B15" s="3">
-        <v>2013</v>
+        <v>4016</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="3">
@@ -1332,28 +1283,28 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>2013</v>
+        <v>4016</v>
       </c>
       <c r="B16" s="3">
-        <v>2014</v>
+        <v>4017</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3">
@@ -1368,28 +1319,30 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>2014</v>
+        <v>4017</v>
       </c>
       <c r="B17" s="3">
-        <v>2015</v>
+        <v>4018</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="3">
@@ -1404,28 +1357,28 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>4018</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4019</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="3">
@@ -1440,7 +1393,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>2016</v>
+        <v>4019</v>
       </c>
       <c r="B19" s="3">
         <v>-1</v>
@@ -1449,21 +1402,19 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="3">
@@ -1477,34 +1428,20 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="3">
-        <v>3</v>
-      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1514,24 +1451,24 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3">
-        <v>2021</v>
+        <v>4025</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="3">
@@ -1550,24 +1487,26 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>2021</v>
+        <v>4025</v>
       </c>
       <c r="B22" s="3">
-        <v>2022</v>
+        <v>4026</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G22" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="3">
@@ -1586,24 +1525,24 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>2022</v>
+        <v>4026</v>
       </c>
       <c r="B23" s="3">
-        <v>2023</v>
+        <v>4027</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="3">
@@ -1622,24 +1561,24 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3">
-        <v>2023</v>
+        <v>4027</v>
       </c>
       <c r="B24" s="3">
-        <v>2024</v>
+        <v>4028</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
+      <c r="G24" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="3">
@@ -1658,26 +1597,24 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3">
-        <v>2024</v>
+        <v>4028</v>
       </c>
       <c r="B25" s="3">
-        <v>2025</v>
+        <v>4029</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="3">
@@ -1696,26 +1633,24 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3">
-        <v>2025</v>
+        <v>4029</v>
       </c>
       <c r="B26" s="3">
-        <v>2028</v>
+        <v>4030</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="7" t="s">
-        <v>22</v>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="3">
@@ -1734,24 +1669,24 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>2028</v>
+        <v>4030</v>
       </c>
       <c r="B27" s="3">
-        <v>-1</v>
+        <v>4031</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="3">
@@ -1769,20 +1704,34 @@
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="3">
+        <v>4031</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4032</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1792,28 +1741,28 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>0</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>4032</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4033</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="3">
@@ -1828,28 +1777,28 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>2032</v>
+        <v>4033</v>
       </c>
       <c r="B30" s="3">
-        <v>2033</v>
+        <v>4034</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="3">
@@ -1864,28 +1813,28 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>2033</v>
+        <v>4034</v>
       </c>
       <c r="B31" s="3">
-        <v>2034</v>
+        <v>4035</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="7" t="s">
-        <v>22</v>
+      <c r="G31" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="3">
@@ -1900,28 +1849,28 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3">
-        <v>2034</v>
+        <v>4035</v>
       </c>
       <c r="B32" s="3">
-        <v>2035</v>
+        <v>4036</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="3">
@@ -1936,28 +1885,28 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>2035</v>
+        <v>4036</v>
       </c>
       <c r="B33" s="3">
-        <v>2036</v>
+        <v>4037</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="7" t="s">
-        <v>22</v>
+      <c r="G33" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="3">
@@ -1972,28 +1921,28 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>2036</v>
+        <v>4037</v>
       </c>
       <c r="B34" s="3">
-        <v>2037</v>
+        <v>4038</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="3">
@@ -2008,28 +1957,28 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>2037</v>
+        <v>4038</v>
       </c>
       <c r="B35" s="3">
-        <v>2038</v>
+        <v>4039</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="7" t="s">
-        <v>21</v>
+      <c r="G35" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="3">
@@ -2044,28 +1993,28 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3">
-        <v>2038</v>
+        <v>4039</v>
       </c>
       <c r="B36" s="3">
-        <v>2039</v>
+        <v>4040</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="3">
@@ -2080,28 +2029,28 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>2039</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>4040</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4041</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="7" t="s">
-        <v>20</v>
+      <c r="G37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="3">
@@ -2116,28 +2065,28 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="3">
-        <v>2042</v>
+        <v>4041</v>
       </c>
       <c r="B38" s="3">
-        <v>2043</v>
+        <v>-1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="3">
@@ -2151,34 +2100,20 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="3">
-        <v>2043</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2044</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="3">
-        <v>4</v>
-      </c>
+      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2188,24 +2123,24 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>2044</v>
+        <v>0</v>
       </c>
       <c r="B40" s="3">
-        <v>2045</v>
+        <v>4050</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3">
@@ -2224,24 +2159,24 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3">
-        <v>2045</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>4050</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4051</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="3">
@@ -2260,26 +2195,24 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3">
-        <v>2048</v>
+        <v>4051</v>
       </c>
       <c r="B42" s="3">
-        <v>2049</v>
+        <v>4052</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>19</v>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="3">
@@ -2298,24 +2231,24 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="3">
-        <v>2049</v>
+        <v>4052</v>
       </c>
       <c r="B43" s="3">
-        <v>-1</v>
+        <v>4053</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="3">
@@ -2334,26 +2267,26 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3">
-        <v>2055</v>
+        <v>4053</v>
       </c>
       <c r="B44" s="3">
-        <v>2056</v>
+        <v>-1</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="3">
@@ -2371,34 +2304,20 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="3">
-        <v>2056</v>
-      </c>
-      <c r="B45" s="3">
-        <v>2057</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="3">
-        <v>4</v>
-      </c>
+      <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2408,28 +2327,28 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="3">
-        <v>2057</v>
+        <v>0</v>
       </c>
       <c r="B46" s="3">
-        <v>2058</v>
+        <v>4060</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="3">
@@ -2444,30 +2363,28 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="3">
-        <v>2058</v>
+        <v>4060</v>
       </c>
       <c r="B47" s="3">
-        <v>2062</v>
+        <v>4061</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="7" t="s">
-        <v>23</v>
+      <c r="G47" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="3">
@@ -2482,28 +2399,28 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="3">
-        <v>2062</v>
+        <v>4061</v>
       </c>
       <c r="B48" s="3">
-        <v>2063</v>
+        <v>4062</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="3">
@@ -2518,28 +2435,28 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="3">
-        <v>2063</v>
+        <v>4062</v>
       </c>
       <c r="B49" s="3">
-        <v>-1</v>
+        <v>4063</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="7" t="s">
-        <v>22</v>
+      <c r="G49" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="3">
@@ -2553,20 +2470,34 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="3">
+        <v>4063</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4064</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="4"/>
+      <c r="G50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="3">
+        <v>5</v>
+      </c>
       <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2576,24 +2507,24 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="3">
-        <v>0</v>
+        <v>4064</v>
       </c>
       <c r="B51" s="3">
-        <v>2066</v>
+        <v>4065</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="3">
@@ -2612,24 +2543,24 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="3">
-        <v>2066</v>
-      </c>
-      <c r="B52" s="3">
-        <v>2067</v>
-      </c>
+        <v>4065</v>
+      </c>
+      <c r="B52" s="4"/>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="3">
@@ -2648,24 +2579,24 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="3">
-        <v>2067</v>
+        <v>4070</v>
       </c>
       <c r="B53" s="3">
-        <v>2068</v>
+        <v>4071</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="7" t="s">
-        <v>23</v>
+      <c r="G53" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="3">
@@ -2684,24 +2615,24 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="3">
-        <v>2068</v>
+        <v>4071</v>
       </c>
       <c r="B54" s="3">
-        <v>2069</v>
+        <v>4072</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="3">
@@ -2720,24 +2651,24 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="3">
-        <v>2069</v>
+        <v>4072</v>
       </c>
       <c r="B55" s="3">
-        <v>2070</v>
+        <v>4073</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="7" t="s">
-        <v>23</v>
+      <c r="G55" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="3">
@@ -2756,24 +2687,24 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="3">
-        <v>2070</v>
-      </c>
-      <c r="B56" s="3">
-        <v>2071</v>
-      </c>
+        <v>4073</v>
+      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="7" t="s">
-        <v>20</v>
+      <c r="G56" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="3">
@@ -2792,24 +2723,24 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="3">
-        <v>2071</v>
+        <v>4074</v>
       </c>
       <c r="B57" s="3">
-        <v>2072</v>
+        <v>4075</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="3">
@@ -2828,24 +2759,24 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3">
-        <v>2072</v>
+        <v>4075</v>
       </c>
       <c r="B58" s="3">
-        <v>2073</v>
+        <v>4076</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="3">
@@ -2864,24 +2795,24 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="3">
-        <v>2073</v>
+        <v>4076</v>
       </c>
       <c r="B59" s="3">
-        <v>2074</v>
+        <v>4077</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="3">
@@ -2900,24 +2831,24 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="3">
-        <v>2074</v>
+        <v>4077</v>
       </c>
       <c r="B60" s="3">
-        <v>2075</v>
+        <v>4078</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="7" t="s">
-        <v>23</v>
+      <c r="G60" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="3">
@@ -2936,24 +2867,24 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="3">
-        <v>2075</v>
+        <v>4078</v>
       </c>
       <c r="B61" s="3">
-        <v>2076</v>
+        <v>4079</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="3">
@@ -2972,24 +2903,24 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="3">
-        <v>2076</v>
+        <v>4079</v>
       </c>
       <c r="B62" s="3">
-        <v>2077</v>
+        <v>4080</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="3">
@@ -3008,24 +2939,24 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="3">
-        <v>2077</v>
+        <v>4080</v>
       </c>
       <c r="B63" s="3">
-        <v>2078</v>
+        <v>4081</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="7" t="s">
-        <v>22</v>
+      <c r="G63" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="3">
@@ -3044,24 +2975,24 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="3">
-        <v>2078</v>
+        <v>4081</v>
       </c>
       <c r="B64" s="3">
-        <v>2079</v>
+        <v>4082</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="3">
@@ -3080,24 +3011,26 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="3">
-        <v>2079</v>
-      </c>
-      <c r="B65" s="4"/>
+        <v>4082</v>
+      </c>
+      <c r="B65" s="3">
+        <v>-1</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="7" t="s">
-        <v>19</v>
+      <c r="G65" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="3">
@@ -3115,36 +3048,20 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="3">
-        <v>2081</v>
-      </c>
-      <c r="B66" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="3">
-        <v>5</v>
-      </c>
+      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -3154,30 +3071,28 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="3">
-        <v>2084</v>
+        <v>0</v>
       </c>
       <c r="B67" s="3">
-        <v>2085</v>
+        <v>4090</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="3">
@@ -3192,30 +3107,28 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="3">
-        <v>2085</v>
+        <v>4090</v>
       </c>
       <c r="B68" s="3">
-        <v>-1</v>
+        <v>4091</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="3">
@@ -3229,20 +3142,34 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="3">
+        <v>4091</v>
+      </c>
+      <c r="B69" s="3">
+        <v>4092</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
+      <c r="G69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="J69" s="3">
+        <v>6</v>
+      </c>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3252,24 +3179,26 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3">
-        <v>0</v>
+        <v>4092</v>
       </c>
       <c r="B70" s="3">
-        <v>2090</v>
+        <v>-1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="F70" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G70" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="3">
@@ -3287,34 +3216,20 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="3">
-        <v>2090</v>
-      </c>
-      <c r="B71" s="3">
-        <v>2091</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="3">
-        <v>6</v>
-      </c>
+      <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="3">
-        <v>1</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -3324,28 +3239,28 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="3">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="B72" s="3">
-        <v>2092</v>
+        <v>4100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I72" s="4"/>
-      <c r="J72" s="3">
-        <v>6</v>
+      <c r="J72" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="3">
@@ -3360,28 +3275,28 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3">
-        <v>2092</v>
+        <v>4100</v>
       </c>
       <c r="B73" s="3">
-        <v>2093</v>
+        <v>4101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="3">
-        <v>6</v>
+      <c r="J73" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="3">
@@ -3396,28 +3311,28 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="3">
-        <v>2093</v>
+        <v>4101</v>
       </c>
       <c r="B74" s="3">
-        <v>2094</v>
+        <v>4102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="7" t="s">
-        <v>20</v>
+      <c r="G74" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I74" s="4"/>
-      <c r="J74" s="3">
-        <v>6</v>
+      <c r="J74" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="3">
@@ -3432,28 +3347,30 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="3">
-        <v>2094</v>
+        <v>4102</v>
       </c>
       <c r="B75" s="3">
-        <v>2095</v>
+        <v>-1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="F75" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G75" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="3">
-        <v>6</v>
+      <c r="J75" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="3">
@@ -3467,34 +3384,20 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="3">
-        <v>2095</v>
-      </c>
-      <c r="B76" s="3">
-        <v>2096</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A76" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="3">
-        <v>6</v>
-      </c>
+      <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="3">
-        <v>1</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3504,28 +3407,28 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="3">
-        <v>2096</v>
+        <v>0</v>
       </c>
       <c r="B77" s="3">
-        <v>2097</v>
+        <v>4500</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>15</v>
+      <c r="G77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="3">
-        <v>6</v>
+      <c r="J77" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="3">
@@ -3540,28 +3443,30 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="3">
-        <v>2097</v>
+        <v>4500</v>
       </c>
       <c r="B78" s="3">
-        <v>2098</v>
+        <v>-1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="F78" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G78" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="I78" s="4"/>
-      <c r="J78" s="3">
-        <v>6</v>
+      <c r="J78" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="3">
@@ -3575,34 +3480,18 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="3">
-        <v>2098</v>
-      </c>
-      <c r="B79" s="3">
-        <v>2099</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="3">
-        <v>6</v>
-      </c>
+      <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="3">
-        <v>1</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -3611,34 +3500,18 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="3">
-        <v>2099</v>
-      </c>
+      <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="3">
-        <v>6</v>
-      </c>
+      <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="3">
-        <v>1</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -3647,36 +3520,18 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="3">
-        <v>2102</v>
-      </c>
-      <c r="B81" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="3">
-        <v>6</v>
-      </c>
+      <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="3">
-        <v>1</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -3685,36 +3540,18 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="3">
-        <v>2105</v>
-      </c>
-      <c r="B82" s="3">
-        <v>2106</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="3">
-        <v>6</v>
-      </c>
+      <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="3">
-        <v>1</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3723,36 +3560,18 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="3">
-        <v>2106</v>
-      </c>
-      <c r="B83" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="3">
-        <v>6</v>
-      </c>
+      <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="3">
-        <v>1</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3761,15 +3580,13 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="3"/>
+      <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -3783,34 +3600,18 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="3">
-        <v>0</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="3">
-        <v>1</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -3819,36 +3620,18 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="3">
-        <v>2110</v>
-      </c>
-      <c r="B86" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="3">
-        <v>1</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -3857,28 +3640,18 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="3">
-        <v>2112</v>
-      </c>
-      <c r="B87" s="3">
-        <v>2113</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -3887,38 +3660,18 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="3">
-        <v>2113</v>
-      </c>
-      <c r="B88" s="3">
-        <v>2114</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="3">
-        <v>1</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -3927,34 +3680,18 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="3">
-        <v>2114</v>
-      </c>
-      <c r="B89" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -3963,18 +3700,18 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="3"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="3"/>
+      <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="3"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -3983,18 +3720,18 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="3"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="3"/>
+      <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -4003,7 +3740,7 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="2"/>
+      <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -4023,18 +3760,18 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="3"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="3"/>
+      <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4043,18 +3780,18 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="3"/>
+      <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="3"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -4063,18 +3800,18 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="3"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="3"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -4083,18 +3820,18 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="3"/>
+      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="3"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -4103,18 +3840,18 @@
       <c r="R96" s="4"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="3"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="3"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="3"/>
+      <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -4123,18 +3860,18 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="3"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="3"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -4143,18 +3880,18 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="3"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="3"/>
+      <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -4163,18 +3900,18 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="3"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="3"/>
+      <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="3"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -4183,18 +3920,18 @@
       <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="3"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="3"/>
+      <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="3"/>
+      <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -4203,18 +3940,18 @@
       <c r="R101" s="4"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="3"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="3"/>
+      <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="3"/>
+      <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -4223,18 +3960,18 @@
       <c r="R102" s="4"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="3"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="3"/>
+      <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="3"/>
+      <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -4243,18 +3980,18 @@
       <c r="R103" s="4"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="3"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="3"/>
+      <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -4263,18 +4000,18 @@
       <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="3"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="3"/>
+      <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="3"/>
+      <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -4283,18 +4020,18 @@
       <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="3"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="3"/>
+      <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="3"/>
+      <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -4303,18 +4040,18 @@
       <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="3"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-      <c r="J107" s="3"/>
+      <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="3"/>
+      <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -4323,18 +4060,18 @@
       <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="3"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-      <c r="J108" s="3"/>
+      <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="3"/>
+      <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -4343,7 +4080,7 @@
       <c r="R108" s="4"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="2"/>
+      <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -4363,18 +4100,18 @@
       <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="3"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="3"/>
+      <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="3"/>
+      <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -4383,18 +4120,18 @@
       <c r="R110" s="4"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="3"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="3"/>
+      <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-      <c r="L111" s="3"/>
+      <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -4403,18 +4140,18 @@
       <c r="R111" s="4"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="3"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="3"/>
+      <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="3"/>
+      <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -4423,18 +4160,18 @@
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="3"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="3"/>
+      <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -4443,18 +4180,18 @@
       <c r="R113" s="4"/>
     </row>
     <row r="114" spans="1:18">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="3"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="3"/>
+      <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -4463,18 +4200,18 @@
       <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:18">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="3"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="4"/>
       <c r="K115" s="4"/>
-      <c r="L115" s="3"/>
+      <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -4483,18 +4220,18 @@
       <c r="R115" s="4"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="3"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="3"/>
+      <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-      <c r="L116" s="3"/>
+      <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -4503,7 +4240,7 @@
       <c r="R116" s="4"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="3"/>
+      <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E3325-91B9-4C88-9661-E0C7B2AD3F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42E14E-7735-4F10-BCB5-DBE50F0C3299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="152">
   <si>
     <t>index</t>
   </si>
@@ -73,253 +73,409 @@
     <t>玉米</t>
   </si>
   <si>
-    <t># 推门1，次数1</t>
-  </si>
-  <si>
-    <t>喂。不许动。</t>
-  </si>
-  <si>
-    <t>Mushroom,Potato,Egg,Tomato,Lemon</t>
-  </si>
-  <si>
-    <t>都说了不许动了！</t>
-  </si>
-  <si>
-    <t>%s_Dark_Punch,Corn_BePunch</t>
-  </si>
-  <si>
-    <t>这里这么黑，\n你怎么知道我在动？</t>
-  </si>
-  <si>
-    <t>因为你在撞我啊！</t>
-  </si>
-  <si>
-    <t>原来如此！\n所以，这里为什么这么黑？</t>
-  </si>
-  <si>
-    <t>跟你没有关系！你是来干嘛的？\n…算了，不用回答了。现在出去！</t>
-  </si>
-  <si>
-    <t>我是来问你\n想不想和我一起去死的！</t>
-  </si>
-  <si>
-    <t>所以你想吗？\n机不可失哦！</t>
-  </si>
-  <si>
-    <t>Corn_Run</t>
-  </si>
-  <si>
-    <t>怎么不见了？</t>
-  </si>
-  <si>
-    <t>喂——你还在吗——！</t>
-  </si>
-  <si>
-    <t># 推门2，次数1</t>
-  </si>
-  <si>
-    <t>喂，不许动！</t>
-  </si>
-  <si>
-    <t>不许撞我！也不许说话！</t>
-  </si>
-  <si>
-    <t>现在，转头，出去！</t>
-  </si>
-  <si>
-    <t>如果我不呢？</t>
-  </si>
-  <si>
-    <t>切，真没意思。</t>
-  </si>
-  <si>
-    <t># 推门3，次数1</t>
-  </si>
-  <si>
-    <t>喂，你。</t>
-  </si>
-  <si>
-    <t>喂，不许撞我！</t>
-  </si>
-  <si>
-    <t>都说了不许撞我了！</t>
-  </si>
-  <si>
-    <t>你是不是都记得呀？\n总觉得每次过来，你的反应都不一样。</t>
-  </si>
-  <si>
-    <t>什么？！你是谁？你也记得吗！是谁派你来的吗？\n…算了，无所谓了！既然你记得，就一定要帮我的忙！</t>
-  </si>
-  <si>
-    <t>我才不要呢。为什么你觉得\n我们有相似的地方，我就会死心塌地地帮你跑腿呢？</t>
-  </si>
-  <si>
-    <t>不要想着用团队认同感来绑架我哦！\n况且，你之前态度还那么差。</t>
-  </si>
-  <si>
-    <t>……抱歉。我之前太着急了。</t>
-  </si>
-  <si>
-    <t>没事啦我不在意。\n你可以继续着急，我呢，继续转头离开。</t>
-  </si>
-  <si>
-    <t>我真的有很重要的事！\n再过几次，我就没法保留我的记忆了。</t>
-  </si>
-  <si>
-    <t>到了那时候，\n就真的一切都无法挽回了！</t>
-  </si>
-  <si>
-    <t>呜哇…说得这么夸张。</t>
-  </si>
-  <si>
-    <t>那你还是说说吧，有什么事？\n我没有说过一定会帮你哦！说不定走出门我就给忘了。</t>
-  </si>
-  <si>
-    <t>我有一个青梅竹马！\n我想在失去记忆以前，再见它一面！</t>
-  </si>
-  <si>
-    <t>……</t>
-  </si>
-  <si>
-    <t>我走了！</t>
-  </si>
-  <si>
-    <t>我还没有告诉你青梅竹马的长相！\n它长得，像个土豆！</t>
-  </si>
-  <si>
-    <t># 推门4，次数1</t>
-  </si>
-  <si>
-    <t>你来了！你有找到土豆吗？\n现在就带我去吧！</t>
-  </si>
-  <si>
-    <t>有找到吗？还是没有找到呢？\n记不清了耶。</t>
-  </si>
-  <si>
-    <t>还有时间，也很重要呢。\n说不定我们刚一出门，世界就毁灭了耶！</t>
-  </si>
-  <si>
-    <t>什么，这么快就找到了吗！\n不愧是你！这就带我去吧！</t>
-  </si>
-  <si>
-    <t>我说的和你答的，有那么一丝一毫的联系吗？</t>
-  </si>
-  <si>
-    <t>“…想来就跟着来吧，我可没说我找到了哦。”+-3+2</t>
-  </si>
-  <si>
-    <t># 推门5，次数1</t>
-  </si>
-  <si>
-    <t>我有预感，下一次，\n我的记忆就会不完整了。</t>
-  </si>
-  <si>
-    <t>所以这次也拜托你了。\n带我去见土豆吧！</t>
-  </si>
-  <si>
-    <t>我其实一直很好奇耶。\n为什么你现在能记住，下次就记不住了呢？</t>
-  </si>
-  <si>
-    <t>解释起来会很长，时间还够吗？\n要不还是优先去见土豆吧。</t>
-  </si>
-  <si>
-    <t>不解释就不带你去。</t>
-  </si>
-  <si>
-    <t>那就从头说起。\n到目前为止，你应该已经知道世界的本质了吧？</t>
-  </si>
-  <si>
-    <t>当然了。这个世界就是——</t>
-  </si>
-  <si>
-    <t>“一栋公寓楼！”+4070;“一个冰箱！”+4072;“一个游戏！”+4070</t>
-  </si>
-  <si>
-    <t>没错，就是一个冰箱！</t>
-  </si>
-  <si>
-    <t>不管我说什么，\n你都只会回答这么一句吧！</t>
-  </si>
-  <si>
-    <t>而这里的每一个房间，就是…</t>
-  </si>
-  <si>
-    <t>就是储存食材的格子间！\n柠檬有柠檬之间，鸡蛋有鸡蛋之间…</t>
-  </si>
-  <si>
-    <t>“而你有黑咕隆咚之间！”+4074;“而你有玉米之间！”+4074;“而你有RGB(0,0,0)的矩形，可以说是美术狂喜之间。”+4074</t>
-  </si>
-  <si>
-    <t>没错！这个房间里，\n曾经住过很多伟大的玉米。</t>
-  </si>
-  <si>
-    <t>它们会把所有的记忆，讲述给玉米粒听。\n然后，拔下玉米粒，藏在黑暗之中。</t>
-  </si>
-  <si>
-    <t>多亏了房间里的灯总是修不好，\n玉米粒们才不会被发现。</t>
-  </si>
-  <si>
-    <t>但是、但是！玉米粒已经积攒得太多了……</t>
-  </si>
-  <si>
-    <t>都不需要用眼睛看，只要伸出手来，\n就能抓到一大把玉米粒了！</t>
-  </si>
-  <si>
-    <t>喔喔…真是个悲伤的故事。</t>
-  </si>
-  <si>
-    <t>既然你都告诉我了，那我也来\n和你分享一下吧！关于我是怎么保留记忆的！</t>
-  </si>
-  <si>
-    <t>啊。不感兴趣。\n我只想去见土豆。</t>
-  </si>
-  <si>
-    <t>啧。去去去。这就去。</t>
-  </si>
-  <si>
-    <t>“跟紧我。”+-3+2</t>
-  </si>
-  <si>
-    <t># 推门6，次数1</t>
-  </si>
-  <si>
-    <t>喂，还记得我吗？</t>
-  </si>
-  <si>
-    <t>不许撞我！\n你是谁？你来干什么？</t>
-  </si>
-  <si>
-    <t>…不干嘛。随便逛逛啦。</t>
-  </si>
-  <si>
-    <t>乌漆麻黑的，有什么好逛的？\n我去修灯了，没事就快出去！</t>
-  </si>
-  <si>
-    <t># 推门7及以后，次数1</t>
-  </si>
-  <si>
-    <t>喂，灯还没修好啊？</t>
-  </si>
-  <si>
-    <t>&gt;7</t>
-  </si>
-  <si>
-    <t>世界会在十分钟以内毁灭！\n我是来约你一起去死的！</t>
-  </si>
-  <si>
-    <t>……？\n神经病啊！</t>
-  </si>
-  <si>
-    <t># 特殊情况。当触发者是土豆时，推门3及以后就都是下面这个了：</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>&gt;3</t>
-  </si>
-  <si>
-    <t>干嘛？！忙着呢。去去去！</t>
+    <t># 推门1，次数1，队伍里没有玉米时</t>
+  </si>
+  <si>
+    <t>哟，你好！</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>你好呀，我是土豆。\n请问你是？来这里有什么事吗？</t>
+  </si>
+  <si>
+    <t>哇哦，好日常的对话，好正常的措辞。</t>
+  </si>
+  <si>
+    <t>嘿嘿，谢谢夸奖。\n我的豆生信条就是：做一个普普通通的土豆。</t>
+  </si>
+  <si>
+    <t>那我们很像耶！\n我的菇生信条就是：小打小闹，作恶多端！</t>
+  </si>
+  <si>
+    <t>听起来是个普普通通的恶棍呢。\n真不错！</t>
+  </si>
+  <si>
+    <t>我也曾经有过更伟大的理想啦。\n比如颠覆这个世界、暗杀某某厨师、寻找外星生物…之类的！</t>
+  </si>
+  <si>
+    <t>哦哦！我也有过哦！\n比如考上年级第一、收到一封情书、成为摇滚巨星…之类的！</t>
+  </si>
+  <si>
+    <t>但是后来发现，我简直是毫无天赋！干啥啥不成！</t>
+  </si>
+  <si>
+    <t>知音啊！</t>
+  </si>
+  <si>
+    <t>那你现在有忙些什么吗？我这边的话，\n正在奔走宣传：赶在世界毁灭以前，和我一起去死吧！</t>
+  </si>
+  <si>
+    <t>哇哦，听起来真酷。\n我嘛，我在瞎忙活呢，比如摇晃我的叶子。</t>
+  </si>
+  <si>
+    <t>你那边如果有什么需要帮忙的，\n可以随时叫我哦。</t>
+  </si>
+  <si>
+    <t>唔唔，既然你都这么说了…</t>
+  </si>
+  <si>
+    <t>“加入我吧！我们一起去死！”+5020;“身体借我吧！我不想用现在这个身体去死啦！”+-2+1</t>
+  </si>
+  <si>
+    <t>好呀，不过我有点在意，\n为什么要赶在世界毁灭以前去死呢？</t>
+  </si>
+  <si>
+    <t>跟着世界一起死亡，\n不是很自然的事吗？</t>
+  </si>
+  <si>
+    <t>是主观能动性的问题啦！\n一个是主动寻求未知的结局，一个是被动等待固定的结局…</t>
+  </si>
+  <si>
+    <t>“我通常都会挑选更酷的那个选项啦！”+-3+1</t>
+  </si>
+  <si>
+    <t>原来如此！</t>
+  </si>
+  <si>
+    <t>哇哦，一个普普通通的身体。</t>
+  </si>
+  <si>
+    <t>(嘿嘿，谢谢夸奖。)</t>
+  </si>
+  <si>
+    <t># 推门2及以后，次数1，队伍里没有玉米时</t>
+  </si>
+  <si>
+    <t>你好呀，普通土豆。\n我普通地过来找你帮忙了！</t>
+  </si>
+  <si>
+    <t>“加入我吧！火热征集愿意和我一起去死的同伴！”+5050;“身体借我吧！我想带着普通的身体，找一个普通的死！”+5060</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>哇哦，谢谢你来找我帮忙。\n可是我不太想这么快就去死，听起来太不普通了。</t>
+  </si>
+  <si>
+    <t>可是世界马上就要毁灭了哦！\n无论是谁，都会在十分钟以内死去。</t>
+  </si>
+  <si>
+    <t>“这样一看，快速去死就很普通了！”+-3+1</t>
+  </si>
+  <si>
+    <t>有道理！</t>
+  </si>
+  <si>
+    <t>哇哦，谢谢你来找我帮忙。\n可是使用不同的身体去死，无论怎样，听起来都太不普通了。</t>
+  </si>
+  <si>
+    <t>那就…想想幼年的你和成年的你，\n如果它们统统去死，身体也是不同的嘛！</t>
+  </si>
+  <si>
+    <t>“这样一看，使用不同身体去死，就很普通了！”+-2+1</t>
+  </si>
+  <si>
+    <t>（有道理！）</t>
+  </si>
+  <si>
+    <t># 推门1，次数1，队伍里有玉米</t>
+  </si>
+  <si>
+    <t>你好呀，我是土豆。\n请问你们是？来这里有什么事吗？</t>
+  </si>
+  <si>
+    <t>它说它是土豆耶。\n是你认识的那个土豆吗？</t>
+  </si>
+  <si>
+    <t>我，我，我，我也不知道。</t>
+  </si>
+  <si>
+    <t>呃啊，明明在结巴，脸还是这么凶。</t>
+  </si>
+  <si>
+    <t>但你怎么这么不靠谱啊！\n连青梅竹马都不认识！</t>
+  </si>
+  <si>
+    <t>太久没见面了！\n上次见面的时候，我还在杆子上，它还在泥巴里…</t>
+  </si>
+  <si>
+    <t>这得是多久没见了啊！</t>
+  </si>
+  <si>
+    <t>你、你、你、你好！\n你还、记得我吗？</t>
+  </si>
+  <si>
+    <t>是在跟我说话吗？\n这位…呃。黑不溜秋的东西。</t>
+  </si>
+  <si>
+    <t>是！是我！我也不想变成这样！\n但是在小黑屋待久了，不知不觉就…</t>
+  </si>
+  <si>
+    <t>真可怜。如果有什么需要帮忙的，\n可以随时叫我哦。</t>
+  </si>
+  <si>
+    <t>是你！就是你！只有你！才会这么善良！</t>
+  </si>
+  <si>
+    <t>啊？</t>
+  </si>
+  <si>
+    <t>没有啦，我只能提供一点普通的帮助。\n更伟大的事，我就做不了了。</t>
+  </si>
+  <si>
+    <t>是你！就是你！只有你！才会这么普通！</t>
+  </si>
+  <si>
+    <t>耶？</t>
+  </si>
+  <si>
+    <t>最后、最后、最后一个问题！\n你的、你的、你的、豆生信条是什么？</t>
+  </si>
+  <si>
+    <t>“做一个普普通通的土豆。”\n因为很普通，所以我喜欢。</t>
+  </si>
+  <si>
+    <t>哦哦哦哦哦哦！哦哦哦哦哦哦！噢噢噢噢噢噢噢噢哦哦哦哦哦哦哦\n哦哦哦哦哦哦哦哦哦哦哦哦哦哦噢噢噢噢噢噢噢噢哦哦哦哦哦哦哦</t>
+  </si>
+  <si>
+    <t>呃啊。</t>
+  </si>
+  <si>
+    <t>“看来，终于到了激动的相认时刻？”+-4+2</t>
+  </si>
+  <si>
+    <t>土豆！是我！你还是和记忆中一模一样！</t>
+  </si>
+  <si>
+    <t>Corn_ToBright</t>
+  </si>
+  <si>
+    <t>是谁刚进门的时候都不敢认呀？</t>
+  </si>
+  <si>
+    <t>哦、哦哦！是、是你啊！</t>
+  </si>
+  <si>
+    <t>你怎么也一副\n完全不敢相认的模样啦！</t>
+  </si>
+  <si>
+    <t>我们都没错！都怪这残酷的命运，\n让我们过早地分离了！</t>
+  </si>
+  <si>
+    <t>还记得吗？小时候的我，还送过你一把贝斯呢！\n用我的须须做的。</t>
+  </si>
+  <si>
+    <t>哦！我确实有一把玉米贝斯。\n原来是你送的呀，我完全没印象了。</t>
+  </si>
+  <si>
+    <t>可恶！可恨！可怕的命运！\n可怜、可亲、可爱的我们！啊！</t>
+  </si>
+  <si>
+    <t>停一停，今天的抒情浓度已经超标了！\n还有这段对话怎么这么长啊！照顾一下没法跳过的人好吗！</t>
+  </si>
+  <si>
+    <t>而且非常没有营养！全部都是你的无意义嚎叫！\n也根本没有信息量！这样是会被骂水字数的！</t>
+  </si>
+  <si>
+    <t>实在抱歉！请不要生气！\n这样如何？有什么困难或者麻烦，我现在就能帮你！</t>
+  </si>
+  <si>
+    <t>所以为什么道歉的是你，那个混蛋反而隐身了啦。</t>
+  </si>
+  <si>
+    <t>“但是既然你都这么说了，那就加入我的小队吧！”+5540;“我觉得这个场景容不下第三个身体了。所以把你的身体给我！”+5550</t>
+  </si>
+  <si>
+    <t>我就是为此而来的！世界即将毁灭，\n我想赶在世界以前去死！有同伴当然更好啦。</t>
+  </si>
+  <si>
+    <t>原来如此，没有问题！\n让我成为你的同伴吧！</t>
+  </si>
+  <si>
+    <t>呜，真是个好心的豆。</t>
+  </si>
+  <si>
+    <t>“跟紧我就好了！”+-3+1</t>
+  </si>
+  <si>
+    <t>好哦！</t>
+  </si>
+  <si>
+    <t>原来如此，没有问题！\n就让我来为你解决多余的烦恼吧！</t>
+  </si>
+  <si>
+    <t>什、什么？什么什么？！\n为什么都不征求我的意见？！</t>
+  </si>
+  <si>
+    <t>因为你的表现恶心到我了。</t>
+  </si>
+  <si>
+    <t>“所以我也要恶心回来！”+-2+1</t>
+  </si>
+  <si>
+    <t>哒哒！我是，土豆！</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊啊啊啊啊啊——————你在干什么！你干了什么！</t>
+  </si>
+  <si>
+    <t>闭嘴。再叫，\n我就把你的身体也抢了！</t>
+  </si>
+  <si>
+    <t># 推门2及以后，次数1，队伍里有玉米</t>
+  </si>
+  <si>
+    <t>你好呀，普通土豆。\n我又来找你帮忙了。</t>
+  </si>
+  <si>
+    <t>你好呀！你很了解我呢！\n不过，我们曾经见过面吗？</t>
+  </si>
+  <si>
+    <t>见过吗？还是没见过呢？其实无所谓啦，\n因为今天的主角应该是——当当当！这位！</t>
+  </si>
+  <si>
+    <t>你、你、 你、你、你、好！</t>
+  </si>
+  <si>
+    <t>表情不要这么僵硬啦。\n你是来寻亲，又不是来寻仇的！</t>
+  </si>
+  <si>
+    <t>我、我、我、我知道！是你！一定就是你！\n你是！你是！你是！你是！你是你是你是你是！</t>
+  </si>
+  <si>
+    <t>我是土豆！我的名字\n有这么难以启齿吗？</t>
+  </si>
+  <si>
+    <t>不是、不是这个、意思！我是说！是你！我很确信是你！\n你的圆眼睛，还是这么智慧！你的头顶芽，还是这么飘逸！</t>
+  </si>
+  <si>
+    <t>谁去立个禁止抒情法啊？\n法令第一条，禁止说排比句。</t>
+  </si>
+  <si>
+    <t>我知道、你已经，不记得我的长相了！\n但是没关系！因为我也不记得你的长相了！</t>
+  </si>
+  <si>
+    <t>喂，你最好是真心想来寻亲的。</t>
+  </si>
+  <si>
+    <t>但是！过去是会留下痕迹的！\n当我看到你这普通的举止，我就知道！我没有认错！</t>
+  </si>
+  <si>
+    <t>唔，我的豆生信条，确实是\n“做一个普普通通的土豆。”来着。</t>
+  </si>
+  <si>
+    <t>没错！就是这种敷衍又意义不明的态度！\n让我一眼确定，你就是我的青梅竹马！</t>
+  </si>
+  <si>
+    <t>哇哦。终于说了一句有用的话。</t>
+  </si>
+  <si>
+    <t>原来是这样。\n可是抱歉，我好像没有青梅竹马来着…？</t>
+  </si>
+  <si>
+    <t>你只是忘记了！都怪这\n残酷的命运！冷酷的时光！冰冷的世界！</t>
+  </si>
+  <si>
+    <t>快点拿出一点实质性的证据啦，不然现在看起来，\n你就像是随机挑选了一个陌生倒霉豆，然后对着它胡乱发疯耶。</t>
+  </si>
+  <si>
+    <t>没、没、没、没错！证据！我当然有证据！\n你一定有一把黄色的贝斯，对吧！它是由玉米须须制成的！</t>
+  </si>
+  <si>
+    <t>确实诶，这件事我没有对外说过。\n你是怎么知道的？</t>
+  </si>
+  <si>
+    <t>因为，这就是我送的！</t>
+  </si>
+  <si>
+    <t>终于进入正题了…\n前面怎么说了这么多的废话啦！</t>
+  </si>
+  <si>
+    <t>“这样就算是相认了吗？”+-4+2</t>
+  </si>
+  <si>
+    <t>我不会认错！你就是我的青梅竹马！</t>
+  </si>
+  <si>
+    <t>我们…太久太久没有见面了。\n谁能想到，我们的重逢，是在世界末日以前！</t>
+  </si>
+  <si>
+    <t>什么世界末日？\n你好像说出了很不得了的话。</t>
+  </si>
+  <si>
+    <t>这个我来解释！\n其实我就是为此而来的。</t>
+  </si>
+  <si>
+    <t>什…！原来你不是\n为了陪我找青梅竹马才来的吗？</t>
+  </si>
+  <si>
+    <t>世界末日的意思就是，\n世界马上就要毁灭了哦！</t>
+  </si>
+  <si>
+    <t>你的废话也很多啊！</t>
+  </si>
+  <si>
+    <t>而我呢，想要死在世界的前面！因为听起来很酷。</t>
+  </si>
+  <si>
+    <t>你的理由也很扯啊！</t>
+  </si>
+  <si>
+    <t>谁去立个法禁止玉米说话啊！</t>
+  </si>
+  <si>
+    <t>“…总之我在寻找一起去死的同伴！”+5640;“…总之我在寻找新的身体！”+5650</t>
+  </si>
+  <si>
+    <t>所以就找到了我吗？</t>
+  </si>
+  <si>
+    <t>没有特意找你哦。无论是谁，\n我都会试着去说服一下的。因为很有意思。</t>
+  </si>
+  <si>
+    <t>好，那就让我成为你的同伴吧！</t>
+  </si>
+  <si>
+    <t>怎么这么果断！明明、明明就连和我相认\n都没有进行得这么顺利！</t>
+  </si>
+  <si>
+    <t>说明你对你青梅竹马的了解程度，还不如我啦！</t>
+  </si>
+  <si>
+    <t>“走了，同伴！一起去死咯！”+-3+1</t>
+  </si>
+  <si>
+    <t>等、等等等等！不要抛下我！！</t>
+  </si>
+  <si>
+    <t>毕竟，总是用自己的身体体验死亡，\n也是会腻的啦。</t>
+  </si>
+  <si>
+    <t>哇哦…听起来好有故事。</t>
+  </si>
+  <si>
+    <t>我也有很多我们的相识相知相处小故事！\n一定会比死去活来的故事好听很多！</t>
+  </si>
+  <si>
+    <t>好，我的身体可以借给你。</t>
+  </si>
+  <si>
+    <t>为什么？！不要啊？！我不允许！！拜托征求一下我的意见啊！！</t>
+  </si>
+  <si>
+    <t>谁理你啊？</t>
+  </si>
+  <si>
+    <t>“那我就收下了！”+-2+1</t>
+  </si>
+  <si>
+    <t>啊啊！啊啊啊！啊啊啊啊啊啊啊啊——————————————</t>
+  </si>
+  <si>
+    <t>走了！继续我的找死大业了！</t>
   </si>
 </sst>
 </file>
@@ -389,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,9 +566,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S256"/>
+  <dimension ref="A1:S255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -796,20 +949,20 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -822,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>4001</v>
+        <v>5001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -836,9 +989,11 @@
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-2</v>
+      </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
@@ -855,28 +1010,28 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>4001</v>
+        <v>5001</v>
       </c>
       <c r="B4" s="3">
-        <v>4002</v>
+        <v>5002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-2</v>
+      </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
@@ -893,16 +1048,16 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3">
-        <v>4002</v>
+        <v>5002</v>
       </c>
       <c r="B5" s="3">
-        <v>4003</v>
+        <v>5003</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -910,9 +1065,11 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-2</v>
+      </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
@@ -929,28 +1086,28 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>4003</v>
+        <v>5003</v>
       </c>
       <c r="B6" s="3">
-        <v>4004</v>
+        <v>5004</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-2</v>
+      </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
@@ -967,16 +1124,16 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>4004</v>
+        <v>5004</v>
       </c>
       <c r="B7" s="3">
-        <v>4005</v>
+        <v>5005</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -984,9 +1141,11 @@
         <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-2</v>
+      </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
@@ -1003,16 +1162,16 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
-        <v>4005</v>
+        <v>5005</v>
       </c>
       <c r="B8" s="3">
-        <v>4006</v>
+        <v>5006</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1020,9 +1179,11 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-2</v>
+      </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
@@ -1039,16 +1200,16 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>4006</v>
+        <v>5006</v>
       </c>
       <c r="B9" s="3">
-        <v>4007</v>
+        <v>5007</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1056,9 +1217,11 @@
         <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-2</v>
+      </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
@@ -1075,28 +1238,28 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>4007</v>
+        <v>5007</v>
       </c>
       <c r="B10" s="3">
-        <v>4008</v>
+        <v>5008</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-2</v>
+      </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
@@ -1113,16 +1276,16 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>4008</v>
+        <v>5008</v>
       </c>
       <c r="B11" s="3">
-        <v>4009</v>
+        <v>5009</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1130,9 +1293,11 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-2</v>
+      </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
@@ -1149,16 +1314,16 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>4009</v>
+        <v>5009</v>
       </c>
       <c r="B12" s="3">
-        <v>-1</v>
+        <v>5010</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1166,9 +1331,11 @@
         <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-2</v>
+      </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
@@ -1184,20 +1351,36 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="3">
+        <v>5010</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5011</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1207,30 +1390,30 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
-        <v>0</v>
+        <v>5011</v>
       </c>
       <c r="B14" s="3">
-        <v>4015</v>
+        <v>5012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-2</v>
+      </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="3">
@@ -1246,16 +1429,16 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>4015</v>
+        <v>5012</v>
       </c>
       <c r="B15" s="3">
-        <v>4016</v>
+        <v>5013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1263,11 +1446,13 @@
         <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-2</v>
+      </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="3">
@@ -1283,16 +1468,16 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>4016</v>
+        <v>5013</v>
       </c>
       <c r="B16" s="3">
-        <v>4017</v>
+        <v>5014</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1300,11 +1485,13 @@
         <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-2</v>
+      </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3">
@@ -1319,30 +1506,32 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>4017</v>
+        <v>5014</v>
       </c>
       <c r="B17" s="3">
-        <v>4018</v>
+        <v>5035</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-2</v>
+      </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="3">
@@ -1357,28 +1546,30 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>4018</v>
+        <v>5020</v>
       </c>
       <c r="B18" s="3">
-        <v>4019</v>
+        <v>5021</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2</v>
+      </c>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="3">
@@ -1393,16 +1584,16 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>4019</v>
+        <v>5021</v>
       </c>
       <c r="B19" s="3">
-        <v>-1</v>
+        <v>5022</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1410,11 +1601,13 @@
         <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3">
+        <v>-2</v>
+      </c>
       <c r="J19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="3">
@@ -1428,20 +1621,38 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3">
+        <v>5022</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5028</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1451,13 +1662,13 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>0</v>
+        <v>5028</v>
       </c>
       <c r="B21" s="3">
-        <v>4025</v>
+        <v>-1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
@@ -1470,9 +1681,11 @@
       <c r="H21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3">
+        <v>-2</v>
+      </c>
       <c r="J21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="3">
@@ -1487,30 +1700,30 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>4025</v>
+        <v>5035</v>
       </c>
       <c r="B22" s="3">
-        <v>4026</v>
+        <v>5036</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="3">
+        <v>-2</v>
+      </c>
       <c r="J22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="3">
@@ -1525,13 +1738,13 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>4026</v>
+        <v>5036</v>
       </c>
       <c r="B23" s="3">
-        <v>4027</v>
+        <v>-1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -1544,9 +1757,11 @@
       <c r="H23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="3">
+        <v>-2</v>
+      </c>
       <c r="J23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="3">
@@ -1560,34 +1775,20 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="3">
-        <v>4027</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4028</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3">
-        <v>3</v>
-      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1597,18 +1798,18 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3">
-        <v>4028</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
         <v>13</v>
@@ -1616,9 +1817,11 @@
       <c r="H25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3">
-        <v>3</v>
+      <c r="I25" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="3">
@@ -1633,16 +1836,16 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3">
-        <v>4029</v>
+        <v>5050</v>
       </c>
       <c r="B26" s="3">
-        <v>4030</v>
+        <v>5051</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1652,9 +1855,11 @@
       <c r="H26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="3">
@@ -1669,18 +1874,20 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>4030</v>
+        <v>5051</v>
       </c>
       <c r="B27" s="3">
-        <v>4031</v>
+        <v>5055</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
         <v>13</v>
@@ -1688,9 +1895,11 @@
       <c r="H27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="3">
@@ -1705,16 +1914,16 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3">
-        <v>4031</v>
+        <v>5055</v>
       </c>
       <c r="B28" s="3">
-        <v>4032</v>
+        <v>-1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1724,9 +1933,11 @@
       <c r="H28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3">
-        <v>3</v>
+      <c r="I28" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="3">
@@ -1741,16 +1952,16 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>4032</v>
+        <v>5060</v>
       </c>
       <c r="B29" s="3">
-        <v>4033</v>
+        <v>5061</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1760,9 +1971,11 @@
       <c r="H29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3">
-        <v>3</v>
+      <c r="I29" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="3">
@@ -1777,18 +1990,20 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>4033</v>
+        <v>5061</v>
       </c>
       <c r="B30" s="3">
-        <v>4034</v>
+        <v>5062</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3" t="s">
         <v>13</v>
@@ -1796,9 +2011,11 @@
       <c r="H30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3">
-        <v>3</v>
+      <c r="I30" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="3">
@@ -1813,16 +2030,16 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>4034</v>
+        <v>5062</v>
       </c>
       <c r="B31" s="3">
-        <v>4035</v>
+        <v>-1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1832,9 +2049,11 @@
       <c r="H31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3">
-        <v>3</v>
+      <c r="I31" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="3">
@@ -1848,34 +2067,20 @@
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="3">
-        <v>4035</v>
-      </c>
-      <c r="B32" s="3">
-        <v>4036</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="3">
-        <v>3</v>
-      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -1885,18 +2090,18 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>4036</v>
+        <v>0</v>
       </c>
       <c r="B33" s="3">
-        <v>4037</v>
+        <v>5500</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -1904,9 +2109,11 @@
       <c r="H33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
       <c r="J33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="3">
@@ -1921,18 +2128,18 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>4037</v>
+        <v>5500</v>
       </c>
       <c r="B34" s="3">
-        <v>4038</v>
+        <v>5501</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
         <v>13</v>
@@ -1940,9 +2147,11 @@
       <c r="H34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="3">
+        <v>2</v>
+      </c>
       <c r="J34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="3">
@@ -1957,18 +2166,18 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>4038</v>
+        <v>5501</v>
       </c>
       <c r="B35" s="3">
-        <v>4039</v>
+        <v>5502</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3" t="s">
         <v>13</v>
@@ -1976,9 +2185,11 @@
       <c r="H35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
       <c r="J35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="3">
@@ -1993,18 +2204,18 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3">
-        <v>4039</v>
+        <v>5502</v>
       </c>
       <c r="B36" s="3">
-        <v>4040</v>
+        <v>5503</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="4"/>
       <c r="G36" s="3" t="s">
         <v>13</v>
@@ -2012,9 +2223,11 @@
       <c r="H36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
       <c r="J36" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="3">
@@ -2029,18 +2242,18 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>4040</v>
+        <v>5503</v>
       </c>
       <c r="B37" s="3">
-        <v>4041</v>
+        <v>5504</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="4"/>
       <c r="G37" s="3" t="s">
         <v>13</v>
@@ -2048,9 +2261,11 @@
       <c r="H37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="3">
+        <v>2</v>
+      </c>
       <c r="J37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="3">
@@ -2065,18 +2280,18 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="3">
-        <v>4041</v>
+        <v>5504</v>
       </c>
       <c r="B38" s="3">
-        <v>-1</v>
+        <v>5505</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
         <v>13</v>
@@ -2084,9 +2299,11 @@
       <c r="H38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="4"/>
+      <c r="I38" s="3">
+        <v>2</v>
+      </c>
       <c r="J38" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="3">
@@ -2100,20 +2317,36 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
+      <c r="A39" s="3">
+        <v>5505</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5506</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="G39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2123,18 +2356,18 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>0</v>
+        <v>5506</v>
       </c>
       <c r="B40" s="3">
-        <v>4050</v>
+        <v>5507</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="E40" s="3"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
         <v>13</v>
@@ -2142,9 +2375,11 @@
       <c r="H40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="3">
+        <v>2</v>
+      </c>
       <c r="J40" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="3">
@@ -2159,18 +2394,18 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3">
-        <v>4050</v>
+        <v>5507</v>
       </c>
       <c r="B41" s="3">
-        <v>4051</v>
+        <v>5508</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="3" t="s">
         <v>13</v>
@@ -2178,9 +2413,11 @@
       <c r="H41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
       <c r="J41" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="3">
@@ -2195,18 +2432,18 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3">
-        <v>4051</v>
+        <v>5508</v>
       </c>
       <c r="B42" s="3">
-        <v>4052</v>
+        <v>5509</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="4"/>
       <c r="G42" s="3" t="s">
         <v>13</v>
@@ -2214,9 +2451,11 @@
       <c r="H42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
       <c r="J42" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="3">
@@ -2231,18 +2470,18 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="3">
-        <v>4052</v>
+        <v>5509</v>
       </c>
       <c r="B43" s="3">
-        <v>4053</v>
+        <v>5510</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="4"/>
       <c r="G43" s="3" t="s">
         <v>13</v>
@@ -2250,9 +2489,11 @@
       <c r="H43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="4"/>
+      <c r="I43" s="3">
+        <v>2</v>
+      </c>
       <c r="J43" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="3">
@@ -2267,20 +2508,18 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3">
-        <v>4053</v>
+        <v>5510</v>
       </c>
       <c r="B44" s="3">
-        <v>-1</v>
+        <v>5511</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
         <v>13</v>
@@ -2288,9 +2527,11 @@
       <c r="H44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="4"/>
+      <c r="I44" s="3">
+        <v>2</v>
+      </c>
       <c r="J44" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="3">
@@ -2304,20 +2545,36 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="3">
+        <v>5511</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5512</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="G45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
       <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2327,18 +2584,18 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="3">
-        <v>0</v>
+        <v>5512</v>
       </c>
       <c r="B46" s="3">
-        <v>4060</v>
+        <v>5513</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="E46" s="3"/>
       <c r="F46" s="4"/>
       <c r="G46" s="3" t="s">
         <v>13</v>
@@ -2346,9 +2603,11 @@
       <c r="H46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="4"/>
+      <c r="I46" s="3">
+        <v>2</v>
+      </c>
       <c r="J46" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="3">
@@ -2363,18 +2622,18 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="3">
-        <v>4060</v>
+        <v>5513</v>
       </c>
       <c r="B47" s="3">
-        <v>4061</v>
+        <v>5514</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="4"/>
       <c r="G47" s="3" t="s">
         <v>13</v>
@@ -2382,9 +2641,11 @@
       <c r="H47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="4"/>
+      <c r="I47" s="3">
+        <v>2</v>
+      </c>
       <c r="J47" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="3">
@@ -2399,18 +2660,18 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="3">
-        <v>4061</v>
+        <v>5514</v>
       </c>
       <c r="B48" s="3">
-        <v>4062</v>
+        <v>5515</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="4"/>
       <c r="G48" s="3" t="s">
         <v>13</v>
@@ -2418,9 +2679,11 @@
       <c r="H48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="4"/>
+      <c r="I48" s="3">
+        <v>2</v>
+      </c>
       <c r="J48" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="3">
@@ -2435,18 +2698,18 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="3">
-        <v>4062</v>
+        <v>5515</v>
       </c>
       <c r="B49" s="3">
-        <v>4063</v>
+        <v>5516</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="4"/>
       <c r="G49" s="3" t="s">
         <v>13</v>
@@ -2454,9 +2717,11 @@
       <c r="H49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="4"/>
+      <c r="I49" s="3">
+        <v>2</v>
+      </c>
       <c r="J49" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="3">
@@ -2471,18 +2736,18 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="3">
-        <v>4063</v>
+        <v>5516</v>
       </c>
       <c r="B50" s="3">
-        <v>4064</v>
+        <v>5517</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="4"/>
       <c r="G50" s="3" t="s">
         <v>13</v>
@@ -2490,9 +2755,11 @@
       <c r="H50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="4"/>
+      <c r="I50" s="3">
+        <v>2</v>
+      </c>
       <c r="J50" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="3">
@@ -2507,18 +2774,18 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="3">
-        <v>4064</v>
+        <v>5517</v>
       </c>
       <c r="B51" s="3">
-        <v>4065</v>
+        <v>5518</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="4"/>
       <c r="G51" s="3" t="s">
         <v>13</v>
@@ -2526,9 +2793,11 @@
       <c r="H51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="4"/>
+      <c r="I51" s="3">
+        <v>2</v>
+      </c>
       <c r="J51" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="3">
@@ -2543,18 +2812,18 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="3">
-        <v>4065</v>
-      </c>
-      <c r="B52" s="4"/>
+        <v>5518</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5519</v>
+      </c>
       <c r="C52" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="4"/>
       <c r="G52" s="3" t="s">
         <v>13</v>
@@ -2562,9 +2831,11 @@
       <c r="H52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="4"/>
+      <c r="I52" s="3">
+        <v>2</v>
+      </c>
       <c r="J52" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="3">
@@ -2579,18 +2850,18 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="3">
-        <v>4070</v>
+        <v>5519</v>
       </c>
       <c r="B53" s="3">
-        <v>4071</v>
+        <v>5520</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="4"/>
       <c r="G53" s="3" t="s">
         <v>13</v>
@@ -2598,9 +2869,11 @@
       <c r="H53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="4"/>
+      <c r="I53" s="3">
+        <v>2</v>
+      </c>
       <c r="J53" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="3">
@@ -2615,18 +2888,20 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="3">
-        <v>4071</v>
+        <v>5520</v>
       </c>
       <c r="B54" s="3">
-        <v>4072</v>
+        <v>5521</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="3" t="s">
         <v>13</v>
@@ -2634,9 +2909,11 @@
       <c r="H54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="4"/>
+      <c r="I54" s="3">
+        <v>2</v>
+      </c>
       <c r="J54" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="3">
@@ -2651,28 +2928,32 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="3">
-        <v>4072</v>
+        <v>5521</v>
       </c>
       <c r="B55" s="3">
-        <v>4073</v>
+        <v>5522</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="G55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="4"/>
+      <c r="I55" s="3">
+        <v>2</v>
+      </c>
       <c r="J55" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="3">
@@ -2687,18 +2968,18 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="3">
-        <v>4073</v>
-      </c>
-      <c r="B56" s="3"/>
+        <v>5522</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5523</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
         <v>13</v>
@@ -2706,9 +2987,11 @@
       <c r="H56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="4"/>
+      <c r="I56" s="3">
+        <v>2</v>
+      </c>
       <c r="J56" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="3">
@@ -2723,18 +3006,18 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="3">
-        <v>4074</v>
+        <v>5523</v>
       </c>
       <c r="B57" s="3">
-        <v>4075</v>
+        <v>5524</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="4"/>
       <c r="G57" s="3" t="s">
         <v>13</v>
@@ -2742,9 +3025,11 @@
       <c r="H57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="4"/>
+      <c r="I57" s="3">
+        <v>2</v>
+      </c>
       <c r="J57" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="3">
@@ -2759,18 +3044,18 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3">
-        <v>4075</v>
+        <v>5524</v>
       </c>
       <c r="B58" s="3">
-        <v>4076</v>
+        <v>5525</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="4"/>
       <c r="G58" s="3" t="s">
         <v>13</v>
@@ -2778,9 +3063,11 @@
       <c r="H58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="4"/>
+      <c r="I58" s="3">
+        <v>2</v>
+      </c>
       <c r="J58" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="3">
@@ -2795,16 +3082,16 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="3">
-        <v>4076</v>
+        <v>5525</v>
       </c>
       <c r="B59" s="3">
-        <v>4077</v>
+        <v>5526</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2814,9 +3101,11 @@
       <c r="H59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="4"/>
+      <c r="I59" s="3">
+        <v>2</v>
+      </c>
       <c r="J59" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="3">
@@ -2831,16 +3120,16 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="3">
-        <v>4077</v>
+        <v>5526</v>
       </c>
       <c r="B60" s="3">
-        <v>4078</v>
+        <v>5527</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -2850,9 +3139,11 @@
       <c r="H60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="4"/>
+      <c r="I60" s="3">
+        <v>2</v>
+      </c>
       <c r="J60" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="3">
@@ -2867,16 +3158,16 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="3">
-        <v>4078</v>
+        <v>5527</v>
       </c>
       <c r="B61" s="3">
-        <v>4079</v>
+        <v>5528</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2886,9 +3177,11 @@
       <c r="H61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="4"/>
+      <c r="I61" s="3">
+        <v>2</v>
+      </c>
       <c r="J61" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="3">
@@ -2903,16 +3196,16 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="3">
-        <v>4079</v>
+        <v>5528</v>
       </c>
       <c r="B62" s="3">
-        <v>4080</v>
+        <v>5529</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -2922,9 +3215,11 @@
       <c r="H62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="4"/>
+      <c r="I62" s="3">
+        <v>2</v>
+      </c>
       <c r="J62" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="3">
@@ -2939,16 +3234,16 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="3">
-        <v>4080</v>
+        <v>5529</v>
       </c>
       <c r="B63" s="3">
-        <v>4081</v>
+        <v>5530</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2958,9 +3253,11 @@
       <c r="H63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="4"/>
+      <c r="I63" s="3">
+        <v>2</v>
+      </c>
       <c r="J63" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="3">
@@ -2975,16 +3272,16 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="3">
-        <v>4081</v>
+        <v>5530</v>
       </c>
       <c r="B64" s="3">
-        <v>4082</v>
+        <v>5531</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2994,9 +3291,11 @@
       <c r="H64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="4"/>
+      <c r="I64" s="3">
+        <v>2</v>
+      </c>
       <c r="J64" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="3">
@@ -3011,20 +3310,18 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="3">
-        <v>4082</v>
+        <v>5531</v>
       </c>
       <c r="B65" s="3">
-        <v>-1</v>
+        <v>5532</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="3" t="s">
         <v>13</v>
@@ -3032,9 +3329,11 @@
       <c r="H65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="4"/>
+      <c r="I65" s="3">
+        <v>2</v>
+      </c>
       <c r="J65" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="3">
@@ -3048,20 +3347,36 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="2" t="s">
-        <v>86</v>
+      <c r="A66" s="3">
+        <v>5532</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="G66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
       <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -3071,16 +3386,16 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="3">
-        <v>0</v>
+        <v>5540</v>
       </c>
       <c r="B67" s="3">
-        <v>4090</v>
+        <v>5541</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -3090,9 +3405,11 @@
       <c r="H67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="4"/>
+      <c r="I67" s="3">
+        <v>2</v>
+      </c>
       <c r="J67" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="3">
@@ -3107,16 +3424,16 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="3">
-        <v>4090</v>
+        <v>5541</v>
       </c>
       <c r="B68" s="3">
-        <v>4091</v>
+        <v>5542</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3126,9 +3443,11 @@
       <c r="H68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="4"/>
+      <c r="I68" s="3">
+        <v>2</v>
+      </c>
       <c r="J68" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="3">
@@ -3143,18 +3462,20 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="3">
-        <v>4091</v>
+        <v>5542</v>
       </c>
       <c r="B69" s="3">
-        <v>4092</v>
+        <v>5543</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="3" t="s">
         <v>13</v>
@@ -3162,9 +3483,11 @@
       <c r="H69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="4"/>
+      <c r="I69" s="3">
+        <v>2</v>
+      </c>
       <c r="J69" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="3">
@@ -3179,57 +3502,73 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3">
-        <v>4092</v>
+        <v>5543</v>
       </c>
       <c r="B70" s="3">
         <v>-1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70" s="3">
+        <v>2</v>
+      </c>
       <c r="J70" s="3">
-        <v>6</v>
-      </c>
-      <c r="K70" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="3"/>
       <c r="L70" s="3">
         <v>1</v>
       </c>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="A71" s="3">
+        <v>5550</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5551</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="G71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1</v>
+      </c>
       <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -3239,16 +3578,16 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="3">
-        <v>0</v>
+        <v>5551</v>
       </c>
       <c r="B72" s="3">
-        <v>4100</v>
+        <v>5552</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -3258,9 +3597,11 @@
       <c r="H72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="3" t="s">
-        <v>93</v>
+      <c r="I72" s="3">
+        <v>2</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="3">
@@ -3275,18 +3616,20 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3">
-        <v>4100</v>
+        <v>5552</v>
       </c>
       <c r="B73" s="3">
-        <v>4101</v>
+        <v>5555</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="3" t="s">
         <v>13</v>
@@ -3294,9 +3637,11 @@
       <c r="H73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="3" t="s">
-        <v>93</v>
+      <c r="I73" s="3">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3">
+        <v>1</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="3">
@@ -3311,16 +3656,16 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="3">
-        <v>4101</v>
+        <v>5555</v>
       </c>
       <c r="B74" s="3">
-        <v>4102</v>
+        <v>5556</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -3330,9 +3675,11 @@
       <c r="H74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="3" t="s">
-        <v>93</v>
+      <c r="I74" s="3">
+        <v>2</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="3">
@@ -3347,30 +3694,30 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="3">
-        <v>4102</v>
+        <v>5556</v>
       </c>
       <c r="B75" s="3">
-        <v>-1</v>
+        <v>5557</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F75" s="4"/>
       <c r="G75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="3" t="s">
-        <v>93</v>
+      <c r="I75" s="3">
+        <v>2</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="3">
@@ -3384,20 +3731,36 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="A76" s="3">
+        <v>5557</v>
+      </c>
+      <c r="B76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="G76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
       <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3406,34 +3769,20 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="3">
-        <v>0</v>
-      </c>
-      <c r="B77" s="3">
-        <v>4500</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="3">
-        <v>1</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -3443,30 +3792,30 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="B78" s="3">
-        <v>-1</v>
+        <v>5600</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F78" s="4"/>
       <c r="G78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I78" s="4"/>
+      <c r="H78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2</v>
+      </c>
       <c r="J78" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="3">
@@ -3480,18 +3829,36 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="A79" s="3">
+        <v>5600</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5601</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="G79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -3500,18 +3867,36 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="A80" s="3">
+        <v>5601</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5602</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+      <c r="G80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="3">
+        <v>2</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -3520,18 +3905,36 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="A81" s="3">
+        <v>5602</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5603</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
+      <c r="G81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -3540,18 +3943,36 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="A82" s="3">
+        <v>5603</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5604</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+      <c r="G82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="3">
+        <v>2</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="L82" s="3">
+        <v>1</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3560,18 +3981,36 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="A83" s="3">
+        <v>5604</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5605</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="G83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3580,18 +4019,36 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="A84" s="3">
+        <v>5605</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5606</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
+      <c r="G84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -3600,18 +4057,36 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="A85" s="3">
+        <v>5606</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5607</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
+      <c r="G85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+      <c r="L85" s="3">
+        <v>1</v>
+      </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -3620,18 +4095,36 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="A86" s="3">
+        <v>5607</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5608</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -3640,18 +4133,36 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="A87" s="3">
+        <v>5608</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5609</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -3660,18 +4171,36 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="A88" s="3">
+        <v>5609</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5610</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
+      <c r="G88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -3680,18 +4209,36 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="A89" s="3">
+        <v>5610</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5611</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
+      <c r="G89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -3700,18 +4247,36 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="A90" s="3">
+        <v>5611</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5612</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="G90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -3720,18 +4285,36 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="A91" s="3">
+        <v>5612</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5613</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
+      <c r="G91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+      <c r="L91" s="3">
+        <v>1</v>
+      </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -3740,18 +4323,36 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="A92" s="3">
+        <v>5613</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5614</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="G92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="L92" s="3">
+        <v>1</v>
+      </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -3760,18 +4361,36 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="A93" s="3">
+        <v>5614</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5615</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
+      <c r="G93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="3">
+        <v>2</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="L93" s="3">
+        <v>1</v>
+      </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -3780,18 +4399,36 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="A94" s="3">
+        <v>5615</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5616</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
+      <c r="G94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="L94" s="3">
+        <v>1</v>
+      </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -3800,18 +4437,36 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="A95" s="3">
+        <v>5616</v>
+      </c>
+      <c r="B95" s="3">
+        <v>5617</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
+      <c r="G95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="3">
+        <v>2</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="L95" s="3">
+        <v>1</v>
+      </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -3820,18 +4475,36 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="A96" s="3">
+        <v>5617</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5618</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="G96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="L96" s="3">
+        <v>1</v>
+      </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -3840,18 +4513,36 @@
       <c r="R96" s="4"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="A97" s="3">
+        <v>5618</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5619</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="G97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="3">
+        <v>2</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="L97" s="3">
+        <v>1</v>
+      </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -3860,18 +4551,36 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="A98" s="3">
+        <v>5619</v>
+      </c>
+      <c r="B98" s="3">
+        <v>5620</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+      <c r="L98" s="3">
+        <v>1</v>
+      </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -3880,18 +4589,40 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="A99" s="3">
+        <v>5620</v>
+      </c>
+      <c r="B99" s="4">
+        <v>5625</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
+      <c r="L99" s="3">
+        <v>1</v>
+      </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -3900,18 +4631,35 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="A100" s="3">
+        <v>5625</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5626</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
+      <c r="G100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -3920,18 +4668,36 @@
       <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="A101" s="3">
+        <v>5626</v>
+      </c>
+      <c r="B101" s="3">
+        <v>5627</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="G101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -3940,18 +4706,36 @@
       <c r="R101" s="4"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="A102" s="3">
+        <v>5627</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5628</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="G102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="L102" s="3">
+        <v>1</v>
+      </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -3960,18 +4744,36 @@
       <c r="R102" s="4"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="A103" s="3">
+        <v>5628</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5629</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="G103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="L103" s="3">
+        <v>1</v>
+      </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -3980,18 +4782,36 @@
       <c r="R103" s="4"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="A104" s="3">
+        <v>5629</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5630</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="G104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="3">
+        <v>2</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
+      <c r="L104" s="3">
+        <v>1</v>
+      </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -4000,18 +4820,36 @@
       <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="A105" s="3">
+        <v>5630</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5631</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
+      <c r="G105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="L105" s="3">
+        <v>1</v>
+      </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -4020,18 +4858,36 @@
       <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="A106" s="3">
+        <v>5631</v>
+      </c>
+      <c r="B106" s="3">
+        <v>5632</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
+      <c r="G106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
+      <c r="L106" s="3">
+        <v>1</v>
+      </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -4040,18 +4896,36 @@
       <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="A107" s="3">
+        <v>5632</v>
+      </c>
+      <c r="B107" s="3">
+        <v>5633</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
+      <c r="G107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="L107" s="3">
+        <v>1</v>
+      </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -4060,18 +4934,36 @@
       <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="A108" s="3">
+        <v>5633</v>
+      </c>
+      <c r="B108" s="3">
+        <v>5634</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
+      <c r="G108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="3">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
+      <c r="L108" s="3">
+        <v>1</v>
+      </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -4080,18 +4972,36 @@
       <c r="R108" s="4"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="4"/>
+      <c r="A109" s="3">
+        <v>5634</v>
+      </c>
       <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="C109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
+      <c r="G109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
+      <c r="L109" s="3">
+        <v>1</v>
+      </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -4100,18 +5010,36 @@
       <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="A110" s="3">
+        <v>5640</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5641</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
+      <c r="G110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="3">
+        <v>2</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -4120,18 +5048,36 @@
       <c r="R110" s="4"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="A111" s="3">
+        <v>5641</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5642</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="G111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="L111" s="3">
+        <v>1</v>
+      </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -4140,18 +5086,36 @@
       <c r="R111" s="4"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="A112" s="3">
+        <v>5642</v>
+      </c>
+      <c r="B112" s="3">
+        <v>5643</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="G112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="L112" s="3">
+        <v>1</v>
+      </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -4160,18 +5124,36 @@
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="A113" s="3">
+        <v>5643</v>
+      </c>
+      <c r="B113" s="3">
+        <v>5644</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="G113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="3">
+        <v>2</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="L113" s="3">
+        <v>1</v>
+      </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -4180,18 +5162,38 @@
       <c r="R113" s="4"/>
     </row>
     <row r="114" spans="1:18">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="A114" s="3">
+        <v>5644</v>
+      </c>
+      <c r="B114" s="3">
+        <v>5645</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
+      <c r="G114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="3">
+        <v>2</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="L114" s="3">
+        <v>1</v>
+      </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -4200,18 +5202,36 @@
       <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:18">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="A115" s="3">
+        <v>5645</v>
+      </c>
+      <c r="B115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
+      <c r="G115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" s="3">
+        <v>2</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="L115" s="3">
+        <v>1</v>
+      </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -4220,18 +5240,36 @@
       <c r="R115" s="4"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="A116" s="3">
+        <v>5650</v>
+      </c>
+      <c r="B116" s="3">
+        <v>5651</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+      <c r="G116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="3">
+        <v>2</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="L116" s="3">
+        <v>1</v>
+      </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -4240,18 +5278,36 @@
       <c r="R116" s="4"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="A117" s="3">
+        <v>5651</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5652</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
+      <c r="G117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="3">
+        <v>2</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="L117" s="3">
+        <v>1</v>
+      </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -4260,18 +5316,36 @@
       <c r="R117" s="4"/>
     </row>
     <row r="118" spans="1:18">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
+      <c r="A118" s="3">
+        <v>5652</v>
+      </c>
+      <c r="B118" s="3">
+        <v>5653</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
+      <c r="G118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="3">
+        <v>2</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="L118" s="3">
+        <v>1</v>
+      </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -4280,18 +5354,36 @@
       <c r="R118" s="4"/>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="A119" s="3">
+        <v>5653</v>
+      </c>
+      <c r="B119" s="3">
+        <v>5654</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
+      <c r="G119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="3">
+        <v>2</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="L119" s="3">
+        <v>1</v>
+      </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -4300,18 +5392,36 @@
       <c r="R119" s="4"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="A120" s="3">
+        <v>5654</v>
+      </c>
+      <c r="B120" s="3">
+        <v>5655</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
+      <c r="G120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="3">
+        <v>2</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="L120" s="3">
+        <v>1</v>
+      </c>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -4320,18 +5430,38 @@
       <c r="R120" s="4"/>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+      <c r="A121" s="3">
+        <v>5655</v>
+      </c>
+      <c r="B121" s="3">
+        <v>5656</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
+      <c r="G121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="3">
+        <v>2</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="L121" s="3">
+        <v>1</v>
+      </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -4340,18 +5470,36 @@
       <c r="R121" s="4"/>
     </row>
     <row r="122" spans="1:18">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="A122" s="3">
+        <v>5656</v>
+      </c>
+      <c r="B122" s="3">
+        <v>5657</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
+      <c r="G122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="3">
+        <v>2</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="L122" s="3">
+        <v>1</v>
+      </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -4360,18 +5508,36 @@
       <c r="R122" s="4"/>
     </row>
     <row r="123" spans="1:18">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="A123" s="3">
+        <v>5657</v>
+      </c>
+      <c r="B123" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
+      <c r="G123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="3">
+        <v>2</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="L123" s="3">
+        <v>1</v>
+      </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -7019,26 +8185,6 @@
       <c r="Q255" s="4"/>
       <c r="R255" s="4"/>
     </row>
-    <row r="256" spans="1:18">
-      <c r="A256" s="4"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="4"/>
-      <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="4"/>
-      <c r="J256" s="4"/>
-      <c r="K256" s="4"/>
-      <c r="L256" s="4"/>
-      <c r="M256" s="4"/>
-      <c r="N256" s="4"/>
-      <c r="O256" s="4"/>
-      <c r="P256" s="4"/>
-      <c r="Q256" s="4"/>
-      <c r="R256" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42E14E-7735-4F10-BCB5-DBE50F0C3299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ABB25F-6001-49E2-B076-4E5F681DB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="171">
   <si>
     <t>index</t>
   </si>
@@ -64,418 +64,475 @@
     <t>%s_EvilSmile</t>
   </si>
   <si>
-    <t>Mushroom,Egg,Tomato,Lemon</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t># 推门1，次数1，队伍里没有玉米时</t>
-  </si>
-  <si>
-    <t>哟，你好！</t>
-  </si>
-  <si>
-    <t>土豆</t>
-  </si>
-  <si>
-    <t>你好呀，我是土豆。\n请问你是？来这里有什么事吗？</t>
-  </si>
-  <si>
-    <t>哇哦，好日常的对话，好正常的措辞。</t>
-  </si>
-  <si>
-    <t>嘿嘿，谢谢夸奖。\n我的豆生信条就是：做一个普普通通的土豆。</t>
-  </si>
-  <si>
-    <t>那我们很像耶！\n我的菇生信条就是：小打小闹，作恶多端！</t>
-  </si>
-  <si>
-    <t>听起来是个普普通通的恶棍呢。\n真不错！</t>
-  </si>
-  <si>
-    <t>我也曾经有过更伟大的理想啦。\n比如颠覆这个世界、暗杀某某厨师、寻找外星生物…之类的！</t>
-  </si>
-  <si>
-    <t>哦哦！我也有过哦！\n比如考上年级第一、收到一封情书、成为摇滚巨星…之类的！</t>
-  </si>
-  <si>
-    <t>但是后来发现，我简直是毫无天赋！干啥啥不成！</t>
-  </si>
-  <si>
-    <t>知音啊！</t>
-  </si>
-  <si>
-    <t>那你现在有忙些什么吗？我这边的话，\n正在奔走宣传：赶在世界毁灭以前，和我一起去死吧！</t>
-  </si>
-  <si>
-    <t>哇哦，听起来真酷。\n我嘛，我在瞎忙活呢，比如摇晃我的叶子。</t>
-  </si>
-  <si>
-    <t>你那边如果有什么需要帮忙的，\n可以随时叫我哦。</t>
-  </si>
-  <si>
-    <t>唔唔，既然你都这么说了…</t>
-  </si>
-  <si>
-    <t>“加入我吧！我们一起去死！”+5020;“身体借我吧！我不想用现在这个身体去死啦！”+-2+1</t>
-  </si>
-  <si>
-    <t>好呀，不过我有点在意，\n为什么要赶在世界毁灭以前去死呢？</t>
-  </si>
-  <si>
-    <t>跟着世界一起死亡，\n不是很自然的事吗？</t>
-  </si>
-  <si>
-    <t>是主观能动性的问题啦！\n一个是主动寻求未知的结局，一个是被动等待固定的结局…</t>
-  </si>
-  <si>
-    <t>“我通常都会挑选更酷的那个选项啦！”+-3+1</t>
-  </si>
-  <si>
-    <t>原来如此！</t>
-  </si>
-  <si>
-    <t>哇哦，一个普普通通的身体。</t>
-  </si>
-  <si>
-    <t>(嘿嘿，谢谢夸奖。)</t>
-  </si>
-  <si>
-    <t># 推门2及以后，次数1，队伍里没有玉米时</t>
-  </si>
-  <si>
-    <t>你好呀，普通土豆。\n我普通地过来找你帮忙了！</t>
-  </si>
-  <si>
-    <t>“加入我吧！火热征集愿意和我一起去死的同伴！”+5050;“身体借我吧！我想带着普通的身体，找一个普通的死！”+5060</t>
-  </si>
-  <si>
-    <t>&gt;2</t>
-  </si>
-  <si>
-    <t>哇哦，谢谢你来找我帮忙。\n可是我不太想这么快就去死，听起来太不普通了。</t>
-  </si>
-  <si>
-    <t>可是世界马上就要毁灭了哦！\n无论是谁，都会在十分钟以内死去。</t>
-  </si>
-  <si>
-    <t>“这样一看，快速去死就很普通了！”+-3+1</t>
-  </si>
-  <si>
-    <t>有道理！</t>
-  </si>
-  <si>
-    <t>哇哦，谢谢你来找我帮忙。\n可是使用不同的身体去死，无论怎样，听起来都太不普通了。</t>
-  </si>
-  <si>
-    <t>那就…想想幼年的你和成年的你，\n如果它们统统去死，身体也是不同的嘛！</t>
-  </si>
-  <si>
-    <t>“这样一看，使用不同身体去死，就很普通了！”+-2+1</t>
-  </si>
-  <si>
-    <t>（有道理！）</t>
-  </si>
-  <si>
-    <t># 推门1，次数1，队伍里有玉米</t>
-  </si>
-  <si>
-    <t>你好呀，我是土豆。\n请问你们是？来这里有什么事吗？</t>
-  </si>
-  <si>
-    <t>它说它是土豆耶。\n是你认识的那个土豆吗？</t>
-  </si>
-  <si>
-    <t>我，我，我，我也不知道。</t>
-  </si>
-  <si>
-    <t>呃啊，明明在结巴，脸还是这么凶。</t>
-  </si>
-  <si>
-    <t>但你怎么这么不靠谱啊！\n连青梅竹马都不认识！</t>
-  </si>
-  <si>
-    <t>太久没见面了！\n上次见面的时候，我还在杆子上，它还在泥巴里…</t>
-  </si>
-  <si>
-    <t>这得是多久没见了啊！</t>
-  </si>
-  <si>
-    <t>你、你、你、你好！\n你还、记得我吗？</t>
-  </si>
-  <si>
-    <t>是在跟我说话吗？\n这位…呃。黑不溜秋的东西。</t>
-  </si>
-  <si>
-    <t>是！是我！我也不想变成这样！\n但是在小黑屋待久了，不知不觉就…</t>
-  </si>
-  <si>
-    <t>真可怜。如果有什么需要帮忙的，\n可以随时叫我哦。</t>
-  </si>
-  <si>
-    <t>是你！就是你！只有你！才会这么善良！</t>
+    <t># 推门1，次数1</t>
+  </si>
+  <si>
+    <t>是沙袋！</t>
+  </si>
+  <si>
+    <t>一拳揍飞+3001</t>
+  </si>
+  <si>
+    <t>Mushroom,Potato,Egg,Tomato</t>
+  </si>
+  <si>
+    <t>沙袋！</t>
+  </si>
+  <si>
+    <t>等、等等等等一等！\n不要揍我呜哇哇哇哇哇——！</t>
+  </si>
+  <si>
+    <t>Lemon_HangShake</t>
+  </si>
+  <si>
+    <t>Lemon_VCry</t>
+  </si>
+  <si>
+    <t>沙袋？</t>
+  </si>
+  <si>
+    <t>你看我挂在这里，心里一定在想：\n“哇哦~有个沙袋~~揍一下~~~”——一定是这样的吧！</t>
+  </si>
+  <si>
+    <t>Lemon_Cry</t>
+  </si>
+  <si>
+    <t>没有啦！\n我说话才不会用波浪号。</t>
+  </si>
+  <si>
+    <t>但是呢，我不是沙袋！\n就算我挂在这里一百分钟，也不会变成沙袋！</t>
+  </si>
+  <si>
+    <t>Lemon_HangJump</t>
+  </si>
+  <si>
+    <t>可是，有这样一句名言：\n如果有谁看着像沙袋，行为也像沙袋，那它就是沙袋啦！</t>
+  </si>
+  <si>
+    <t>所以一拳揍飞！+3007;“所以你还有最后一次狡辩的机会哦。”+3015</t>
+  </si>
+  <si>
+    <t>%s_EvilDisagree</t>
+  </si>
+  <si>
+    <t>呜啊————————————————————————————</t>
+  </si>
+  <si>
+    <t>Lemon_HangFly</t>
+  </si>
+  <si>
+    <t>啊。\n粘在天花板上了。</t>
+  </si>
+  <si>
+    <t>哈喽——\n还活着吗——</t>
+  </si>
+  <si>
+    <t>好像变成了生死不明的情况耶。</t>
+  </si>
+  <si>
+    <t>%s_EvilThink</t>
+  </si>
+  <si>
+    <t>唔唔…</t>
+  </si>
+  <si>
+    <t>就当无事发生吧！</t>
+  </si>
+  <si>
+    <t>沙袋…</t>
+  </si>
+  <si>
+    <t>呜呜…人家真的不是沙袋…</t>
+  </si>
+  <si>
+    <t>Lemon_Sad</t>
+  </si>
+  <si>
+    <t>对、对了！\n我想到了一个很有力的证据！</t>
+  </si>
+  <si>
+    <t>我的身上，有一种即将腐坏的气味！\n这种气味只有生物才会有哦！</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>沙袋那种非生物，是不会有的！\n所以快点过来，闻一闻你就明白了！</t>
+  </si>
+  <si>
+    <t>Lemon_HangLand</t>
+  </si>
+  <si>
+    <t>才不要，我又不是变态。</t>
+  </si>
+  <si>
+    <t>%s_EvilDown</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇——这是、这是唯一一个证据了——\n已经没有其他办法，证明我不是沙袋了…</t>
+  </si>
+  <si>
+    <t>嗯？你是什么时候下来的？\n话说回来，原来你是可以下来的吗？</t>
+  </si>
+  <si>
+    <t>%s_EvilAsk</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇哇哇哇哇…</t>
+  </si>
+  <si>
+    <t>好啦，不许哭了，烦死了。\n你都没有像沙袋一样挂着了，不就已经证明你不是沙袋了吗？</t>
+  </si>
+  <si>
+    <t>恭喜你啦，\n是你取得了辩论的胜利哦！</t>
+  </si>
+  <si>
+    <t>诶、诶诶、诶诶诶？\n是我吗？！是我的胜利！</t>
+  </si>
+  <si>
+    <t>嘿…嘿嘿嘿…我胜利了…\n嘿嘿…谢谢你哦，这可是我第一次获得胜利呢。</t>
+  </si>
+  <si>
+    <t>Lemon_Smile</t>
+  </si>
+  <si>
+    <t>哇哦——好感人——那就\n让气氛再热烈一点吧——此处应有雷鸣般的掌声——</t>
+  </si>
+  <si>
+    <t>呱唧呱唧呱唧呱唧呱唧呱唧呱唧呱唧！</t>
+  </si>
+  <si>
+    <t>Lemon_VSmile</t>
+  </si>
+  <si>
+    <t>现在，要为胜利者颁发奖励了哦——</t>
+  </si>
+  <si>
+    <t>呜呼~呜呼~~呜呼~~~</t>
+  </si>
+  <si>
+    <t>奖励就是——\n当当当当！是陪我一起去死的资格哦！</t>
+  </si>
+  <si>
+    <t>%s_EvilYeah</t>
+  </si>
+  <si>
+    <t>诶？</t>
+  </si>
+  <si>
+    <t>奖励当场发放，请及时查收！\n如果有疑问，也可以继续找本人辩论。</t>
+  </si>
+  <si>
+    <t>不过今天已经没有时间了啦。\n我要走咯，不跟上来的话，就当你不接受这个奖励了。</t>
+  </si>
+  <si>
+    <t>接受！当然接受！\n这可是我第一次得到奖励呢！</t>
+  </si>
+  <si>
+    <t>还挺爽快嘛，我喜欢。</t>
+  </si>
+  <si>
+    <t>“那我们就是一起去死的同伴了哦！”+-3+5</t>
+  </si>
+  <si>
+    <t>哦哦哦——！！\n这可是我第一次拥有同伴呢！</t>
+  </si>
+  <si>
+    <t># 推门2，次数1</t>
+  </si>
+  <si>
+    <t>一拳揍飞！+3050</t>
+  </si>
+  <si>
+    <t>等、等等等等一等！\n不要揍我——！</t>
+  </si>
+  <si>
+    <t>哎呀，为什么呢？\n沙袋不就是用来揍的吗？</t>
+  </si>
+  <si>
+    <t>还是说，其实你不是沙袋，\n而是一个抄袭沙袋特色的copy精？</t>
+  </si>
+  <si>
+    <t>不是沙袋</t>
+  </si>
+  <si>
+    <t>我不是copy精！也不是沙袋！\n重复一遍，我不是copy精！！</t>
+  </si>
+  <si>
+    <t>看来比起被当成沙袋，\n还是被当成copy精更难接受一点。</t>
+  </si>
+  <si>
+    <t>那我换个说法好了啦。不是沙袋却又像沙袋一样挂着，\n你是在玩什么cosplay吗？感觉品味好差哦。</t>
+  </si>
+  <si>
+    <t>呜呜呜…也不是cosplay！\n不过品味很差的cosplayer，听起来比copy精要好一点。</t>
+  </si>
+  <si>
+    <t>Lemon_VSad</t>
+  </si>
+  <si>
+    <t>这也不是、那也不是。\n感觉我提出的一百个可能性，会被你否定掉一百个耶。</t>
+  </si>
+  <si>
+    <t>大家的时间都很宝贵啦！\n再不说一点有营养的话题，大家就会跑去玩其他游戏了。</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+  </si>
+  <si>
+    <t>呜…！好、好好、好好好的！收到！没问题！\n首先，我是柠檬！</t>
+  </si>
+  <si>
+    <t>哇哦。\n真是一句一目了然的废话。</t>
+  </si>
+  <si>
+    <t>呜呜…我把自己像沙袋一样挂起来，\n是因为，大家看到沙袋，就会很想揍的吧！</t>
+  </si>
+  <si>
+    <t>所以还是想被揍嘛！\n那你一开始干嘛阻止我？</t>
+  </si>
+  <si>
+    <t>因为被揍很疼！</t>
+  </si>
+  <si>
+    <t>%s_EvilErr</t>
+  </si>
+  <si>
+    <t>才才才不是废话！这涉及到了\n一颗柠檬的，脆弱的、迷茫的、疼痛的内心…！</t>
+  </si>
+  <si>
+    <t>跳过这段剧情吧。\n我要去别的地方玩了。</t>
+  </si>
+  <si>
+    <t>%s_EvilScold</t>
+  </si>
+  <si>
+    <t>不要走！不要走！！\n前略！后略！总之！我想变得香香的！所以！才想着被揍！</t>
   </si>
   <si>
     <t>啊？</t>
   </si>
   <si>
-    <t>没有啦，我只能提供一点普通的帮助。\n更伟大的事，我就做不了了。</t>
-  </si>
-  <si>
-    <t>是你！就是你！只有你！才会这么普通！</t>
-  </si>
-  <si>
-    <t>耶？</t>
-  </si>
-  <si>
-    <t>最后、最后、最后一个问题！\n你的、你的、你的、豆生信条是什么？</t>
-  </si>
-  <si>
-    <t>“做一个普普通通的土豆。”\n因为很普通，所以我喜欢。</t>
-  </si>
-  <si>
-    <t>哦哦哦哦哦哦！哦哦哦哦哦哦！噢噢噢噢噢噢噢噢哦哦哦哦哦哦哦\n哦哦哦哦哦哦哦哦哦哦哦哦哦哦噢噢噢噢噢噢噢噢哦哦哦哦哦哦哦</t>
-  </si>
-  <si>
-    <t>呃啊。</t>
-  </si>
-  <si>
-    <t>“看来，终于到了激动的相认时刻？”+-4+2</t>
-  </si>
-  <si>
-    <t>土豆！是我！你还是和记忆中一模一样！</t>
-  </si>
-  <si>
-    <t>Corn_ToBright</t>
-  </si>
-  <si>
-    <t>是谁刚进门的时候都不敢认呀？</t>
-  </si>
-  <si>
-    <t>哦、哦哦！是、是你啊！</t>
-  </si>
-  <si>
-    <t>你怎么也一副\n完全不敢相认的模样啦！</t>
-  </si>
-  <si>
-    <t>我们都没错！都怪这残酷的命运，\n让我们过早地分离了！</t>
-  </si>
-  <si>
-    <t>还记得吗？小时候的我，还送过你一把贝斯呢！\n用我的须须做的。</t>
-  </si>
-  <si>
-    <t>哦！我确实有一把玉米贝斯。\n原来是你送的呀，我完全没印象了。</t>
-  </si>
-  <si>
-    <t>可恶！可恨！可怕的命运！\n可怜、可亲、可爱的我们！啊！</t>
-  </si>
-  <si>
-    <t>停一停，今天的抒情浓度已经超标了！\n还有这段对话怎么这么长啊！照顾一下没法跳过的人好吗！</t>
-  </si>
-  <si>
-    <t>而且非常没有营养！全部都是你的无意义嚎叫！\n也根本没有信息量！这样是会被骂水字数的！</t>
-  </si>
-  <si>
-    <t>实在抱歉！请不要生气！\n这样如何？有什么困难或者麻烦，我现在就能帮你！</t>
-  </si>
-  <si>
-    <t>所以为什么道歉的是你，那个混蛋反而隐身了啦。</t>
-  </si>
-  <si>
-    <t>“但是既然你都这么说了，那就加入我的小队吧！”+5540;“我觉得这个场景容不下第三个身体了。所以把你的身体给我！”+5550</t>
-  </si>
-  <si>
-    <t>我就是为此而来的！世界即将毁灭，\n我想赶在世界以前去死！有同伴当然更好啦。</t>
-  </si>
-  <si>
-    <t>原来如此，没有问题！\n让我成为你的同伴吧！</t>
-  </si>
-  <si>
-    <t>呜，真是个好心的豆。</t>
-  </si>
-  <si>
-    <t>“跟紧我就好了！”+-3+1</t>
-  </si>
-  <si>
-    <t>好哦！</t>
-  </si>
-  <si>
-    <t>原来如此，没有问题！\n就让我来为你解决多余的烦恼吧！</t>
-  </si>
-  <si>
-    <t>什、什么？什么什么？！\n为什么都不征求我的意见？！</t>
-  </si>
-  <si>
-    <t>因为你的表现恶心到我了。</t>
-  </si>
-  <si>
-    <t>“所以我也要恶心回来！”+-2+1</t>
-  </si>
-  <si>
-    <t>哒哒！我是，土豆！</t>
-  </si>
-  <si>
-    <t>啊啊啊啊啊啊啊啊啊啊啊——————你在干什么！你干了什么！</t>
-  </si>
-  <si>
-    <t>闭嘴。再叫，\n我就把你的身体也抢了！</t>
-  </si>
-  <si>
-    <t># 推门2及以后，次数1，队伍里有玉米</t>
-  </si>
-  <si>
-    <t>你好呀，普通土豆。\n我又来找你帮忙了。</t>
-  </si>
-  <si>
-    <t>你好呀！你很了解我呢！\n不过，我们曾经见过面吗？</t>
-  </si>
-  <si>
-    <t>见过吗？还是没见过呢？其实无所谓啦，\n因为今天的主角应该是——当当当！这位！</t>
-  </si>
-  <si>
-    <t>你、你、 你、你、你、好！</t>
-  </si>
-  <si>
-    <t>表情不要这么僵硬啦。\n你是来寻亲，又不是来寻仇的！</t>
-  </si>
-  <si>
-    <t>我、我、我、我知道！是你！一定就是你！\n你是！你是！你是！你是！你是你是你是你是！</t>
-  </si>
-  <si>
-    <t>我是土豆！我的名字\n有这么难以启齿吗？</t>
-  </si>
-  <si>
-    <t>不是、不是这个、意思！我是说！是你！我很确信是你！\n你的圆眼睛，还是这么智慧！你的头顶芽，还是这么飘逸！</t>
-  </si>
-  <si>
-    <t>谁去立个禁止抒情法啊？\n法令第一条，禁止说排比句。</t>
-  </si>
-  <si>
-    <t>我知道、你已经，不记得我的长相了！\n但是没关系！因为我也不记得你的长相了！</t>
-  </si>
-  <si>
-    <t>喂，你最好是真心想来寻亲的。</t>
-  </si>
-  <si>
-    <t>但是！过去是会留下痕迹的！\n当我看到你这普通的举止，我就知道！我没有认错！</t>
-  </si>
-  <si>
-    <t>唔，我的豆生信条，确实是\n“做一个普普通通的土豆。”来着。</t>
-  </si>
-  <si>
-    <t>没错！就是这种敷衍又意义不明的态度！\n让我一眼确定，你就是我的青梅竹马！</t>
-  </si>
-  <si>
-    <t>哇哦。终于说了一句有用的话。</t>
-  </si>
-  <si>
-    <t>原来是这样。\n可是抱歉，我好像没有青梅竹马来着…？</t>
-  </si>
-  <si>
-    <t>你只是忘记了！都怪这\n残酷的命运！冷酷的时光！冰冷的世界！</t>
-  </si>
-  <si>
-    <t>快点拿出一点实质性的证据啦，不然现在看起来，\n你就像是随机挑选了一个陌生倒霉豆，然后对着它胡乱发疯耶。</t>
-  </si>
-  <si>
-    <t>没、没、没、没错！证据！我当然有证据！\n你一定有一把黄色的贝斯，对吧！它是由玉米须须制成的！</t>
-  </si>
-  <si>
-    <t>确实诶，这件事我没有对外说过。\n你是怎么知道的？</t>
-  </si>
-  <si>
-    <t>因为，这就是我送的！</t>
-  </si>
-  <si>
-    <t>终于进入正题了…\n前面怎么说了这么多的废话啦！</t>
-  </si>
-  <si>
-    <t>“这样就算是相认了吗？”+-4+2</t>
-  </si>
-  <si>
-    <t>我不会认错！你就是我的青梅竹马！</t>
-  </si>
-  <si>
-    <t>我们…太久太久没有见面了。\n谁能想到，我们的重逢，是在世界末日以前！</t>
-  </si>
-  <si>
-    <t>什么世界末日？\n你好像说出了很不得了的话。</t>
-  </si>
-  <si>
-    <t>这个我来解释！\n其实我就是为此而来的。</t>
-  </si>
-  <si>
-    <t>什…！原来你不是\n为了陪我找青梅竹马才来的吗？</t>
-  </si>
-  <si>
-    <t>世界末日的意思就是，\n世界马上就要毁灭了哦！</t>
-  </si>
-  <si>
-    <t>你的废话也很多啊！</t>
-  </si>
-  <si>
-    <t>而我呢，想要死在世界的前面！因为听起来很酷。</t>
-  </si>
-  <si>
-    <t>你的理由也很扯啊！</t>
-  </si>
-  <si>
-    <t>谁去立个法禁止玉米说话啊！</t>
-  </si>
-  <si>
-    <t>“…总之我在寻找一起去死的同伴！”+5640;“…总之我在寻找新的身体！”+5650</t>
-  </si>
-  <si>
-    <t>所以就找到了我吗？</t>
-  </si>
-  <si>
-    <t>没有特意找你哦。无论是谁，\n我都会试着去说服一下的。因为很有意思。</t>
-  </si>
-  <si>
-    <t>好，那就让我成为你的同伴吧！</t>
-  </si>
-  <si>
-    <t>怎么这么果断！明明、明明就连和我相认\n都没有进行得这么顺利！</t>
-  </si>
-  <si>
-    <t>说明你对你青梅竹马的了解程度，还不如我啦！</t>
-  </si>
-  <si>
-    <t>“走了，同伴！一起去死咯！”+-3+1</t>
-  </si>
-  <si>
-    <t>等、等等等等！不要抛下我！！</t>
-  </si>
-  <si>
-    <t>毕竟，总是用自己的身体体验死亡，\n也是会腻的啦。</t>
-  </si>
-  <si>
-    <t>哇哦…听起来好有故事。</t>
-  </si>
-  <si>
-    <t>我也有很多我们的相识相知相处小故事！\n一定会比死去活来的故事好听很多！</t>
-  </si>
-  <si>
-    <t>好，我的身体可以借给你。</t>
-  </si>
-  <si>
-    <t>为什么？！不要啊？！我不允许！！拜托征求一下我的意见啊！！</t>
-  </si>
-  <si>
-    <t>谁理你啊？</t>
-  </si>
-  <si>
-    <t>“那我就收下了！”+-2+1</t>
-  </si>
-  <si>
-    <t>啊啊！啊啊啊！啊啊啊啊啊啊啊啊——————————————</t>
-  </si>
-  <si>
-    <t>走了！继续我的找死大业了！</t>
+    <t>%s_EvilShock</t>
+  </si>
+  <si>
+    <t>对啦…你又不是柠檬，你是不会懂的。\n有一个传说是：只要柠檬被暴打，就能变香哦！</t>
+  </si>
+  <si>
+    <t>Lemon_Pain</t>
+  </si>
+  <si>
+    <t>你确定这是传说，\n而不是什么冷笑话吗？</t>
+  </si>
+  <si>
+    <t>都说了你是不会懂的啦！\n呜呜…我说完了。真相就是这么简单、无聊，就和我一样…</t>
+  </si>
+  <si>
+    <t>我听明白了。你想变香，所以想被暴打，于是cos沙袋。\n但又怕疼，所以不准我揍你。</t>
+  </si>
+  <si>
+    <t>哇！你很会总结嘛！</t>
+  </si>
+  <si>
+    <t>好麻烦啊你这个柠檬。\n既然这样的话，自己打自己不就好了吗？</t>
+  </si>
+  <si>
+    <t>可是我的手臂很柔弱，\n打不动自己呢。</t>
+  </si>
+  <si>
+    <t>呃啊…麻烦死了。</t>
+  </si>
+  <si>
+    <t>长痛不如短痛，给你一拳！+3080;“必须要变香吗？你看我，就一点都不香。”+3085</t>
+  </si>
+  <si>
+    <t>嗯…\n看来粘在天花板上了。</t>
+  </si>
+  <si>
+    <t>走了走了，耽误太久了！</t>
+  </si>
+  <si>
+    <t>当然是必须的！这涉及到了\n一颗柠檬的，脆弱的、迷茫的、疼痛的内心…！</t>
+  </si>
+  <si>
+    <t>给我直接说结论啦！</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇——不要凶我——\n前略，后略，总之！我快坏了，感觉马上就会飘出腐烂的气味了…</t>
+  </si>
+  <si>
+    <t>呜呜…我担心…被精致漂亮的伙伴…嘲笑…说我闻起来像…\n上世纪死去的爷爷…垃圾场底的赝品古董…烂在土里的棺材…</t>
+  </si>
+  <si>
+    <t>呃啊。好具体的担心。</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇哇哇哇哇哇哇哇——\n讨厌！太讨厌了！又不是我想要坏的！干嘛自顾自的就坏了啊！</t>
+  </si>
+  <si>
+    <t>不要突然这么激动啦！</t>
+  </si>
+  <si>
+    <t>“要不要出门干点别的？就当换换心情了。”+3095;“干嘛这么讨厌自己？我就挺喜欢你的。”+3110</t>
+  </si>
+  <si>
+    <t>出门？我都没有出过门耶…</t>
+  </si>
+  <si>
+    <t>那你的精致漂亮伙伴\n是从哪里冒出来的啦！</t>
+  </si>
+  <si>
+    <t>我、我想出门！难怪之前\n都没人进来揍我，原来是因为我没有出过门啊！</t>
+  </si>
+  <si>
+    <t>我醒悟了！\n被揍，呃呃，无痛的那种！是要自己走出门争取的！</t>
+  </si>
+  <si>
+    <t>别惦记你那被揍了啦！</t>
+  </si>
+  <si>
+    <t>“跟我来！”+-3+5</t>
+  </si>
+  <si>
+    <t>哦、哦哦！</t>
+  </si>
+  <si>
+    <t>呜…</t>
+  </si>
+  <si>
+    <t>呜哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇\n呜哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇</t>
+  </si>
+  <si>
+    <t>我不信！我是脆弱的、迷茫的、疼痛的柠檬！我要你证明给我看！\n不然…呜呜…你就是在欺骗我…我就会更加脆弱…更加迷茫…更加…</t>
+  </si>
+  <si>
+    <t>别念了别念了…</t>
+  </si>
+  <si>
+    <t>“那就证明给你看。”+-2+5</t>
+  </si>
+  <si>
+    <t>如何？</t>
+  </si>
+  <si>
+    <t>（？？？！！！￥&amp;%*）</t>
+  </si>
+  <si>
+    <t>Lemon_Dark</t>
+  </si>
+  <si>
+    <t>这下你可以安心了吧。\n我都喜欢到变成你了。</t>
+  </si>
+  <si>
+    <t>（？！？！？！￥&amp;%。+$^QAQ）</t>
+  </si>
+  <si>
+    <t>你去冷静一会啦！\n我都搞不懂你想表达什么了。</t>
+  </si>
+  <si>
+    <t>那我继续主线咯。\n在这儿也耽误太久了。</t>
+  </si>
+  <si>
+    <t># 推门3，次数1</t>
+  </si>
+  <si>
+    <t>你知道吗，就算是沙袋，\n也不会喜欢被揍哦！</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>这可是我发现的独家秘密，现在告诉你了。\n你打算用什么来报答我呀？</t>
+  </si>
+  <si>
+    <t>独、独家？！意思是只告诉了我？\n呜呜呜…你好好哦！这可是我第一次成为谁的“唯一”呢…</t>
+  </si>
+  <si>
+    <t>不许肉麻！不许废话！\n快点想一个报答我的方案啦！</t>
+  </si>
+  <si>
+    <t>呜…！可是，我什么都没有…\n我只有一颗柠檬的，脆弱的…</t>
+  </si>
+  <si>
+    <t>“——迷茫的、疼痛的内心”…对吧？\n别念叨了，我都会背了。</t>
+  </si>
+  <si>
+    <t>诶？我、我有念过很多次吗？\n难道，你以前见过我？</t>
+  </si>
+  <si>
+    <t>啊啊，可能，上一周目吧？\n这都不重要，既然你没有想法，就由我来指定报答方案吧——</t>
+  </si>
+  <si>
+    <t>“跟我走，我去哪儿，你就得去哪儿。”+3210;“把你身体借我用用呗？我还挺喜欢柠檬的。”+3218</t>
+  </si>
+  <si>
+    <t>这、这这、这这这难道是表白吗？！\n莫非…你觉醒了前世的记忆！而我们，曾经是一对感天动地的情侣！</t>
+  </si>
+  <si>
+    <t>Lemon_Calm</t>
+  </si>
+  <si>
+    <t>不好意思啊，\n我是独身主义。</t>
+  </si>
+  <si>
+    <t>喔喔…</t>
+  </si>
+  <si>
+    <t>没时间废话了啦。</t>
+  </si>
+  <si>
+    <t>“要做的事还有很多呢！”+-3+5</t>
+  </si>
+  <si>
+    <t>哦…！好的！</t>
+  </si>
+  <si>
+    <t>这、这这、这这这种表白方式，\n听起来有点过于新潮了？！</t>
+  </si>
+  <si>
+    <t>但我是不会拒绝的！\n这可是我第一次被表白呢！</t>
+  </si>
+  <si>
+    <t>好吧，如果这么理解\n能让你开心的话。</t>
+  </si>
+  <si>
+    <t>“总之，身体就借我一用啦！”+-2+5</t>
+  </si>
+  <si>
+    <t>（！￥&amp;%*~~~）</t>
+  </si>
+  <si>
+    <t># 推门4及以后</t>
+  </si>
+  <si>
+    <t>前略，后略，给你两个选择！</t>
+  </si>
+  <si>
+    <t>“被我讨厌，或者跟我走。”+3250;“被我讨厌，或者把身体借我用。”+-2+5</t>
+  </si>
+  <si>
+    <t>&gt;4</t>
+  </si>
+  <si>
+    <t>呜…这可是我第一次\n被这么直白地威胁呢！</t>
+  </si>
+  <si>
+    <t>不过…不要讨厌我！虽然你威胁了我，而且我都不知道你是谁…\n但是不要讨厌我！被讨厌的话，我会忍不住哇哇大哭的！</t>
+  </si>
+  <si>
+    <t>可你一直都在哇哇大哭耶。</t>
+  </si>
+  <si>
+    <t>“不会讨厌你的啦。走了！”+-3+5</t>
+  </si>
+  <si>
+    <t>呜…好！</t>
+  </si>
+  <si>
+    <t>（？！？！？！￥&amp;%。+$^都没有给我选择的时间啦QAQ）</t>
+  </si>
+  <si>
+    <t>大家的时间都太宝贵了。\n理解一下啦。</t>
   </si>
 </sst>
 </file>
@@ -545,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,6 +623,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -949,20 +1009,20 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -975,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>5001</v>
+        <v>3001</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="3">
         <v>1</v>
       </c>
@@ -1010,28 +1070,28 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>5001</v>
+        <v>3001</v>
       </c>
       <c r="B4" s="3">
-        <v>5002</v>
+        <v>3002</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="3">
         <v>1</v>
       </c>
@@ -1048,28 +1108,26 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3">
-        <v>5002</v>
+        <v>3002</v>
       </c>
       <c r="B5" s="3">
-        <v>5003</v>
+        <v>3003</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="3">
         <v>1</v>
       </c>
@@ -1086,16 +1144,16 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>5003</v>
+        <v>3003</v>
       </c>
       <c r="B6" s="3">
-        <v>5004</v>
+        <v>3004</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1103,11 +1161,9 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="3">
         <v>1</v>
       </c>
@@ -1124,28 +1180,28 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>5004</v>
+        <v>3004</v>
       </c>
       <c r="B7" s="3">
-        <v>5005</v>
+        <v>3005</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="3">
         <v>1</v>
       </c>
@@ -1162,28 +1218,26 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
-        <v>5005</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5006</v>
-      </c>
+        <v>3005</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="3">
         <v>1</v>
       </c>
@@ -1200,28 +1254,28 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>5006</v>
+        <v>3007</v>
       </c>
       <c r="B9" s="3">
-        <v>5007</v>
+        <v>3008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="3">
         <v>1</v>
       </c>
@@ -1238,28 +1292,26 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>5007</v>
+        <v>3008</v>
       </c>
       <c r="B10" s="3">
-        <v>5008</v>
+        <v>3009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="3">
         <v>1</v>
       </c>
@@ -1276,16 +1328,16 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>5008</v>
+        <v>3009</v>
       </c>
       <c r="B11" s="3">
-        <v>5009</v>
+        <v>3010</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1293,11 +1345,9 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="3">
         <v>1</v>
       </c>
@@ -1314,28 +1364,26 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>5009</v>
+        <v>3010</v>
       </c>
       <c r="B12" s="3">
-        <v>5010</v>
+        <v>3011</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="3">
         <v>1</v>
       </c>
@@ -1352,28 +1400,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
-        <v>5010</v>
+        <v>3011</v>
       </c>
       <c r="B13" s="3">
-        <v>5011</v>
+        <v>3012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="3">
         <v>1</v>
       </c>
@@ -1390,16 +1436,16 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
-        <v>5011</v>
+        <v>3012</v>
       </c>
       <c r="B14" s="3">
-        <v>5012</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1407,11 +1453,9 @@
         <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="3">
         <v>1</v>
       </c>
@@ -1429,28 +1473,26 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>5012</v>
+        <v>3015</v>
       </c>
       <c r="B15" s="3">
-        <v>5013</v>
+        <v>3016</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
+      <c r="G15" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="3">
         <v>1</v>
       </c>
@@ -1468,28 +1510,28 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>5013</v>
+        <v>3016</v>
       </c>
       <c r="B16" s="3">
-        <v>5014</v>
+        <v>3017</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>13</v>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="3">
         <v>1</v>
       </c>
@@ -1506,30 +1548,26 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>5014</v>
+        <v>3017</v>
       </c>
       <c r="B17" s="3">
-        <v>5035</v>
+        <v>3018</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="3">
         <v>1</v>
       </c>
@@ -1546,28 +1584,28 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>5020</v>
+        <v>3018</v>
       </c>
       <c r="B18" s="3">
-        <v>5021</v>
+        <v>3019</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>13</v>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="3">
         <v>1</v>
       </c>
@@ -1584,28 +1622,26 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>5021</v>
+        <v>3019</v>
       </c>
       <c r="B19" s="3">
-        <v>5022</v>
+        <v>3020</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
+      <c r="G19" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="3">
         <v>1</v>
       </c>
@@ -1622,30 +1658,26 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>5022</v>
+        <v>3020</v>
       </c>
       <c r="B20" s="3">
-        <v>5028</v>
+        <v>3021</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="3">
         <v>1</v>
       </c>
@@ -1662,28 +1694,26 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>5028</v>
+        <v>3021</v>
       </c>
       <c r="B21" s="3">
-        <v>-1</v>
+        <v>3022</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
-        <v>13</v>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="3">
         <v>1</v>
       </c>
@@ -1700,28 +1730,26 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>5035</v>
+        <v>3022</v>
       </c>
       <c r="B22" s="3">
-        <v>5036</v>
+        <v>3023</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>13</v>
+      <c r="G22" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="3">
         <v>1</v>
       </c>
@@ -1738,28 +1766,26 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>5036</v>
+        <v>3023</v>
       </c>
       <c r="B23" s="3">
-        <v>-1</v>
+        <v>3024</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
-        <v>13</v>
+      <c r="G23" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="3">
         <v>1</v>
       </c>
@@ -1775,20 +1801,34 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="3">
+        <v>3024</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3025</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1798,30 +1838,28 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>3025</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3026</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>13</v>
+      <c r="G25" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="3">
-        <v>-2</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3">
+        <v>1</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="3">
@@ -1836,30 +1874,28 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3">
-        <v>5050</v>
+        <v>3026</v>
       </c>
       <c r="B26" s="3">
-        <v>5051</v>
+        <v>3027</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>13</v>
+      <c r="G26" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3">
+        <v>1</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="3">
@@ -1874,32 +1910,28 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>5051</v>
+        <v>3027</v>
       </c>
       <c r="B27" s="3">
-        <v>5055</v>
+        <v>3028</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>13</v>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3">
+        <v>1</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="3">
@@ -1914,30 +1946,28 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3">
-        <v>5055</v>
+        <v>3028</v>
       </c>
       <c r="B28" s="3">
-        <v>-1</v>
+        <v>3029</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>13</v>
+      <c r="G28" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="3">
-        <v>-2</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3">
+        <v>1</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="3">
@@ -1952,16 +1982,16 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>5060</v>
+        <v>3029</v>
       </c>
       <c r="B29" s="3">
-        <v>5061</v>
+        <v>3030</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1969,13 +1999,11 @@
         <v>13</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-2</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3">
+        <v>1</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="3">
@@ -1990,32 +2018,28 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>5061</v>
+        <v>3030</v>
       </c>
       <c r="B30" s="3">
-        <v>5062</v>
+        <v>3031</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
-        <v>13</v>
+      <c r="G30" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="3">
-        <v>-2</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3">
+        <v>1</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="3">
@@ -2030,30 +2054,28 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>5062</v>
+        <v>3031</v>
       </c>
       <c r="B31" s="3">
-        <v>-1</v>
+        <v>3032</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="3">
-        <v>-2</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3">
+        <v>1</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="3">
@@ -2067,20 +2089,34 @@
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="3">
+        <v>3032</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3033</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2090,28 +2126,26 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>0</v>
+        <v>3033</v>
       </c>
       <c r="B33" s="3">
-        <v>5500</v>
+        <v>3034</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="3">
         <v>1</v>
       </c>
@@ -2128,28 +2162,26 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>5500</v>
+        <v>3034</v>
       </c>
       <c r="B34" s="3">
-        <v>5501</v>
+        <v>3035</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="3">
         <v>1</v>
       </c>
@@ -2166,28 +2198,26 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>5501</v>
+        <v>3035</v>
       </c>
       <c r="B35" s="3">
-        <v>5502</v>
+        <v>3036</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="3" t="s">
-        <v>13</v>
+      <c r="G35" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="3">
         <v>1</v>
       </c>
@@ -2204,28 +2234,28 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3">
-        <v>5502</v>
+        <v>3036</v>
       </c>
       <c r="B36" s="3">
-        <v>5503</v>
+        <v>3040</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="3">
         <v>1</v>
       </c>
@@ -2242,28 +2272,26 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>5503</v>
+        <v>3040</v>
       </c>
       <c r="B37" s="3">
-        <v>5504</v>
+        <v>-1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="3" t="s">
-        <v>13</v>
+      <c r="G37" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I37" s="4"/>
       <c r="J37" s="3">
         <v>1</v>
       </c>
@@ -2279,36 +2307,20 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="3">
-        <v>5504</v>
-      </c>
-      <c r="B38" s="3">
-        <v>5505</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="3"/>
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="3">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2318,30 +2330,28 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="3">
-        <v>5505</v>
-      </c>
-      <c r="B39" s="3">
-        <v>5506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="3">
+        <v>17</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3">
         <v>2</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="3">
@@ -2356,30 +2366,30 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>5506</v>
+        <v>3050</v>
       </c>
       <c r="B40" s="3">
-        <v>5507</v>
+        <v>3051</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="3">
+        <v>17</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3">
         <v>2</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="3">
@@ -2394,30 +2404,28 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3">
-        <v>5507</v>
+        <v>3051</v>
       </c>
       <c r="B41" s="3">
-        <v>5508</v>
+        <v>3052</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="3" t="s">
-        <v>13</v>
+      <c r="G41" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="3">
+        <v>17</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3">
         <v>2</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="3">
@@ -2432,30 +2440,28 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3">
-        <v>5508</v>
+        <v>3052</v>
       </c>
       <c r="B42" s="3">
-        <v>5509</v>
+        <v>3053</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="3">
+        <v>17</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3">
         <v>2</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="3">
@@ -2470,30 +2476,30 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="3">
-        <v>5509</v>
+        <v>3053</v>
       </c>
       <c r="B43" s="3">
-        <v>5510</v>
+        <v>3054</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="3">
+        <v>17</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3">
         <v>2</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="3">
@@ -2508,30 +2514,28 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3">
-        <v>5510</v>
+        <v>3054</v>
       </c>
       <c r="B44" s="3">
-        <v>5511</v>
+        <v>3055</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="3" t="s">
-        <v>13</v>
+      <c r="G44" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="3">
+        <v>17</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3">
         <v>2</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="3">
@@ -2546,30 +2550,28 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="3">
-        <v>5511</v>
+        <v>3055</v>
       </c>
       <c r="B45" s="3">
-        <v>5512</v>
+        <v>3056</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="3">
+        <v>17</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="3">
         <v>2</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="3">
@@ -2584,30 +2586,28 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="3">
-        <v>5512</v>
+        <v>3056</v>
       </c>
       <c r="B46" s="3">
-        <v>5513</v>
+        <v>3057</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="3" t="s">
-        <v>13</v>
+      <c r="G46" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="3">
+        <v>17</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="3">
         <v>2</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="3">
@@ -2622,30 +2622,28 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="3">
-        <v>5513</v>
+        <v>3057</v>
       </c>
       <c r="B47" s="3">
-        <v>5514</v>
+        <v>3058</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="3" t="s">
-        <v>13</v>
+      <c r="G47" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="3">
+        <v>17</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="3">
         <v>2</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="3">
@@ -2660,30 +2658,28 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="3">
-        <v>5514</v>
+        <v>3058</v>
       </c>
       <c r="B48" s="3">
-        <v>5515</v>
+        <v>3059</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="3" t="s">
-        <v>13</v>
+      <c r="G48" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="3">
+        <v>17</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="3">
         <v>2</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="3">
@@ -2698,30 +2694,30 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="3">
-        <v>5515</v>
+        <v>3059</v>
       </c>
       <c r="B49" s="3">
-        <v>5516</v>
+        <v>3060</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="3">
+        <v>17</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="3">
         <v>2</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="3">
@@ -2736,30 +2732,28 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="3">
-        <v>5516</v>
+        <v>3060</v>
       </c>
       <c r="B50" s="3">
-        <v>5517</v>
+        <v>3061</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="3" t="s">
-        <v>13</v>
+      <c r="G50" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="3">
+        <v>17</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="3">
         <v>2</v>
-      </c>
-      <c r="J50" s="3">
-        <v>1</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="3">
@@ -2774,30 +2768,28 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="3">
-        <v>5517</v>
+        <v>3061</v>
       </c>
       <c r="B51" s="3">
-        <v>5518</v>
+        <v>3062</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="3" t="s">
-        <v>13</v>
+      <c r="G51" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="3">
+        <v>17</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="3">
         <v>2</v>
-      </c>
-      <c r="J51" s="3">
-        <v>1</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="3">
@@ -2812,30 +2804,28 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="3">
-        <v>5518</v>
+        <v>3062</v>
       </c>
       <c r="B52" s="3">
-        <v>5519</v>
+        <v>3063</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="3" t="s">
-        <v>13</v>
+      <c r="G52" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="3">
+        <v>17</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="3">
         <v>2</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="3">
@@ -2850,30 +2840,28 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="3">
-        <v>5519</v>
+        <v>3063</v>
       </c>
       <c r="B53" s="3">
-        <v>5520</v>
+        <v>3064</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="3" t="s">
-        <v>13</v>
+      <c r="G53" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="3">
+        <v>17</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="3">
         <v>2</v>
-      </c>
-      <c r="J53" s="3">
-        <v>1</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="3">
@@ -2888,32 +2876,28 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="3">
-        <v>5520</v>
+        <v>3064</v>
       </c>
       <c r="B54" s="3">
-        <v>5521</v>
+        <v>3065</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="3" t="s">
-        <v>13</v>
+      <c r="G54" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="3">
+        <v>17</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="3">
         <v>2</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="3">
@@ -2928,32 +2912,30 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="3">
-        <v>5521</v>
+        <v>3065</v>
       </c>
       <c r="B55" s="3">
-        <v>5522</v>
+        <v>3066</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="3">
+        <v>17</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="3">
         <v>2</v>
-      </c>
-      <c r="J55" s="3">
-        <v>1</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="3">
@@ -2968,30 +2950,28 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="3">
-        <v>5522</v>
+        <v>3066</v>
       </c>
       <c r="B56" s="3">
-        <v>5523</v>
+        <v>3067</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="3" t="s">
-        <v>13</v>
+      <c r="G56" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="3">
+        <v>17</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="3">
         <v>2</v>
-      </c>
-      <c r="J56" s="3">
-        <v>1</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="3">
@@ -3006,30 +2986,30 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="3">
-        <v>5523</v>
+        <v>3067</v>
       </c>
       <c r="B57" s="3">
-        <v>5524</v>
+        <v>3068</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="3">
+        <v>17</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="3">
         <v>2</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="3">
@@ -3044,30 +3024,28 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3">
-        <v>5524</v>
+        <v>3068</v>
       </c>
       <c r="B58" s="3">
-        <v>5525</v>
+        <v>3069</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="3" t="s">
-        <v>13</v>
+      <c r="G58" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="3">
+        <v>17</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="3">
         <v>2</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="3">
@@ -3082,30 +3060,28 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="3">
-        <v>5525</v>
+        <v>3069</v>
       </c>
       <c r="B59" s="3">
-        <v>5526</v>
+        <v>3070</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="3" t="s">
-        <v>13</v>
+      <c r="G59" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="3">
+        <v>17</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="3">
         <v>2</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="3">
@@ -3120,30 +3096,28 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="3">
-        <v>5526</v>
+        <v>3070</v>
       </c>
       <c r="B60" s="3">
-        <v>5527</v>
+        <v>3071</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="3" t="s">
-        <v>13</v>
+      <c r="G60" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="3">
+        <v>17</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="3">
         <v>2</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="3">
@@ -3158,30 +3132,28 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="3">
-        <v>5527</v>
+        <v>3071</v>
       </c>
       <c r="B61" s="3">
-        <v>5528</v>
+        <v>3072</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="3" t="s">
-        <v>13</v>
+      <c r="G61" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="3">
+        <v>17</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="3">
         <v>2</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="3">
@@ -3196,30 +3168,28 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="3">
-        <v>5528</v>
+        <v>3072</v>
       </c>
       <c r="B62" s="3">
-        <v>5529</v>
+        <v>3073</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="3" t="s">
-        <v>13</v>
+      <c r="G62" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="3">
+        <v>17</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="3">
         <v>2</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="3">
@@ -3234,30 +3204,28 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="3">
-        <v>5529</v>
+        <v>3073</v>
       </c>
       <c r="B63" s="3">
-        <v>5530</v>
+        <v>3074</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="3" t="s">
-        <v>13</v>
+      <c r="G63" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="3">
+        <v>17</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="3">
         <v>2</v>
-      </c>
-      <c r="J63" s="3">
-        <v>1</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="3">
@@ -3272,30 +3240,28 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="3">
-        <v>5530</v>
+        <v>3074</v>
       </c>
       <c r="B64" s="3">
-        <v>5531</v>
+        <v>3075</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="3" t="s">
-        <v>13</v>
+      <c r="G64" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="3">
+        <v>17</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="3">
         <v>2</v>
-      </c>
-      <c r="J64" s="3">
-        <v>1</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="3">
@@ -3310,30 +3276,28 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="3">
-        <v>5531</v>
+        <v>3075</v>
       </c>
       <c r="B65" s="3">
-        <v>5532</v>
+        <v>3076</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="3" t="s">
-        <v>13</v>
+      <c r="G65" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="3">
+        <v>17</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="3">
         <v>2</v>
-      </c>
-      <c r="J65" s="3">
-        <v>1</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="3">
@@ -3348,30 +3312,28 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="3">
-        <v>5532</v>
-      </c>
-      <c r="B66" s="4"/>
+        <v>3076</v>
+      </c>
+      <c r="B66" s="3"/>
       <c r="C66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="3" t="s">
-        <v>13</v>
+      <c r="G66" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="3">
+        <v>17</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="3">
         <v>2</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="3">
@@ -3386,30 +3348,30 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="3">
-        <v>5540</v>
+        <v>3080</v>
       </c>
       <c r="B67" s="3">
-        <v>5541</v>
+        <v>3081</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="3" t="s">
-        <v>13</v>
+      <c r="F67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="3">
+        <v>17</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="3">
         <v>2</v>
-      </c>
-      <c r="J67" s="3">
-        <v>1</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="3">
@@ -3424,30 +3386,28 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="3">
-        <v>5541</v>
+        <v>3081</v>
       </c>
       <c r="B68" s="3">
-        <v>5542</v>
+        <v>3082</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="3" t="s">
-        <v>13</v>
+      <c r="G68" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="3">
+        <v>17</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="3">
         <v>2</v>
-      </c>
-      <c r="J68" s="3">
-        <v>1</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="3">
@@ -3462,32 +3422,28 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="3">
-        <v>5542</v>
+        <v>3082</v>
       </c>
       <c r="B69" s="3">
-        <v>5543</v>
+        <v>-1</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="3">
+        <v>17</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="3">
         <v>2</v>
-      </c>
-      <c r="J69" s="3">
-        <v>1</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="3">
@@ -3502,32 +3458,32 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3">
-        <v>5543</v>
+        <v>3085</v>
       </c>
       <c r="B70" s="3">
-        <v>-1</v>
+        <v>3086</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3" t="s">
-        <v>13</v>
+        <v>110</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="3">
+        <v>17</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="3">
         <v>2</v>
       </c>
-      <c r="J70" s="3">
-        <v>1</v>
-      </c>
-      <c r="K70" s="3"/>
+      <c r="K70" s="4"/>
       <c r="L70" s="3">
         <v>1</v>
       </c>
@@ -3540,30 +3496,28 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="3">
-        <v>5550</v>
+        <v>3086</v>
       </c>
       <c r="B71" s="3">
-        <v>5551</v>
+        <v>3087</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="3" t="s">
-        <v>13</v>
+      <c r="G71" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" s="3">
+        <v>17</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="3">
         <v>2</v>
-      </c>
-      <c r="J71" s="3">
-        <v>1</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="3">
@@ -3578,30 +3532,28 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="3">
-        <v>5551</v>
+        <v>3087</v>
       </c>
       <c r="B72" s="3">
-        <v>5552</v>
+        <v>3088</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="3" t="s">
-        <v>13</v>
+      <c r="G72" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="3">
+        <v>17</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="3">
         <v>2</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="3">
@@ -3616,32 +3568,28 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3">
-        <v>5552</v>
+        <v>3088</v>
       </c>
       <c r="B73" s="3">
-        <v>5555</v>
+        <v>3089</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="3" t="s">
-        <v>13</v>
+      <c r="G73" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="3">
+        <v>17</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="3">
         <v>2</v>
-      </c>
-      <c r="J73" s="3">
-        <v>1</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="3">
@@ -3656,30 +3604,28 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="3">
-        <v>5555</v>
+        <v>3089</v>
       </c>
       <c r="B74" s="3">
-        <v>5556</v>
+        <v>3090</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="3" t="s">
-        <v>13</v>
+      <c r="G74" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="3">
+        <v>17</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="3">
         <v>2</v>
-      </c>
-      <c r="J74" s="3">
-        <v>1</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="3">
@@ -3694,30 +3640,30 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="3">
-        <v>5556</v>
+        <v>3090</v>
       </c>
       <c r="B75" s="3">
-        <v>5557</v>
+        <v>3091</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="3" t="s">
-        <v>13</v>
+      <c r="F75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="3">
+        <v>17</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="3">
         <v>2</v>
-      </c>
-      <c r="J75" s="3">
-        <v>1</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="3">
@@ -3732,30 +3678,28 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="3">
-        <v>5557</v>
-      </c>
-      <c r="B76" s="3">
-        <v>-1</v>
-      </c>
+        <v>3091</v>
+      </c>
+      <c r="B76" s="4"/>
       <c r="C76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="3" t="s">
-        <v>13</v>
+      <c r="G76" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="3">
+        <v>17</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="3">
         <v>2</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="3">
@@ -3769,20 +3713,34 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="A77" s="3">
+        <v>3095</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3096</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+      <c r="G77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="J77" s="3">
+        <v>2</v>
+      </c>
       <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="L77" s="3">
+        <v>1</v>
+      </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -3792,30 +3750,28 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="3">
-        <v>0</v>
+        <v>3096</v>
       </c>
       <c r="B78" s="3">
-        <v>5600</v>
+        <v>3097</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="3" t="s">
-        <v>13</v>
+      <c r="G78" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="3">
+        <v>17</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="3">
         <v>2</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="3">
@@ -3830,30 +3786,30 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="3">
-        <v>5600</v>
+        <v>3097</v>
       </c>
       <c r="B79" s="3">
-        <v>5601</v>
+        <v>3098</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="3" t="s">
-        <v>13</v>
+      <c r="F79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="3">
+        <v>17</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="3">
         <v>2</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="3">
@@ -3868,30 +3824,28 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="3">
-        <v>5601</v>
+        <v>3098</v>
       </c>
       <c r="B80" s="3">
-        <v>5602</v>
+        <v>3099</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="3" t="s">
-        <v>13</v>
+      <c r="G80" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="3">
+        <v>17</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="3">
         <v>2</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="3">
@@ -3906,30 +3860,30 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="3">
-        <v>5602</v>
+        <v>3099</v>
       </c>
       <c r="B81" s="3">
-        <v>5603</v>
+        <v>3100</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E81" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="3" t="s">
-        <v>13</v>
+      <c r="G81" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="3">
+        <v>17</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="3">
         <v>2</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="3">
@@ -3944,32 +3898,30 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="3">
-        <v>5603</v>
+        <v>3100</v>
       </c>
       <c r="B82" s="3">
-        <v>5604</v>
+        <v>-1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="3" t="s">
-        <v>13</v>
+        <v>124</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="3">
+        <v>17</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
         <v>2</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K82" s="4"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="3">
         <v>1</v>
       </c>
@@ -3982,30 +3934,28 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="3">
-        <v>5604</v>
+        <v>3110</v>
       </c>
       <c r="B83" s="3">
-        <v>5605</v>
+        <v>3111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="3" t="s">
-        <v>13</v>
+      <c r="G83" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="3">
+        <v>17</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="3">
         <v>2</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="3">
@@ -4020,30 +3970,30 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="3">
-        <v>5605</v>
+        <v>3111</v>
       </c>
       <c r="B84" s="3">
-        <v>5606</v>
+        <v>3112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="3" t="s">
-        <v>13</v>
+      <c r="F84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="3">
+        <v>17</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="3">
         <v>2</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="3">
@@ -4058,30 +4008,30 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="3">
-        <v>5606</v>
+        <v>3112</v>
       </c>
       <c r="B85" s="3">
-        <v>5607</v>
+        <v>3113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="3" t="s">
-        <v>13</v>
+      <c r="F85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="3">
+        <v>17</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="3">
         <v>2</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="3">
@@ -4096,30 +4046,30 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="3">
-        <v>5607</v>
+        <v>3113</v>
       </c>
       <c r="B86" s="3">
-        <v>5608</v>
+        <v>3120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E86" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="3" t="s">
-        <v>13</v>
+      <c r="G86" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="3">
+        <v>17</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="3">
         <v>2</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="3">
@@ -4134,30 +4084,30 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="3">
-        <v>5608</v>
+        <v>3120</v>
       </c>
       <c r="B87" s="3">
-        <v>5609</v>
+        <v>3121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="3" t="s">
-        <v>13</v>
+      <c r="F87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="3">
+        <v>17</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="3">
         <v>2</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="3">
@@ -4172,30 +4122,28 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="3">
-        <v>5609</v>
+        <v>3121</v>
       </c>
       <c r="B88" s="3">
-        <v>5610</v>
+        <v>3122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="3" t="s">
-        <v>13</v>
+      <c r="G88" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="3">
+        <v>17</v>
+      </c>
+      <c r="I88" s="4"/>
+      <c r="J88" s="3">
         <v>2</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="3">
@@ -4210,30 +4158,28 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="3">
-        <v>5610</v>
+        <v>3122</v>
       </c>
       <c r="B89" s="3">
-        <v>5611</v>
+        <v>3123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="3" t="s">
-        <v>13</v>
+      <c r="G89" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="3">
+        <v>17</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="3">
         <v>2</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="3">
@@ -4248,30 +4194,28 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="3">
-        <v>5611</v>
+        <v>3123</v>
       </c>
       <c r="B90" s="3">
-        <v>5612</v>
+        <v>3124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="3" t="s">
-        <v>13</v>
+      <c r="G90" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="3">
+        <v>17</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="3">
         <v>2</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="3">
@@ -4286,30 +4230,28 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="3">
-        <v>5612</v>
+        <v>3124</v>
       </c>
       <c r="B91" s="3">
-        <v>5613</v>
+        <v>3125</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="3" t="s">
-        <v>13</v>
+      <c r="G91" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="3">
+        <v>17</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="3">
         <v>2</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="3">
@@ -4324,30 +4266,28 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="3">
-        <v>5613</v>
+        <v>3125</v>
       </c>
       <c r="B92" s="3">
-        <v>5614</v>
+        <v>-1</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" s="3">
+        <v>17</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="3">
         <v>2</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="3">
@@ -4361,36 +4301,20 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="3">
-        <v>5614</v>
-      </c>
-      <c r="B93" s="3">
-        <v>5615</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" s="3">
-        <v>2</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="3">
-        <v>1</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4400,30 +4324,28 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="3">
-        <v>5615</v>
+        <v>0</v>
       </c>
       <c r="B94" s="3">
-        <v>5616</v>
+        <v>3200</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="3" t="s">
-        <v>13</v>
+      <c r="G94" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" s="3">
-        <v>2</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="3">
+        <v>3</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="3">
@@ -4438,30 +4360,28 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="3">
-        <v>5616</v>
+        <v>3200</v>
       </c>
       <c r="B95" s="3">
-        <v>5617</v>
+        <v>3201</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="3">
         <v>3</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" s="3">
-        <v>2</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="3">
@@ -4476,30 +4396,28 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="3">
-        <v>5617</v>
+        <v>3201</v>
       </c>
       <c r="B96" s="3">
-        <v>5618</v>
+        <v>3202</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" s="3">
-        <v>2</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="3">
+        <v>3</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="3">
@@ -4514,30 +4432,30 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="3">
-        <v>5618</v>
+        <v>3202</v>
       </c>
       <c r="B97" s="3">
-        <v>5619</v>
+        <v>3203</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="3" t="s">
-        <v>13</v>
+      <c r="F97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" s="3">
-        <v>2</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="3">
+        <v>3</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="3">
@@ -4552,30 +4470,28 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="3">
-        <v>5619</v>
+        <v>3203</v>
       </c>
       <c r="B98" s="3">
-        <v>5620</v>
+        <v>3204</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="3" t="s">
-        <v>13</v>
+      <c r="G98" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="3">
-        <v>2</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="3">
+        <v>3</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="3">
@@ -4590,34 +4506,28 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="3">
-        <v>5620</v>
-      </c>
-      <c r="B99" s="4">
-        <v>5625</v>
+        <v>3204</v>
+      </c>
+      <c r="B99" s="3">
+        <v>3205</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="4"/>
+      <c r="J99" s="3">
         <v>3</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="3">
-        <v>2</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="3">
@@ -4632,29 +4542,28 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="3">
-        <v>5625</v>
+        <v>3205</v>
       </c>
       <c r="B100" s="3">
-        <v>5626</v>
+        <v>3206</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="G100" s="3" t="s">
-        <v>13</v>
+      <c r="F100" s="4"/>
+      <c r="G100" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="3">
+        <v>3</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="3">
@@ -4669,30 +4578,30 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="3">
-        <v>5626</v>
+        <v>3206</v>
       </c>
       <c r="B101" s="3">
-        <v>5627</v>
+        <v>3207</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="3" t="s">
-        <v>13</v>
+      <c r="F101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="3">
+        <v>3</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="3">
@@ -4707,30 +4616,28 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="3">
-        <v>5627</v>
-      </c>
-      <c r="B102" s="3">
-        <v>5628</v>
-      </c>
+        <v>3207</v>
+      </c>
+      <c r="B102" s="4"/>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E102" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="F102" s="4"/>
-      <c r="G102" s="3" t="s">
-        <v>13</v>
+      <c r="G102" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="3">
+        <v>3</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="3">
@@ -4745,30 +4652,30 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="3">
-        <v>5628</v>
+        <v>3210</v>
       </c>
       <c r="B103" s="3">
-        <v>5629</v>
+        <v>3211</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="4"/>
+      <c r="J103" s="3">
         <v>3</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="3">
-        <v>2</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K103" s="4"/>
       <c r="L103" s="3">
@@ -4783,30 +4690,28 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="3">
-        <v>5629</v>
+        <v>3211</v>
       </c>
       <c r="B104" s="3">
-        <v>5630</v>
+        <v>3212</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="3" t="s">
-        <v>13</v>
+      <c r="G104" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" s="3">
-        <v>2</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I104" s="4"/>
+      <c r="J104" s="3">
+        <v>3</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="3">
@@ -4821,30 +4726,28 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="3">
-        <v>5630</v>
+        <v>3212</v>
       </c>
       <c r="B105" s="3">
-        <v>5631</v>
+        <v>3213</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="3" t="s">
-        <v>13</v>
+      <c r="G105" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="3">
-        <v>2</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I105" s="4"/>
+      <c r="J105" s="3">
+        <v>3</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="3">
@@ -4859,30 +4762,30 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="3">
-        <v>5631</v>
+        <v>3213</v>
       </c>
       <c r="B106" s="3">
-        <v>5632</v>
+        <v>3214</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="F106" s="4"/>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="3">
-        <v>2</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I106" s="4"/>
+      <c r="J106" s="3">
+        <v>3</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="3">
@@ -4897,32 +4800,30 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="3">
-        <v>5632</v>
+        <v>3214</v>
       </c>
       <c r="B107" s="3">
-        <v>5633</v>
+        <v>-1</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3">
         <v>3</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" s="3">
-        <v>2</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K107" s="4"/>
+      <c r="K107" s="3"/>
       <c r="L107" s="3">
         <v>1</v>
       </c>
@@ -4935,30 +4836,30 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="3">
-        <v>5633</v>
+        <v>3218</v>
       </c>
       <c r="B108" s="3">
-        <v>5634</v>
+        <v>3219</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="3" t="s">
-        <v>13</v>
+      <c r="F108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="3">
-        <v>2</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I108" s="4"/>
+      <c r="J108" s="3">
+        <v>3</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="3">
@@ -4973,30 +4874,28 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="3">
-        <v>5634</v>
-      </c>
-      <c r="B109" s="4"/>
+        <v>3219</v>
+      </c>
+      <c r="B109" s="3">
+        <v>3220</v>
+      </c>
       <c r="C109" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="4"/>
+      <c r="J109" s="3">
         <v>3</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="3">
-        <v>2</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="3">
@@ -5011,30 +4910,30 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="3">
-        <v>5640</v>
+        <v>3220</v>
       </c>
       <c r="B110" s="3">
-        <v>5641</v>
+        <v>3221</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="F110" s="4"/>
-      <c r="G110" s="3" t="s">
-        <v>13</v>
+      <c r="G110" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" s="3">
-        <v>2</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="I110" s="4"/>
+      <c r="J110" s="3">
+        <v>3</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="3">
@@ -5049,32 +4948,30 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="3">
-        <v>5641</v>
+        <v>3221</v>
       </c>
       <c r="B111" s="3">
-        <v>5642</v>
+        <v>-1</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3">
         <v>3</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="3">
-        <v>2</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K111" s="4"/>
+      <c r="K111" s="3"/>
       <c r="L111" s="3">
         <v>1</v>
       </c>
@@ -5086,36 +4983,20 @@
       <c r="R111" s="4"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="3">
-        <v>5642</v>
-      </c>
-      <c r="B112" s="3">
-        <v>5643</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" s="3">
-        <v>2</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="3">
-        <v>1</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -5125,30 +5006,30 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="3">
-        <v>5643</v>
+        <v>0</v>
       </c>
       <c r="B113" s="3">
-        <v>5644</v>
+        <v>3258</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E113" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="F113" s="4"/>
-      <c r="G113" s="3" t="s">
-        <v>13</v>
+      <c r="G113" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I113" s="4"/>
       <c r="J113" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="3">
@@ -5163,32 +5044,30 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="3">
-        <v>5644</v>
+        <v>3250</v>
       </c>
       <c r="B114" s="3">
-        <v>5645</v>
+        <v>3251</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F114" s="4"/>
-      <c r="G114" s="3" t="s">
-        <v>13</v>
+        <v>164</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I114" s="4"/>
       <c r="J114" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="3">
@@ -5203,30 +5082,28 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="3">
-        <v>5645</v>
+        <v>3251</v>
       </c>
       <c r="B115" s="3">
-        <v>-1</v>
+        <v>3252</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="3" t="s">
-        <v>13</v>
+      <c r="F115" s="3"/>
+      <c r="G115" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I115" s="4"/>
       <c r="J115" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="3">
@@ -5241,30 +5118,30 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="3">
-        <v>5650</v>
+        <v>3252</v>
       </c>
       <c r="B116" s="3">
-        <v>5651</v>
+        <v>3253</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E116" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="F116" s="4"/>
-      <c r="G116" s="3" t="s">
-        <v>13</v>
+      <c r="G116" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I116" s="4"/>
       <c r="J116" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="3">
@@ -5279,32 +5156,30 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="3">
-        <v>5651</v>
+        <v>3253</v>
       </c>
       <c r="B117" s="3">
-        <v>5652</v>
+        <v>-1</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="3" t="s">
-        <v>13</v>
+        <v>168</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I117" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I117" s="3"/>
       <c r="J117" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K117" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="K117" s="3"/>
       <c r="L117" s="3">
         <v>1</v>
       </c>
@@ -5317,30 +5192,28 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="3">
-        <v>5652</v>
+        <v>3258</v>
       </c>
       <c r="B118" s="3">
-        <v>5653</v>
+        <v>3259</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="3" t="s">
-        <v>13</v>
+      <c r="G118" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I118" s="4"/>
       <c r="J118" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="K118" s="4"/>
       <c r="L118" s="3">
@@ -5355,30 +5228,28 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="3">
-        <v>5653</v>
+        <v>3259</v>
       </c>
       <c r="B119" s="3">
-        <v>5654</v>
+        <v>3260</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="3" t="s">
-        <v>13</v>
+      <c r="G119" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I119" s="4"/>
       <c r="J119" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="3">
@@ -5393,30 +5264,28 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="3">
-        <v>5654</v>
+        <v>3260</v>
       </c>
       <c r="B120" s="3">
-        <v>5655</v>
+        <v>-1</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="3" t="s">
-        <v>13</v>
+      <c r="G120" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I120" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I120" s="4"/>
       <c r="J120" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="K120" s="4"/>
       <c r="L120" s="3">
@@ -5430,38 +5299,18 @@
       <c r="R120" s="4"/>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" s="3">
-        <v>5655</v>
-      </c>
-      <c r="B121" s="3">
-        <v>5656</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" s="3">
-        <v>2</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="3">
-        <v>1</v>
-      </c>
+      <c r="L121" s="3"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -5470,36 +5319,18 @@
       <c r="R121" s="4"/>
     </row>
     <row r="122" spans="1:18">
-      <c r="A122" s="3">
-        <v>5656</v>
-      </c>
-      <c r="B122" s="3">
-        <v>5657</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I122" s="3">
-        <v>2</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="3">
-        <v>1</v>
-      </c>
+      <c r="L122" s="3"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -5508,36 +5339,18 @@
       <c r="R122" s="4"/>
     </row>
     <row r="123" spans="1:18">
-      <c r="A123" s="3">
-        <v>5657</v>
-      </c>
-      <c r="B123" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I123" s="3">
-        <v>2</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="3">
-        <v>1</v>
-      </c>
+      <c r="L123" s="3"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ABB25F-6001-49E2-B076-4E5F681DB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06AAF8C-8A47-452B-AF13-04CC32510C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
   <si>
     <t>index</t>
   </si>
@@ -61,478 +61,163 @@
     <t>choices</t>
   </si>
   <si>
+    <t>%s_EvilYeah</t>
+  </si>
+  <si>
     <t>%s_EvilSmile</t>
   </si>
   <si>
-    <t># 推门1，次数1</t>
-  </si>
-  <si>
-    <t>是沙袋！</t>
-  </si>
-  <si>
-    <t>一拳揍飞+3001</t>
-  </si>
-  <si>
-    <t>Mushroom,Potato,Egg,Tomato</t>
-  </si>
-  <si>
-    <t>沙袋！</t>
-  </si>
-  <si>
-    <t>等、等等等等一等！\n不要揍我呜哇哇哇哇哇——！</t>
-  </si>
-  <si>
-    <t>Lemon_HangShake</t>
-  </si>
-  <si>
-    <t>Lemon_VCry</t>
-  </si>
-  <si>
-    <t>沙袋？</t>
-  </si>
-  <si>
-    <t>你看我挂在这里，心里一定在想：\n“哇哦~有个沙袋~~揍一下~~~”——一定是这样的吧！</t>
-  </si>
-  <si>
-    <t>Lemon_Cry</t>
-  </si>
-  <si>
-    <t>没有啦！\n我说话才不会用波浪号。</t>
-  </si>
-  <si>
-    <t>但是呢，我不是沙袋！\n就算我挂在这里一百分钟，也不会变成沙袋！</t>
-  </si>
-  <si>
-    <t>Lemon_HangJump</t>
-  </si>
-  <si>
-    <t>可是，有这样一句名言：\n如果有谁看着像沙袋，行为也像沙袋，那它就是沙袋啦！</t>
-  </si>
-  <si>
-    <t>所以一拳揍飞！+3007;“所以你还有最后一次狡辩的机会哦。”+3015</t>
+    <t>%s_EvilDown</t>
+  </si>
+  <si>
+    <t>%s_EvilScold</t>
+  </si>
+  <si>
+    <t>%s_EvilErr</t>
   </si>
   <si>
     <t>%s_EvilDisagree</t>
   </si>
   <si>
-    <t>呜啊————————————————————————————</t>
-  </si>
-  <si>
-    <t>Lemon_HangFly</t>
-  </si>
-  <si>
-    <t>啊。\n粘在天花板上了。</t>
-  </si>
-  <si>
-    <t>哈喽——\n还活着吗——</t>
-  </si>
-  <si>
-    <t>好像变成了生死不明的情况耶。</t>
-  </si>
-  <si>
-    <t>%s_EvilThink</t>
-  </si>
-  <si>
-    <t>唔唔…</t>
-  </si>
-  <si>
-    <t>就当无事发生吧！</t>
-  </si>
-  <si>
-    <t>沙袋…</t>
-  </si>
-  <si>
-    <t>呜呜…人家真的不是沙袋…</t>
-  </si>
-  <si>
-    <t>Lemon_Sad</t>
-  </si>
-  <si>
-    <t>对、对了！\n我想到了一个很有力的证据！</t>
-  </si>
-  <si>
-    <t>我的身上，有一种即将腐坏的气味！\n这种气味只有生物才会有哦！</t>
-  </si>
-  <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>沙袋那种非生物，是不会有的！\n所以快点过来，闻一闻你就明白了！</t>
-  </si>
-  <si>
-    <t>Lemon_HangLand</t>
-  </si>
-  <si>
-    <t>才不要，我又不是变态。</t>
-  </si>
-  <si>
-    <t>%s_EvilDown</t>
-  </si>
-  <si>
-    <t>呜哇哇哇哇——这是、这是唯一一个证据了——\n已经没有其他办法，证明我不是沙袋了…</t>
-  </si>
-  <si>
-    <t>嗯？你是什么时候下来的？\n话说回来，原来你是可以下来的吗？</t>
+    <t>%s_EvilShock</t>
   </si>
   <si>
     <t>%s_EvilAsk</t>
   </si>
   <si>
-    <t>呜哇哇哇哇哇哇哇哇…</t>
-  </si>
-  <si>
-    <t>好啦，不许哭了，烦死了。\n你都没有像沙袋一样挂着了，不就已经证明你不是沙袋了吗？</t>
-  </si>
-  <si>
-    <t>恭喜你啦，\n是你取得了辩论的胜利哦！</t>
-  </si>
-  <si>
-    <t>诶、诶诶、诶诶诶？\n是我吗？！是我的胜利！</t>
-  </si>
-  <si>
-    <t>嘿…嘿嘿嘿…我胜利了…\n嘿嘿…谢谢你哦，这可是我第一次获得胜利呢。</t>
-  </si>
-  <si>
-    <t>Lemon_Smile</t>
-  </si>
-  <si>
-    <t>哇哦——好感人——那就\n让气氛再热烈一点吧——此处应有雷鸣般的掌声——</t>
-  </si>
-  <si>
-    <t>呱唧呱唧呱唧呱唧呱唧呱唧呱唧呱唧！</t>
-  </si>
-  <si>
-    <t>Lemon_VSmile</t>
-  </si>
-  <si>
-    <t>现在，要为胜利者颁发奖励了哦——</t>
-  </si>
-  <si>
-    <t>呜呼~呜呼~~呜呼~~~</t>
-  </si>
-  <si>
-    <t>奖励就是——\n当当当当！是陪我一起去死的资格哦！</t>
-  </si>
-  <si>
-    <t>%s_EvilYeah</t>
-  </si>
-  <si>
-    <t>诶？</t>
-  </si>
-  <si>
-    <t>奖励当场发放，请及时查收！\n如果有疑问，也可以继续找本人辩论。</t>
-  </si>
-  <si>
-    <t>不过今天已经没有时间了啦。\n我要走咯，不跟上来的话，就当你不接受这个奖励了。</t>
-  </si>
-  <si>
-    <t>接受！当然接受！\n这可是我第一次得到奖励呢！</t>
-  </si>
-  <si>
-    <t>还挺爽快嘛，我喜欢。</t>
-  </si>
-  <si>
-    <t>“那我们就是一起去死的同伴了哦！”+-3+5</t>
-  </si>
-  <si>
-    <t>哦哦哦——！！\n这可是我第一次拥有同伴呢！</t>
-  </si>
-  <si>
-    <t># 推门2，次数1</t>
-  </si>
-  <si>
-    <t>一拳揍飞！+3050</t>
-  </si>
-  <si>
-    <t>等、等等等等一等！\n不要揍我——！</t>
-  </si>
-  <si>
-    <t>哎呀，为什么呢？\n沙袋不就是用来揍的吗？</t>
-  </si>
-  <si>
-    <t>还是说，其实你不是沙袋，\n而是一个抄袭沙袋特色的copy精？</t>
-  </si>
-  <si>
-    <t>不是沙袋</t>
-  </si>
-  <si>
-    <t>我不是copy精！也不是沙袋！\n重复一遍，我不是copy精！！</t>
-  </si>
-  <si>
-    <t>看来比起被当成沙袋，\n还是被当成copy精更难接受一点。</t>
-  </si>
-  <si>
-    <t>那我换个说法好了啦。不是沙袋却又像沙袋一样挂着，\n你是在玩什么cosplay吗？感觉品味好差哦。</t>
-  </si>
-  <si>
-    <t>呜呜呜…也不是cosplay！\n不过品味很差的cosplayer，听起来比copy精要好一点。</t>
-  </si>
-  <si>
-    <t>Lemon_VSad</t>
-  </si>
-  <si>
-    <t>这也不是、那也不是。\n感觉我提出的一百个可能性，会被你否定掉一百个耶。</t>
-  </si>
-  <si>
-    <t>大家的时间都很宝贵啦！\n再不说一点有营养的话题，大家就会跑去玩其他游戏了。</t>
-  </si>
-  <si>
-    <t>柠檬</t>
-  </si>
-  <si>
-    <t>呜…！好、好好、好好好的！收到！没问题！\n首先，我是柠檬！</t>
-  </si>
-  <si>
-    <t>哇哦。\n真是一句一目了然的废话。</t>
-  </si>
-  <si>
-    <t>呜呜…我把自己像沙袋一样挂起来，\n是因为，大家看到沙袋，就会很想揍的吧！</t>
-  </si>
-  <si>
-    <t>所以还是想被揍嘛！\n那你一开始干嘛阻止我？</t>
-  </si>
-  <si>
-    <t>因为被揍很疼！</t>
-  </si>
-  <si>
-    <t>%s_EvilErr</t>
-  </si>
-  <si>
-    <t>才才才不是废话！这涉及到了\n一颗柠檬的，脆弱的、迷茫的、疼痛的内心…！</t>
-  </si>
-  <si>
-    <t>跳过这段剧情吧。\n我要去别的地方玩了。</t>
-  </si>
-  <si>
-    <t>%s_EvilScold</t>
-  </si>
-  <si>
-    <t>不要走！不要走！！\n前略！后略！总之！我想变得香香的！所以！才想着被揍！</t>
-  </si>
-  <si>
-    <t>啊？</t>
-  </si>
-  <si>
-    <t>%s_EvilShock</t>
-  </si>
-  <si>
-    <t>对啦…你又不是柠檬，你是不会懂的。\n有一个传说是：只要柠檬被暴打，就能变香哦！</t>
-  </si>
-  <si>
-    <t>Lemon_Pain</t>
-  </si>
-  <si>
-    <t>你确定这是传说，\n而不是什么冷笑话吗？</t>
-  </si>
-  <si>
-    <t>都说了你是不会懂的啦！\n呜呜…我说完了。真相就是这么简单、无聊，就和我一样…</t>
-  </si>
-  <si>
-    <t>我听明白了。你想变香，所以想被暴打，于是cos沙袋。\n但又怕疼，所以不准我揍你。</t>
-  </si>
-  <si>
-    <t>哇！你很会总结嘛！</t>
-  </si>
-  <si>
-    <t>好麻烦啊你这个柠檬。\n既然这样的话，自己打自己不就好了吗？</t>
-  </si>
-  <si>
-    <t>可是我的手臂很柔弱，\n打不动自己呢。</t>
-  </si>
-  <si>
-    <t>呃啊…麻烦死了。</t>
-  </si>
-  <si>
-    <t>长痛不如短痛，给你一拳！+3080;“必须要变香吗？你看我，就一点都不香。”+3085</t>
-  </si>
-  <si>
-    <t>嗯…\n看来粘在天花板上了。</t>
-  </si>
-  <si>
-    <t>走了走了，耽误太久了！</t>
-  </si>
-  <si>
-    <t>当然是必须的！这涉及到了\n一颗柠檬的，脆弱的、迷茫的、疼痛的内心…！</t>
-  </si>
-  <si>
-    <t>给我直接说结论啦！</t>
-  </si>
-  <si>
-    <t>呜哇哇哇哇——不要凶我——\n前略，后略，总之！我快坏了，感觉马上就会飘出腐烂的气味了…</t>
-  </si>
-  <si>
-    <t>呜呜…我担心…被精致漂亮的伙伴…嘲笑…说我闻起来像…\n上世纪死去的爷爷…垃圾场底的赝品古董…烂在土里的棺材…</t>
-  </si>
-  <si>
-    <t>呃啊。好具体的担心。</t>
-  </si>
-  <si>
-    <t>呜哇哇哇哇哇哇哇哇哇哇哇——\n讨厌！太讨厌了！又不是我想要坏的！干嘛自顾自的就坏了啊！</t>
-  </si>
-  <si>
-    <t>不要突然这么激动啦！</t>
-  </si>
-  <si>
-    <t>“要不要出门干点别的？就当换换心情了。”+3095;“干嘛这么讨厌自己？我就挺喜欢你的。”+3110</t>
-  </si>
-  <si>
-    <t>出门？我都没有出过门耶…</t>
-  </si>
-  <si>
-    <t>那你的精致漂亮伙伴\n是从哪里冒出来的啦！</t>
-  </si>
-  <si>
-    <t>我、我想出门！难怪之前\n都没人进来揍我，原来是因为我没有出过门啊！</t>
-  </si>
-  <si>
-    <t>我醒悟了！\n被揍，呃呃，无痛的那种！是要自己走出门争取的！</t>
-  </si>
-  <si>
-    <t>别惦记你那被揍了啦！</t>
-  </si>
-  <si>
-    <t>“跟我来！”+-3+5</t>
-  </si>
-  <si>
-    <t>哦、哦哦！</t>
-  </si>
-  <si>
-    <t>呜…</t>
-  </si>
-  <si>
-    <t>呜哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇\n呜哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇哇</t>
-  </si>
-  <si>
-    <t>我不信！我是脆弱的、迷茫的、疼痛的柠檬！我要你证明给我看！\n不然…呜呜…你就是在欺骗我…我就会更加脆弱…更加迷茫…更加…</t>
-  </si>
-  <si>
-    <t>别念了别念了…</t>
-  </si>
-  <si>
-    <t>“那就证明给你看。”+-2+5</t>
-  </si>
-  <si>
-    <t>如何？</t>
-  </si>
-  <si>
-    <t>（？？？！！！￥&amp;%*）</t>
-  </si>
-  <si>
-    <t>Lemon_Dark</t>
-  </si>
-  <si>
-    <t>这下你可以安心了吧。\n我都喜欢到变成你了。</t>
-  </si>
-  <si>
-    <t>（？！？！？！￥&amp;%。+$^QAQ）</t>
-  </si>
-  <si>
-    <t>你去冷静一会啦！\n我都搞不懂你想表达什么了。</t>
-  </si>
-  <si>
-    <t>那我继续主线咯。\n在这儿也耽误太久了。</t>
-  </si>
-  <si>
-    <t># 推门3，次数1</t>
-  </si>
-  <si>
-    <t>你知道吗，就算是沙袋，\n也不会喜欢被揍哦！</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>这可是我发现的独家秘密，现在告诉你了。\n你打算用什么来报答我呀？</t>
-  </si>
-  <si>
-    <t>独、独家？！意思是只告诉了我？\n呜呜呜…你好好哦！这可是我第一次成为谁的“唯一”呢…</t>
-  </si>
-  <si>
-    <t>不许肉麻！不许废话！\n快点想一个报答我的方案啦！</t>
-  </si>
-  <si>
-    <t>呜…！可是，我什么都没有…\n我只有一颗柠檬的，脆弱的…</t>
-  </si>
-  <si>
-    <t>“——迷茫的、疼痛的内心”…对吧？\n别念叨了，我都会背了。</t>
-  </si>
-  <si>
-    <t>诶？我、我有念过很多次吗？\n难道，你以前见过我？</t>
-  </si>
-  <si>
-    <t>啊啊，可能，上一周目吧？\n这都不重要，既然你没有想法，就由我来指定报答方案吧——</t>
-  </si>
-  <si>
-    <t>“跟我走，我去哪儿，你就得去哪儿。”+3210;“把你身体借我用用呗？我还挺喜欢柠檬的。”+3218</t>
-  </si>
-  <si>
-    <t>这、这这、这这这难道是表白吗？！\n莫非…你觉醒了前世的记忆！而我们，曾经是一对感天动地的情侣！</t>
-  </si>
-  <si>
-    <t>Lemon_Calm</t>
-  </si>
-  <si>
-    <t>不好意思啊，\n我是独身主义。</t>
-  </si>
-  <si>
-    <t>喔喔…</t>
-  </si>
-  <si>
-    <t>没时间废话了啦。</t>
-  </si>
-  <si>
-    <t>“要做的事还有很多呢！”+-3+5</t>
-  </si>
-  <si>
-    <t>哦…！好的！</t>
-  </si>
-  <si>
-    <t>这、这这、这这这种表白方式，\n听起来有点过于新潮了？！</t>
-  </si>
-  <si>
-    <t>但我是不会拒绝的！\n这可是我第一次被表白呢！</t>
-  </si>
-  <si>
-    <t>好吧，如果这么理解\n能让你开心的话。</t>
-  </si>
-  <si>
-    <t>“总之，身体就借我一用啦！”+-2+5</t>
-  </si>
-  <si>
-    <t>（！￥&amp;%*~~~）</t>
-  </si>
-  <si>
-    <t># 推门4及以后</t>
-  </si>
-  <si>
-    <t>前略，后略，给你两个选择！</t>
-  </si>
-  <si>
-    <t>“被我讨厌，或者跟我走。”+3250;“被我讨厌，或者把身体借我用。”+-2+5</t>
-  </si>
-  <si>
-    <t>&gt;4</t>
-  </si>
-  <si>
-    <t>呜…这可是我第一次\n被这么直白地威胁呢！</t>
-  </si>
-  <si>
-    <t>不过…不要讨厌我！虽然你威胁了我，而且我都不知道你是谁…\n但是不要讨厌我！被讨厌的话，我会忍不住哇哇大哭的！</t>
-  </si>
-  <si>
-    <t>可你一直都在哇哇大哭耶。</t>
-  </si>
-  <si>
-    <t>“不会讨厌你的啦。走了！”+-3+5</t>
-  </si>
-  <si>
-    <t>呜…好！</t>
-  </si>
-  <si>
-    <t>（？！？！？！￥&amp;%。+$^都没有给我选择的时间啦QAQ）</t>
-  </si>
-  <si>
-    <t>大家的时间都太宝贵了。\n理解一下啦。</t>
+    <t>我要在十分钟以后去死！</t>
+  </si>
+  <si>
+    <t>世界也会在十分钟以后毁灭。</t>
+  </si>
+  <si>
+    <t>最后的十分钟\n找点同伴一起去死吧！</t>
+  </si>
+  <si>
+    <t>然后变成一杯蘑菇汁！</t>
+  </si>
+  <si>
+    <t>呕。\n恶心的蘑菇味道。</t>
+  </si>
+  <si>
+    <t>做菜的话，\n我能给出的唯一建议就是…</t>
+  </si>
+  <si>
+    <t>不要加入蘑菇！</t>
+  </si>
+  <si>
+    <t>我是死亡的使者！</t>
+  </si>
+  <si>
+    <t>正在热烈招募同行的伙伴。</t>
+  </si>
+  <si>
+    <t>咳咳，现在是粉丝来信时间——</t>
+  </si>
+  <si>
+    <t>“你用你的花言巧语，诱骗了无数食材和你一起去死…”\n“但它们并没有得到体面的死亡，而是进了人类的铁锅…”</t>
+  </si>
+  <si>
+    <t>今天的粉丝来信到此为止！\n继续读下去的话，就要超过篇幅限制了。</t>
+  </si>
+  <si>
+    <t>“你是何其恶毒、何其可恶、何其残忍的一个蘑菇啊…”\n“你简直就是人类的走狗、伥鬼、刽子手…”</t>
+  </si>
+  <si>
+    <t>今天的粉丝来信到此为止！\n继续谈感想的话，就要超过篇幅限制了。</t>
+  </si>
+  <si>
+    <t>咳咳，现在是粉丝来信时间——\n对于上几期的来信，我在此做出官方回复：</t>
+  </si>
+  <si>
+    <t>你不是粉丝吧？众所周知，粉丝是不会书写复杂文字的。\n因为它们的身躯太细长柔软了，这种体型是握不住笔的！</t>
+  </si>
+  <si>
+    <t>合理怀疑你是来砸场子的粉条哦。给我滚回你的粉条来信栏目啦！</t>
+  </si>
+  <si>
+    <t>插播一条消息，来自粉条来信栏目组：</t>
+  </si>
+  <si>
+    <t>“你这黑心的蘑菇、无耻的败类，居然把那种信件栽赃给我们！”\n“你必须想办法，挽回我们栏目的温柔可亲形象！不然就等死吧！”</t>
+  </si>
+  <si>
+    <t>我才不会等死呢。\n我每天都会大步奔跑在去死的道路上。</t>
+  </si>
+  <si>
+    <t>“你总会说一句固定的开场白，还让它独占一个对话框…”\n“这并不公平。信息量更大的文字，理应拥有更宽广的对话框…”</t>
+  </si>
+  <si>
+    <t>有没有一种可能，我是在混篇幅呢？\n每一句话都有巨大的信息量，对我来说太累了啦。</t>
+  </si>
+  <si>
+    <t>曾几何时，我并不需要阅读粉丝来信。</t>
+  </si>
+  <si>
+    <t>只要抒发几句胡编乱造的感想就够了。</t>
+  </si>
+  <si>
+    <t>这就是所谓的，成长的代价吧。</t>
+  </si>
+  <si>
+    <t>“我很讨厌meta要素。创造它的人是天才，跟风者只会令我作呕！”</t>
+  </si>
+  <si>
+    <t>“我在此大放厥词：meta就是偷懒！meta就是耍小聪明！\nmeta就是掩盖薄弱剧情与无聊玩法的遮羞布！”</t>
+  </si>
+  <si>
+    <t>完全看不懂！来稿粉丝请注意哦，这是一个情感聊天栏目，\n其他类型的投稿，只有制作组信箱才会接收哦！</t>
+  </si>
+  <si>
+    <t>“蘑菇嘴上说着想混篇幅，实际上悄悄地取消了固定开场白。”</t>
+  </si>
+  <si>
+    <t>“这是多么暖心的举动啊！在这个混吃等死的时代，\n蘑菇简直就是业界明灯！”</t>
+  </si>
+  <si>
+    <t>嘿嘿，这个稿是我自己投的。</t>
+  </si>
+  <si>
+    <t>“我很爱解读叙事作品中的隐喻和深意。事实上，这也是我的工作。”</t>
+  </si>
+  <si>
+    <t>“请问，对于《末日菜谱》这个作品，应该从哪个方向解读呢？”\n“我通读全篇，只看见了一群神经兮兮的食材，在反复蹦跳送死…”</t>
+  </si>
+  <si>
+    <t>你这不是解读得很准确吗？</t>
+  </si>
+  <si>
+    <t>“幽默也是区分三六九等的。\n《末日菜谱》呈现出来的幽默，生硬，尴尬，混乱，低俗…”</t>
+  </si>
+  <si>
+    <t>“缺少了一种隽永的意味，注定难登大雅之堂。\n是为最低等的幽默…”</t>
+  </si>
+  <si>
+    <t>看不懂！都没人想找我聊情感话题吗？\n都说了这种投稿应该投给制作组信箱啦！</t>
+  </si>
+  <si>
+    <t>“你好，听说这里能聊情感话题，我就来投稿了！我将我的情感经历\n整理成了一万两千字的小作文，还有527张聊天记录随信发出…”</t>
+  </si>
+  <si>
+    <t>…………………………………………………………………………</t>
+  </si>
+  <si>
+    <t>粉丝来信栏目，就此停播！\n好啦不用挽回我了，这是我深思熟虑以后的决定。</t>
+  </si>
+  <si>
+    <t>呼，又是混乱无序的快乐十分钟。\n随便谁，和我一起去死吧！</t>
+  </si>
+  <si>
+    <t># 提示内容</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>AD左右移动，E对话，W跳跃（但没有用）。\n进门、出门均消耗2.5分钟，10分钟后须前往一楼右侧。</t>
+  </si>
+  <si>
+    <t>末日倒计时10分钟，请尽情寻找同伴吧。</t>
   </si>
 </sst>
 </file>
@@ -602,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,12 +306,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -941,18 +630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S255"/>
+  <dimension ref="A1:S254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="74.81640625" customWidth="1"/>
     <col min="5" max="5" width="53.36328125" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
@@ -992,13 +681,13 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5"/>
@@ -1009,58 +698,62 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3">
-        <v>3001</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="3">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1070,35 +763,29 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>3001</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3">
-        <v>3002</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>201</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="3">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1108,33 +795,29 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3">
-        <v>3002</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3">
-        <v>3003</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1144,33 +827,29 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>3003</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3">
-        <v>3004</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1180,35 +859,29 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>3004</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3">
-        <v>3005</v>
+        <v>-1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1218,33 +891,29 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
-        <v>3005</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>109</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1254,35 +923,29 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>3007</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3">
-        <v>3008</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1292,33 +955,29 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>3008</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3">
-        <v>3009</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1328,33 +987,29 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>3009</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3">
-        <v>3010</v>
+        <v>-1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1364,33 +1019,29 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>3010</v>
+        <v>0</v>
       </c>
       <c r="B12" s="3">
-        <v>3011</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1400,33 +1051,29 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
-        <v>3011</v>
+        <v>115</v>
       </c>
       <c r="B13" s="3">
-        <v>3012</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1436,7 +1083,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
-        <v>3012</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3">
         <v>-1</v>
@@ -1445,24 +1092,20 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1473,33 +1116,29 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>3015</v>
+        <v>0</v>
       </c>
       <c r="B15" s="3">
-        <v>3016</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1510,35 +1149,29 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>3016</v>
+        <v>119</v>
       </c>
       <c r="B16" s="3">
-        <v>3017</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3">
+        <v>6</v>
+      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1548,33 +1181,29 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>3017</v>
+        <v>120</v>
       </c>
       <c r="B17" s="3">
-        <v>3018</v>
+        <v>-1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1584,35 +1213,29 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>3018</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3">
-        <v>3019</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3">
+        <v>7</v>
+      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1622,33 +1245,29 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>3019</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3">
-        <v>3020</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3">
+        <v>7</v>
+      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1658,33 +1277,29 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>3020</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3">
-        <v>3021</v>
+        <v>-1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1694,33 +1309,29 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>3021</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3">
-        <v>3022</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3">
+        <v>8</v>
+      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1730,33 +1341,29 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>3022</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3">
-        <v>3023</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3">
+        <v>8</v>
+      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1766,33 +1373,29 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>3023</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3">
-        <v>3024</v>
+        <v>-1</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3">
+        <v>8</v>
+      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1802,33 +1405,29 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3">
-        <v>3024</v>
+        <v>0</v>
       </c>
       <c r="B24" s="3">
-        <v>3025</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3">
+        <v>9</v>
+      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1838,33 +1437,29 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3">
-        <v>3025</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3">
-        <v>3026</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3">
+        <v>9</v>
+      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1874,33 +1469,29 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3">
-        <v>3026</v>
+        <v>132</v>
       </c>
       <c r="B26" s="3">
-        <v>3027</v>
+        <v>-1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3">
+        <v>9</v>
+      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1910,33 +1501,29 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>3027</v>
+        <v>0</v>
       </c>
       <c r="B27" s="3">
-        <v>3028</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3">
+        <v>10</v>
+      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1946,33 +1533,29 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3">
-        <v>3028</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3">
-        <v>3029</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1982,33 +1565,29 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>3029</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3">
-        <v>3030</v>
+        <v>-1</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2018,33 +1597,29 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="B30" s="3">
-        <v>3031</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3">
+        <v>11</v>
+      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2054,33 +1629,29 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>3031</v>
+        <v>139</v>
       </c>
       <c r="B31" s="3">
-        <v>3032</v>
+        <v>140</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3">
+        <v>11</v>
+      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2090,33 +1661,29 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3">
-        <v>3032</v>
+        <v>140</v>
       </c>
       <c r="B32" s="3">
-        <v>3033</v>
+        <v>-1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3">
+        <v>11</v>
+      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2126,33 +1693,29 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>3033</v>
+        <v>0</v>
       </c>
       <c r="B33" s="3">
-        <v>3034</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3">
+        <v>12</v>
+      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2162,33 +1725,29 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>3034</v>
+        <v>143</v>
       </c>
       <c r="B34" s="3">
-        <v>3035</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3">
+        <v>12</v>
+      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2198,33 +1757,29 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>3035</v>
+        <v>144</v>
       </c>
       <c r="B35" s="3">
-        <v>3036</v>
+        <v>-1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="3">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3">
+        <v>12</v>
+      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -2234,35 +1789,29 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3">
-        <v>3036</v>
+        <v>0</v>
       </c>
       <c r="B36" s="3">
-        <v>3040</v>
+        <v>147</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3">
         <v>13</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="3">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -2272,33 +1821,29 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>3040</v>
+        <v>147</v>
       </c>
       <c r="B37" s="3">
-        <v>-1</v>
+        <v>148</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3">
+        <v>13</v>
+      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2307,19 +1852,29 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="3">
+        <v>148</v>
+      </c>
+      <c r="B38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="3">
+        <v>13</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -2332,31 +1887,27 @@
       <c r="A39" s="3">
         <v>0</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3">
+        <v>151</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="3">
-        <v>2</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3">
+        <v>14</v>
+      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2366,35 +1917,29 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>3050</v>
+        <v>151</v>
       </c>
       <c r="B40" s="3">
-        <v>3051</v>
+        <v>152</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="3">
-        <v>2</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3">
+        <v>14</v>
+      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -2404,33 +1949,29 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3">
-        <v>3051</v>
+        <v>152</v>
       </c>
       <c r="B41" s="3">
-        <v>3052</v>
+        <v>-1</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="3">
-        <v>2</v>
-      </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3">
+        <v>14</v>
+      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -2440,33 +1981,29 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="B42" s="3">
-        <v>3053</v>
+        <v>155</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="3">
-        <v>2</v>
-      </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3">
+        <v>15</v>
+      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2476,35 +2013,29 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="3">
-        <v>3053</v>
+        <v>155</v>
       </c>
       <c r="B43" s="3">
-        <v>3054</v>
+        <v>156</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="3">
-        <v>2</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3">
+        <v>15</v>
+      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2514,33 +2045,29 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3">
-        <v>3054</v>
+        <v>156</v>
       </c>
       <c r="B44" s="3">
-        <v>3055</v>
+        <v>-1</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="3">
-        <v>2</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3">
+        <v>15</v>
+      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -2550,33 +2077,29 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="3">
-        <v>3055</v>
+        <v>0</v>
       </c>
       <c r="B45" s="3">
-        <v>3056</v>
-      </c>
-      <c r="C45" s="2" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>80</v>
+      <c r="D45" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="3">
-        <v>2</v>
-      </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="8">
+        <v>16</v>
+      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2585,34 +2108,20 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="3">
-        <v>3056</v>
-      </c>
-      <c r="B46" s="3">
-        <v>3057</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="3">
-        <v>2</v>
-      </c>
+      <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -2622,33 +2131,29 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="3">
-        <v>3057</v>
+        <v>201</v>
       </c>
       <c r="B47" s="3">
-        <v>3058</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>202</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="3">
-        <v>2</v>
-      </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="3">
+      <c r="J47" s="4"/>
+      <c r="K47" s="3">
         <v>1</v>
       </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -2658,33 +2163,29 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="3">
-        <v>3058</v>
+        <v>202</v>
       </c>
       <c r="B48" s="3">
-        <v>3059</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>-1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="3">
-        <v>2</v>
-      </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="3">
+      <c r="J48" s="4"/>
+      <c r="K48" s="3">
         <v>1</v>
       </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2693,36 +2194,18 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="3">
-        <v>3059</v>
-      </c>
-      <c r="B49" s="3">
-        <v>3060</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="3">
-        <v>2</v>
-      </c>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2731,34 +2214,18 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="3">
-        <v>3060</v>
-      </c>
-      <c r="B50" s="3">
-        <v>3061</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="3">
-        <v>2</v>
-      </c>
+      <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2767,34 +2234,18 @@
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="3">
-        <v>3061</v>
-      </c>
-      <c r="B51" s="3">
-        <v>3062</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="3">
-        <v>2</v>
-      </c>
+      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="3">
-        <v>1</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -2803,34 +2254,18 @@
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="3">
-        <v>3062</v>
-      </c>
-      <c r="B52" s="3">
-        <v>3063</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="3">
-        <v>2</v>
-      </c>
+      <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2839,34 +2274,18 @@
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="3">
-        <v>3063</v>
-      </c>
-      <c r="B53" s="3">
-        <v>3064</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="3">
-        <v>2</v>
-      </c>
+      <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="3">
-        <v>1</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2875,34 +2294,18 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="3">
-        <v>3064</v>
-      </c>
-      <c r="B54" s="3">
-        <v>3065</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="3">
-        <v>2</v>
-      </c>
+      <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="3">
-        <v>1</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2911,36 +2314,18 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="3">
-        <v>3065</v>
-      </c>
-      <c r="B55" s="3">
-        <v>3066</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="3">
-        <v>2</v>
-      </c>
+      <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="3">
-        <v>1</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2949,34 +2334,18 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="3">
-        <v>3066</v>
-      </c>
-      <c r="B56" s="3">
-        <v>3067</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="3">
-        <v>2</v>
-      </c>
+      <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="3">
-        <v>1</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2985,36 +2354,18 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="3">
-        <v>3067</v>
-      </c>
-      <c r="B57" s="3">
-        <v>3068</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="3">
-        <v>2</v>
-      </c>
+      <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="3">
-        <v>1</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -3023,34 +2374,18 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="3">
-        <v>3068</v>
-      </c>
-      <c r="B58" s="3">
-        <v>3069</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="3">
-        <v>2</v>
-      </c>
+      <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="3">
-        <v>1</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -3059,34 +2394,18 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="3">
-        <v>3069</v>
-      </c>
-      <c r="B59" s="3">
-        <v>3070</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="3">
-        <v>2</v>
-      </c>
+      <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="3">
-        <v>1</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -3095,34 +2414,18 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="3">
-        <v>3070</v>
-      </c>
-      <c r="B60" s="3">
-        <v>3071</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="3">
-        <v>2</v>
-      </c>
+      <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="3">
-        <v>1</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -3131,34 +2434,18 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="3">
-        <v>3071</v>
-      </c>
-      <c r="B61" s="3">
-        <v>3072</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="3">
-        <v>2</v>
-      </c>
+      <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="3">
-        <v>1</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3167,34 +2454,18 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="3">
-        <v>3072</v>
-      </c>
-      <c r="B62" s="3">
-        <v>3073</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="3">
-        <v>2</v>
-      </c>
+      <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="3">
-        <v>1</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3203,34 +2474,18 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="3">
-        <v>3073</v>
-      </c>
-      <c r="B63" s="3">
-        <v>3074</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="3">
-        <v>2</v>
-      </c>
+      <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="3">
-        <v>1</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -3239,34 +2494,18 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="3">
-        <v>3074</v>
-      </c>
-      <c r="B64" s="3">
-        <v>3075</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="3">
-        <v>2</v>
-      </c>
+      <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -3275,34 +2514,18 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="3">
-        <v>3075</v>
-      </c>
-      <c r="B65" s="3">
-        <v>3076</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="3">
-        <v>2</v>
-      </c>
+      <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="3">
-        <v>1</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -3311,34 +2534,18 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="3">
-        <v>3076</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="3">
-        <v>2</v>
-      </c>
+      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -3347,36 +2554,18 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="3">
-        <v>3080</v>
-      </c>
-      <c r="B67" s="3">
-        <v>3081</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="3">
-        <v>2</v>
-      </c>
+      <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="3">
-        <v>1</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -3385,34 +2574,18 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="3">
-        <v>3081</v>
-      </c>
-      <c r="B68" s="3">
-        <v>3082</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="3">
-        <v>2</v>
-      </c>
+      <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="3">
-        <v>1</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -3421,34 +2594,18 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="3">
-        <v>3082</v>
-      </c>
-      <c r="B69" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="3">
-        <v>2</v>
-      </c>
+      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="3">
-        <v>1</v>
-      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3457,72 +2614,38 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="3">
-        <v>3085</v>
-      </c>
-      <c r="B70" s="3">
-        <v>3086</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="3">
-        <v>2</v>
-      </c>
+      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="3">
-        <v>1</v>
-      </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="3">
-        <v>3086</v>
-      </c>
-      <c r="B71" s="3">
-        <v>3087</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="3">
-        <v>2</v>
-      </c>
+      <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="3">
-        <v>1</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -3531,34 +2654,18 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="3">
-        <v>3087</v>
-      </c>
-      <c r="B72" s="3">
-        <v>3088</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="3">
-        <v>2</v>
-      </c>
+      <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="3">
-        <v>1</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -3567,34 +2674,18 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="3">
-        <v>3088</v>
-      </c>
-      <c r="B73" s="3">
-        <v>3089</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="3">
-        <v>2</v>
-      </c>
+      <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="3">
-        <v>1</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -3603,34 +2694,18 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="3">
-        <v>3089</v>
-      </c>
-      <c r="B74" s="3">
-        <v>3090</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="3">
-        <v>2</v>
-      </c>
+      <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -3639,36 +2714,18 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="3">
-        <v>3090</v>
-      </c>
-      <c r="B75" s="3">
-        <v>3091</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="3">
-        <v>2</v>
-      </c>
+      <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="3">
-        <v>1</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -3677,34 +2734,18 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="3">
-        <v>3091</v>
-      </c>
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="3">
-        <v>2</v>
-      </c>
+      <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="3">
-        <v>1</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3713,34 +2754,18 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="3">
-        <v>3095</v>
-      </c>
-      <c r="B77" s="3">
-        <v>3096</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="3">
-        <v>2</v>
-      </c>
+      <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="3">
-        <v>1</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -3749,34 +2774,18 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="3">
-        <v>3096</v>
-      </c>
-      <c r="B78" s="3">
-        <v>3097</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="3">
-        <v>2</v>
-      </c>
+      <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="3">
-        <v>1</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -3785,36 +2794,18 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="3">
-        <v>3097</v>
-      </c>
-      <c r="B79" s="3">
-        <v>3098</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="3">
-        <v>2</v>
-      </c>
+      <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="3">
-        <v>1</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -3823,34 +2814,18 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="3">
-        <v>3098</v>
-      </c>
-      <c r="B80" s="3">
-        <v>3099</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="3">
-        <v>2</v>
-      </c>
+      <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="3">
-        <v>1</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -3859,36 +2834,18 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="3">
-        <v>3099</v>
-      </c>
-      <c r="B81" s="3">
-        <v>3100</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="3">
-        <v>2</v>
-      </c>
+      <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="3">
-        <v>1</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -3897,34 +2854,18 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="3">
-        <v>3100</v>
-      </c>
-      <c r="B82" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3">
-        <v>2</v>
-      </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3">
-        <v>1</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3933,34 +2874,18 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="3">
-        <v>3110</v>
-      </c>
-      <c r="B83" s="3">
-        <v>3111</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="3">
-        <v>2</v>
-      </c>
+      <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="3">
-        <v>1</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3969,36 +2894,18 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="3">
-        <v>3111</v>
-      </c>
-      <c r="B84" s="3">
-        <v>3112</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="3">
-        <v>2</v>
-      </c>
+      <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="3">
-        <v>1</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -4007,36 +2914,18 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="3">
-        <v>3112</v>
-      </c>
-      <c r="B85" s="3">
-        <v>3113</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="3">
-        <v>2</v>
-      </c>
+      <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="3">
-        <v>1</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -4045,36 +2934,18 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="3">
-        <v>3113</v>
-      </c>
-      <c r="B86" s="3">
-        <v>3120</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="3">
-        <v>2</v>
-      </c>
+      <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="3">
-        <v>1</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -4083,36 +2954,18 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="3">
-        <v>3120</v>
-      </c>
-      <c r="B87" s="3">
-        <v>3121</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="3">
-        <v>2</v>
-      </c>
+      <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="3">
-        <v>1</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -4121,34 +2974,18 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="3">
-        <v>3121</v>
-      </c>
-      <c r="B88" s="3">
-        <v>3122</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="3">
-        <v>2</v>
-      </c>
+      <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="3">
-        <v>1</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -4157,34 +2994,18 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="3">
-        <v>3122</v>
-      </c>
-      <c r="B89" s="3">
-        <v>3123</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="3">
-        <v>2</v>
-      </c>
+      <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -4193,34 +3014,18 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="3">
-        <v>3123</v>
-      </c>
-      <c r="B90" s="3">
-        <v>3124</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="3">
-        <v>2</v>
-      </c>
+      <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="3">
-        <v>1</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -4229,34 +3034,18 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="3">
-        <v>3124</v>
-      </c>
-      <c r="B91" s="3">
-        <v>3125</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="3">
-        <v>2</v>
-      </c>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="3">
-        <v>1</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -4265,34 +3054,18 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="3">
-        <v>3125</v>
-      </c>
-      <c r="B92" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="3">
-        <v>2</v>
-      </c>
+      <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="3">
-        <v>1</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -4301,9 +3074,7 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -4323,34 +3094,18 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="3">
-        <v>0</v>
-      </c>
-      <c r="B94" s="3">
-        <v>3200</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="3">
-        <v>3</v>
-      </c>
+      <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="3">
-        <v>1</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -4359,34 +3114,18 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="3">
-        <v>3200</v>
-      </c>
-      <c r="B95" s="3">
-        <v>3201</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="3">
-        <v>3</v>
-      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="3">
-        <v>1</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -4395,34 +3134,18 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="3">
-        <v>3201</v>
-      </c>
-      <c r="B96" s="3">
-        <v>3202</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="3">
-        <v>3</v>
-      </c>
+      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="3">
-        <v>1</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -4431,36 +3154,18 @@
       <c r="R96" s="4"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="3">
-        <v>3202</v>
-      </c>
-      <c r="B97" s="3">
-        <v>3203</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="3">
-        <v>3</v>
-      </c>
+      <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="3">
-        <v>1</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -4469,34 +3174,18 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="3">
-        <v>3203</v>
-      </c>
-      <c r="B98" s="3">
-        <v>3204</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="3">
-        <v>3</v>
-      </c>
+      <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="3">
-        <v>1</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -4505,34 +3194,18 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="3">
-        <v>3204</v>
-      </c>
-      <c r="B99" s="3">
-        <v>3205</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="3">
-        <v>3</v>
-      </c>
+      <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="3">
-        <v>1</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -4541,34 +3214,18 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="3">
-        <v>3205</v>
-      </c>
-      <c r="B100" s="3">
-        <v>3206</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="3">
-        <v>3</v>
-      </c>
+      <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="3">
-        <v>1</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -4577,36 +3234,18 @@
       <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="3">
-        <v>3206</v>
-      </c>
-      <c r="B101" s="3">
-        <v>3207</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="3">
-        <v>3</v>
-      </c>
+      <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="3">
-        <v>1</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -4615,34 +3254,18 @@
       <c r="R101" s="4"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="3">
-        <v>3207</v>
-      </c>
+      <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="3">
-        <v>3</v>
-      </c>
+      <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="3">
-        <v>1</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -4651,36 +3274,18 @@
       <c r="R102" s="4"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="3">
-        <v>3210</v>
-      </c>
-      <c r="B103" s="3">
-        <v>3211</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="3">
-        <v>3</v>
-      </c>
+      <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="3">
-        <v>1</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -4689,34 +3294,18 @@
       <c r="R103" s="4"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="3">
-        <v>3211</v>
-      </c>
-      <c r="B104" s="3">
-        <v>3212</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="3">
-        <v>3</v>
-      </c>
+      <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="3">
-        <v>1</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -4725,34 +3314,18 @@
       <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="3">
-        <v>3212</v>
-      </c>
-      <c r="B105" s="3">
-        <v>3213</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="3">
-        <v>3</v>
-      </c>
+      <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="3">
-        <v>1</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -4761,36 +3334,18 @@
       <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="3">
-        <v>3213</v>
-      </c>
-      <c r="B106" s="3">
-        <v>3214</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="3">
-        <v>3</v>
-      </c>
+      <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="3">
-        <v>1</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -4799,34 +3354,18 @@
       <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="3">
-        <v>3214</v>
-      </c>
-      <c r="B107" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3">
-        <v>3</v>
-      </c>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3">
-        <v>1</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -4835,36 +3374,18 @@
       <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="3">
-        <v>3218</v>
-      </c>
-      <c r="B108" s="3">
-        <v>3219</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-      <c r="J108" s="3">
-        <v>3</v>
-      </c>
+      <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="3">
-        <v>1</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -4873,34 +3394,18 @@
       <c r="R108" s="4"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="3">
-        <v>3219</v>
-      </c>
-      <c r="B109" s="3">
-        <v>3220</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-      <c r="J109" s="3">
-        <v>3</v>
-      </c>
+      <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="3">
-        <v>1</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -4909,36 +3414,18 @@
       <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="3">
-        <v>3220</v>
-      </c>
-      <c r="B110" s="3">
-        <v>3221</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="3">
-        <v>3</v>
-      </c>
+      <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="3">
-        <v>1</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -4947,34 +3434,18 @@
       <c r="R110" s="4"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="3">
-        <v>3221</v>
-      </c>
-      <c r="B111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3">
-        <v>3</v>
-      </c>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3">
-        <v>1</v>
-      </c>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -4983,9 +3454,7 @@
       <c r="R111" s="4"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -5005,36 +3474,18 @@
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="3">
-        <v>0</v>
-      </c>
-      <c r="B113" s="3">
-        <v>3258</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="3">
-        <v>1</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -5043,36 +3494,18 @@
       <c r="R113" s="4"/>
     </row>
     <row r="114" spans="1:18">
-      <c r="A114" s="3">
-        <v>3250</v>
-      </c>
-      <c r="B114" s="3">
-        <v>3251</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="3">
-        <v>1</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -5081,34 +3514,18 @@
       <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:18">
-      <c r="A115" s="3">
-        <v>3251</v>
-      </c>
-      <c r="B115" s="3">
-        <v>3252</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J115" s="4"/>
       <c r="K115" s="4"/>
-      <c r="L115" s="3">
-        <v>1</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -5117,36 +3534,18 @@
       <c r="R115" s="4"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="3">
-        <v>3252</v>
-      </c>
-      <c r="B116" s="3">
-        <v>3253</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-      <c r="L116" s="3">
-        <v>1</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -5155,34 +3554,18 @@
       <c r="R116" s="4"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="3">
-        <v>3253</v>
-      </c>
-      <c r="B117" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3">
-        <v>1</v>
-      </c>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -5191,34 +3574,18 @@
       <c r="R117" s="4"/>
     </row>
     <row r="118" spans="1:18">
-      <c r="A118" s="3">
-        <v>3258</v>
-      </c>
-      <c r="B118" s="3">
-        <v>3259</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="3">
-        <v>1</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -5227,34 +3594,18 @@
       <c r="R118" s="4"/>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" s="3">
-        <v>3259</v>
-      </c>
-      <c r="B119" s="3">
-        <v>3260</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-      <c r="L119" s="3">
-        <v>1</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -5263,34 +3614,18 @@
       <c r="R119" s="4"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="3">
-        <v>3260</v>
-      </c>
-      <c r="B120" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
       <c r="I120" s="4"/>
-      <c r="J120" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-      <c r="L120" s="3">
-        <v>1</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -5299,18 +3634,18 @@
       <c r="R120" s="4"/>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="3"/>
+      <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -5319,18 +3654,18 @@
       <c r="R121" s="4"/>
     </row>
     <row r="122" spans="1:18">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="3"/>
+      <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -5339,18 +3674,18 @@
       <c r="R122" s="4"/>
     </row>
     <row r="123" spans="1:18">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="3"/>
+      <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -7978,26 +6313,6 @@
       <c r="Q254" s="4"/>
       <c r="R254" s="4"/>
     </row>
-    <row r="255" spans="1:18">
-      <c r="A255" s="4"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4"/>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="4"/>
-      <c r="J255" s="4"/>
-      <c r="K255" s="4"/>
-      <c r="L255" s="4"/>
-      <c r="M255" s="4"/>
-      <c r="N255" s="4"/>
-      <c r="O255" s="4"/>
-      <c r="P255" s="4"/>
-      <c r="Q255" s="4"/>
-      <c r="R255" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06AAF8C-8A47-452B-AF13-04CC32510C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EEC84-1D85-4630-9720-EBA130A87C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
   <si>
     <t>index</t>
   </si>
@@ -61,170 +61,185 @@
     <t>choices</t>
   </si>
   <si>
-    <t>%s_EvilYeah</t>
-  </si>
-  <si>
     <t>%s_EvilSmile</t>
   </si>
   <si>
     <t>%s_EvilDown</t>
   </si>
   <si>
-    <t>%s_EvilScold</t>
-  </si>
-  <si>
     <t>%s_EvilErr</t>
   </si>
   <si>
-    <t>%s_EvilDisagree</t>
-  </si>
-  <si>
     <t>%s_EvilShock</t>
   </si>
   <si>
     <t>%s_EvilAsk</t>
   </si>
   <si>
-    <t>我要在十分钟以后去死！</t>
-  </si>
-  <si>
-    <t>世界也会在十分钟以后毁灭。</t>
-  </si>
-  <si>
-    <t>最后的十分钟\n找点同伴一起去死吧！</t>
-  </si>
-  <si>
-    <t>然后变成一杯蘑菇汁！</t>
-  </si>
-  <si>
-    <t>呕。\n恶心的蘑菇味道。</t>
-  </si>
-  <si>
-    <t>做菜的话，\n我能给出的唯一建议就是…</t>
-  </si>
-  <si>
-    <t>不要加入蘑菇！</t>
-  </si>
-  <si>
-    <t>我是死亡的使者！</t>
-  </si>
-  <si>
-    <t>正在热烈招募同行的伙伴。</t>
-  </si>
-  <si>
-    <t>咳咳，现在是粉丝来信时间——</t>
-  </si>
-  <si>
-    <t>“你用你的花言巧语，诱骗了无数食材和你一起去死…”\n“但它们并没有得到体面的死亡，而是进了人类的铁锅…”</t>
-  </si>
-  <si>
-    <t>今天的粉丝来信到此为止！\n继续读下去的话，就要超过篇幅限制了。</t>
-  </si>
-  <si>
-    <t>“你是何其恶毒、何其可恶、何其残忍的一个蘑菇啊…”\n“你简直就是人类的走狗、伥鬼、刽子手…”</t>
-  </si>
-  <si>
-    <t>今天的粉丝来信到此为止！\n继续谈感想的话，就要超过篇幅限制了。</t>
-  </si>
-  <si>
-    <t>咳咳，现在是粉丝来信时间——\n对于上几期的来信，我在此做出官方回复：</t>
-  </si>
-  <si>
-    <t>你不是粉丝吧？众所周知，粉丝是不会书写复杂文字的。\n因为它们的身躯太细长柔软了，这种体型是握不住笔的！</t>
-  </si>
-  <si>
-    <t>合理怀疑你是来砸场子的粉条哦。给我滚回你的粉条来信栏目啦！</t>
-  </si>
-  <si>
-    <t>插播一条消息，来自粉条来信栏目组：</t>
-  </si>
-  <si>
-    <t>“你这黑心的蘑菇、无耻的败类，居然把那种信件栽赃给我们！”\n“你必须想办法，挽回我们栏目的温柔可亲形象！不然就等死吧！”</t>
-  </si>
-  <si>
-    <t>我才不会等死呢。\n我每天都会大步奔跑在去死的道路上。</t>
-  </si>
-  <si>
-    <t>“你总会说一句固定的开场白，还让它独占一个对话框…”\n“这并不公平。信息量更大的文字，理应拥有更宽广的对话框…”</t>
-  </si>
-  <si>
-    <t>有没有一种可能，我是在混篇幅呢？\n每一句话都有巨大的信息量，对我来说太累了啦。</t>
-  </si>
-  <si>
-    <t>曾几何时，我并不需要阅读粉丝来信。</t>
-  </si>
-  <si>
-    <t>只要抒发几句胡编乱造的感想就够了。</t>
-  </si>
-  <si>
-    <t>这就是所谓的，成长的代价吧。</t>
-  </si>
-  <si>
-    <t>“我很讨厌meta要素。创造它的人是天才，跟风者只会令我作呕！”</t>
-  </si>
-  <si>
-    <t>“我在此大放厥词：meta就是偷懒！meta就是耍小聪明！\nmeta就是掩盖薄弱剧情与无聊玩法的遮羞布！”</t>
-  </si>
-  <si>
-    <t>完全看不懂！来稿粉丝请注意哦，这是一个情感聊天栏目，\n其他类型的投稿，只有制作组信箱才会接收哦！</t>
-  </si>
-  <si>
-    <t>“蘑菇嘴上说着想混篇幅，实际上悄悄地取消了固定开场白。”</t>
-  </si>
-  <si>
-    <t>“这是多么暖心的举动啊！在这个混吃等死的时代，\n蘑菇简直就是业界明灯！”</t>
-  </si>
-  <si>
-    <t>嘿嘿，这个稿是我自己投的。</t>
-  </si>
-  <si>
-    <t>“我很爱解读叙事作品中的隐喻和深意。事实上，这也是我的工作。”</t>
-  </si>
-  <si>
-    <t>“请问，对于《末日菜谱》这个作品，应该从哪个方向解读呢？”\n“我通读全篇，只看见了一群神经兮兮的食材，在反复蹦跳送死…”</t>
-  </si>
-  <si>
-    <t>你这不是解读得很准确吗？</t>
-  </si>
-  <si>
-    <t>“幽默也是区分三六九等的。\n《末日菜谱》呈现出来的幽默，生硬，尴尬，混乱，低俗…”</t>
-  </si>
-  <si>
-    <t>“缺少了一种隽永的意味，注定难登大雅之堂。\n是为最低等的幽默…”</t>
-  </si>
-  <si>
-    <t>看不懂！都没人想找我聊情感话题吗？\n都说了这种投稿应该投给制作组信箱啦！</t>
-  </si>
-  <si>
-    <t>“你好，听说这里能聊情感话题，我就来投稿了！我将我的情感经历\n整理成了一万两千字的小作文，还有527张聊天记录随信发出…”</t>
-  </si>
-  <si>
-    <t>…………………………………………………………………………</t>
-  </si>
-  <si>
-    <t>粉丝来信栏目，就此停播！\n好啦不用挽回我了，这是我深思熟虑以后的决定。</t>
-  </si>
-  <si>
-    <t>呼，又是混乱无序的快乐十分钟。\n随便谁，和我一起去死吧！</t>
-  </si>
-  <si>
-    <t># 提示内容</t>
-  </si>
-  <si>
-    <t>提示</t>
-  </si>
-  <si>
-    <t>AD左右移动，E对话，W跳跃（但没有用）。\n进门、出门均消耗2.5分钟，10分钟后须前往一楼右侧。</t>
-  </si>
-  <si>
-    <t>末日倒计时10分钟，请尽情寻找同伴吧。</t>
+    <t># 推门&gt;=1，次数&gt;=1，是鸡蛋</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>（我是不会靠近它的。）</t>
+  </si>
+  <si>
+    <t>Egg_0</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>唔唔…好吧！你说了算。</t>
+  </si>
+  <si>
+    <t># 推门&gt;=1，次数&gt;=1，是番茄，队里无鸡蛋</t>
+  </si>
+  <si>
+    <t>番茄</t>
+  </si>
+  <si>
+    <t>（这是“生命的欢欣”。）</t>
+  </si>
+  <si>
+    <t>Tomato_Dark</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>我是搞不懂啦，给衣服取名字有什么必要吗？\n它又不会听到你的呼唤，就跑步过来跟着你走。</t>
+  </si>
+  <si>
+    <t>（谁说不会呢？你可以尝试一下。）</t>
+  </si>
+  <si>
+    <t>“呃，那…生命的欢欣？”+7510;“不要，想象那个画面，感觉会很恶心。”+7515</t>
+  </si>
+  <si>
+    <t>生命的欢欣</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>Clothes_HangLand</t>
+  </si>
+  <si>
+    <t>Clothes_0</t>
+  </si>
+  <si>
+    <t>好吧，世界真奇妙。</t>
+  </si>
+  <si>
+    <t>“你想和我一起走吗？”+-3+6</t>
+  </si>
+  <si>
+    <t>走吧，又多了一个神奇的伙伴。</t>
+  </si>
+  <si>
+    <t>（随你。）</t>
+  </si>
+  <si>
+    <t># 推门&gt;=1，次数&gt;=1，是番茄，队里有鸡蛋</t>
+  </si>
+  <si>
+    <t>如果可以的话，\n我一辈子都不想靠近它。</t>
+  </si>
+  <si>
+    <t>我记得…它叫什么来着？</t>
+  </si>
+  <si>
+    <t>“生命的欢欣？”+7525;“生活的欢快？”+7550;“生存的欢歌？”+7550</t>
+  </si>
+  <si>
+    <t>%s_EvilThink</t>
+  </si>
+  <si>
+    <t>哇哦，动了耶。</t>
+  </si>
+  <si>
+    <t>…它以为你在呼唤它。</t>
+  </si>
+  <si>
+    <t>哇哦，真有意思。</t>
+  </si>
+  <si>
+    <t>“你想一起走吗？我的去死大队包罗万象！”+-3+6</t>
+  </si>
+  <si>
+    <t>如果我现在才跳出来反对，\n会不会有点煞风景？</t>
+  </si>
+  <si>
+    <t>不要急着反对！我们要以包容的心态\n面对这些没有攻击性的小可爱！</t>
+  </si>
+  <si>
+    <t>它是番茄用自己的皮做成的哦。</t>
+  </si>
+  <si>
+    <t>…？</t>
+  </si>
+  <si>
+    <t>把皮整个剥下来，阴干然后涂上植物胶。\n就变成现在这个样子了。</t>
+  </si>
+  <si>
+    <t>它们番茄的习俗可真是讲究。</t>
+  </si>
+  <si>
+    <t>呃呃…这应该不是习俗。</t>
+  </si>
+  <si>
+    <t>之前有一次，它问我为什么喜欢游戏里的角色。</t>
+  </si>
+  <si>
+    <t>我说，因为它们是二维的。\n这就胜过三维世界里的一切了。</t>
+  </si>
+  <si>
+    <t>第二天，它就把二维的自己，挂在我的房门前了。\n…就是这件衣服。被压得扁扁的。</t>
+  </si>
+  <si>
+    <t>我明白了。这就把它赶走。</t>
+  </si>
+  <si>
+    <t>赶不走的，放弃吧。</t>
+  </si>
+  <si>
+    <t>呃啊——！</t>
+  </si>
+  <si>
+    <t>不记得是最好的啦。\n如果你喊对了名字，之后一定会后悔的。</t>
+  </si>
+  <si>
+    <t>呃啊，这么可怕的吗？</t>
+  </si>
+  <si>
+    <t># 推门&gt;=1，次数&gt;=1，不是鸡蛋不是番茄，队里有鸡蛋</t>
+  </si>
+  <si>
+    <t>不要靠近它。\n小心被咬。</t>
+  </si>
+  <si>
+    <t>Mushroom,Potato,Lemon</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t># 默认对话</t>
+  </si>
+  <si>
+    <t>2D的番茄。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="等线"/>
@@ -256,6 +271,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="BlinkMacSystemFont"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,7 +336,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -633,7 +656,7 @@
   <dimension ref="A1:S254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -698,29 +721,19 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -731,29 +744,33 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>102</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>22</v>
+        <v>7501</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -763,29 +780,33 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>102</v>
+        <v>7501</v>
       </c>
       <c r="B4" s="3">
-        <v>201</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -794,29 +815,19 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>105</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="3">
-        <v>2</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -827,29 +838,35 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3">
-        <v>106</v>
+        <v>7505</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -859,29 +876,35 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>106</v>
+        <v>7505</v>
       </c>
       <c r="B7" s="3">
-        <v>-1</v>
+        <v>7506</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -891,29 +914,35 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3">
-        <v>109</v>
-      </c>
+        <v>7506</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3">
-        <v>3</v>
-      </c>
-      <c r="L8" s="4"/>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -923,29 +952,37 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>109</v>
+        <v>7510</v>
       </c>
       <c r="B9" s="3">
-        <v>-1</v>
+        <v>7511</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -955,29 +992,37 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>0</v>
+        <v>7511</v>
       </c>
       <c r="B10" s="3">
-        <v>112</v>
+        <v>7512</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3">
-        <v>4</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -987,29 +1032,35 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>112</v>
+        <v>7512</v>
       </c>
       <c r="B11" s="3">
-        <v>-1</v>
+        <v>7513</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="G11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1019,29 +1070,35 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>0</v>
+        <v>7513</v>
       </c>
       <c r="B12" s="3">
-        <v>115</v>
+        <v>-1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1051,29 +1108,35 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
-        <v>115</v>
+        <v>7515</v>
       </c>
       <c r="B13" s="3">
-        <v>116</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1082,29 +1145,19 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="3">
-        <v>116</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3">
-        <v>5</v>
-      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1119,26 +1172,32 @@
         <v>0</v>
       </c>
       <c r="B15" s="3">
-        <v>119</v>
+        <v>7520</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3">
-        <v>6</v>
-      </c>
-      <c r="L15" s="4"/>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1149,29 +1208,35 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>119</v>
-      </c>
-      <c r="B16" s="3">
-        <v>120</v>
-      </c>
+        <v>7520</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3">
-        <v>6</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="G16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1181,29 +1246,37 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>120</v>
+        <v>7525</v>
       </c>
       <c r="B17" s="3">
-        <v>-1</v>
+        <v>7526</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3">
-        <v>6</v>
-      </c>
-      <c r="L17" s="4"/>
+      <c r="F17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1213,29 +1286,35 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>0</v>
+        <v>7526</v>
       </c>
       <c r="B18" s="3">
-        <v>123</v>
+        <v>7527</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3">
-        <v>7</v>
-      </c>
-      <c r="L18" s="4"/>
+      <c r="G18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1245,29 +1324,37 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>123</v>
+        <v>7527</v>
       </c>
       <c r="B19" s="3">
-        <v>124</v>
+        <v>7528</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3">
-        <v>7</v>
-      </c>
-      <c r="L19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1277,29 +1364,35 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>124</v>
+        <v>7528</v>
       </c>
       <c r="B20" s="3">
-        <v>-1</v>
+        <v>7529</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3">
-        <v>7</v>
-      </c>
-      <c r="L20" s="4"/>
+      <c r="G20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1309,29 +1402,35 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>0</v>
+        <v>7529</v>
       </c>
       <c r="B21" s="3">
-        <v>127</v>
+        <v>7530</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3">
-        <v>8</v>
-      </c>
-      <c r="L21" s="4"/>
+      <c r="G21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1341,29 +1440,35 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>127</v>
+        <v>7530</v>
       </c>
       <c r="B22" s="3">
-        <v>128</v>
+        <v>7531</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3">
-        <v>8</v>
-      </c>
-      <c r="L22" s="4"/>
+      <c r="G22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1373,29 +1478,35 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>128</v>
+        <v>7531</v>
       </c>
       <c r="B23" s="3">
-        <v>-1</v>
+        <v>7532</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3">
-        <v>8</v>
-      </c>
-      <c r="L23" s="4"/>
+      <c r="G23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1405,29 +1516,35 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3">
-        <v>0</v>
+        <v>7532</v>
       </c>
       <c r="B24" s="3">
-        <v>131</v>
+        <v>7533</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3">
-        <v>9</v>
-      </c>
-      <c r="L24" s="4"/>
+      <c r="G24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1437,29 +1554,35 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3">
-        <v>131</v>
+        <v>7533</v>
       </c>
       <c r="B25" s="3">
-        <v>132</v>
+        <v>7534</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3">
-        <v>9</v>
-      </c>
-      <c r="L25" s="4"/>
+      <c r="G25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1469,29 +1592,35 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3">
-        <v>132</v>
+        <v>7534</v>
       </c>
       <c r="B26" s="3">
-        <v>-1</v>
+        <v>7535</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3">
-        <v>9</v>
-      </c>
-      <c r="L26" s="4"/>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1501,29 +1630,35 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>0</v>
+        <v>7535</v>
       </c>
       <c r="B27" s="3">
-        <v>135</v>
+        <v>7536</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="3">
-        <v>10</v>
-      </c>
-      <c r="L27" s="4"/>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1533,29 +1668,35 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3">
-        <v>135</v>
+        <v>7536</v>
       </c>
       <c r="B28" s="3">
-        <v>136</v>
+        <v>7537</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3">
-        <v>10</v>
-      </c>
-      <c r="L28" s="4"/>
+      <c r="G28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1565,29 +1706,35 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>136</v>
+        <v>7537</v>
       </c>
       <c r="B29" s="3">
-        <v>-1</v>
+        <v>7538</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3">
-        <v>10</v>
-      </c>
-      <c r="L29" s="4"/>
+      <c r="G29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -1597,29 +1744,35 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>0</v>
+        <v>7538</v>
       </c>
       <c r="B30" s="3">
-        <v>139</v>
+        <v>7539</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3">
-        <v>11</v>
-      </c>
-      <c r="L30" s="4"/>
+      <c r="G30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -1629,29 +1782,35 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>139</v>
+        <v>7539</v>
       </c>
       <c r="B31" s="3">
-        <v>140</v>
+        <v>7540</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="3">
-        <v>11</v>
-      </c>
-      <c r="L31" s="4"/>
+      <c r="G31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -1661,29 +1820,35 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3">
-        <v>140</v>
+        <v>7540</v>
       </c>
       <c r="B32" s="3">
-        <v>-1</v>
+        <v>7541</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="3">
-        <v>11</v>
-      </c>
-      <c r="L32" s="4"/>
+      <c r="G32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -1693,29 +1858,35 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>0</v>
+        <v>7541</v>
       </c>
       <c r="B33" s="3">
-        <v>143</v>
+        <v>-1</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="3">
-        <v>12</v>
-      </c>
-      <c r="L33" s="4"/>
+      <c r="H33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -1725,29 +1896,35 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>143</v>
+        <v>7550</v>
       </c>
       <c r="B34" s="3">
-        <v>144</v>
+        <v>7551</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="3">
-        <v>12</v>
-      </c>
-      <c r="L34" s="4"/>
+      <c r="G34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -1757,7 +1934,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>144</v>
+        <v>7551</v>
       </c>
       <c r="B35" s="3">
         <v>-1</v>
@@ -1766,20 +1943,26 @@
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="3">
-        <v>12</v>
-      </c>
-      <c r="L35" s="4"/>
+      <c r="G35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -1788,29 +1971,19 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="3">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3">
-        <v>147</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="3">
-        <v>13</v>
-      </c>
+      <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -1821,29 +1994,35 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="B37" s="3">
-        <v>148</v>
+        <v>7560</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="3">
-        <v>13</v>
-      </c>
-      <c r="L37" s="4"/>
+      <c r="G37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -1853,7 +2032,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="3">
-        <v>148</v>
+        <v>7560</v>
       </c>
       <c r="B38" s="3">
         <v>-1</v>
@@ -1862,20 +2041,26 @@
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="3">
-        <v>13</v>
-      </c>
-      <c r="L38" s="4"/>
+      <c r="G38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -1884,29 +2069,19 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="3">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3">
-        <v>151</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="3">
-        <v>14</v>
-      </c>
+      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -1917,29 +2092,33 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B40" s="3">
-        <v>152</v>
+        <v>-1</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="3">
-        <v>14</v>
-      </c>
-      <c r="L40" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -1948,29 +2127,17 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="3">
-        <v>152</v>
-      </c>
-      <c r="B41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="3">
-        <v>14</v>
-      </c>
+      <c r="K41" s="3"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -1980,29 +2147,17 @@
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="3">
-        <v>0</v>
-      </c>
-      <c r="B42" s="3">
-        <v>155</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="3">
-        <v>15</v>
-      </c>
+      <c r="K42" s="3"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -2012,29 +2167,17 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="3">
-        <v>155</v>
-      </c>
-      <c r="B43" s="3">
-        <v>156</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="G43" s="7"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="3">
-        <v>15</v>
-      </c>
+      <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2044,29 +2187,17 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="3">
-        <v>156</v>
-      </c>
-      <c r="B44" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="3">
-        <v>15</v>
-      </c>
+      <c r="K44" s="3"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -2076,29 +2207,17 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="3">
-        <v>0</v>
-      </c>
-      <c r="B45" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="G45" s="7"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="8">
-        <v>16</v>
-      </c>
+      <c r="K45" s="8"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -2108,9 +2227,7 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2130,29 +2247,17 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="3">
-        <v>201</v>
-      </c>
-      <c r="B47" s="3">
-        <v>202</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -2162,29 +2267,17 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="3">
-        <v>202</v>
-      </c>
-      <c r="B48" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G48" s="7"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EEC84-1D85-4630-9720-EBA130A87C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543DB35C-B53B-4CBF-AB2E-E19F1FE379D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="180">
   <si>
     <t>index</t>
   </si>
@@ -67,179 +67,506 @@
     <t>%s_EvilDown</t>
   </si>
   <si>
+    <t>%s_EvilAsk</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>%s_EvilThink</t>
+  </si>
+  <si>
+    <t># 推门2，次数1</t>
+  </si>
+  <si>
+    <t>%s_EvilYeah</t>
+  </si>
+  <si>
+    <t># 推门3，次数1</t>
+  </si>
+  <si>
+    <t>%s_EvilDisagree</t>
+  </si>
+  <si>
+    <t>%s_EvilSay</t>
+  </si>
+  <si>
+    <t># 推门4，次数1</t>
+  </si>
+  <si>
+    <t>%s_EvilSad</t>
+  </si>
+  <si>
+    <t># 推门5，次数1</t>
+  </si>
+  <si>
+    <t>%s_EvilScold</t>
+  </si>
+  <si>
+    <t># 推门1，次数1，不是番茄，队里没番茄</t>
+  </si>
+  <si>
+    <t>哟，打游戏呢？\n其实我也很擅长打游戏哦！要不要我帮忙啊？</t>
+  </si>
+  <si>
+    <t>Mushroom,Potato,Lemon</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>Egg_0</t>
+  </si>
+  <si>
+    <t>让我看看...\n《心动！阴暗的我与闪亮亮病娇万人迷的甜蜜日常》！</t>
+  </si>
+  <si>
+    <t>“万人迷：哼~我喊了五十个保镖封锁前门，五十个保镖封锁后门。\n白发红瞳蛋神，你已经逃不出我的手掌心了！”</t>
+  </si>
+  <si>
+    <t>白发红瞳蛋神是什么啦？\n怎么会有人给自己起这种名字！</t>
+  </si>
+  <si>
+    <t>“选项一，没办法了，暂时妥协吧。\n选项二，绝对不行，得想办法逃走！”</t>
+  </si>
+  <si>
+    <t>这应该就是关键分支了吧！\n听我的，这里应该选…</t>
+  </si>
+  <si>
+    <t>“选一，暂时妥协。”+6010;“选二，设法逃走。”+6012</t>
+  </si>
+  <si>
+    <t>（沉默地选择了选项二）</t>
+  </si>
+  <si>
+    <t>喂你！怎么不听我的建议呢？</t>
+  </si>
+  <si>
+    <t>“…只见白发红瞳蛋神一个鹞子翻身，使出了绝技·左右蹬墙跳！\n竟然突破了前后封锁，从天窗翻了出去！”</t>
+  </si>
+  <si>
+    <t>“万人迷：（勾唇挑眉）（三分凉薄）（四分讥笑）\n宝贝，你太天真了！”</t>
+  </si>
+  <si>
     <t>%s_EvilErr</t>
   </si>
   <si>
+    <t>“白发红瞳蛋神，一头撞进了直升机封锁线，就此殒命。\n临死前，你的脸上有着三分欣喜，四分绝望。”</t>
+  </si>
+  <si>
     <t>%s_EvilShock</t>
   </si>
   <si>
-    <t>%s_EvilAsk</t>
-  </si>
-  <si>
-    <t># 推门&gt;=1，次数&gt;=1，是鸡蛋</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>（我是不会靠近它的。）</t>
-  </si>
-  <si>
-    <t>Egg_0</t>
-  </si>
-  <si>
-    <t>Egg</t>
+    <t>（关闭游戏）</t>
+  </si>
+  <si>
+    <t>Tv_State0</t>
+  </si>
+  <si>
+    <t>…这个嘛、这个嘛。\n真是出人意料的结局呢。</t>
+  </si>
+  <si>
+    <t>（沉默地盯着桌面）</t>
+  </si>
+  <si>
+    <t>那啥，请节哀。\n我先去死了哈，就不打扰你了。</t>
+  </si>
+  <si>
+    <t># 推门1，次数&gt;=2</t>
+  </si>
+  <si>
+    <t>（阴暗地盯着桌面）</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>哟，还在打游戏呢？\n这次打的是什么呀？</t>
+  </si>
+  <si>
+    <t>还是它啊！\n而且又到了关键分支！</t>
+  </si>
+  <si>
+    <t>“这里应该妥协！逃走的话恋爱情节都没法展开了！”+6030;“不要选逃走！会直接进入死亡结局的！”+6030</t>
+  </si>
+  <si>
+    <t>（选择逃走）</t>
+  </si>
+  <si>
+    <t>（前略，总之白发红瞳蛋神就此殒命，达成死亡结局）</t>
+  </si>
+  <si>
+    <t>怎么不听劝啦！还是说你有什么特别癖好吗？\n“我要以最快的速度去死！”你是这种类型吗？</t>
+  </si>
+  <si>
+    <t>“既然如此，干脆跟我一起去死好了！”+6036</t>
+  </si>
+  <si>
+    <t>Egg_SitToStand</t>
+  </si>
+  <si>
+    <t>走？</t>
+  </si>
+  <si>
+    <t>Egg_Gal</t>
+  </si>
+  <si>
+    <t>呜哇，真是富有冲击力的一张脸。\n而且看着很眼熟，不知道为什么。</t>
+  </si>
+  <si>
+    <t>不走？</t>
+  </si>
+  <si>
+    <t>走走走！</t>
+  </si>
+  <si>
+    <t>“果然你是光速去死派的吧！这么积极。”+-3+3</t>
+  </si>
+  <si>
+    <t>哟，又在打游戏呢？\n还是那个病娇万人迷吗？</t>
+  </si>
+  <si>
+    <t>让我看看...\n“万人迷：你已经逃不出我的手掌心了！”</t>
+  </si>
+  <si>
+    <t>怎么又是这个讨厌的分支啊！</t>
+  </si>
+  <si>
+    <t>我说，要不咱们换个游戏吧？</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>因为你一定会毫不犹豫地\n向死亡结局一路狂奔啊！</t>
+  </si>
+  <si>
+    <t>（前略，总之白发红瞳蛋神光速死亡了）</t>
+  </si>
+  <si>
+    <t>失落。</t>
+  </si>
+  <si>
+    <t>失落的应该是我吧。连续三次\n见证了好言劝不了该死的蛋。</t>
+  </si>
+  <si>
+    <t>有吗？\n我们明明是第一次见面。</t>
+  </si>
+  <si>
+    <t>就当我们有\n纠缠不休的前世孽缘吧。</t>
+  </si>
+  <si>
+    <t>好恶心。</t>
+  </si>
+  <si>
+    <t>玩黏黏糊糊恋爱游戏的家伙\n没有资格说我吧！</t>
+  </si>
+  <si>
+    <t>不玩了。\n你是来干什么的？</t>
+  </si>
+  <si>
+    <t>啊，我是来劝你\n和我一起去死的。</t>
+  </si>
+  <si>
+    <t>虽然从结果上来看，\n我一直在劝你别找死。</t>
+  </si>
+  <si>
+    <t>你好矛盾啊。</t>
+  </si>
+  <si>
+    <t>…呜呜……</t>
+  </si>
+  <si>
+    <t>那你还想死吗？\n带我一个。</t>
+  </si>
+  <si>
+    <t>想啦！现在更想了啦！</t>
+  </si>
+  <si>
+    <t>“跟我走！”+6073;“等等，其实你这个脸，看久了有一种奇特的魅力。”+6076</t>
+  </si>
+  <si>
+    <t>呜呜…</t>
+  </si>
+  <si>
+    <t>哎，能不能把你的身体借我用一段时间呀？</t>
+  </si>
+  <si>
+    <t>不会太久！世界毁灭的时候就还给你！</t>
+  </si>
+  <si>
+    <t>无所谓。不还也可以。</t>
+  </si>
+  <si>
+    <t>好啊那就不还了。</t>
+  </si>
+  <si>
+    <t>“借我一用！”+-2+3</t>
+  </si>
+  <si>
+    <t>嗯…</t>
+  </si>
+  <si>
+    <t>怎么变成我自己的脸了啦！！</t>
+  </si>
+  <si>
+    <t>哟，还在打你那病娇万人迷吗？</t>
+  </si>
+  <si>
+    <t>让我看看...\n《勇蛋传说·超清像素重置版》！</t>
+  </si>
+  <si>
+    <t>“敌人甲：啊啊——白发红瞳蛋神！啊啊啊——白发红瞳蛋神！”</t>
+  </si>
+  <si>
+    <t>…不要念了！\n还有你是谁啊？</t>
+  </si>
+  <si>
+    <t>Egg_Link</t>
+  </si>
+  <si>
+    <t>你、你、你的脸！</t>
+  </si>
+  <si>
+    <t>我的脸？有什么问题吗？</t>
+  </si>
+  <si>
+    <t>和之前完全不一样了！\n就算是见多识广的我，也有一瞬间感到了惊讶！</t>
+  </si>
+  <si>
+    <t>我们见过？</t>
+  </si>
+  <si>
+    <t>这不重要啦。\n所以你的脸，确实是变了吧！</t>
+  </si>
+  <si>
+    <t>对啊。之前的脸，是病娇万人迷的主角“粉晶晶”。\n现在的脸，是勇蛋传说的主角“克莱科特”。</t>
+  </si>
+  <si>
+    <t>这样打游戏，代入感会变强很多哦。</t>
+  </si>
+  <si>
+    <t>是、是这样的吗？\n我好像理解了一切。</t>
+  </si>
+  <si>
+    <t>为啥？</t>
+  </si>
+  <si>
+    <t>求求你了！白发红瞳蛋神！拜托你了！白发红瞳蛋神！</t>
+  </si>
+  <si>
+    <t>…不要念了！\n给你就是了！</t>
+  </si>
+  <si>
+    <t>嘿嘿，我是想做个试验啦。</t>
+  </si>
+  <si>
+    <t>“借用一下！”+-2+3</t>
+  </si>
+  <si>
+    <t>你看！你看！！你看！！！</t>
+  </si>
+  <si>
+    <t>（看什么？）</t>
+  </si>
+  <si>
+    <t>Egg_Dark</t>
+  </si>
+  <si>
+    <t>你的脸，变成了我的脸哦！\n这一定也是为了增强你的代入感吧！</t>
+  </si>
+  <si>
+    <t>（是这样吗？那我要选择坐下，继续打游戏。）</t>
+  </si>
+  <si>
+    <t>我才不要呢！\n我要出去找死了！</t>
+  </si>
+  <si>
+    <t>喂、喂喂！代入感已经彻底没有了啊！</t>
+  </si>
+  <si>
+    <t>哟，这次是病娇万人迷\n还是勇蛋传说啊？</t>
+  </si>
+  <si>
+    <t>让我看看...“发现了野生的咕哇兽！\n白发红瞳蛋神，你会做出怎样的选择呢？！”</t>
+  </si>
+  <si>
+    <t>不要念了！\n还有你是谁啊？</t>
+  </si>
+  <si>
+    <t>Egg_Poke</t>
+  </si>
+  <si>
+    <t>哇哦，果然又是一张全新的脸！\n这次的主角叫什么名字？</t>
+  </si>
+  <si>
+    <t>莉莉娜。\n她很可爱吧？</t>
+  </si>
+  <si>
+    <t>这个游戏，我打算多玩一段时间。\n因为我很喜欢这个主角。</t>
+  </si>
+  <si>
+    <t>唔唔\n你是“喜欢角色超过喜欢游戏本身”的类型吗？</t>
+  </si>
+  <si>
+    <t>那当然了，大部分游戏都是垃圾。\n只有里面的角色还值得一点喜欢。</t>
+  </si>
+  <si>
+    <t>当然啦，我这种阴暗蠕动的怪物，\n是不配喜欢闪闪发亮的它们的。</t>
+  </si>
+  <si>
+    <t>只能把脸变成它们的样子，\n幻想自己也能蹭上一点点光。</t>
+  </si>
+  <si>
+    <t>呃呃呃…好沉重的话题。\n这不是一个傻乐的游戏吗？</t>
+  </si>
+  <si>
+    <t>我倒是不觉得沉重。你可以当它是一个笑话，听听就好了啦。</t>
+  </si>
+  <si>
+    <t>打游戏还是傻乐一点比较好。\n不然，走在路上，都会觉得被蹲墙角的NPC辱骂了。</t>
+  </si>
+  <si>
+    <t>呃呃呃，没错！就应该傻乐一点！\n那么走，跟我一起去死！</t>
+  </si>
+  <si>
+    <t>？什么啦！你以为我是专门来听你的阴暗心理讲座吗？</t>
+  </si>
+  <si>
+    <t>世界要毁灭了哦，十分钟以内，也许就在一分钟以后！</t>
+  </si>
+  <si>
+    <t>那可真是太糟糕了。\n我得先把这儿过了，再存个档。</t>
+  </si>
+  <si>
+    <t>你有两个选择哦！\n是跟我一起走？还是把身体借给我，我来替你走？</t>
+  </si>
+  <si>
+    <t>嗯嗯…</t>
+  </si>
+  <si>
+    <t>喂，你听到了吗？\n…什么游戏啊！存档需要这么久的吗！</t>
+  </si>
+  <si>
+    <t>那我来替你选择了！</t>
+  </si>
+  <si>
+    <t>“跟我一起走！”+6140;“把身体借给我！”+6146</t>
+  </si>
+  <si>
+    <t>噢！我存完了！\n你刚才说了什么？</t>
+  </si>
+  <si>
+    <t>你答应了和我一起走。</t>
+  </si>
+  <si>
+    <t>“不许反悔哦！你已经答应了！”+-3+3</t>
+  </si>
+  <si>
+    <t>喔喔，好吧。没问题。\n反正我已经存完了。</t>
+  </si>
+  <si>
+    <t>你答应了把身体借给我。</t>
+  </si>
+  <si>
+    <t>“不许反悔哦！你已经答应了！”+-2+3</t>
+  </si>
+  <si>
+    <t>（好吧，反正我已经存完了。）</t>
+  </si>
+  <si>
+    <t># 推门&gt;=6，次数1</t>
+  </si>
+  <si>
+    <t>距离世界毁灭已经不到十分钟了！\n再不存档就来不及了！</t>
+  </si>
+  <si>
+    <t>&gt;6</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>现在你有两个选择哦！\n知道你不想听，所以就由我来替你选吧！</t>
+  </si>
+  <si>
+    <t>哼哼，就知道你会同意的啦。</t>
+  </si>
+  <si>
+    <t>“那就选择，跟我一起走吧！”+6162;“那就选择，把身体借给我吧！”+6168</t>
+  </si>
+  <si>
+    <t>是吗？我有吗？\n罢了，反正我已经存完了。</t>
+  </si>
+  <si>
+    <t>（有这回事？算了，反正我已经存完了。）</t>
+  </si>
+  <si>
+    <t># 推门&gt;=1，次数1，是番茄</t>
+  </si>
+  <si>
+    <t>哟，打游戏呢？让我看看…</t>
+  </si>
+  <si>
+    <t>Tomato</t>
   </si>
   <si>
     <t>&gt;1</t>
   </si>
   <si>
-    <t>唔唔…好吧！你说了算。</t>
-  </si>
-  <si>
-    <t># 推门&gt;=1，次数&gt;=1，是番茄，队里无鸡蛋</t>
+    <t>都说了不想理你了。</t>
+  </si>
+  <si>
+    <t>诶，什么，我？</t>
+  </si>
+  <si>
+    <t>这个，那个，你什么时候说过的？</t>
+  </si>
+  <si>
+    <t>我觉得我们之间\n是不是有什么误会？</t>
+  </si>
+  <si>
+    <t>呃啊…</t>
+  </si>
+  <si>
+    <t># 推门&gt;=1，次数&gt;=2，是番茄</t>
+  </si>
+  <si>
+    <t>（阴暗地背对着我）</t>
+  </si>
+  <si>
+    <t># 推门&gt;=1，次数1，队里有番茄</t>
+  </si>
+  <si>
+    <t>！你怎么混进来了？\n出去！</t>
+  </si>
+  <si>
+    <t>这个，那个，我不是混进来的？\n我是正大光明地走进来的。</t>
   </si>
   <si>
     <t>番茄</t>
   </si>
   <si>
-    <t>（这是“生命的欢欣”。）</t>
-  </si>
-  <si>
-    <t>Tomato_Dark</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>我是搞不懂啦，给衣服取名字有什么必要吗？\n它又不会听到你的呼唤，就跑步过来跟着你走。</t>
-  </si>
-  <si>
-    <t>（谁说不会呢？你可以尝试一下。）</t>
-  </si>
-  <si>
-    <t>“呃，那…生命的欢欣？”+7510;“不要，想象那个画面，感觉会很恶心。”+7515</t>
-  </si>
-  <si>
-    <t>生命的欢欣</t>
-  </si>
-  <si>
-    <t>……</t>
-  </si>
-  <si>
-    <t>Clothes_HangLand</t>
-  </si>
-  <si>
-    <t>Clothes_0</t>
-  </si>
-  <si>
-    <t>好吧，世界真奇妙。</t>
-  </si>
-  <si>
-    <t>“你想和我一起走吗？”+-3+6</t>
-  </si>
-  <si>
-    <t>走吧，又多了一个神奇的伙伴。</t>
-  </si>
-  <si>
-    <t>（随你。）</t>
-  </si>
-  <si>
-    <t># 推门&gt;=1，次数&gt;=1，是番茄，队里有鸡蛋</t>
-  </si>
-  <si>
-    <t>如果可以的话，\n我一辈子都不想靠近它。</t>
-  </si>
-  <si>
-    <t>我记得…它叫什么来着？</t>
-  </si>
-  <si>
-    <t>“生命的欢欣？”+7525;“生活的欢快？”+7550;“生存的欢歌？”+7550</t>
-  </si>
-  <si>
-    <t>%s_EvilThink</t>
-  </si>
-  <si>
-    <t>哇哦，动了耶。</t>
-  </si>
-  <si>
-    <t>…它以为你在呼唤它。</t>
-  </si>
-  <si>
-    <t>哇哦，真有意思。</t>
-  </si>
-  <si>
-    <t>“你想一起走吗？我的去死大队包罗万象！”+-3+6</t>
-  </si>
-  <si>
-    <t>如果我现在才跳出来反对，\n会不会有点煞风景？</t>
-  </si>
-  <si>
-    <t>不要急着反对！我们要以包容的心态\n面对这些没有攻击性的小可爱！</t>
-  </si>
-  <si>
-    <t>它是番茄用自己的皮做成的哦。</t>
-  </si>
-  <si>
-    <t>…？</t>
-  </si>
-  <si>
-    <t>把皮整个剥下来，阴干然后涂上植物胶。\n就变成现在这个样子了。</t>
-  </si>
-  <si>
-    <t>它们番茄的习俗可真是讲究。</t>
-  </si>
-  <si>
-    <t>呃呃…这应该不是习俗。</t>
-  </si>
-  <si>
-    <t>之前有一次，它问我为什么喜欢游戏里的角色。</t>
-  </si>
-  <si>
-    <t>我说，因为它们是二维的。\n这就胜过三维世界里的一切了。</t>
-  </si>
-  <si>
-    <t>第二天，它就把二维的自己，挂在我的房门前了。\n…就是这件衣服。被压得扁扁的。</t>
-  </si>
-  <si>
-    <t>我明白了。这就把它赶走。</t>
-  </si>
-  <si>
-    <t>赶不走的，放弃吧。</t>
-  </si>
-  <si>
-    <t>呃啊——！</t>
-  </si>
-  <si>
-    <t>不记得是最好的啦。\n如果你喊对了名字，之后一定会后悔的。</t>
-  </si>
-  <si>
-    <t>呃啊，这么可怕的吗？</t>
-  </si>
-  <si>
-    <t># 推门&gt;=1，次数&gt;=1，不是鸡蛋不是番茄，队里有鸡蛋</t>
-  </si>
-  <si>
-    <t>不要靠近它。\n小心被咬。</t>
-  </si>
-  <si>
-    <t>Mushroom,Potato,Lemon</t>
-  </si>
-  <si>
-    <t>？？？</t>
-  </si>
-  <si>
-    <t># 默认对话</t>
-  </si>
-  <si>
-    <t>2D的番茄。</t>
+    <t>…它说的是我。</t>
+  </si>
+  <si>
+    <t>Tomato_Laugh</t>
+  </si>
+  <si>
+    <t>呃啊，你们有仇吗？\n算了算了…我走，我走。</t>
+  </si>
+  <si>
+    <t># 推门&gt;=1，次数&gt;=2，队里有番茄</t>
+  </si>
+  <si>
+    <t>（冷酷地背对着我）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="等线"/>
@@ -263,14 +590,6 @@
       <sz val="9"/>
       <name val="BlinkMacSystemFont"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -308,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,12 +650,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -720,9 +1033,9 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
+    <row r="2" spans="1:19" ht="22.8">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -747,29 +1060,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>7501</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>6001</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3">
+        <v>1</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -780,32 +1095,34 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>7501</v>
+        <v>6001</v>
       </c>
       <c r="B4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>6002</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>1</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -815,20 +1132,36 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3">
+        <v>6002</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6003</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -838,34 +1171,34 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>0</v>
+        <v>6003</v>
       </c>
       <c r="B6" s="3">
-        <v>7505</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>6004</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>1</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -876,34 +1209,34 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>7505</v>
+        <v>6004</v>
       </c>
       <c r="B7" s="3">
-        <v>7506</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>6005</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>1</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -914,34 +1247,34 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
-        <v>7506</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>6005</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6006</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>1</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -952,36 +1285,34 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>7510</v>
+        <v>6006</v>
       </c>
       <c r="B9" s="3">
-        <v>7511</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>6007</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>1</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -992,36 +1323,34 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>7511</v>
-      </c>
-      <c r="B10" s="3">
-        <v>7512</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>6007</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1032,34 +1361,34 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>7512</v>
+        <v>6010</v>
       </c>
       <c r="B11" s="3">
-        <v>7513</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>6011</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>1</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1070,34 +1399,34 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>7513</v>
+        <v>6011</v>
       </c>
       <c r="B12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>6012</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1108,34 +1437,34 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
-        <v>7515</v>
+        <v>6012</v>
       </c>
       <c r="B13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>6013</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="3">
-        <v>-3</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>1</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1145,20 +1474,36 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3">
+        <v>6013</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6014</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="G14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1169,34 +1514,34 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>0</v>
+        <v>6014</v>
       </c>
       <c r="B15" s="3">
-        <v>7520</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>6015</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1208,34 +1553,34 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>7520</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>6015</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6016</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>1</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1246,36 +1591,34 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>7525</v>
+        <v>6016</v>
       </c>
       <c r="B17" s="3">
-        <v>7526</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>6017</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>1</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1286,34 +1629,36 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>7526</v>
+        <v>6017</v>
       </c>
       <c r="B18" s="3">
-        <v>7527</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>6018</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>1</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1324,36 +1669,34 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>7527</v>
+        <v>6018</v>
       </c>
       <c r="B19" s="3">
-        <v>7528</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>6019</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>1</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1364,34 +1707,34 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>7528</v>
+        <v>6019</v>
       </c>
       <c r="B20" s="3">
-        <v>7529</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>6020</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="3">
-        <v>3</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>1</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1402,34 +1745,34 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>7529</v>
+        <v>6020</v>
       </c>
       <c r="B21" s="3">
-        <v>7530</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>-1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>1</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1439,36 +1782,20 @@
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="3">
-        <v>7530</v>
-      </c>
-      <c r="B22" s="3">
-        <v>7531</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1478,34 +1805,34 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>7531</v>
+        <v>0</v>
       </c>
       <c r="B23" s="3">
-        <v>7532</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>-1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1515,36 +1842,20 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="3">
-        <v>7532</v>
-      </c>
-      <c r="B24" s="3">
-        <v>7533</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1554,34 +1865,34 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3">
-        <v>7533</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3">
-        <v>7534</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>6026</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3">
+        <v>1</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -1592,34 +1903,34 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3">
-        <v>7534</v>
+        <v>6026</v>
       </c>
       <c r="B26" s="3">
-        <v>7535</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>6027</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="3">
-        <v>3</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>1</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -1630,34 +1941,34 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>7535</v>
+        <v>6027</v>
       </c>
       <c r="B27" s="3">
-        <v>7536</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>6028</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>1</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -1666,36 +1977,36 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" ht="22.8">
       <c r="A28" s="3">
-        <v>7536</v>
-      </c>
-      <c r="B28" s="3">
-        <v>7537</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>6028</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="3">
-        <v>3</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <v>1</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -1706,34 +2017,34 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>7537</v>
+        <v>6030</v>
       </c>
       <c r="B29" s="3">
-        <v>7538</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>6031</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="3">
-        <v>3</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>1</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1744,34 +2055,34 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>7538</v>
+        <v>6031</v>
       </c>
       <c r="B30" s="3">
-        <v>7539</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>6032</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="3">
-        <v>3</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>1</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -1782,34 +2093,34 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>7539</v>
-      </c>
-      <c r="B31" s="3">
-        <v>7540</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>6032</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I31" s="3">
-        <v>3</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3">
+        <v>1</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1820,34 +2131,36 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3">
-        <v>7540</v>
+        <v>6036</v>
       </c>
       <c r="B32" s="3">
-        <v>7541</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>6037</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="3">
-        <v>3</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
+        <v>1</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -1858,34 +2171,34 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>7541</v>
+        <v>6037</v>
       </c>
       <c r="B33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
+        <v>6038</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="3">
-        <v>3</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <v>1</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -1896,34 +2209,34 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>7550</v>
+        <v>6038</v>
       </c>
       <c r="B34" s="3">
-        <v>7551</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="2" t="s">
+        <v>6039</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I34" s="3">
-        <v>3</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <v>1</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -1934,34 +2247,34 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>7551</v>
+        <v>6039</v>
       </c>
       <c r="B35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2" t="s">
+        <v>6040</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="3">
-        <v>3</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
+        <v>1</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -1971,20 +2284,38 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3">
+        <v>6040</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6041</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -1994,34 +2325,34 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>0</v>
+        <v>6041</v>
       </c>
       <c r="B37" s="3">
-        <v>7560</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>-1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I37" s="3">
-        <v>3</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8" t="s">
-        <v>23</v>
+        <v>-4</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3">
+        <v>1</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -2031,36 +2362,20 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="3">
-        <v>7560</v>
-      </c>
-      <c r="B38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="3">
-        <v>3</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2069,20 +2384,36 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="3">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6050</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="G39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3</v>
+      </c>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2092,32 +2423,34 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>0</v>
+        <v>6050</v>
       </c>
       <c r="B40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8" t="s">
-        <v>23</v>
+        <v>6051</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3">
+        <v>1</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -2127,18 +2460,36 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="3">
+        <v>6051</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6052</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="G41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3</v>
+      </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="4"/>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -2147,18 +2498,36 @@
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="3">
+        <v>6052</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6053</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="G42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3</v>
+      </c>
       <c r="K42" s="3"/>
-      <c r="L42" s="4"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2167,18 +2536,36 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="3">
+        <v>6053</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6054</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="G43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3</v>
+      </c>
       <c r="K43" s="3"/>
-      <c r="L43" s="4"/>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2187,18 +2574,36 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="3">
+        <v>6054</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6055</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="G44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3</v>
+      </c>
       <c r="K44" s="3"/>
-      <c r="L44" s="4"/>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -2207,18 +2612,36 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="3">
+        <v>6055</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6056</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="4"/>
+      <c r="G45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2227,18 +2650,36 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="3">
+        <v>6056</v>
+      </c>
+      <c r="B46" s="3">
+        <v>6057</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="G46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -2247,18 +2688,36 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="3">
+        <v>6057</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6058</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="G47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3</v>
+      </c>
       <c r="K47" s="3"/>
-      <c r="L47" s="4"/>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -2267,18 +2726,36 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="3">
+        <v>6058</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6059</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="G48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3</v>
+      </c>
       <c r="K48" s="3"/>
-      <c r="L48" s="4"/>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2287,18 +2764,36 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="3">
+        <v>6059</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6060</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="G49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2307,18 +2802,36 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="3">
+        <v>6060</v>
+      </c>
+      <c r="B50" s="3">
+        <v>6061</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="G50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2327,18 +2840,36 @@
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="3">
+        <v>6061</v>
+      </c>
+      <c r="B51" s="3">
+        <v>6062</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="G51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J51" s="3">
+        <v>3</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
+        <v>1</v>
+      </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -2347,18 +2878,36 @@
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="A52" s="3">
+        <v>6062</v>
+      </c>
+      <c r="B52" s="3">
+        <v>6063</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="G52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2367,18 +2916,36 @@
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="A53" s="3">
+        <v>6063</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6064</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="G53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J53" s="3">
+        <v>3</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2387,18 +2954,36 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="A54" s="3">
+        <v>6064</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6065</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="G54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2407,18 +2992,36 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="A55" s="3">
+        <v>6065</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6066</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="G55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2427,18 +3030,36 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="3">
+        <v>6066</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6067</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="G56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J56" s="3">
+        <v>3</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3">
+        <v>1</v>
+      </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2447,18 +3068,36 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="A57" s="3">
+        <v>6067</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6068</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="G57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -2467,18 +3106,36 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="A58" s="3">
+        <v>6068</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6069</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="G58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3">
+        <v>1</v>
+      </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -2487,18 +3144,38 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="A59" s="3">
+        <v>6069</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6070</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="F59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -2507,18 +3184,36 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="4"/>
+      <c r="A60" s="3">
+        <v>6070</v>
+      </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="C60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="G60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -2527,18 +3222,36 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="A61" s="3">
+        <v>6073</v>
+      </c>
+      <c r="B61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="G61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3">
+        <v>1</v>
+      </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -2547,18 +3260,36 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="A62" s="3">
+        <v>6076</v>
+      </c>
+      <c r="B62" s="3">
+        <v>6077</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="G62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -2567,18 +3298,36 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="A63" s="3">
+        <v>6077</v>
+      </c>
+      <c r="B63" s="3">
+        <v>6078</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="G63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3">
+        <v>1</v>
+      </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -2587,18 +3336,36 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="A64" s="3">
+        <v>6078</v>
+      </c>
+      <c r="B64" s="3">
+        <v>6079</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="G64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J64" s="3">
+        <v>3</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -2607,18 +3374,38 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="A65" s="3">
+        <v>6079</v>
+      </c>
+      <c r="B65" s="3">
+        <v>6080</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="G65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3">
+        <v>1</v>
+      </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -2627,18 +3414,36 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="3">
+        <v>6080</v>
+      </c>
+      <c r="B66" s="3">
+        <v>6081</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="G66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -2647,18 +3452,36 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="A67" s="3">
+        <v>6081</v>
+      </c>
+      <c r="B67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="G67" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J67" s="3">
+        <v>3</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -2667,7 +3490,9 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="4"/>
+      <c r="A68" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2687,18 +3512,36 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="3">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3">
+        <v>6085</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="G69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J69" s="3">
+        <v>4</v>
+      </c>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -2707,18 +3550,36 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="A70" s="3">
+        <v>6085</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6086</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="G70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J70" s="3">
+        <v>4</v>
+      </c>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -2727,18 +3588,36 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="A71" s="3">
+        <v>6086</v>
+      </c>
+      <c r="B71" s="3">
+        <v>6087</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="G71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J71" s="3">
+        <v>4</v>
+      </c>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -2747,18 +3626,36 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="A72" s="3">
+        <v>6087</v>
+      </c>
+      <c r="B72" s="3">
+        <v>6088</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="G72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3">
+        <v>1</v>
+      </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -2767,18 +3664,36 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="A73" s="3">
+        <v>6088</v>
+      </c>
+      <c r="B73" s="3">
+        <v>6089</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="G73" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J73" s="3">
+        <v>4</v>
+      </c>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3">
+        <v>1</v>
+      </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -2787,18 +3702,36 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="A74" s="3">
+        <v>6089</v>
+      </c>
+      <c r="B74" s="3">
+        <v>6090</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="G74" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J74" s="3">
+        <v>4</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -2807,18 +3740,36 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="A75" s="3">
+        <v>6090</v>
+      </c>
+      <c r="B75" s="3">
+        <v>6091</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="G75" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J75" s="3">
+        <v>4</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -2827,18 +3778,36 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="A76" s="3">
+        <v>6091</v>
+      </c>
+      <c r="B76" s="3">
+        <v>6092</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="G76" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -2847,18 +3816,36 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="A77" s="3">
+        <v>6092</v>
+      </c>
+      <c r="B77" s="3">
+        <v>6093</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="G77" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J77" s="3">
+        <v>4</v>
+      </c>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3">
+        <v>1</v>
+      </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -2867,18 +3854,36 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="A78" s="3">
+        <v>6093</v>
+      </c>
+      <c r="B78" s="3">
+        <v>6094</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="G78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J78" s="3">
+        <v>4</v>
+      </c>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3">
+        <v>1</v>
+      </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -2887,18 +3892,36 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="A79" s="3">
+        <v>6094</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6095</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="G79" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J79" s="3">
+        <v>4</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -2907,18 +3930,36 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="A80" s="3">
+        <v>6095</v>
+      </c>
+      <c r="B80" s="3">
+        <v>6096</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="G80" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J80" s="3">
+        <v>4</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -2927,18 +3968,36 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="A81" s="3">
+        <v>6096</v>
+      </c>
+      <c r="B81" s="3">
+        <v>6097</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="G81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -2947,18 +4006,36 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="A82" s="3">
+        <v>6097</v>
+      </c>
+      <c r="B82" s="3">
+        <v>6098</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="G82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J82" s="3">
+        <v>4</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3">
+        <v>1</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -2967,18 +4044,36 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="A83" s="3">
+        <v>6098</v>
+      </c>
+      <c r="B83" s="3">
+        <v>6099</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="G83" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -2987,18 +4082,36 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="A84" s="3">
+        <v>6099</v>
+      </c>
+      <c r="B84" s="3">
+        <v>6100</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="G84" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J84" s="3">
+        <v>4</v>
+      </c>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -3007,18 +4120,36 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="A85" s="3">
+        <v>6100</v>
+      </c>
+      <c r="B85" s="3">
+        <v>6101</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+      <c r="G85" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J85" s="3">
+        <v>4</v>
+      </c>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3">
+        <v>1</v>
+      </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -3027,18 +4158,38 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="A86" s="3">
+        <v>6101</v>
+      </c>
+      <c r="B86" s="3">
+        <v>6102</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J86" s="3">
+        <v>4</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -3047,18 +4198,36 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="A87" s="3">
+        <v>6102</v>
+      </c>
+      <c r="B87" s="3">
+        <v>6103</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="G87" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J87" s="3">
+        <v>4</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -3067,18 +4236,36 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="A88" s="3">
+        <v>6103</v>
+      </c>
+      <c r="B88" s="3">
+        <v>6104</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="G88" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J88" s="3">
+        <v>4</v>
+      </c>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -3087,18 +4274,36 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="A89" s="3">
+        <v>6104</v>
+      </c>
+      <c r="B89" s="3">
+        <v>6105</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+      <c r="G89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -3107,18 +4312,36 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="A90" s="3">
+        <v>6105</v>
+      </c>
+      <c r="B90" s="3">
+        <v>6106</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+      <c r="G90" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J90" s="3">
+        <v>4</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -3127,18 +4350,36 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="A91" s="3">
+        <v>6106</v>
+      </c>
+      <c r="B91" s="3">
+        <v>6107</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+      <c r="G91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3">
+        <v>1</v>
+      </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -3147,18 +4388,36 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="A92" s="3">
+        <v>6107</v>
+      </c>
+      <c r="B92" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="G92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J92" s="3">
+        <v>4</v>
+      </c>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3">
+        <v>1</v>
+      </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -3167,7 +4426,9 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="4"/>
+      <c r="A93" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3187,18 +4448,36 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="A94" s="3">
+        <v>0</v>
+      </c>
+      <c r="B94" s="3">
+        <v>6115</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
+      <c r="G94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>5</v>
+      </c>
       <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="L94" s="3">
+        <v>1</v>
+      </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -3207,18 +4486,36 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="A95" s="3">
+        <v>6115</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6116</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="G95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J95" s="3">
+        <v>5</v>
+      </c>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3">
+        <v>1</v>
+      </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -3227,18 +4524,36 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="A96" s="3">
+        <v>6116</v>
+      </c>
+      <c r="B96" s="3">
+        <v>6117</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="G96" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J96" s="3">
+        <v>5</v>
+      </c>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3">
+        <v>1</v>
+      </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -3247,18 +4562,36 @@
       <c r="R96" s="4"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="A97" s="3">
+        <v>6117</v>
+      </c>
+      <c r="B97" s="3">
+        <v>6118</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="G97" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J97" s="3">
+        <v>5</v>
+      </c>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3">
+        <v>1</v>
+      </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -3267,18 +4600,36 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="A98" s="3">
+        <v>6118</v>
+      </c>
+      <c r="B98" s="3">
+        <v>6119</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+      <c r="G98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J98" s="3">
+        <v>5</v>
+      </c>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3">
+        <v>1</v>
+      </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -3287,18 +4638,36 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="A99" s="3">
+        <v>6119</v>
+      </c>
+      <c r="B99" s="3">
+        <v>6120</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
+      <c r="G99" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J99" s="3">
+        <v>5</v>
+      </c>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3">
+        <v>1</v>
+      </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -3307,18 +4676,36 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="A100" s="3">
+        <v>6120</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6121</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="G100" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -3327,18 +4714,36 @@
       <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="A101" s="3">
+        <v>6121</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6122</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="G101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -3347,18 +4752,36 @@
       <c r="R101" s="4"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="A102" s="3">
+        <v>6122</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6123</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="G102" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3">
+        <v>1</v>
+      </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -3367,18 +4790,36 @@
       <c r="R102" s="4"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="A103" s="3">
+        <v>6123</v>
+      </c>
+      <c r="B103" s="3">
+        <v>6124</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="G103" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J103" s="3">
+        <v>5</v>
+      </c>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3">
+        <v>1</v>
+      </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -3387,18 +4828,36 @@
       <c r="R103" s="4"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="A104" s="3">
+        <v>6124</v>
+      </c>
+      <c r="B104" s="3">
+        <v>6125</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
+      <c r="G104" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J104" s="3">
+        <v>5</v>
+      </c>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3">
+        <v>1</v>
+      </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -3407,18 +4866,36 @@
       <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="A105" s="3">
+        <v>6125</v>
+      </c>
+      <c r="B105" s="3">
+        <v>6126</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="G105" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J105" s="3">
+        <v>5</v>
+      </c>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3">
+        <v>1</v>
+      </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -3427,18 +4904,36 @@
       <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="A106" s="3">
+        <v>6126</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6127</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
+      <c r="G106" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J106" s="3">
+        <v>5</v>
+      </c>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3">
+        <v>1</v>
+      </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -3447,18 +4942,36 @@
       <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="A107" s="3">
+        <v>6127</v>
+      </c>
+      <c r="B107" s="3">
+        <v>6128</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="G107" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J107" s="3">
+        <v>5</v>
+      </c>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3">
+        <v>1</v>
+      </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -3467,18 +4980,36 @@
       <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="A108" s="3">
+        <v>6128</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6129</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
+      <c r="G108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J108" s="3">
+        <v>5</v>
+      </c>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3">
+        <v>1</v>
+      </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -3487,18 +5018,36 @@
       <c r="R108" s="4"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="A109" s="3">
+        <v>6129</v>
+      </c>
+      <c r="B109" s="3">
+        <v>6130</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
+      <c r="G109" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I109" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J109" s="3">
+        <v>5</v>
+      </c>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3">
+        <v>1</v>
+      </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -3507,18 +5056,36 @@
       <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="A110" s="3">
+        <v>6130</v>
+      </c>
+      <c r="B110" s="3">
+        <v>6131</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+      <c r="G110" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J110" s="3">
+        <v>5</v>
+      </c>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -3527,18 +5094,36 @@
       <c r="R110" s="4"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="A111" s="3">
+        <v>6131</v>
+      </c>
+      <c r="B111" s="3">
+        <v>6132</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="G111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J111" s="3">
+        <v>5</v>
+      </c>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3">
+        <v>1</v>
+      </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -3547,18 +5132,36 @@
       <c r="R111" s="4"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="A112" s="3">
+        <v>6132</v>
+      </c>
+      <c r="B112" s="3">
+        <v>6133</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="G112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J112" s="3">
+        <v>5</v>
+      </c>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3">
+        <v>1</v>
+      </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -3567,18 +5170,36 @@
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="A113" s="3">
+        <v>6133</v>
+      </c>
+      <c r="B113" s="3">
+        <v>6134</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="G113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J113" s="3">
+        <v>5</v>
+      </c>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3">
+        <v>1</v>
+      </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -3587,18 +5208,36 @@
       <c r="R113" s="4"/>
     </row>
     <row r="114" spans="1:18">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="A114" s="3">
+        <v>6134</v>
+      </c>
+      <c r="B114" s="3">
+        <v>6135</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="G114" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J114" s="3">
+        <v>5</v>
+      </c>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3">
+        <v>1</v>
+      </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -3607,18 +5246,36 @@
       <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:18">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="A115" s="3">
+        <v>6135</v>
+      </c>
+      <c r="B115" s="3">
+        <v>6136</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="G115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J115" s="3">
+        <v>5</v>
+      </c>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3">
+        <v>1</v>
+      </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -3627,18 +5284,36 @@
       <c r="R115" s="4"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="A116" s="3">
+        <v>6136</v>
+      </c>
+      <c r="B116" s="3">
+        <v>6137</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="G116" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J116" s="3">
+        <v>5</v>
+      </c>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3">
+        <v>1</v>
+      </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -3647,18 +5322,36 @@
       <c r="R116" s="4"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="4"/>
+      <c r="A117" s="3">
+        <v>6137</v>
+      </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="C117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="G117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J117" s="3">
+        <v>5</v>
+      </c>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3">
+        <v>1</v>
+      </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -3667,18 +5360,36 @@
       <c r="R117" s="4"/>
     </row>
     <row r="118" spans="1:18">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
+      <c r="A118" s="3">
+        <v>6140</v>
+      </c>
+      <c r="B118" s="3">
+        <v>6141</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="G118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J118" s="3">
+        <v>5</v>
+      </c>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3">
+        <v>1</v>
+      </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -3687,18 +5398,38 @@
       <c r="R118" s="4"/>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="A119" s="3">
+        <v>6141</v>
+      </c>
+      <c r="B119" s="3">
+        <v>6142</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="F119" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I119" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J119" s="3">
+        <v>5</v>
+      </c>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3">
+        <v>1</v>
+      </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -3707,18 +5438,38 @@
       <c r="R119" s="4"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+      <c r="A120" s="3">
+        <v>6142</v>
+      </c>
+      <c r="B120" s="3">
+        <v>6143</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="G120" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J120" s="3">
+        <v>5</v>
+      </c>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3">
+        <v>1</v>
+      </c>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -3727,18 +5478,36 @@
       <c r="R120" s="4"/>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="A121" s="3">
+        <v>6143</v>
+      </c>
+      <c r="B121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I121" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J121" s="3">
+        <v>5</v>
+      </c>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3">
+        <v>1</v>
+      </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -3747,18 +5516,36 @@
       <c r="R121" s="4"/>
     </row>
     <row r="122" spans="1:18">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="A122" s="3">
+        <v>6146</v>
+      </c>
+      <c r="B122" s="3">
+        <v>6147</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="G122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I122" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J122" s="3">
+        <v>5</v>
+      </c>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3">
+        <v>1</v>
+      </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -3767,18 +5554,36 @@
       <c r="R122" s="4"/>
     </row>
     <row r="123" spans="1:18">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="A123" s="3">
+        <v>6147</v>
+      </c>
+      <c r="B123" s="3">
+        <v>6148</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="G123" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J123" s="3">
+        <v>5</v>
+      </c>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3">
+        <v>1</v>
+      </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -3787,18 +5592,38 @@
       <c r="R123" s="4"/>
     </row>
     <row r="124" spans="1:18">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
+      <c r="A124" s="3">
+        <v>6148</v>
+      </c>
+      <c r="B124" s="3">
+        <v>6149</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="G124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J124" s="3">
+        <v>5</v>
+      </c>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3">
+        <v>1</v>
+      </c>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -3807,18 +5632,36 @@
       <c r="R124" s="4"/>
     </row>
     <row r="125" spans="1:18">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="A125" s="3">
+        <v>6149</v>
+      </c>
+      <c r="B125" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="G125" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I125" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J125" s="3">
+        <v>5</v>
+      </c>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3">
+        <v>1</v>
+      </c>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -3827,7 +5670,9 @@
       <c r="R125" s="4"/>
     </row>
     <row r="126" spans="1:18">
-      <c r="A126" s="4"/>
+      <c r="A126" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -3847,18 +5692,36 @@
       <c r="R126" s="4"/>
     </row>
     <row r="127" spans="1:18">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="A127" s="3">
+        <v>0</v>
+      </c>
+      <c r="B127" s="3">
+        <v>6155</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
+      <c r="G127" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
+      <c r="L127" s="3">
+        <v>1</v>
+      </c>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -3867,18 +5730,36 @@
       <c r="R127" s="4"/>
     </row>
     <row r="128" spans="1:18">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="A128" s="3">
+        <v>6155</v>
+      </c>
+      <c r="B128" s="3">
+        <v>6156</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
+      <c r="G128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3">
+        <v>1</v>
+      </c>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -3887,18 +5768,36 @@
       <c r="R128" s="4"/>
     </row>
     <row r="129" spans="1:18">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="A129" s="3">
+        <v>6156</v>
+      </c>
+      <c r="B129" s="3">
+        <v>6157</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
+      <c r="G129" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I129" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3">
+        <v>1</v>
+      </c>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -3907,18 +5806,36 @@
       <c r="R129" s="4"/>
     </row>
     <row r="130" spans="1:18">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="A130" s="3">
+        <v>6157</v>
+      </c>
+      <c r="B130" s="3">
+        <v>6158</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
+      <c r="G130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3">
+        <v>1</v>
+      </c>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -3927,18 +5844,36 @@
       <c r="R130" s="4"/>
     </row>
     <row r="131" spans="1:18">
-      <c r="A131" s="4"/>
+      <c r="A131" s="3">
+        <v>6158</v>
+      </c>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
+      <c r="C131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+      <c r="G131" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3">
+        <v>1</v>
+      </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -3947,18 +5882,36 @@
       <c r="R131" s="4"/>
     </row>
     <row r="132" spans="1:18">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="A132" s="3">
+        <v>6162</v>
+      </c>
+      <c r="B132" s="3">
+        <v>6163</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+      <c r="G132" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3">
+        <v>1</v>
+      </c>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -3967,18 +5920,38 @@
       <c r="R132" s="4"/>
     </row>
     <row r="133" spans="1:18">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="A133" s="3">
+        <v>6163</v>
+      </c>
+      <c r="B133" s="3">
+        <v>6164</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
+      <c r="F133" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3">
+        <v>1</v>
+      </c>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -3987,18 +5960,38 @@
       <c r="R133" s="4"/>
     </row>
     <row r="134" spans="1:18">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
+      <c r="A134" s="3">
+        <v>6164</v>
+      </c>
+      <c r="B134" s="3">
+        <v>6165</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="G134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3">
+        <v>1</v>
+      </c>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -4007,18 +6000,36 @@
       <c r="R134" s="4"/>
     </row>
     <row r="135" spans="1:18">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="A135" s="3">
+        <v>6165</v>
+      </c>
+      <c r="B135" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="G135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3">
+        <v>1</v>
+      </c>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -4027,18 +6038,36 @@
       <c r="R135" s="4"/>
     </row>
     <row r="136" spans="1:18">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="A136" s="3">
+        <v>6168</v>
+      </c>
+      <c r="B136" s="3">
+        <v>6169</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
+      <c r="G136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3">
+        <v>1</v>
+      </c>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -4047,18 +6076,36 @@
       <c r="R136" s="4"/>
     </row>
     <row r="137" spans="1:18">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="A137" s="3">
+        <v>6169</v>
+      </c>
+      <c r="B137" s="3">
+        <v>6170</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
+      <c r="G137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I137" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3">
+        <v>1</v>
+      </c>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -4067,18 +6114,38 @@
       <c r="R137" s="4"/>
     </row>
     <row r="138" spans="1:18">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
+      <c r="A138" s="3">
+        <v>6170</v>
+      </c>
+      <c r="B138" s="3">
+        <v>6171</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="G138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3">
+        <v>1</v>
+      </c>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -4087,18 +6154,36 @@
       <c r="R138" s="4"/>
     </row>
     <row r="139" spans="1:18">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="A139" s="3">
+        <v>6171</v>
+      </c>
+      <c r="B139" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+      <c r="G139" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I139" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3">
+        <v>1</v>
+      </c>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -4106,8 +6191,10 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
     </row>
-    <row r="140" spans="1:18">
-      <c r="A140" s="4"/>
+    <row r="140" spans="1:18" ht="22.8">
+      <c r="A140" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -4127,18 +6214,34 @@
       <c r="R140" s="4"/>
     </row>
     <row r="141" spans="1:18">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="A141" s="3">
+        <v>0</v>
+      </c>
+      <c r="B141" s="3">
+        <v>6180</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="G141" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
+      <c r="J141" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="L141" s="3">
+        <v>1</v>
+      </c>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -4147,18 +6250,34 @@
       <c r="R141" s="4"/>
     </row>
     <row r="142" spans="1:18">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="A142" s="3">
+        <v>6180</v>
+      </c>
+      <c r="B142" s="3">
+        <v>6181</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
+      <c r="G142" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
+      <c r="J142" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3">
+        <v>1</v>
+      </c>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
@@ -4167,18 +6286,34 @@
       <c r="R142" s="4"/>
     </row>
     <row r="143" spans="1:18">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="A143" s="3">
+        <v>6181</v>
+      </c>
+      <c r="B143" s="3">
+        <v>6182</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
+      <c r="G143" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
+      <c r="J143" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3">
+        <v>1</v>
+      </c>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -4187,18 +6322,34 @@
       <c r="R143" s="4"/>
     </row>
     <row r="144" spans="1:18">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="A144" s="3">
+        <v>6182</v>
+      </c>
+      <c r="B144" s="3">
+        <v>6183</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
+      <c r="G144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
+      <c r="J144" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3">
+        <v>1</v>
+      </c>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -4207,18 +6358,34 @@
       <c r="R144" s="4"/>
     </row>
     <row r="145" spans="1:18">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="A145" s="3">
+        <v>6183</v>
+      </c>
+      <c r="B145" s="3">
+        <v>6184</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
+      <c r="G145" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
+      <c r="J145" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3">
+        <v>1</v>
+      </c>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -4227,18 +6394,32 @@
       <c r="R145" s="4"/>
     </row>
     <row r="146" spans="1:18">
-      <c r="A146" s="4"/>
+      <c r="A146" s="3">
+        <v>6184</v>
+      </c>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="C146" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
+      <c r="G146" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
+      <c r="J146" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3">
+        <v>1</v>
+      </c>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
@@ -4246,8 +6427,10 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
     </row>
-    <row r="147" spans="1:18">
-      <c r="A147" s="4"/>
+    <row r="147" spans="1:18" ht="22.8">
+      <c r="A147" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -4267,18 +6450,34 @@
       <c r="R147" s="4"/>
     </row>
     <row r="148" spans="1:18">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="A148" s="3">
+        <v>0</v>
+      </c>
+      <c r="B148" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
+      <c r="G148" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
+      <c r="J148" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
+      <c r="L148" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
@@ -4286,8 +6485,10 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
     </row>
-    <row r="149" spans="1:18">
-      <c r="A149" s="4"/>
+    <row r="149" spans="1:18" ht="22.8">
+      <c r="A149" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -4307,18 +6508,36 @@
       <c r="R149" s="4"/>
     </row>
     <row r="150" spans="1:18">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="A150" s="3">
+        <v>0</v>
+      </c>
+      <c r="B150" s="3">
+        <v>6190</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
+      <c r="G150" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I150" s="3">
+        <v>4</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
+      <c r="L150" s="3">
+        <v>1</v>
+      </c>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
@@ -4327,18 +6546,36 @@
       <c r="R150" s="4"/>
     </row>
     <row r="151" spans="1:18">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="A151" s="3">
+        <v>6190</v>
+      </c>
+      <c r="B151" s="3">
+        <v>6191</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
+      <c r="G151" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" s="3">
+        <v>4</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3">
+        <v>1</v>
+      </c>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
@@ -4347,18 +6584,36 @@
       <c r="R151" s="4"/>
     </row>
     <row r="152" spans="1:18">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="A152" s="3">
+        <v>6191</v>
+      </c>
+      <c r="B152" s="3">
+        <v>6192</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
+      <c r="G152" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I152" s="3">
+        <v>4</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3">
+        <v>1</v>
+      </c>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -4367,18 +6622,36 @@
       <c r="R152" s="4"/>
     </row>
     <row r="153" spans="1:18">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="A153" s="3">
+        <v>6192</v>
+      </c>
+      <c r="B153" s="3">
+        <v>6193</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
+      <c r="G153" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" s="3">
+        <v>4</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3">
+        <v>1</v>
+      </c>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
@@ -4387,18 +6660,36 @@
       <c r="R153" s="4"/>
     </row>
     <row r="154" spans="1:18">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="A154" s="3">
+        <v>6193</v>
+      </c>
+      <c r="B154" s="3">
+        <v>6194</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
+      <c r="G154" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I154" s="3">
+        <v>4</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3">
+        <v>1</v>
+      </c>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -4407,18 +6698,36 @@
       <c r="R154" s="4"/>
     </row>
     <row r="155" spans="1:18">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="A155" s="3">
+        <v>6194</v>
+      </c>
+      <c r="B155" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
+      <c r="G155" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I155" s="3">
+        <v>4</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3">
+        <v>1</v>
+      </c>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
@@ -4426,8 +6735,10 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
     </row>
-    <row r="156" spans="1:18">
-      <c r="A156" s="4"/>
+    <row r="156" spans="1:18" ht="22.8">
+      <c r="A156" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -4447,18 +6758,36 @@
       <c r="R156" s="4"/>
     </row>
     <row r="157" spans="1:18">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="A157" s="3">
+        <v>0</v>
+      </c>
+      <c r="B157" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
+      <c r="G157" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I157" s="3">
+        <v>4</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
+      <c r="L157" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543DB35C-B53B-4CBF-AB2E-E19F1FE379D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8265C74-7742-4F74-9828-3D42E3EBFE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="114">
   <si>
     <t>index</t>
   </si>
@@ -70,496 +70,298 @@
     <t>%s_EvilAsk</t>
   </si>
   <si>
-    <t>……</t>
-  </si>
-  <si>
     <t>%s_EvilThink</t>
   </si>
   <si>
-    <t># 推门2，次数1</t>
-  </si>
-  <si>
     <t>%s_EvilYeah</t>
   </si>
   <si>
-    <t># 推门3，次数1</t>
-  </si>
-  <si>
     <t>%s_EvilDisagree</t>
   </si>
   <si>
-    <t>%s_EvilSay</t>
-  </si>
-  <si>
-    <t># 推门4，次数1</t>
-  </si>
-  <si>
-    <t>%s_EvilSad</t>
-  </si>
-  <si>
-    <t># 推门5，次数1</t>
-  </si>
-  <si>
-    <t>%s_EvilScold</t>
-  </si>
-  <si>
-    <t># 推门1，次数1，不是番茄，队里没番茄</t>
-  </si>
-  <si>
-    <t>哟，打游戏呢？\n其实我也很擅长打游戏哦！要不要我帮忙啊？</t>
-  </si>
-  <si>
-    <t>Mushroom,Potato,Lemon</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>Egg_0</t>
-  </si>
-  <si>
-    <t>让我看看...\n《心动！阴暗的我与闪亮亮病娇万人迷的甜蜜日常》！</t>
-  </si>
-  <si>
-    <t>“万人迷：哼~我喊了五十个保镖封锁前门，五十个保镖封锁后门。\n白发红瞳蛋神，你已经逃不出我的手掌心了！”</t>
-  </si>
-  <si>
-    <t>白发红瞳蛋神是什么啦？\n怎么会有人给自己起这种名字！</t>
-  </si>
-  <si>
-    <t>“选项一，没办法了，暂时妥协吧。\n选项二，绝对不行，得想办法逃走！”</t>
-  </si>
-  <si>
-    <t>这应该就是关键分支了吧！\n听我的，这里应该选…</t>
-  </si>
-  <si>
-    <t>“选一，暂时妥协。”+6010;“选二，设法逃走。”+6012</t>
-  </si>
-  <si>
-    <t>（沉默地选择了选项二）</t>
-  </si>
-  <si>
-    <t>喂你！怎么不听我的建议呢？</t>
-  </si>
-  <si>
-    <t>“…只见白发红瞳蛋神一个鹞子翻身，使出了绝技·左右蹬墙跳！\n竟然突破了前后封锁，从天窗翻了出去！”</t>
-  </si>
-  <si>
-    <t>“万人迷：（勾唇挑眉）（三分凉薄）（四分讥笑）\n宝贝，你太天真了！”</t>
-  </si>
-  <si>
     <t>%s_EvilErr</t>
   </si>
   <si>
-    <t>“白发红瞳蛋神，一头撞进了直升机封锁线，就此殒命。\n临死前，你的脸上有着三分欣喜，四分绝望。”</t>
-  </si>
-  <si>
     <t>%s_EvilShock</t>
   </si>
   <si>
-    <t>（关闭游戏）</t>
-  </si>
-  <si>
-    <t>Tv_State0</t>
-  </si>
-  <si>
-    <t>…这个嘛、这个嘛。\n真是出人意料的结局呢。</t>
-  </si>
-  <si>
-    <t>（沉默地盯着桌面）</t>
-  </si>
-  <si>
-    <t>那啥，请节哀。\n我先去死了哈，就不打扰你了。</t>
-  </si>
-  <si>
-    <t># 推门1，次数&gt;=2</t>
-  </si>
-  <si>
-    <t>（阴暗地盯着桌面）</t>
-  </si>
-  <si>
     <t>&gt;2</t>
   </si>
   <si>
-    <t>哟，还在打游戏呢？\n这次打的是什么呀？</t>
-  </si>
-  <si>
-    <t>还是它啊！\n而且又到了关键分支！</t>
-  </si>
-  <si>
-    <t>“这里应该妥协！逃走的话恋爱情节都没法展开了！”+6030;“不要选逃走！会直接进入死亡结局的！”+6030</t>
-  </si>
-  <si>
-    <t>（选择逃走）</t>
-  </si>
-  <si>
-    <t>（前略，总之白发红瞳蛋神就此殒命，达成死亡结局）</t>
-  </si>
-  <si>
-    <t>怎么不听劝啦！还是说你有什么特别癖好吗？\n“我要以最快的速度去死！”你是这种类型吗？</t>
-  </si>
-  <si>
-    <t>“既然如此，干脆跟我一起去死好了！”+6036</t>
-  </si>
-  <si>
-    <t>Egg_SitToStand</t>
-  </si>
-  <si>
-    <t>走？</t>
-  </si>
-  <si>
-    <t>Egg_Gal</t>
-  </si>
-  <si>
-    <t>呜哇，真是富有冲击力的一张脸。\n而且看着很眼熟，不知道为什么。</t>
-  </si>
-  <si>
-    <t>不走？</t>
-  </si>
-  <si>
-    <t>走走走！</t>
-  </si>
-  <si>
-    <t>“果然你是光速去死派的吧！这么积极。”+-3+3</t>
-  </si>
-  <si>
-    <t>哟，又在打游戏呢？\n还是那个病娇万人迷吗？</t>
-  </si>
-  <si>
-    <t>让我看看...\n“万人迷：你已经逃不出我的手掌心了！”</t>
-  </si>
-  <si>
-    <t>怎么又是这个讨厌的分支啊！</t>
-  </si>
-  <si>
-    <t>我说，要不咱们换个游戏吧？</t>
-  </si>
-  <si>
     <t>？</t>
   </si>
   <si>
-    <t>因为你一定会毫不犹豫地\n向死亡结局一路狂奔啊！</t>
-  </si>
-  <si>
-    <t>（前略，总之白发红瞳蛋神光速死亡了）</t>
-  </si>
-  <si>
-    <t>失落。</t>
-  </si>
-  <si>
-    <t>失落的应该是我吧。连续三次\n见证了好言劝不了该死的蛋。</t>
-  </si>
-  <si>
-    <t>有吗？\n我们明明是第一次见面。</t>
-  </si>
-  <si>
-    <t>就当我们有\n纠缠不休的前世孽缘吧。</t>
-  </si>
-  <si>
-    <t>好恶心。</t>
-  </si>
-  <si>
-    <t>玩黏黏糊糊恋爱游戏的家伙\n没有资格说我吧！</t>
-  </si>
-  <si>
-    <t>不玩了。\n你是来干什么的？</t>
-  </si>
-  <si>
-    <t>啊，我是来劝你\n和我一起去死的。</t>
-  </si>
-  <si>
-    <t>虽然从结果上来看，\n我一直在劝你别找死。</t>
-  </si>
-  <si>
-    <t>你好矛盾啊。</t>
-  </si>
-  <si>
-    <t>…呜呜……</t>
-  </si>
-  <si>
-    <t>那你还想死吗？\n带我一个。</t>
-  </si>
-  <si>
-    <t>想啦！现在更想了啦！</t>
-  </si>
-  <si>
-    <t>“跟我走！”+6073;“等等，其实你这个脸，看久了有一种奇特的魅力。”+6076</t>
-  </si>
-  <si>
-    <t>呜呜…</t>
-  </si>
-  <si>
-    <t>哎，能不能把你的身体借我用一段时间呀？</t>
-  </si>
-  <si>
-    <t>不会太久！世界毁灭的时候就还给你！</t>
-  </si>
-  <si>
-    <t>无所谓。不还也可以。</t>
-  </si>
-  <si>
-    <t>好啊那就不还了。</t>
-  </si>
-  <si>
-    <t>“借我一用！”+-2+3</t>
-  </si>
-  <si>
-    <t>嗯…</t>
-  </si>
-  <si>
-    <t>怎么变成我自己的脸了啦！！</t>
-  </si>
-  <si>
-    <t>哟，还在打你那病娇万人迷吗？</t>
-  </si>
-  <si>
-    <t>让我看看...\n《勇蛋传说·超清像素重置版》！</t>
-  </si>
-  <si>
-    <t>“敌人甲：啊啊——白发红瞳蛋神！啊啊啊——白发红瞳蛋神！”</t>
-  </si>
-  <si>
-    <t>…不要念了！\n还有你是谁啊？</t>
-  </si>
-  <si>
-    <t>Egg_Link</t>
-  </si>
-  <si>
-    <t>你、你、你的脸！</t>
-  </si>
-  <si>
-    <t>我的脸？有什么问题吗？</t>
-  </si>
-  <si>
-    <t>和之前完全不一样了！\n就算是见多识广的我，也有一瞬间感到了惊讶！</t>
-  </si>
-  <si>
-    <t>我们见过？</t>
-  </si>
-  <si>
-    <t>这不重要啦。\n所以你的脸，确实是变了吧！</t>
-  </si>
-  <si>
-    <t>对啊。之前的脸，是病娇万人迷的主角“粉晶晶”。\n现在的脸，是勇蛋传说的主角“克莱科特”。</t>
-  </si>
-  <si>
-    <t>这样打游戏，代入感会变强很多哦。</t>
-  </si>
-  <si>
-    <t>是、是这样的吗？\n我好像理解了一切。</t>
-  </si>
-  <si>
-    <t>为啥？</t>
-  </si>
-  <si>
-    <t>求求你了！白发红瞳蛋神！拜托你了！白发红瞳蛋神！</t>
-  </si>
-  <si>
-    <t>…不要念了！\n给你就是了！</t>
-  </si>
-  <si>
-    <t>嘿嘿，我是想做个试验啦。</t>
-  </si>
-  <si>
-    <t>“借用一下！”+-2+3</t>
-  </si>
-  <si>
-    <t>你看！你看！！你看！！！</t>
-  </si>
-  <si>
-    <t>（看什么？）</t>
-  </si>
-  <si>
-    <t>Egg_Dark</t>
-  </si>
-  <si>
-    <t>你的脸，变成了我的脸哦！\n这一定也是为了增强你的代入感吧！</t>
-  </si>
-  <si>
-    <t>（是这样吗？那我要选择坐下，继续打游戏。）</t>
-  </si>
-  <si>
-    <t>我才不要呢！\n我要出去找死了！</t>
-  </si>
-  <si>
-    <t>喂、喂喂！代入感已经彻底没有了啊！</t>
-  </si>
-  <si>
-    <t>哟，这次是病娇万人迷\n还是勇蛋传说啊？</t>
-  </si>
-  <si>
-    <t>让我看看...“发现了野生的咕哇兽！\n白发红瞳蛋神，你会做出怎样的选择呢？！”</t>
-  </si>
-  <si>
-    <t>不要念了！\n还有你是谁啊？</t>
-  </si>
-  <si>
-    <t>Egg_Poke</t>
-  </si>
-  <si>
-    <t>哇哦，果然又是一张全新的脸！\n这次的主角叫什么名字？</t>
-  </si>
-  <si>
-    <t>莉莉娜。\n她很可爱吧？</t>
-  </si>
-  <si>
-    <t>这个游戏，我打算多玩一段时间。\n因为我很喜欢这个主角。</t>
-  </si>
-  <si>
-    <t>唔唔\n你是“喜欢角色超过喜欢游戏本身”的类型吗？</t>
-  </si>
-  <si>
-    <t>那当然了，大部分游戏都是垃圾。\n只有里面的角色还值得一点喜欢。</t>
-  </si>
-  <si>
-    <t>当然啦，我这种阴暗蠕动的怪物，\n是不配喜欢闪闪发亮的它们的。</t>
-  </si>
-  <si>
-    <t>只能把脸变成它们的样子，\n幻想自己也能蹭上一点点光。</t>
-  </si>
-  <si>
-    <t>呃呃呃…好沉重的话题。\n这不是一个傻乐的游戏吗？</t>
-  </si>
-  <si>
-    <t>我倒是不觉得沉重。你可以当它是一个笑话，听听就好了啦。</t>
-  </si>
-  <si>
-    <t>打游戏还是傻乐一点比较好。\n不然，走在路上，都会觉得被蹲墙角的NPC辱骂了。</t>
-  </si>
-  <si>
-    <t>呃呃呃，没错！就应该傻乐一点！\n那么走，跟我一起去死！</t>
-  </si>
-  <si>
-    <t>？什么啦！你以为我是专门来听你的阴暗心理讲座吗？</t>
-  </si>
-  <si>
-    <t>世界要毁灭了哦，十分钟以内，也许就在一分钟以后！</t>
-  </si>
-  <si>
-    <t>那可真是太糟糕了。\n我得先把这儿过了，再存个档。</t>
-  </si>
-  <si>
-    <t>你有两个选择哦！\n是跟我一起走？还是把身体借给我，我来替你走？</t>
-  </si>
-  <si>
-    <t>嗯嗯…</t>
-  </si>
-  <si>
-    <t>喂，你听到了吗？\n…什么游戏啊！存档需要这么久的吗！</t>
-  </si>
-  <si>
-    <t>那我来替你选择了！</t>
-  </si>
-  <si>
-    <t>“跟我一起走！”+6140;“把身体借给我！”+6146</t>
-  </si>
-  <si>
-    <t>噢！我存完了！\n你刚才说了什么？</t>
-  </si>
-  <si>
-    <t>你答应了和我一起走。</t>
-  </si>
-  <si>
-    <t>“不许反悔哦！你已经答应了！”+-3+3</t>
-  </si>
-  <si>
-    <t>喔喔，好吧。没问题。\n反正我已经存完了。</t>
-  </si>
-  <si>
-    <t>你答应了把身体借给我。</t>
-  </si>
-  <si>
-    <t>“不许反悔哦！你已经答应了！”+-2+3</t>
-  </si>
-  <si>
-    <t>（好吧，反正我已经存完了。）</t>
-  </si>
-  <si>
-    <t># 推门&gt;=6，次数1</t>
-  </si>
-  <si>
-    <t>距离世界毁灭已经不到十分钟了！\n再不存档就来不及了！</t>
-  </si>
-  <si>
-    <t>&gt;6</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>现在你有两个选择哦！\n知道你不想听，所以就由我来替你选吧！</t>
-  </si>
-  <si>
-    <t>哼哼，就知道你会同意的啦。</t>
-  </si>
-  <si>
-    <t>“那就选择，跟我一起走吧！”+6162;“那就选择，把身体借给我吧！”+6168</t>
-  </si>
-  <si>
-    <t>是吗？我有吗？\n罢了，反正我已经存完了。</t>
-  </si>
-  <si>
-    <t>（有这回事？算了，反正我已经存完了。）</t>
-  </si>
-  <si>
-    <t># 推门&gt;=1，次数1，是番茄</t>
-  </si>
-  <si>
-    <t>哟，打游戏呢？让我看看…</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
     <t>&gt;1</t>
   </si>
   <si>
-    <t>都说了不想理你了。</t>
-  </si>
-  <si>
-    <t>诶，什么，我？</t>
-  </si>
-  <si>
-    <t>这个，那个，你什么时候说过的？</t>
-  </si>
-  <si>
-    <t>我觉得我们之间\n是不是有什么误会？</t>
-  </si>
-  <si>
-    <t>呃啊…</t>
-  </si>
-  <si>
-    <t># 推门&gt;=1，次数&gt;=2，是番茄</t>
-  </si>
-  <si>
-    <t>（阴暗地背对着我）</t>
-  </si>
-  <si>
-    <t># 推门&gt;=1，次数1，队里有番茄</t>
-  </si>
-  <si>
-    <t>！你怎么混进来了？\n出去！</t>
-  </si>
-  <si>
-    <t>这个，那个，我不是混进来的？\n我是正大光明地走进来的。</t>
-  </si>
-  <si>
-    <t>番茄</t>
-  </si>
-  <si>
-    <t>…它说的是我。</t>
-  </si>
-  <si>
-    <t>Tomato_Laugh</t>
-  </si>
-  <si>
-    <t>呃啊，你们有仇吗？\n算了算了…我走，我走。</t>
-  </si>
-  <si>
-    <t># 推门&gt;=1，次数&gt;=2，队里有番茄</t>
-  </si>
-  <si>
-    <t>（冷酷地背对着我）</t>
+    <t># 推门&gt;1，次数1，无土豆</t>
+  </si>
+  <si>
+    <t>你相信吗？我可以用一句夸奖的话\n来激怒你。</t>
+  </si>
+  <si>
+    <t>Mushroom,Egg,Tomato,Lemon</t>
+  </si>
+  <si>
+    <t>贝斯</t>
+  </si>
+  <si>
+    <t>Bass_0</t>
+  </si>
+  <si>
+    <t>哇哦，好漂亮的吉他！</t>
+  </si>
+  <si>
+    <t>…滚！！</t>
+  </si>
+  <si>
+    <t># 推门&gt;1，次数&gt;=2，无土豆</t>
+  </si>
+  <si>
+    <t>滚开啦！！</t>
+  </si>
+  <si>
+    <t># 推门1，次数1，有土豆</t>
+  </si>
+  <si>
+    <t>其实很难看出来，你是会乐器的类型耶。</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>我曾经可是梦想过\n要成为摇滚巨星的呢。</t>
+  </si>
+  <si>
+    <t>Potato_Laugh</t>
+  </si>
+  <si>
+    <t>那后来呢？随着吉他和鼓手的单飞，你被独自留在了舞台上，\n本来想替乐队完成最后的告别演出，观众却在台下喊“你谁啊？”</t>
+  </si>
+  <si>
+    <t>——是这样的故事吗？</t>
+  </si>
+  <si>
+    <t>你的设想也太具体了吧！</t>
+  </si>
+  <si>
+    <t>没有这么复杂啦。只是因为我弹得太难听了，\n竟然成为了舞台上存在感最高的那一个…！</t>
+  </si>
+  <si>
+    <t>Potato_Calm</t>
+  </si>
+  <si>
+    <t>哇哦。真了不起。</t>
+  </si>
+  <si>
+    <t>也被骂过“听你弹琴不如出去挑大粪”啦。</t>
+  </si>
+  <si>
+    <t>这就是摇滚巨星需要承受的风浪吗？</t>
+  </si>
+  <si>
+    <t>嘿嘿，突然勾起了好多美好的回忆。\n要不，咱们把它也带上吧？</t>
+  </si>
+  <si>
+    <t>带上吗…</t>
+  </si>
+  <si>
+    <t>“带，都可以带！我最喜欢带着乱七八糟的东西去死了！”+5926;“别了吧，队友已经很多了，再多屏幕就塞不下了。”+5935</t>
+  </si>
+  <si>
+    <t>我不是乱七八糟的东西！</t>
+  </si>
+  <si>
+    <t>Bass_LayToStand</t>
+  </si>
+  <si>
+    <t>呀，还挺有脾气。</t>
+  </si>
+  <si>
+    <t>“快点跟上来！小心我们临时抛弃你哦！”+-3+7</t>
+  </si>
+  <si>
+    <t>哼！</t>
+  </si>
+  <si>
+    <t>唔，也有道理！</t>
+  </si>
+  <si>
+    <t># 推门1，次数&gt;=2，有土豆</t>
+  </si>
+  <si>
+    <t>看啥？不是队友很多吗？去看你队友啊！</t>
+  </si>
+  <si>
+    <t>哎呀，怎么还记仇了呢。</t>
+  </si>
+  <si>
+    <t># 推门2，次数1，有土豆</t>
+  </si>
+  <si>
+    <t>我想象里的乐器，都会好好地待在收纳容器里。\n只要被我看到真容，就会让我永无止境地演奏下去。</t>
+  </si>
+  <si>
+    <t>很厉害的想象呢。\n感觉用奇特的方式缝合了很多经典的童话。</t>
+  </si>
+  <si>
+    <t>收纳包其实是有的哦。\n不过它不太愿意待在里面。</t>
+  </si>
+  <si>
+    <t>它喜欢贴着地，这被它称为\n“接地电！”</t>
+  </si>
+  <si>
+    <t>敢问，“地电”是什么东西？</t>
+  </si>
+  <si>
+    <t>我也不清楚，可能是它们乐器的专有名词吧。\n对了，它是电贝斯来着，但我从来没有给它插过电。</t>
+  </si>
+  <si>
+    <t>总觉得…有哪个地方的电，被它偷过来了。</t>
+  </si>
+  <si>
+    <t>可是，从来没有谁来投诉过断电，\n所以我猜，应该不是特别严重吧。</t>
+  </si>
+  <si>
+    <t>诶，要不要带它一起走呀？\n其实我们关系挺好的，虽然用它演奏出来的音乐和大粪一样。</t>
+  </si>
+  <si>
+    <t>“带，都可以带！我还没经历过大粪味的死呢！”+5950;“别了吧，大粪什么的，还是有点接受不了。”+5955</t>
+  </si>
+  <si>
+    <t>你说谁是大粪呢？！</t>
+  </si>
+  <si>
+    <t>“快点跟上来！小心我们突然嫌弃你了哦！”+-3+7</t>
+  </si>
+  <si>
+    <t>不许嫌弃我！\n…不对，我不是大粪！</t>
+  </si>
+  <si>
+    <t># 推门2，次数&gt;=2，有土豆</t>
+  </si>
+  <si>
+    <t>你才是大粪！</t>
+  </si>
+  <si>
+    <t>呜呜…别骂我呀…</t>
+  </si>
+  <si>
+    <t># 推门&gt;=3，次数1，有土豆</t>
+  </si>
+  <si>
+    <t>嘿，小贝斯，要不要跟我们走呀？</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>？！干嘛！才不要！你们吓死我了！</t>
+  </si>
+  <si>
+    <t>哎呀…</t>
+  </si>
+  <si>
+    <t>“让你来你就来嘛，我们怎么会害你呢！”+5968;“不吓你了。我们走了哦！拜拜——永别了——！”+5972</t>
+  </si>
+  <si>
+    <t>呜呜…好可怕…</t>
+  </si>
+  <si>
+    <t>好耶！又多了一个伙伴！</t>
+  </si>
+  <si>
+    <t>“快点跟上来！”+-3+7</t>
+  </si>
+  <si>
+    <t>哼…</t>
+  </si>
+  <si>
+    <t>啊…</t>
+  </si>
+  <si>
+    <t># 推门&gt;=3，次数&gt;=2，有土豆</t>
+  </si>
+  <si>
+    <t>真的要走了啊…</t>
+  </si>
+  <si>
+    <t># 推门1，次数1，是土豆</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>（我可是梦想过要成为摇滚巨星的呢。）</t>
+  </si>
+  <si>
+    <t>Potato_Dark</t>
+  </si>
+  <si>
+    <t>（你的设想也太具体了吧！）</t>
+  </si>
+  <si>
+    <t>（没有这么复杂啦。真实情况是，我弹得太难听了。）\n（结果竟然成为了舞台上存在感最高的那一个。）</t>
+  </si>
+  <si>
+    <t>（也被骂过“听你弹琴不如出去挑大粪”啦。）</t>
+  </si>
+  <si>
+    <t>（嘿嘿，突然勾起了好多美好的回忆。）\n（要不，咱们把它也带上吧？）</t>
+  </si>
+  <si>
+    <t>“带，都可以带！我最喜欢带着乱七八糟的东西去死了！”+5820;“别了吧，队友已经很多了，再多屏幕就塞不下了。”+5926</t>
+  </si>
+  <si>
+    <t>（唔，也有道理！）</t>
+  </si>
+  <si>
+    <t># 推门1，次数&gt;=2，是土豆</t>
+  </si>
+  <si>
+    <t>（好像在生闷气的样子。）</t>
+  </si>
+  <si>
+    <t>咦，是因为我没带上你吗？</t>
+  </si>
+  <si>
+    <t># 推门2，次数1，是土豆</t>
+  </si>
+  <si>
+    <t>（很厉害的想象呢。）\n（感觉用奇特的方式缝合了很多经典的童话。）</t>
+  </si>
+  <si>
+    <t>（收纳包其实是有的哦。）\n（不过它不太愿意待在里面。）</t>
+  </si>
+  <si>
+    <t>（它喜欢贴着地。）\n（这被它称为“接地电！”）</t>
+  </si>
+  <si>
+    <t>（我也不清楚，可能是它们乐器的专有名词吧。）\n（对了，它是电贝斯来着，但我从来没有给它插过电。）</t>
+  </si>
+  <si>
+    <t>（可是，从来没有谁来投诉过断电。）\n（所以我猜，应该不是特别严重吧。）</t>
+  </si>
+  <si>
+    <t>（诶，要不要带它一起走呀？）\n（我们关系很好哦，虽然用它演奏出的音乐和大粪一样。）</t>
+  </si>
+  <si>
+    <t>“带，都可以带！我还没经历过大粪味的死呢！”+5850;“别了吧，大粪什么的，还是有点接受不了。”+5855</t>
+  </si>
+  <si>
+    <t># 推门2，次数&gt;=2，是土豆</t>
+  </si>
+  <si>
+    <t>（呜呜…别骂我呀…）</t>
+  </si>
+  <si>
+    <t># 推门&gt;=3，次数1，是土豆</t>
+  </si>
+  <si>
+    <t>？！干嘛！才不要！你吓死我了！</t>
+  </si>
+  <si>
+    <t>“让你来你就来嘛，我们怎么会害你呢！”+5868;“不吓你了。我走了哦！拜拜——永别了——！”+5872</t>
   </si>
 </sst>
 </file>
@@ -627,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:L157"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -1033,9 +838,9 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1045,9 +850,9 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1060,30 +865,30 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>6001</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>5900</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="3">
+      <c r="L3" s="8">
         <v>1</v>
       </c>
       <c r="M3" s="4"/>
@@ -1095,33 +900,33 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>6001</v>
+        <v>5900</v>
       </c>
       <c r="B4" s="3">
-        <v>6002</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>5901</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I4" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="8">
         <v>1</v>
       </c>
       <c r="M4" s="4"/>
@@ -1133,33 +938,33 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3">
-        <v>6002</v>
+        <v>5901</v>
       </c>
       <c r="B5" s="3">
-        <v>6003</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>5902</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I5" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8">
         <v>1</v>
       </c>
       <c r="M5" s="4"/>
@@ -1171,33 +976,33 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>6003</v>
+        <v>5902</v>
       </c>
       <c r="B6" s="3">
-        <v>6004</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>-1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I6" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="8">
         <v>1</v>
       </c>
       <c r="M6" s="4"/>
@@ -1208,36 +1013,20 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="3">
-        <v>6004</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6005</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1247,34 +1036,34 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
-        <v>6005</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3">
-        <v>6006</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I8" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1284,36 +1073,20 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="3">
-        <v>6006</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6007</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1323,33 +1096,33 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>6007</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5915</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I10" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="8">
         <v>1</v>
       </c>
       <c r="M10" s="4"/>
@@ -1361,33 +1134,33 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>6010</v>
+        <v>5915</v>
       </c>
       <c r="B11" s="3">
-        <v>6011</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>5916</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="8">
         <v>1</v>
       </c>
       <c r="M11" s="4"/>
@@ -1399,33 +1172,33 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>6011</v>
+        <v>5916</v>
       </c>
       <c r="B12" s="3">
-        <v>6012</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>5917</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I12" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="8">
         <v>1</v>
       </c>
       <c r="M12" s="4"/>
@@ -1437,33 +1210,33 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
-        <v>6012</v>
+        <v>5917</v>
       </c>
       <c r="B13" s="3">
-        <v>6013</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>5918</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>29</v>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I13" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="8">
         <v>1</v>
       </c>
       <c r="M13" s="4"/>
@@ -1475,33 +1248,33 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
-        <v>6013</v>
+        <v>5918</v>
       </c>
       <c r="B14" s="3">
-        <v>6014</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>5919</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I14" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="8">
         <v>1</v>
       </c>
       <c r="M14" s="4"/>
@@ -1514,33 +1287,33 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>6014</v>
+        <v>5919</v>
       </c>
       <c r="B15" s="3">
-        <v>6015</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>5920</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I15" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="8">
         <v>1</v>
       </c>
       <c r="M15" s="4"/>
@@ -1553,33 +1326,33 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>6015</v>
+        <v>5920</v>
       </c>
       <c r="B16" s="3">
-        <v>6016</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>5921</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I16" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="8">
         <v>1</v>
       </c>
       <c r="M16" s="4"/>
@@ -1591,33 +1364,33 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>6016</v>
+        <v>5921</v>
       </c>
       <c r="B17" s="3">
-        <v>6017</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
+        <v>5922</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I17" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="8">
         <v>1</v>
       </c>
       <c r="M17" s="4"/>
@@ -1629,35 +1402,33 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>6017</v>
+        <v>5922</v>
       </c>
       <c r="B18" s="3">
-        <v>6018</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="5" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I18" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="8">
         <v>1</v>
       </c>
       <c r="M18" s="4"/>
@@ -1669,33 +1440,33 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>6018</v>
+        <v>5923</v>
       </c>
       <c r="B19" s="3">
-        <v>6019</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>5924</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I19" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="8">
         <v>1</v>
       </c>
       <c r="M19" s="4"/>
@@ -1707,33 +1478,33 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>6019</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6020</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>5924</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>29</v>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I20" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="8">
         <v>1</v>
       </c>
       <c r="M20" s="4"/>
@@ -1745,33 +1516,35 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>6020</v>
+        <v>5926</v>
       </c>
       <c r="B21" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
+        <v>5927</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I21" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="8">
         <v>1</v>
       </c>
       <c r="M21" s="4"/>
@@ -1782,20 +1555,38 @@
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="3">
+        <v>5927</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5928</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="G22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1805,34 +1596,34 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>0</v>
+        <v>5928</v>
       </c>
       <c r="B23" s="3">
         <v>-1</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>51</v>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I23" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
         <v>1</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="3" t="s">
-        <v>52</v>
+      <c r="L23" s="8">
+        <v>1</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1842,20 +1633,36 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="3">
+        <v>5935</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="G24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1864,36 +1671,20 @@
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="3">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3">
-        <v>6026</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
+      <c r="L25" s="8"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1903,34 +1694,34 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3">
-        <v>6026</v>
+        <v>0</v>
       </c>
       <c r="B26" s="3">
-        <v>6027</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>16</v>
+        <v>5938</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I26" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -1941,34 +1732,34 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>6027</v>
+        <v>5938</v>
       </c>
       <c r="B27" s="3">
-        <v>6028</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>32</v>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I27" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -1977,37 +1768,21 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="22.8">
-      <c r="A28" s="3">
-        <v>6028</v>
+    <row r="28" spans="1:18">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J28" s="3">
-        <v>2</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2017,33 +1792,33 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>6030</v>
+        <v>0</v>
       </c>
       <c r="B29" s="3">
-        <v>6031</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>56</v>
+        <v>5940</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>29</v>
+      <c r="G29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I29" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
         <v>2</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3">
+      <c r="K29" s="4"/>
+      <c r="L29" s="8">
         <v>1</v>
       </c>
       <c r="M29" s="4"/>
@@ -2055,33 +1830,33 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>6031</v>
+        <v>5940</v>
       </c>
       <c r="B30" s="3">
-        <v>6032</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>5941</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I30" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
         <v>2</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3">
+      <c r="K30" s="4"/>
+      <c r="L30" s="8">
         <v>1</v>
       </c>
       <c r="M30" s="4"/>
@@ -2093,33 +1868,33 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>6032</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>5941</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5942</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I31" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
         <v>2</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3">
+      <c r="K31" s="4"/>
+      <c r="L31" s="8">
         <v>1</v>
       </c>
       <c r="M31" s="4"/>
@@ -2131,35 +1906,33 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3">
-        <v>6036</v>
+        <v>5942</v>
       </c>
       <c r="B32" s="3">
-        <v>6037</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>16</v>
+        <v>5943</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I32" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
         <v>2</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3">
+      <c r="K32" s="4"/>
+      <c r="L32" s="8">
         <v>1</v>
       </c>
       <c r="M32" s="4"/>
@@ -2171,33 +1944,33 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>6037</v>
+        <v>5943</v>
       </c>
       <c r="B33" s="3">
-        <v>6038</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>61</v>
+        <v>5944</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I33" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8">
         <v>2</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3">
+      <c r="K33" s="4"/>
+      <c r="L33" s="8">
         <v>1</v>
       </c>
       <c r="M33" s="4"/>
@@ -2209,33 +1982,33 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>6038</v>
+        <v>5944</v>
       </c>
       <c r="B34" s="3">
-        <v>6039</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>63</v>
+        <v>5945</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I34" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8">
         <v>2</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3">
+      <c r="K34" s="4"/>
+      <c r="L34" s="8">
         <v>1</v>
       </c>
       <c r="M34" s="4"/>
@@ -2247,33 +2020,33 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>6039</v>
+        <v>5945</v>
       </c>
       <c r="B35" s="3">
-        <v>6040</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>64</v>
+        <v>5946</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I35" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
         <v>2</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3">
+      <c r="K35" s="4"/>
+      <c r="L35" s="8">
         <v>1</v>
       </c>
       <c r="M35" s="4"/>
@@ -2285,35 +2058,33 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3">
-        <v>6040</v>
+        <v>5946</v>
       </c>
       <c r="B36" s="3">
-        <v>6041</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="5" t="s">
+        <v>5947</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>29</v>
+      <c r="G36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I36" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8">
         <v>2</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3">
+      <c r="K36" s="4"/>
+      <c r="L36" s="8">
         <v>1</v>
       </c>
       <c r="M36" s="4"/>
@@ -2325,33 +2096,33 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>6041</v>
-      </c>
-      <c r="B37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>5947</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I37" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
         <v>2</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3">
+      <c r="K37" s="4"/>
+      <c r="L37" s="8">
         <v>1</v>
       </c>
       <c r="M37" s="4"/>
@@ -2362,20 +2133,38 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="3">
+        <v>5950</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5951</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8">
+        <v>2</v>
+      </c>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2385,33 +2174,35 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="3">
-        <v>0</v>
+        <v>5951</v>
       </c>
       <c r="B39" s="3">
-        <v>6050</v>
-      </c>
-      <c r="C39" s="5" t="s">
+        <v>5952</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="4"/>
+      <c r="D39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I39" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>2</v>
       </c>
       <c r="K39" s="4"/>
-      <c r="L39" s="3">
+      <c r="L39" s="8">
         <v>1</v>
       </c>
       <c r="M39" s="4"/>
@@ -2423,33 +2214,33 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>6050</v>
+        <v>5952</v>
       </c>
       <c r="B40" s="3">
-        <v>6051</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I40" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="8">
         <v>1</v>
       </c>
       <c r="M40" s="4"/>
@@ -2461,33 +2252,33 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3">
-        <v>6051</v>
+        <v>5955</v>
       </c>
       <c r="B41" s="3">
-        <v>6052</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>68</v>
+        <v>-1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I41" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>2</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="8">
         <v>1</v>
       </c>
       <c r="M41" s="4"/>
@@ -2498,36 +2289,20 @@
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="3">
-        <v>6052</v>
-      </c>
-      <c r="B42" s="3">
-        <v>6053</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="8"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2537,34 +2312,34 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="3">
-        <v>6053</v>
+        <v>0</v>
       </c>
       <c r="B43" s="3">
-        <v>6054</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>70</v>
+        <v>5958</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I43" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J43" s="8">
+        <v>2</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2575,34 +2350,34 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3">
-        <v>6054</v>
+        <v>5958</v>
       </c>
       <c r="B44" s="3">
-        <v>6055</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>71</v>
+        <v>-1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I44" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
+        <v>2</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -2612,36 +2387,20 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="3">
-        <v>6055</v>
-      </c>
-      <c r="B45" s="3">
-        <v>6056</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="8"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2651,33 +2410,33 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="3">
-        <v>6056</v>
+        <v>0</v>
       </c>
       <c r="B46" s="3">
-        <v>6057</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>56</v>
+        <v>5962</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I46" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="8">
         <v>1</v>
       </c>
       <c r="M46" s="4"/>
@@ -2689,33 +2448,33 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="3">
-        <v>6057</v>
+        <v>5962</v>
       </c>
       <c r="B47" s="3">
-        <v>6058</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>73</v>
+        <v>5963</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I47" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="8">
         <v>1</v>
       </c>
       <c r="M47" s="4"/>
@@ -2727,33 +2486,33 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="3">
-        <v>6058</v>
+        <v>5963</v>
       </c>
       <c r="B48" s="3">
-        <v>6059</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>74</v>
+        <v>5964</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I48" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="8">
         <v>1</v>
       </c>
       <c r="M48" s="4"/>
@@ -2765,33 +2524,35 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="3">
-        <v>6059</v>
+        <v>5964</v>
       </c>
       <c r="B49" s="3">
-        <v>6060</v>
-      </c>
-      <c r="C49" s="5" t="s">
+        <v>5968</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I49" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="8">
         <v>1</v>
       </c>
       <c r="M49" s="4"/>
@@ -2803,33 +2564,35 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="3">
-        <v>6060</v>
+        <v>5968</v>
       </c>
       <c r="B50" s="3">
-        <v>6061</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>76</v>
+        <v>5969</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I50" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J50" s="3">
-        <v>3</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="8">
         <v>1</v>
       </c>
       <c r="M50" s="4"/>
@@ -2841,33 +2604,35 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="3">
-        <v>6061</v>
+        <v>5969</v>
       </c>
       <c r="B51" s="3">
-        <v>6062</v>
-      </c>
-      <c r="C51" s="5" t="s">
+        <v>5970</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J51" s="3">
-        <v>3</v>
-      </c>
       <c r="K51" s="3"/>
-      <c r="L51" s="3">
+      <c r="L51" s="8">
         <v>1</v>
       </c>
       <c r="M51" s="4"/>
@@ -2879,33 +2644,33 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="3">
-        <v>6062</v>
+        <v>5970</v>
       </c>
       <c r="B52" s="3">
-        <v>6063</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
       <c r="G52" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I52" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K52" s="3"/>
-      <c r="L52" s="3">
+      <c r="L52" s="8">
         <v>1</v>
       </c>
       <c r="M52" s="4"/>
@@ -2917,33 +2682,33 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="3">
-        <v>6063</v>
+        <v>5972</v>
       </c>
       <c r="B53" s="3">
-        <v>6064</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>79</v>
+        <v>-1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I53" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J53" s="3">
-        <v>3</v>
-      </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="8">
         <v>1</v>
       </c>
       <c r="M53" s="4"/>
@@ -2954,36 +2719,20 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="3">
-        <v>6064</v>
-      </c>
-      <c r="B54" s="3">
-        <v>6065</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3">
-        <v>1</v>
-      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="8"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2993,34 +2742,34 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="3">
-        <v>6065</v>
+        <v>0</v>
       </c>
       <c r="B55" s="3">
-        <v>6066</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>81</v>
+        <v>-1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>29</v>
+      <c r="G55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I55" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J55" s="3">
-        <v>3</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -3030,36 +2779,20 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="3">
-        <v>6066</v>
-      </c>
-      <c r="B56" s="3">
-        <v>6067</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J56" s="3">
-        <v>3</v>
-      </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3">
-        <v>1</v>
-      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="8"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -3069,33 +2802,31 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="3">
-        <v>6067</v>
+        <v>0</v>
       </c>
       <c r="B57" s="3">
-        <v>6068</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+        <v>5801</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="8">
+        <v>1</v>
       </c>
       <c r="K57" s="3"/>
-      <c r="L57" s="3">
+      <c r="L57" s="8">
         <v>1</v>
       </c>
       <c r="M57" s="4"/>
@@ -3107,33 +2838,31 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3">
-        <v>6068</v>
+        <v>5801</v>
       </c>
       <c r="B58" s="3">
-        <v>6069</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3</v>
+        <v>5802</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="8">
+        <v>1</v>
       </c>
       <c r="K58" s="3"/>
-      <c r="L58" s="3">
+      <c r="L58" s="8">
         <v>1</v>
       </c>
       <c r="M58" s="4"/>
@@ -3145,35 +2874,31 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="3">
-        <v>6069</v>
+        <v>5802</v>
       </c>
       <c r="B59" s="3">
-        <v>6070</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J59" s="3">
+        <v>5803</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="8">
+        <v>1</v>
+      </c>
       <c r="K59" s="3"/>
-      <c r="L59" s="3">
+      <c r="L59" s="8">
         <v>1</v>
       </c>
       <c r="M59" s="4"/>
@@ -3185,33 +2910,31 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="3">
-        <v>6070</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5" t="s">
+        <v>5803</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5804</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3</v>
+      <c r="D60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="8">
+        <v>1</v>
       </c>
       <c r="K60" s="3"/>
-      <c r="L60" s="3">
+      <c r="L60" s="8">
         <v>1</v>
       </c>
       <c r="M60" s="4"/>
@@ -3223,33 +2946,31 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="3">
-        <v>6073</v>
+        <v>5804</v>
       </c>
       <c r="B61" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3</v>
+        <v>5805</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="8">
+        <v>1</v>
       </c>
       <c r="K61" s="3"/>
-      <c r="L61" s="3">
+      <c r="L61" s="8">
         <v>1</v>
       </c>
       <c r="M61" s="4"/>
@@ -3261,33 +2982,31 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="3">
-        <v>6076</v>
+        <v>5805</v>
       </c>
       <c r="B62" s="3">
-        <v>6077</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="5" t="s">
+        <v>5806</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3</v>
+      <c r="I62" s="3"/>
+      <c r="J62" s="8">
+        <v>1</v>
       </c>
       <c r="K62" s="3"/>
-      <c r="L62" s="3">
+      <c r="L62" s="8">
         <v>1</v>
       </c>
       <c r="M62" s="4"/>
@@ -3299,33 +3018,31 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="3">
-        <v>6077</v>
+        <v>5806</v>
       </c>
       <c r="B63" s="3">
-        <v>6078</v>
-      </c>
-      <c r="C63" s="5" t="s">
+        <v>5807</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J63" s="3">
-        <v>3</v>
+      <c r="D63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="8">
+        <v>1</v>
       </c>
       <c r="K63" s="3"/>
-      <c r="L63" s="3">
+      <c r="L63" s="8">
         <v>1</v>
       </c>
       <c r="M63" s="4"/>
@@ -3337,33 +3054,31 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="3">
-        <v>6078</v>
+        <v>5807</v>
       </c>
       <c r="B64" s="3">
-        <v>6079</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="5" t="s">
+        <v>5808</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J64" s="3">
-        <v>3</v>
+      <c r="H64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="8">
+        <v>1</v>
       </c>
       <c r="K64" s="3"/>
-      <c r="L64" s="3">
+      <c r="L64" s="8">
         <v>1</v>
       </c>
       <c r="M64" s="4"/>
@@ -3375,35 +3090,31 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="3">
-        <v>6079</v>
+        <v>5808</v>
       </c>
       <c r="B65" s="3">
-        <v>6080</v>
-      </c>
-      <c r="C65" s="5" t="s">
+        <v>5809</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J65" s="3">
-        <v>3</v>
+      <c r="D65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="8">
+        <v>1</v>
       </c>
       <c r="K65" s="3"/>
-      <c r="L65" s="3">
+      <c r="L65" s="8">
         <v>1</v>
       </c>
       <c r="M65" s="4"/>
@@ -3415,33 +3126,31 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="3">
-        <v>6080</v>
+        <v>5809</v>
       </c>
       <c r="B66" s="3">
-        <v>6081</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3</v>
+        <v>5810</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="8">
+        <v>1</v>
       </c>
       <c r="K66" s="3"/>
-      <c r="L66" s="3">
+      <c r="L66" s="8">
         <v>1</v>
       </c>
       <c r="M66" s="4"/>
@@ -3453,33 +3162,31 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="3">
-        <v>6081</v>
-      </c>
-      <c r="B67" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C67" s="5" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J67" s="3">
-        <v>3</v>
+      <c r="D67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="8">
+        <v>1</v>
       </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="3">
+      <c r="L67" s="8">
         <v>1</v>
       </c>
       <c r="M67" s="4"/>
@@ -3490,20 +3197,36 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="A68" s="3">
+        <v>5820</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5821</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="8">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3"/>
+      <c r="L68" s="8">
+        <v>1</v>
+      </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -3513,33 +3236,33 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="3">
-        <v>0</v>
+        <v>5821</v>
       </c>
       <c r="B69" s="3">
-        <v>6085</v>
-      </c>
-      <c r="C69" s="5" t="s">
+        <v>5822</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="D69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J69" s="3">
-        <v>4</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="3">
+        <v>18</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="8">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3"/>
+      <c r="L69" s="8">
         <v>1</v>
       </c>
       <c r="M69" s="4"/>
@@ -3551,33 +3274,31 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3">
-        <v>6085</v>
+        <v>5822</v>
       </c>
       <c r="B70" s="3">
-        <v>6086</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
       <c r="G70" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J70" s="3">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="8">
+        <v>1</v>
       </c>
       <c r="K70" s="3"/>
-      <c r="L70" s="3">
+      <c r="L70" s="8">
         <v>1</v>
       </c>
       <c r="M70" s="4"/>
@@ -3589,33 +3310,31 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="3">
-        <v>6086</v>
+        <v>5826</v>
       </c>
       <c r="B71" s="3">
-        <v>6087</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="5" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J71" s="3">
-        <v>4</v>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="8">
+        <v>1</v>
       </c>
       <c r="K71" s="3"/>
-      <c r="L71" s="3">
+      <c r="L71" s="8">
         <v>1</v>
       </c>
       <c r="M71" s="4"/>
@@ -3626,36 +3345,20 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="3">
-        <v>6087</v>
-      </c>
-      <c r="B72" s="3">
-        <v>6088</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J72" s="3">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3">
-        <v>1</v>
-      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="8"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -3665,34 +3368,32 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3">
-        <v>6088</v>
+        <v>0</v>
       </c>
       <c r="B73" s="3">
-        <v>6089</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="5" t="s">
+        <v>5830</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
       <c r="G73" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J73" s="3">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="8">
+        <v>1</v>
       </c>
       <c r="K73" s="3"/>
-      <c r="L73" s="3">
-        <v>1</v>
+      <c r="L73" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -3703,34 +3404,32 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="3">
-        <v>6089</v>
+        <v>5830</v>
       </c>
       <c r="B74" s="3">
-        <v>6090</v>
-      </c>
-      <c r="C74" s="5" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
       <c r="G74" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J74" s="3">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="8">
+        <v>1</v>
       </c>
       <c r="K74" s="3"/>
-      <c r="L74" s="3">
-        <v>1</v>
+      <c r="L74" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -3740,36 +3439,20 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="3">
-        <v>6090</v>
-      </c>
-      <c r="B75" s="3">
-        <v>6091</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J75" s="3">
-        <v>4</v>
-      </c>
+      <c r="A75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="8"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3">
-        <v>1</v>
-      </c>
+      <c r="L75" s="8"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -3779,33 +3462,31 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="3">
-        <v>6091</v>
+        <v>0</v>
       </c>
       <c r="B76" s="3">
-        <v>6092</v>
-      </c>
-      <c r="C76" s="5" t="s">
+        <v>5840</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4</v>
+      <c r="D76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="8">
+        <v>2</v>
       </c>
       <c r="K76" s="3"/>
-      <c r="L76" s="3">
+      <c r="L76" s="8">
         <v>1</v>
       </c>
       <c r="M76" s="4"/>
@@ -3817,33 +3498,31 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="3">
-        <v>6092</v>
+        <v>5840</v>
       </c>
       <c r="B77" s="3">
-        <v>6093</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J77" s="3">
-        <v>4</v>
+        <v>5841</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="8">
+        <v>2</v>
       </c>
       <c r="K77" s="3"/>
-      <c r="L77" s="3">
+      <c r="L77" s="8">
         <v>1</v>
       </c>
       <c r="M77" s="4"/>
@@ -3855,33 +3534,31 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="3">
-        <v>6093</v>
+        <v>5841</v>
       </c>
       <c r="B78" s="3">
-        <v>6094</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J78" s="3">
-        <v>4</v>
+        <v>5842</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="8">
+        <v>2</v>
       </c>
       <c r="K78" s="3"/>
-      <c r="L78" s="3">
+      <c r="L78" s="8">
         <v>1</v>
       </c>
       <c r="M78" s="4"/>
@@ -3893,33 +3570,31 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="3">
-        <v>6094</v>
+        <v>5842</v>
       </c>
       <c r="B79" s="3">
-        <v>6095</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I79" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J79" s="3">
-        <v>4</v>
+        <v>5843</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="8">
+        <v>2</v>
       </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="3">
+      <c r="L79" s="8">
         <v>1</v>
       </c>
       <c r="M79" s="4"/>
@@ -3931,33 +3606,31 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="3">
-        <v>6095</v>
+        <v>5843</v>
       </c>
       <c r="B80" s="3">
-        <v>6096</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
+        <v>5844</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
       <c r="G80" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J80" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="8">
+        <v>2</v>
       </c>
       <c r="K80" s="3"/>
-      <c r="L80" s="3">
+      <c r="L80" s="8">
         <v>1</v>
       </c>
       <c r="M80" s="4"/>
@@ -3969,33 +3642,31 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="3">
-        <v>6096</v>
+        <v>5844</v>
       </c>
       <c r="B81" s="3">
-        <v>6097</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J81" s="3">
-        <v>4</v>
+        <v>5845</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="8">
+        <v>2</v>
       </c>
       <c r="K81" s="3"/>
-      <c r="L81" s="3">
+      <c r="L81" s="8">
         <v>1</v>
       </c>
       <c r="M81" s="4"/>
@@ -4007,33 +3678,31 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="3">
-        <v>6097</v>
+        <v>5845</v>
       </c>
       <c r="B82" s="3">
-        <v>6098</v>
-      </c>
-      <c r="C82" s="5" t="s">
+        <v>5846</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I82" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J82" s="3">
-        <v>4</v>
+      <c r="I82" s="3"/>
+      <c r="J82" s="8">
+        <v>2</v>
       </c>
       <c r="K82" s="3"/>
-      <c r="L82" s="3">
+      <c r="L82" s="8">
         <v>1</v>
       </c>
       <c r="M82" s="4"/>
@@ -4045,33 +3714,31 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="3">
-        <v>6098</v>
+        <v>5846</v>
       </c>
       <c r="B83" s="3">
-        <v>6099</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I83" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4</v>
+        <v>5847</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="8">
+        <v>2</v>
       </c>
       <c r="K83" s="3"/>
-      <c r="L83" s="3">
+      <c r="L83" s="8">
         <v>1</v>
       </c>
       <c r="M83" s="4"/>
@@ -4083,33 +3750,31 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="3">
-        <v>6099</v>
-      </c>
-      <c r="B84" s="3">
-        <v>6100</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I84" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J84" s="3">
-        <v>4</v>
+        <v>5847</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="8">
+        <v>2</v>
       </c>
       <c r="K84" s="3"/>
-      <c r="L84" s="3">
+      <c r="L84" s="8">
         <v>1</v>
       </c>
       <c r="M84" s="4"/>
@@ -4121,33 +3786,33 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="3">
-        <v>6100</v>
+        <v>5850</v>
       </c>
       <c r="B85" s="3">
-        <v>6101</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
+        <v>5851</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G85" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I85" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J85" s="3">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="8">
+        <v>2</v>
       </c>
       <c r="K85" s="3"/>
-      <c r="L85" s="3">
+      <c r="L85" s="8">
         <v>1</v>
       </c>
       <c r="M85" s="4"/>
@@ -4159,35 +3824,33 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="3">
-        <v>6101</v>
+        <v>5851</v>
       </c>
       <c r="B86" s="3">
-        <v>6102</v>
-      </c>
-      <c r="C86" s="5" t="s">
+        <v>5852</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I86" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J86" s="3">
-        <v>4</v>
+      <c r="D86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="8">
+        <v>2</v>
       </c>
       <c r="K86" s="3"/>
-      <c r="L86" s="3">
+      <c r="L86" s="8">
         <v>1</v>
       </c>
       <c r="M86" s="4"/>
@@ -4199,33 +3862,31 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="3">
-        <v>6102</v>
+        <v>5852</v>
       </c>
       <c r="B87" s="3">
-        <v>6103</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I87" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J87" s="3">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="8">
+        <v>2</v>
       </c>
       <c r="K87" s="3"/>
-      <c r="L87" s="3">
+      <c r="L87" s="8">
         <v>1</v>
       </c>
       <c r="M87" s="4"/>
@@ -4237,33 +3898,31 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="3">
-        <v>6103</v>
+        <v>5855</v>
       </c>
       <c r="B88" s="3">
-        <v>6104</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I88" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J88" s="3">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="8">
+        <v>2</v>
       </c>
       <c r="K88" s="3"/>
-      <c r="L88" s="3">
+      <c r="L88" s="8">
         <v>1</v>
       </c>
       <c r="M88" s="4"/>
@@ -4274,36 +3933,20 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="3">
-        <v>6104</v>
-      </c>
-      <c r="B89" s="3">
-        <v>6105</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J89" s="3">
-        <v>4</v>
-      </c>
+      <c r="A89" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="8"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
+      <c r="L89" s="8"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -4313,34 +3956,32 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="3">
-        <v>6105</v>
+        <v>0</v>
       </c>
       <c r="B90" s="3">
-        <v>6106</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+        <v>5858</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
       <c r="G90" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J90" s="3">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="8">
+        <v>2</v>
       </c>
       <c r="K90" s="3"/>
-      <c r="L90" s="3">
-        <v>1</v>
+      <c r="L90" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -4351,34 +3992,32 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="3">
-        <v>6106</v>
+        <v>5858</v>
       </c>
       <c r="B91" s="3">
-        <v>6107</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="6" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="8">
+        <v>2</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J91" s="3">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3">
-        <v>1</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -4388,36 +4027,20 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="3">
-        <v>6107</v>
-      </c>
-      <c r="B92" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J92" s="3">
-        <v>4</v>
-      </c>
+      <c r="A92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="8"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="3">
-        <v>1</v>
-      </c>
+      <c r="L92" s="8"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -4426,20 +4049,34 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="A93" s="3">
+        <v>0</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5863</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K93" s="3"/>
+      <c r="L93" s="8">
+        <v>1</v>
+      </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4449,33 +4086,31 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="3">
-        <v>0</v>
+        <v>5863</v>
       </c>
       <c r="B94" s="3">
-        <v>6115</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
+        <v>5864</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
       <c r="G94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>5</v>
-      </c>
-      <c r="K94" s="4"/>
-      <c r="L94" s="3">
+        <v>28</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K94" s="3"/>
+      <c r="L94" s="8">
         <v>1</v>
       </c>
       <c r="M94" s="4"/>
@@ -4487,33 +4122,31 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="3">
-        <v>6115</v>
-      </c>
-      <c r="B95" s="3">
-        <v>6116</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
+        <v>5864</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F95" s="3"/>
       <c r="G95" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I95" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J95" s="3">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K95" s="3"/>
-      <c r="L95" s="3">
+      <c r="L95" s="8">
         <v>1</v>
       </c>
       <c r="M95" s="4"/>
@@ -4525,33 +4158,33 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="3">
-        <v>6116</v>
+        <v>5868</v>
       </c>
       <c r="B96" s="3">
-        <v>6117</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
+        <v>5869</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G96" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J96" s="3">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K96" s="3"/>
-      <c r="L96" s="3">
+      <c r="L96" s="8">
         <v>1</v>
       </c>
       <c r="M96" s="4"/>
@@ -4563,33 +4196,33 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="3">
-        <v>6117</v>
+        <v>5869</v>
       </c>
       <c r="B97" s="3">
-        <v>6118</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I97" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J97" s="3">
-        <v>5</v>
+        <v>5870</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K97" s="3"/>
-      <c r="L97" s="3">
+      <c r="L97" s="8">
         <v>1</v>
       </c>
       <c r="M97" s="4"/>
@@ -4601,33 +4234,31 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="3">
-        <v>6118</v>
+        <v>5870</v>
       </c>
       <c r="B98" s="3">
-        <v>6119</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
       <c r="G98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I98" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J98" s="3">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K98" s="3"/>
-      <c r="L98" s="3">
+      <c r="L98" s="8">
         <v>1</v>
       </c>
       <c r="M98" s="4"/>
@@ -4639,33 +4270,31 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="3">
-        <v>6119</v>
+        <v>5872</v>
       </c>
       <c r="B99" s="3">
-        <v>6120</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
       <c r="G99" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I99" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J99" s="3">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K99" s="3"/>
-      <c r="L99" s="3">
+      <c r="L99" s="8">
         <v>1</v>
       </c>
       <c r="M99" s="4"/>
@@ -4676,36 +4305,20 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="3">
-        <v>6120</v>
-      </c>
-      <c r="B100" s="3">
-        <v>6121</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>5</v>
-      </c>
+      <c r="A100" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="8"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="3">
-        <v>1</v>
-      </c>
+      <c r="L100" s="8"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -4715,34 +4328,32 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="3">
-        <v>6121</v>
+        <v>0</v>
       </c>
       <c r="B101" s="3">
-        <v>6122</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J101" s="3">
-        <v>5</v>
+        <v>-1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K101" s="3"/>
-      <c r="L101" s="3">
-        <v>1</v>
+      <c r="L101" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -4752,36 +4363,18 @@
       <c r="R101" s="4"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="3">
-        <v>6122</v>
-      </c>
-      <c r="B102" s="3">
-        <v>6123</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J102" s="3">
-        <v>5</v>
-      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="3">
-        <v>1</v>
-      </c>
+      <c r="L102" s="3"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -4790,36 +4383,18 @@
       <c r="R102" s="4"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="3">
-        <v>6123</v>
-      </c>
-      <c r="B103" s="3">
-        <v>6124</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I103" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J103" s="3">
-        <v>5</v>
-      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="3">
-        <v>1</v>
-      </c>
+      <c r="L103" s="3"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -4828,36 +4403,18 @@
       <c r="R103" s="4"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="3">
-        <v>6124</v>
-      </c>
-      <c r="B104" s="3">
-        <v>6125</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I104" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J104" s="3">
-        <v>5</v>
-      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="3">
-        <v>1</v>
-      </c>
+      <c r="L104" s="3"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -4866,36 +4423,18 @@
       <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="3">
-        <v>6125</v>
-      </c>
-      <c r="B105" s="3">
-        <v>6126</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I105" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J105" s="3">
-        <v>5</v>
-      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="3">
-        <v>1</v>
-      </c>
+      <c r="L105" s="3"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -4904,36 +4443,18 @@
       <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="3">
-        <v>6126</v>
-      </c>
-      <c r="B106" s="3">
-        <v>6127</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I106" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J106" s="3">
-        <v>5</v>
-      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="3">
-        <v>1</v>
-      </c>
+      <c r="L106" s="3"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -4942,36 +4463,18 @@
       <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="3">
-        <v>6127</v>
-      </c>
-      <c r="B107" s="3">
-        <v>6128</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I107" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J107" s="3">
-        <v>5</v>
-      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="3">
-        <v>1</v>
-      </c>
+      <c r="L107" s="3"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -4980,36 +4483,18 @@
       <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="3">
-        <v>6128</v>
-      </c>
-      <c r="B108" s="3">
-        <v>6129</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I108" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J108" s="3">
-        <v>5</v>
-      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="3">
-        <v>1</v>
-      </c>
+      <c r="L108" s="3"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -5018,36 +4503,18 @@
       <c r="R108" s="4"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="3">
-        <v>6129</v>
-      </c>
-      <c r="B109" s="3">
-        <v>6130</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I109" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J109" s="3">
-        <v>5</v>
-      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="3">
-        <v>1</v>
-      </c>
+      <c r="L109" s="3"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -5056,36 +4523,18 @@
       <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="3">
-        <v>6130</v>
-      </c>
-      <c r="B110" s="3">
-        <v>6131</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I110" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J110" s="3">
-        <v>5</v>
-      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="3">
-        <v>1</v>
-      </c>
+      <c r="L110" s="3"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -5094,36 +4543,18 @@
       <c r="R110" s="4"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="3">
-        <v>6131</v>
-      </c>
-      <c r="B111" s="3">
-        <v>6132</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I111" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J111" s="3">
-        <v>5</v>
-      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="3">
-        <v>1</v>
-      </c>
+      <c r="L111" s="3"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -5132,36 +4563,18 @@
       <c r="R111" s="4"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="3">
-        <v>6132</v>
-      </c>
-      <c r="B112" s="3">
-        <v>6133</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I112" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J112" s="3">
-        <v>5</v>
-      </c>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="3">
-        <v>1</v>
-      </c>
+      <c r="L112" s="3"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -5170,36 +4583,18 @@
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="3">
-        <v>6133</v>
-      </c>
-      <c r="B113" s="3">
-        <v>6134</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I113" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J113" s="3">
-        <v>5</v>
-      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="3">
-        <v>1</v>
-      </c>
+      <c r="L113" s="3"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -5208,36 +4603,18 @@
       <c r="R113" s="4"/>
     </row>
     <row r="114" spans="1:18">
-      <c r="A114" s="3">
-        <v>6134</v>
-      </c>
-      <c r="B114" s="3">
-        <v>6135</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I114" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J114" s="3">
-        <v>5</v>
-      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="3">
-        <v>1</v>
-      </c>
+      <c r="L114" s="3"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -5246,36 +4623,18 @@
       <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:18">
-      <c r="A115" s="3">
-        <v>6135</v>
-      </c>
-      <c r="B115" s="3">
-        <v>6136</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I115" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J115" s="3">
-        <v>5</v>
-      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="3">
-        <v>1</v>
-      </c>
+      <c r="L115" s="3"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -5284,36 +4643,18 @@
       <c r="R115" s="4"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="3">
-        <v>6136</v>
-      </c>
-      <c r="B116" s="3">
-        <v>6137</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I116" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J116" s="3">
-        <v>5</v>
-      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="3">
-        <v>1</v>
-      </c>
+      <c r="L116" s="3"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -5322,36 +4663,18 @@
       <c r="R116" s="4"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="3">
-        <v>6137</v>
-      </c>
+      <c r="A117" s="3"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I117" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J117" s="3">
-        <v>5</v>
-      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="L117" s="3">
-        <v>1</v>
-      </c>
+      <c r="L117" s="3"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -5360,36 +4683,18 @@
       <c r="R117" s="4"/>
     </row>
     <row r="118" spans="1:18">
-      <c r="A118" s="3">
-        <v>6140</v>
-      </c>
-      <c r="B118" s="3">
-        <v>6141</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I118" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J118" s="3">
-        <v>5</v>
-      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="L118" s="3">
-        <v>1</v>
-      </c>
+      <c r="L118" s="3"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -5398,38 +4703,18 @@
       <c r="R118" s="4"/>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" s="3">
-        <v>6141</v>
-      </c>
-      <c r="B119" s="3">
-        <v>6142</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I119" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J119" s="3">
-        <v>5</v>
-      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="L119" s="3">
-        <v>1</v>
-      </c>
+      <c r="L119" s="3"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -5438,38 +4723,18 @@
       <c r="R119" s="4"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="3">
-        <v>6142</v>
-      </c>
-      <c r="B120" s="3">
-        <v>6143</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I120" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J120" s="3">
-        <v>5</v>
-      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
       <c r="K120" s="3"/>
-      <c r="L120" s="3">
-        <v>1</v>
-      </c>
+      <c r="L120" s="3"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -5478,36 +4743,18 @@
       <c r="R120" s="4"/>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" s="3">
-        <v>6143</v>
-      </c>
-      <c r="B121" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I121" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J121" s="3">
-        <v>5</v>
-      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="L121" s="3">
-        <v>1</v>
-      </c>
+      <c r="L121" s="3"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -5516,36 +4763,18 @@
       <c r="R121" s="4"/>
     </row>
     <row r="122" spans="1:18">
-      <c r="A122" s="3">
-        <v>6146</v>
-      </c>
-      <c r="B122" s="3">
-        <v>6147</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I122" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J122" s="3">
-        <v>5</v>
-      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
       <c r="K122" s="3"/>
-      <c r="L122" s="3">
-        <v>1</v>
-      </c>
+      <c r="L122" s="3"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -5554,36 +4783,18 @@
       <c r="R122" s="4"/>
     </row>
     <row r="123" spans="1:18">
-      <c r="A123" s="3">
-        <v>6147</v>
-      </c>
-      <c r="B123" s="3">
-        <v>6148</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I123" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J123" s="3">
-        <v>5</v>
-      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
       <c r="K123" s="3"/>
-      <c r="L123" s="3">
-        <v>1</v>
-      </c>
+      <c r="L123" s="3"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -5592,38 +4803,18 @@
       <c r="R123" s="4"/>
     </row>
     <row r="124" spans="1:18">
-      <c r="A124" s="3">
-        <v>6148</v>
-      </c>
-      <c r="B124" s="3">
-        <v>6149</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I124" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J124" s="3">
-        <v>5</v>
-      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
       <c r="K124" s="3"/>
-      <c r="L124" s="3">
-        <v>1</v>
-      </c>
+      <c r="L124" s="3"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -5632,36 +4823,18 @@
       <c r="R124" s="4"/>
     </row>
     <row r="125" spans="1:18">
-      <c r="A125" s="3">
-        <v>6149</v>
-      </c>
-      <c r="B125" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I125" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J125" s="3">
-        <v>5</v>
-      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
       <c r="K125" s="3"/>
-      <c r="L125" s="3">
-        <v>1</v>
-      </c>
+      <c r="L125" s="3"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -5670,9 +4843,7 @@
       <c r="R125" s="4"/>
     </row>
     <row r="126" spans="1:18">
-      <c r="A126" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="A126" s="5"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -5692,36 +4863,18 @@
       <c r="R126" s="4"/>
     </row>
     <row r="127" spans="1:18">
-      <c r="A127" s="3">
-        <v>0</v>
-      </c>
-      <c r="B127" s="3">
-        <v>6155</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I127" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G127" s="6"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="3">
-        <v>1</v>
-      </c>
+      <c r="L127" s="3"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -5730,36 +4883,18 @@
       <c r="R127" s="4"/>
     </row>
     <row r="128" spans="1:18">
-      <c r="A128" s="3">
-        <v>6155</v>
-      </c>
-      <c r="B128" s="3">
-        <v>6156</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I128" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G128" s="6"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-      <c r="L128" s="3">
-        <v>1</v>
-      </c>
+      <c r="L128" s="3"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -5768,36 +4903,18 @@
       <c r="R128" s="4"/>
     </row>
     <row r="129" spans="1:18">
-      <c r="A129" s="3">
-        <v>6156</v>
-      </c>
-      <c r="B129" s="3">
-        <v>6157</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I129" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
       <c r="K129" s="3"/>
-      <c r="L129" s="3">
-        <v>1</v>
-      </c>
+      <c r="L129" s="3"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -5806,36 +4923,18 @@
       <c r="R129" s="4"/>
     </row>
     <row r="130" spans="1:18">
-      <c r="A130" s="3">
-        <v>6157</v>
-      </c>
-      <c r="B130" s="3">
-        <v>6158</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I130" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G130" s="6"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
       <c r="K130" s="3"/>
-      <c r="L130" s="3">
-        <v>1</v>
-      </c>
+      <c r="L130" s="3"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -5844,36 +4943,18 @@
       <c r="R130" s="4"/>
     </row>
     <row r="131" spans="1:18">
-      <c r="A131" s="3">
-        <v>6158</v>
-      </c>
+      <c r="A131" s="3"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I131" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
       <c r="K131" s="3"/>
-      <c r="L131" s="3">
-        <v>1</v>
-      </c>
+      <c r="L131" s="3"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -5882,36 +4963,18 @@
       <c r="R131" s="4"/>
     </row>
     <row r="132" spans="1:18">
-      <c r="A132" s="3">
-        <v>6162</v>
-      </c>
-      <c r="B132" s="3">
-        <v>6163</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I132" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="3">
-        <v>1</v>
-      </c>
+      <c r="L132" s="3"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -5920,38 +4983,18 @@
       <c r="R132" s="4"/>
     </row>
     <row r="133" spans="1:18">
-      <c r="A133" s="3">
-        <v>6163</v>
-      </c>
-      <c r="B133" s="3">
-        <v>6164</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I133" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
       <c r="K133" s="3"/>
-      <c r="L133" s="3">
-        <v>1</v>
-      </c>
+      <c r="L133" s="3"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -5960,38 +5003,18 @@
       <c r="R133" s="4"/>
     </row>
     <row r="134" spans="1:18">
-      <c r="A134" s="3">
-        <v>6164</v>
-      </c>
-      <c r="B134" s="3">
-        <v>6165</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I134" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
       <c r="K134" s="3"/>
-      <c r="L134" s="3">
-        <v>1</v>
-      </c>
+      <c r="L134" s="3"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -6000,36 +5023,18 @@
       <c r="R134" s="4"/>
     </row>
     <row r="135" spans="1:18">
-      <c r="A135" s="3">
-        <v>6165</v>
-      </c>
-      <c r="B135" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I135" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
       <c r="K135" s="3"/>
-      <c r="L135" s="3">
-        <v>1</v>
-      </c>
+      <c r="L135" s="3"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -6038,36 +5043,18 @@
       <c r="R135" s="4"/>
     </row>
     <row r="136" spans="1:18">
-      <c r="A136" s="3">
-        <v>6168</v>
-      </c>
-      <c r="B136" s="3">
-        <v>6169</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I136" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
       <c r="K136" s="3"/>
-      <c r="L136" s="3">
-        <v>1</v>
-      </c>
+      <c r="L136" s="3"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -6076,36 +5063,18 @@
       <c r="R136" s="4"/>
     </row>
     <row r="137" spans="1:18">
-      <c r="A137" s="3">
-        <v>6169</v>
-      </c>
-      <c r="B137" s="3">
-        <v>6170</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I137" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
       <c r="K137" s="3"/>
-      <c r="L137" s="3">
-        <v>1</v>
-      </c>
+      <c r="L137" s="3"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -6114,38 +5083,18 @@
       <c r="R137" s="4"/>
     </row>
     <row r="138" spans="1:18">
-      <c r="A138" s="3">
-        <v>6170</v>
-      </c>
-      <c r="B138" s="3">
-        <v>6171</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I138" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
       <c r="K138" s="3"/>
-      <c r="L138" s="3">
-        <v>1</v>
-      </c>
+      <c r="L138" s="3"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -6154,36 +5103,18 @@
       <c r="R138" s="4"/>
     </row>
     <row r="139" spans="1:18">
-      <c r="A139" s="3">
-        <v>6171</v>
-      </c>
-      <c r="B139" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I139" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-      <c r="L139" s="3">
-        <v>1</v>
-      </c>
+      <c r="L139" s="3"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -6191,10 +5122,8 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
     </row>
-    <row r="140" spans="1:18" ht="22.8">
-      <c r="A140" s="5" t="s">
-        <v>160</v>
-      </c>
+    <row r="140" spans="1:18">
+      <c r="A140" s="5"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -6214,34 +5143,18 @@
       <c r="R140" s="4"/>
     </row>
     <row r="141" spans="1:18">
-      <c r="A141" s="3">
-        <v>0</v>
-      </c>
-      <c r="B141" s="3">
-        <v>6180</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="G141" s="6"/>
+      <c r="H141" s="2"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J141" s="3"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="3">
-        <v>1</v>
-      </c>
+      <c r="L141" s="3"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -6250,34 +5163,18 @@
       <c r="R141" s="4"/>
     </row>
     <row r="142" spans="1:18">
-      <c r="A142" s="3">
-        <v>6180</v>
-      </c>
-      <c r="B142" s="3">
-        <v>6181</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>164</v>
-      </c>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="G142" s="6"/>
+      <c r="H142" s="2"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J142" s="3"/>
       <c r="K142" s="3"/>
-      <c r="L142" s="3">
-        <v>1</v>
-      </c>
+      <c r="L142" s="3"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
@@ -6286,34 +5183,18 @@
       <c r="R142" s="4"/>
     </row>
     <row r="143" spans="1:18">
-      <c r="A143" s="3">
-        <v>6181</v>
-      </c>
-      <c r="B143" s="3">
-        <v>6182</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>165</v>
-      </c>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" s="2"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J143" s="3"/>
       <c r="K143" s="3"/>
-      <c r="L143" s="3">
-        <v>1</v>
-      </c>
+      <c r="L143" s="3"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -6322,34 +5203,18 @@
       <c r="R143" s="4"/>
     </row>
     <row r="144" spans="1:18">
-      <c r="A144" s="3">
-        <v>6182</v>
-      </c>
-      <c r="B144" s="3">
-        <v>6183</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>166</v>
-      </c>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="G144" s="6"/>
+      <c r="H144" s="2"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J144" s="3"/>
       <c r="K144" s="3"/>
-      <c r="L144" s="3">
-        <v>1</v>
-      </c>
+      <c r="L144" s="3"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -6358,34 +5223,18 @@
       <c r="R144" s="4"/>
     </row>
     <row r="145" spans="1:18">
-      <c r="A145" s="3">
-        <v>6183</v>
-      </c>
-      <c r="B145" s="3">
-        <v>6184</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="G145" s="6"/>
+      <c r="H145" s="2"/>
       <c r="I145" s="4"/>
-      <c r="J145" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J145" s="3"/>
       <c r="K145" s="3"/>
-      <c r="L145" s="3">
-        <v>1</v>
-      </c>
+      <c r="L145" s="3"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -6394,32 +5243,18 @@
       <c r="R145" s="4"/>
     </row>
     <row r="146" spans="1:18">
-      <c r="A146" s="3">
-        <v>6184</v>
-      </c>
+      <c r="A146" s="3"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="G146" s="6"/>
+      <c r="H146" s="2"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J146" s="3"/>
       <c r="K146" s="3"/>
-      <c r="L146" s="3">
-        <v>1</v>
-      </c>
+      <c r="L146" s="3"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
@@ -6427,10 +5262,8 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
     </row>
-    <row r="147" spans="1:18" ht="22.8">
-      <c r="A147" s="5" t="s">
-        <v>169</v>
-      </c>
+    <row r="147" spans="1:18">
+      <c r="A147" s="5"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -6450,34 +5283,18 @@
       <c r="R147" s="4"/>
     </row>
     <row r="148" spans="1:18">
-      <c r="A148" s="3">
-        <v>0</v>
-      </c>
-      <c r="B148" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="G148" s="6"/>
+      <c r="H148" s="2"/>
       <c r="I148" s="4"/>
-      <c r="J148" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="J148" s="3"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="L148" s="3"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
@@ -6485,10 +5302,8 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
     </row>
-    <row r="149" spans="1:18" ht="22.8">
-      <c r="A149" s="5" t="s">
-        <v>171</v>
-      </c>
+    <row r="149" spans="1:18">
+      <c r="A149" s="5"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -6508,36 +5323,18 @@
       <c r="R149" s="4"/>
     </row>
     <row r="150" spans="1:18">
-      <c r="A150" s="3">
-        <v>0</v>
-      </c>
-      <c r="B150" s="3">
-        <v>6190</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I150" s="3">
-        <v>4</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G150" s="6"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="3">
-        <v>1</v>
-      </c>
+      <c r="L150" s="3"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
@@ -6546,36 +5343,18 @@
       <c r="R150" s="4"/>
     </row>
     <row r="151" spans="1:18">
-      <c r="A151" s="3">
-        <v>6190</v>
-      </c>
-      <c r="B151" s="3">
-        <v>6191</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I151" s="3">
-        <v>4</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G151" s="6"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
       <c r="K151" s="3"/>
-      <c r="L151" s="3">
-        <v>1</v>
-      </c>
+      <c r="L151" s="3"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
@@ -6584,36 +5363,18 @@
       <c r="R151" s="4"/>
     </row>
     <row r="152" spans="1:18">
-      <c r="A152" s="3">
-        <v>6191</v>
-      </c>
-      <c r="B152" s="3">
-        <v>6192</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>165</v>
-      </c>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I152" s="3">
-        <v>4</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G152" s="6"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-      <c r="L152" s="3">
-        <v>1</v>
-      </c>
+      <c r="L152" s="3"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -6622,36 +5383,18 @@
       <c r="R152" s="4"/>
     </row>
     <row r="153" spans="1:18">
-      <c r="A153" s="3">
-        <v>6192</v>
-      </c>
-      <c r="B153" s="3">
-        <v>6193</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I153" s="3">
-        <v>4</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G153" s="6"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-      <c r="L153" s="3">
-        <v>1</v>
-      </c>
+      <c r="L153" s="3"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
@@ -6660,36 +5403,18 @@
       <c r="R153" s="4"/>
     </row>
     <row r="154" spans="1:18">
-      <c r="A154" s="3">
-        <v>6193</v>
-      </c>
-      <c r="B154" s="3">
-        <v>6194</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I154" s="3">
-        <v>4</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G154" s="6"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-      <c r="L154" s="3">
-        <v>1</v>
-      </c>
+      <c r="L154" s="3"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -6698,36 +5423,18 @@
       <c r="R154" s="4"/>
     </row>
     <row r="155" spans="1:18">
-      <c r="A155" s="3">
-        <v>6194</v>
-      </c>
-      <c r="B155" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I155" s="3">
-        <v>4</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G155" s="6"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
       <c r="K155" s="3"/>
-      <c r="L155" s="3">
-        <v>1</v>
-      </c>
+      <c r="L155" s="3"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
@@ -6735,10 +5442,8 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
     </row>
-    <row r="156" spans="1:18" ht="22.8">
-      <c r="A156" s="5" t="s">
-        <v>178</v>
-      </c>
+    <row r="156" spans="1:18">
+      <c r="A156" s="5"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -6758,36 +5463,18 @@
       <c r="R156" s="4"/>
     </row>
     <row r="157" spans="1:18">
-      <c r="A157" s="3">
-        <v>0</v>
-      </c>
-      <c r="B157" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I157" s="3">
-        <v>4</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G157" s="6"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
       <c r="K157" s="4"/>
-      <c r="L157" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="L157" s="3"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8265C74-7742-4F74-9828-3D42E3EBFE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704CCB1D-22A9-422D-AA56-AA2A6955C400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>index</t>
   </si>
@@ -82,293 +82,152 @@
     <t>%s_EvilErr</t>
   </si>
   <si>
-    <t>%s_EvilShock</t>
-  </si>
-  <si>
-    <t>&gt;2</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>&gt;1</t>
-  </si>
-  <si>
-    <t># 推门&gt;1，次数1，无土豆</t>
-  </si>
-  <si>
-    <t>你相信吗？我可以用一句夸奖的话\n来激怒你。</t>
-  </si>
-  <si>
-    <t>Mushroom,Egg,Tomato,Lemon</t>
-  </si>
-  <si>
-    <t>贝斯</t>
-  </si>
-  <si>
-    <t>Bass_0</t>
-  </si>
-  <si>
-    <t>哇哦，好漂亮的吉他！</t>
-  </si>
-  <si>
-    <t>…滚！！</t>
-  </si>
-  <si>
-    <t># 推门&gt;1，次数&gt;=2，无土豆</t>
-  </si>
-  <si>
-    <t>滚开啦！！</t>
-  </si>
-  <si>
-    <t># 推门1，次数1，有土豆</t>
-  </si>
-  <si>
-    <t>其实很难看出来，你是会乐器的类型耶。</t>
-  </si>
-  <si>
-    <t>土豆</t>
-  </si>
-  <si>
-    <t>我曾经可是梦想过\n要成为摇滚巨星的呢。</t>
-  </si>
-  <si>
-    <t>Potato_Laugh</t>
-  </si>
-  <si>
-    <t>那后来呢？随着吉他和鼓手的单飞，你被独自留在了舞台上，\n本来想替乐队完成最后的告别演出，观众却在台下喊“你谁啊？”</t>
-  </si>
-  <si>
-    <t>——是这样的故事吗？</t>
-  </si>
-  <si>
-    <t>你的设想也太具体了吧！</t>
-  </si>
-  <si>
-    <t>没有这么复杂啦。只是因为我弹得太难听了，\n竟然成为了舞台上存在感最高的那一个…！</t>
-  </si>
-  <si>
-    <t>Potato_Calm</t>
-  </si>
-  <si>
-    <t>哇哦。真了不起。</t>
-  </si>
-  <si>
-    <t>也被骂过“听你弹琴不如出去挑大粪”啦。</t>
-  </si>
-  <si>
-    <t>这就是摇滚巨星需要承受的风浪吗？</t>
-  </si>
-  <si>
-    <t>嘿嘿，突然勾起了好多美好的回忆。\n要不，咱们把它也带上吧？</t>
-  </si>
-  <si>
-    <t>带上吗…</t>
-  </si>
-  <si>
-    <t>“带，都可以带！我最喜欢带着乱七八糟的东西去死了！”+5926;“别了吧，队友已经很多了，再多屏幕就塞不下了。”+5935</t>
-  </si>
-  <si>
-    <t>我不是乱七八糟的东西！</t>
-  </si>
-  <si>
-    <t>Bass_LayToStand</t>
-  </si>
-  <si>
-    <t>呀，还挺有脾气。</t>
-  </si>
-  <si>
-    <t>“快点跟上来！小心我们临时抛弃你哦！”+-3+7</t>
-  </si>
-  <si>
-    <t>哼！</t>
-  </si>
-  <si>
-    <t>唔，也有道理！</t>
-  </si>
-  <si>
-    <t># 推门1，次数&gt;=2，有土豆</t>
-  </si>
-  <si>
-    <t>看啥？不是队友很多吗？去看你队友啊！</t>
-  </si>
-  <si>
-    <t>哎呀，怎么还记仇了呢。</t>
-  </si>
-  <si>
-    <t># 推门2，次数1，有土豆</t>
-  </si>
-  <si>
-    <t>我想象里的乐器，都会好好地待在收纳容器里。\n只要被我看到真容，就会让我永无止境地演奏下去。</t>
-  </si>
-  <si>
-    <t>很厉害的想象呢。\n感觉用奇特的方式缝合了很多经典的童话。</t>
-  </si>
-  <si>
-    <t>收纳包其实是有的哦。\n不过它不太愿意待在里面。</t>
-  </si>
-  <si>
-    <t>它喜欢贴着地，这被它称为\n“接地电！”</t>
-  </si>
-  <si>
-    <t>敢问，“地电”是什么东西？</t>
-  </si>
-  <si>
-    <t>我也不清楚，可能是它们乐器的专有名词吧。\n对了，它是电贝斯来着，但我从来没有给它插过电。</t>
-  </si>
-  <si>
-    <t>总觉得…有哪个地方的电，被它偷过来了。</t>
-  </si>
-  <si>
-    <t>可是，从来没有谁来投诉过断电，\n所以我猜，应该不是特别严重吧。</t>
-  </si>
-  <si>
-    <t>诶，要不要带它一起走呀？\n其实我们关系挺好的，虽然用它演奏出来的音乐和大粪一样。</t>
-  </si>
-  <si>
-    <t>“带，都可以带！我还没经历过大粪味的死呢！”+5950;“别了吧，大粪什么的，还是有点接受不了。”+5955</t>
-  </si>
-  <si>
-    <t>你说谁是大粪呢？！</t>
-  </si>
-  <si>
-    <t>“快点跟上来！小心我们突然嫌弃你了哦！”+-3+7</t>
-  </si>
-  <si>
-    <t>不许嫌弃我！\n…不对，我不是大粪！</t>
-  </si>
-  <si>
-    <t># 推门2，次数&gt;=2，有土豆</t>
-  </si>
-  <si>
-    <t>你才是大粪！</t>
-  </si>
-  <si>
-    <t>呜呜…别骂我呀…</t>
-  </si>
-  <si>
-    <t># 推门&gt;=3，次数1，有土豆</t>
-  </si>
-  <si>
-    <t>嘿，小贝斯，要不要跟我们走呀？</t>
-  </si>
-  <si>
-    <t>&gt;3</t>
-  </si>
-  <si>
-    <t>？！干嘛！才不要！你们吓死我了！</t>
-  </si>
-  <si>
-    <t>哎呀…</t>
-  </si>
-  <si>
-    <t>“让你来你就来嘛，我们怎么会害你呢！”+5968;“不吓你了。我们走了哦！拜拜——永别了——！”+5972</t>
-  </si>
-  <si>
-    <t>呜呜…好可怕…</t>
-  </si>
-  <si>
-    <t>好耶！又多了一个伙伴！</t>
-  </si>
-  <si>
-    <t>“快点跟上来！”+-3+7</t>
-  </si>
-  <si>
-    <t>哼…</t>
-  </si>
-  <si>
     <t>啊…</t>
   </si>
   <si>
-    <t># 推门&gt;=3，次数&gt;=2，有土豆</t>
-  </si>
-  <si>
-    <t>真的要走了啊…</t>
-  </si>
-  <si>
-    <t># 推门1，次数1，是土豆</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>（我可是梦想过要成为摇滚巨星的呢。）</t>
-  </si>
-  <si>
-    <t>Potato_Dark</t>
-  </si>
-  <si>
-    <t>（你的设想也太具体了吧！）</t>
-  </si>
-  <si>
-    <t>（没有这么复杂啦。真实情况是，我弹得太难听了。）\n（结果竟然成为了舞台上存在感最高的那一个。）</t>
-  </si>
-  <si>
-    <t>（也被骂过“听你弹琴不如出去挑大粪”啦。）</t>
-  </si>
-  <si>
-    <t>（嘿嘿，突然勾起了好多美好的回忆。）\n（要不，咱们把它也带上吧？）</t>
-  </si>
-  <si>
-    <t>“带，都可以带！我最喜欢带着乱七八糟的东西去死了！”+5820;“别了吧，队友已经很多了，再多屏幕就塞不下了。”+5926</t>
-  </si>
-  <si>
-    <t>（唔，也有道理！）</t>
-  </si>
-  <si>
-    <t># 推门1，次数&gt;=2，是土豆</t>
-  </si>
-  <si>
-    <t>（好像在生闷气的样子。）</t>
-  </si>
-  <si>
-    <t>咦，是因为我没带上你吗？</t>
-  </si>
-  <si>
-    <t># 推门2，次数1，是土豆</t>
-  </si>
-  <si>
-    <t>（很厉害的想象呢。）\n（感觉用奇特的方式缝合了很多经典的童话。）</t>
-  </si>
-  <si>
-    <t>（收纳包其实是有的哦。）\n（不过它不太愿意待在里面。）</t>
-  </si>
-  <si>
-    <t>（它喜欢贴着地。）\n（这被它称为“接地电！”）</t>
-  </si>
-  <si>
-    <t>（我也不清楚，可能是它们乐器的专有名词吧。）\n（对了，它是电贝斯来着，但我从来没有给它插过电。）</t>
-  </si>
-  <si>
-    <t>（可是，从来没有谁来投诉过断电。）\n（所以我猜，应该不是特别严重吧。）</t>
-  </si>
-  <si>
-    <t>（诶，要不要带它一起走呀？）\n（我们关系很好哦，虽然用它演奏出的音乐和大粪一样。）</t>
-  </si>
-  <si>
-    <t>“带，都可以带！我还没经历过大粪味的死呢！”+5850;“别了吧，大粪什么的，还是有点接受不了。”+5855</t>
-  </si>
-  <si>
-    <t># 推门2，次数&gt;=2，是土豆</t>
-  </si>
-  <si>
-    <t>（呜呜…别骂我呀…）</t>
-  </si>
-  <si>
-    <t># 推门&gt;=3，次数1，是土豆</t>
-  </si>
-  <si>
-    <t>？！干嘛！才不要！你吓死我了！</t>
-  </si>
-  <si>
-    <t>“让你来你就来嘛，我们怎么会害你呢！”+5868;“不吓你了。我走了哦！拜拜——永别了——！”+5872</t>
+    <t># 推门1，次数1</t>
+  </si>
+  <si>
+    <t>是沙袋！</t>
+  </si>
+  <si>
+    <t>一拳揍飞！+3800</t>
+  </si>
+  <si>
+    <t>Mushroom,Potato,Egg,Tomato</t>
+  </si>
+  <si>
+    <t>耶。</t>
+  </si>
+  <si>
+    <t>Bag_HangFly</t>
+  </si>
+  <si>
+    <t># 推门2，次数1</t>
+  </si>
+  <si>
+    <t>一拳揍飞！+3805</t>
+  </si>
+  <si>
+    <t>Power!!!</t>
+  </si>
+  <si>
+    <t># 推门3，次数1</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>沙袋</t>
+  </si>
+  <si>
+    <t>Bag_0</t>
+  </si>
+  <si>
+    <t>难道，你也不想被揍？</t>
+  </si>
+  <si>
+    <t>搞错对象了吧？！\n你这没礼貌的东西，是有脸盲症吗？！</t>
+  </si>
+  <si>
+    <t>哇哦。\n好暴躁。</t>
+  </si>
+  <si>
+    <t>要揍就快揍！\n别扯些有的没的，晦气！</t>
+  </si>
+  <si>
+    <t>哇哦，被骂了。</t>
+  </si>
+  <si>
+    <t>揍！+3818</t>
+  </si>
+  <si>
+    <t>哼。</t>
+  </si>
+  <si>
+    <t># 推门4，次数1</t>
+  </si>
+  <si>
+    <t>你和你隔壁，真的很不一样耶。\n明明都是沙袋来着。</t>
+  </si>
+  <si>
+    <t>白痴吗你是？\n世界上不可能有一模一样的两个沙袋。</t>
+  </si>
+  <si>
+    <t>话不要说得这么绝对嘛。\n有这样一句名言：历史就是不断的重复！</t>
+  </si>
+  <si>
+    <t>意思是说，也许十分钟后，世界上就会出现\n和你一模一样的沙袋哦！大概吧。</t>
+  </si>
+  <si>
+    <t>顺带一提，“十分钟”不是一个确定的数哦。\n它是我对你的寿命的估算。</t>
+  </si>
+  <si>
+    <t>关我屁事！\n要揍就揍，谁想听你乱七八糟的废话了？！</t>
+  </si>
+  <si>
+    <t>哇哦，又被骂了。</t>
+  </si>
+  <si>
+    <t>揍！+3830</t>
+  </si>
+  <si>
+    <t># 推门5，次数1</t>
+  </si>
+  <si>
+    <t>虽然你很暴躁，但从“被揍”这个角度来看，\n你的配合度很高耶。</t>
+  </si>
+  <si>
+    <t>哪里来的晦气东西？\n你谁啊？我认识你吗？</t>
+  </si>
+  <si>
+    <t>就当我单方面认识你吧。\n所以，对于“被揍”这件事，你有什么感想吗？</t>
+  </si>
+  <si>
+    <t>感想？为啥要有感想？\n这不是我的使命吗？</t>
+  </si>
+  <si>
+    <t>身为沙袋，就该做沙袋应该做的事。</t>
+  </si>
+  <si>
+    <t>打住！我才不想被沙袋教育\n当沙袋的道理呢。</t>
+  </si>
+  <si>
+    <t>这不是你问的吗？挨千刀的混蛋！</t>
+  </si>
+  <si>
+    <t>喂，我是不了解沙袋应该做什么啦。\n我只是来问一句，要不要和我一起走？</t>
+  </si>
+  <si>
+    <t>………………走？</t>
+  </si>
+  <si>
+    <t>嗯啊。跳下来，跟着我，走出门，到处看看。\n虽然世界马上要毁灭了，但还是有一些东西可以看的。</t>
+  </si>
+  <si>
+    <t>…………………………</t>
+  </si>
+  <si>
+    <t>Bag_HangStruggle</t>
+  </si>
+  <si>
+    <t>啊哦。你下不来吗？</t>
+  </si>
+  <si>
+    <t>…………………………………………………………你管我？！</t>
+  </si>
+  <si>
+    <t>废话这么多是要干嘛？！爱揍不揍！\n我不想和你说话了！</t>
+  </si>
+  <si>
+    <t>出拳。+3849</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="等线"/>
@@ -398,6 +257,14 @@
       <color rgb="FF000000"/>
       <name val="BlinkMacSystemFont"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:L101"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -822,13 +692,13 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5"/>
@@ -839,20 +709,20 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -864,31 +734,29 @@
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>5900</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>1</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="8">
+      <c r="L3" s="3">
         <v>1</v>
       </c>
       <c r="M3" s="4"/>
@@ -900,33 +768,33 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>5900</v>
+        <v>3800</v>
       </c>
       <c r="B4" s="3">
-        <v>5901</v>
+        <v>-1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3">
+        <v>1</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="8">
+      <c r="L4" s="3">
         <v>1</v>
       </c>
       <c r="M4" s="4"/>
@@ -937,36 +805,20 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="3">
-        <v>5901</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5902</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -976,33 +828,31 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>5902</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3">
+        <v>2</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="8">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
       <c r="M6" s="4"/>
@@ -1013,20 +863,36 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="3">
+        <v>3805</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1035,36 +901,20 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1073,20 +923,34 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3810</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1096,33 +960,31 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>0</v>
+        <v>3810</v>
       </c>
       <c r="B10" s="3">
-        <v>5915</v>
+        <v>3811</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
+      <c r="G10" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3">
+        <v>3</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="8">
+      <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10" s="4"/>
@@ -1134,33 +996,31 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>5915</v>
+        <v>3811</v>
       </c>
       <c r="B11" s="3">
-        <v>5916</v>
+        <v>3812</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3">
+        <v>3</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="8">
+      <c r="L11" s="3">
         <v>1</v>
       </c>
       <c r="M11" s="4"/>
@@ -1172,33 +1032,31 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>5916</v>
+        <v>3812</v>
       </c>
       <c r="B12" s="3">
-        <v>5917</v>
+        <v>3813</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
+      <c r="G12" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3">
+        <v>3</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="8">
+      <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="M12" s="4"/>
@@ -1210,33 +1068,31 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
-        <v>5917</v>
+        <v>3813</v>
       </c>
       <c r="B13" s="3">
-        <v>5918</v>
+        <v>3814</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
+      <c r="G13" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3">
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="8">
+      <c r="L13" s="3">
         <v>1</v>
       </c>
       <c r="M13" s="4"/>
@@ -1248,33 +1104,31 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
-        <v>5918</v>
+        <v>3814</v>
       </c>
       <c r="B14" s="3">
-        <v>5919</v>
+        <v>3815</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="6" t="s">
-        <v>37</v>
+      <c r="G14" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3">
+        <v>3</v>
       </c>
       <c r="K14" s="4"/>
-      <c r="L14" s="8">
+      <c r="L14" s="3">
         <v>1</v>
       </c>
       <c r="M14" s="4"/>
@@ -1287,33 +1141,31 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>5919</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5920</v>
-      </c>
+        <v>3815</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3">
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
-      <c r="L15" s="8">
+      <c r="L15" s="3">
         <v>1</v>
       </c>
       <c r="M15" s="4"/>
@@ -1326,33 +1178,33 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>5920</v>
+        <v>3818</v>
       </c>
       <c r="B16" s="3">
-        <v>5921</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3">
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="8">
+      <c r="L16" s="3">
         <v>1</v>
       </c>
       <c r="M16" s="4"/>
@@ -1363,36 +1215,20 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="3">
-        <v>5921</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5922</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1</v>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1402,33 +1238,31 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>5922</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3">
-        <v>5923</v>
+        <v>3822</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3">
+        <v>4</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="8">
+      <c r="L18" s="3">
         <v>1</v>
       </c>
       <c r="M18" s="4"/>
@@ -1440,33 +1274,31 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>5923</v>
+        <v>3822</v>
       </c>
       <c r="B19" s="3">
-        <v>5924</v>
+        <v>3823</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="6" t="s">
-        <v>37</v>
+      <c r="G19" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3">
+        <v>4</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="8">
+      <c r="L19" s="3">
         <v>1</v>
       </c>
       <c r="M19" s="4"/>
@@ -1478,33 +1310,31 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>5924</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>3823</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3824</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3">
+        <v>4</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="8">
+      <c r="L20" s="3">
         <v>1</v>
       </c>
       <c r="M20" s="4"/>
@@ -1516,35 +1346,31 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>5926</v>
+        <v>3824</v>
       </c>
       <c r="B21" s="3">
-        <v>5927</v>
+        <v>3825</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3">
+        <v>4</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="8">
+      <c r="L21" s="3">
         <v>1</v>
       </c>
       <c r="M21" s="4"/>
@@ -1556,35 +1382,31 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>5927</v>
+        <v>3825</v>
       </c>
       <c r="B22" s="3">
-        <v>5928</v>
+        <v>3826</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3">
+        <v>4</v>
       </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="8">
+      <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22" s="4"/>
@@ -1596,33 +1418,31 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>5928</v>
+        <v>3826</v>
       </c>
       <c r="B23" s="3">
-        <v>-1</v>
+        <v>3827</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="6" t="s">
-        <v>28</v>
+      <c r="G23" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3">
+        <v>4</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="8">
+      <c r="L23" s="3">
         <v>1</v>
       </c>
       <c r="M23" s="4"/>
@@ -1634,33 +1454,31 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3">
-        <v>5935</v>
-      </c>
-      <c r="B24" s="3">
-        <v>-1</v>
-      </c>
+        <v>3827</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3">
+        <v>4</v>
       </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="8">
+      <c r="L24" s="3">
         <v>1</v>
       </c>
       <c r="M24" s="4"/>
@@ -1671,20 +1489,36 @@
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="3">
+        <v>3830</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1693,36 +1527,20 @@
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="3">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5938</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1</v>
-      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1732,16 +1550,16 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>5938</v>
+        <v>0</v>
       </c>
       <c r="B27" s="3">
-        <v>-1</v>
+        <v>3835</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1749,17 +1567,15 @@
         <v>18</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="3">
+        <v>24</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3">
         <v>1</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -1769,20 +1585,34 @@
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="3">
+        <v>3835</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3836</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="3">
+        <v>5</v>
+      </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1792,33 +1622,31 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>0</v>
+        <v>3836</v>
       </c>
       <c r="B29" s="3">
-        <v>5940</v>
+        <v>3837</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>13</v>
+      <c r="G29" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3">
+        <v>5</v>
       </c>
       <c r="K29" s="4"/>
-      <c r="L29" s="8">
+      <c r="L29" s="3">
         <v>1</v>
       </c>
       <c r="M29" s="4"/>
@@ -1830,33 +1658,31 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>5940</v>
+        <v>3837</v>
       </c>
       <c r="B30" s="3">
-        <v>5941</v>
+        <v>3838</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="6" t="s">
-        <v>37</v>
+      <c r="G30" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3">
+        <v>5</v>
       </c>
       <c r="K30" s="4"/>
-      <c r="L30" s="8">
+      <c r="L30" s="3">
         <v>1</v>
       </c>
       <c r="M30" s="4"/>
@@ -1868,33 +1694,31 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>5941</v>
+        <v>3838</v>
       </c>
       <c r="B31" s="3">
-        <v>5942</v>
+        <v>3839</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="6" t="s">
-        <v>42</v>
+      <c r="G31" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3">
+        <v>5</v>
       </c>
       <c r="K31" s="4"/>
-      <c r="L31" s="8">
+      <c r="L31" s="3">
         <v>1</v>
       </c>
       <c r="M31" s="4"/>
@@ -1906,33 +1730,31 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3">
-        <v>5942</v>
+        <v>3839</v>
       </c>
       <c r="B32" s="3">
-        <v>5943</v>
+        <v>3840</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3">
+        <v>5</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="8">
+      <c r="L32" s="3">
         <v>1</v>
       </c>
       <c r="M32" s="4"/>
@@ -1944,33 +1766,31 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>5943</v>
+        <v>3840</v>
       </c>
       <c r="B33" s="3">
-        <v>5944</v>
+        <v>3841</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="6" t="s">
-        <v>15</v>
+      <c r="G33" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
-      <c r="J33" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3">
+        <v>5</v>
       </c>
       <c r="K33" s="4"/>
-      <c r="L33" s="8">
+      <c r="L33" s="3">
         <v>1</v>
       </c>
       <c r="M33" s="4"/>
@@ -1982,33 +1802,31 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>5944</v>
+        <v>3841</v>
       </c>
       <c r="B34" s="3">
-        <v>5945</v>
+        <v>3842</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3">
+        <v>5</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="8">
+      <c r="L34" s="3">
         <v>1</v>
       </c>
       <c r="M34" s="4"/>
@@ -2020,33 +1838,31 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>5945</v>
+        <v>3842</v>
       </c>
       <c r="B35" s="3">
-        <v>5946</v>
+        <v>3843</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="6" t="s">
-        <v>14</v>
+      <c r="G35" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3">
+        <v>5</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="8">
+      <c r="L35" s="3">
         <v>1</v>
       </c>
       <c r="M35" s="4"/>
@@ -2058,33 +1874,31 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3">
-        <v>5946</v>
+        <v>3843</v>
       </c>
       <c r="B36" s="3">
-        <v>5947</v>
+        <v>3844</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="6" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3">
+        <v>5</v>
       </c>
       <c r="K36" s="4"/>
-      <c r="L36" s="8">
+      <c r="L36" s="3">
         <v>1</v>
       </c>
       <c r="M36" s="4"/>
@@ -2096,33 +1910,33 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>5947</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>3844</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3845</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="6" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3">
+        <v>5</v>
       </c>
       <c r="K37" s="4"/>
-      <c r="L37" s="8">
+      <c r="L37" s="3">
         <v>1</v>
       </c>
       <c r="M37" s="4"/>
@@ -2134,35 +1948,31 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="3">
-        <v>5950</v>
+        <v>3845</v>
       </c>
       <c r="B38" s="3">
-        <v>5951</v>
+        <v>3846</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3">
+        <v>5</v>
       </c>
       <c r="K38" s="4"/>
-      <c r="L38" s="8">
+      <c r="L38" s="3">
         <v>1</v>
       </c>
       <c r="M38" s="4"/>
@@ -2174,35 +1984,31 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="3">
-        <v>5951</v>
+        <v>3846</v>
       </c>
       <c r="B39" s="3">
-        <v>5952</v>
+        <v>3847</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="6" t="s">
-        <v>18</v>
+      <c r="G39" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3">
+        <v>5</v>
       </c>
       <c r="K39" s="4"/>
-      <c r="L39" s="8">
+      <c r="L39" s="3">
         <v>1</v>
       </c>
       <c r="M39" s="4"/>
@@ -2214,33 +2020,31 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>5952</v>
+        <v>3847</v>
       </c>
       <c r="B40" s="3">
-        <v>-1</v>
+        <v>3848</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="6" t="s">
-        <v>28</v>
+      <c r="G40" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3">
+        <v>5</v>
       </c>
       <c r="K40" s="4"/>
-      <c r="L40" s="8">
+      <c r="L40" s="3">
         <v>1</v>
       </c>
       <c r="M40" s="4"/>
@@ -2252,33 +2056,31 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3">
-        <v>5955</v>
-      </c>
-      <c r="B41" s="3">
-        <v>-1</v>
-      </c>
+        <v>3848</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="6" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3">
+        <v>5</v>
       </c>
       <c r="K41" s="4"/>
-      <c r="L41" s="8">
+      <c r="L41" s="3">
         <v>1</v>
       </c>
       <c r="M41" s="4"/>
@@ -2289,20 +2091,36 @@
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="A42" s="3">
+        <v>3849</v>
+      </c>
+      <c r="B42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="F42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="8"/>
+      <c r="J42" s="3">
+        <v>5</v>
+      </c>
       <c r="K42" s="4"/>
-      <c r="L42" s="8"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2311,36 +2129,18 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="3">
-        <v>0</v>
-      </c>
-      <c r="B43" s="3">
-        <v>5958</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="8">
-        <v>2</v>
-      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="8"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L43" s="8"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2349,36 +2149,18 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="3">
-        <v>5958</v>
-      </c>
-      <c r="B44" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
-      <c r="J44" s="8">
-        <v>2</v>
-      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="8"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L44" s="8"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -2387,9 +2169,7 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2409,36 +2189,18 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="3">
-        <v>0</v>
-      </c>
-      <c r="B46" s="3">
-        <v>5962</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="8"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="8">
-        <v>1</v>
-      </c>
+      <c r="L46" s="8"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -2447,36 +2209,18 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="3">
-        <v>5962</v>
-      </c>
-      <c r="B47" s="3">
-        <v>5963</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="8"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="8">
-        <v>1</v>
-      </c>
+      <c r="L47" s="8"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -2485,36 +2229,18 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="3">
-        <v>5963</v>
-      </c>
-      <c r="B48" s="3">
-        <v>5964</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="8"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="8">
-        <v>1</v>
-      </c>
+      <c r="L48" s="8"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2523,38 +2249,18 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="3">
-        <v>5964</v>
-      </c>
-      <c r="B49" s="3">
-        <v>5968</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="8"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="8">
-        <v>1</v>
-      </c>
+      <c r="L49" s="8"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2563,38 +2269,18 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="3">
-        <v>5968</v>
-      </c>
-      <c r="B50" s="3">
-        <v>5969</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="8"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="8">
-        <v>1</v>
-      </c>
+      <c r="L50" s="8"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2603,38 +2289,18 @@
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="3">
-        <v>5969</v>
-      </c>
-      <c r="B51" s="3">
-        <v>5970</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="3">
-        <v>1</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="8"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="8">
-        <v>1</v>
-      </c>
+      <c r="L51" s="8"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -2643,36 +2309,18 @@
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="3">
-        <v>5970</v>
-      </c>
-      <c r="B52" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="8"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="8">
-        <v>1</v>
-      </c>
+      <c r="L52" s="8"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2681,36 +2329,18 @@
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="3">
-        <v>5972</v>
-      </c>
-      <c r="B53" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="8"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="8">
-        <v>1</v>
-      </c>
+      <c r="L53" s="8"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2719,9 +2349,7 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2741,36 +2369,18 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="3">
-        <v>0</v>
-      </c>
-      <c r="B55" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="3">
-        <v>1</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="8"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L55" s="8"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2779,9 +2389,7 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2801,34 +2409,18 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="3">
-        <v>0</v>
-      </c>
-      <c r="B57" s="3">
-        <v>5801</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="8">
-        <v>1</v>
-      </c>
+      <c r="J57" s="8"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="8">
-        <v>1</v>
-      </c>
+      <c r="L57" s="8"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -2837,34 +2429,18 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="3">
-        <v>5801</v>
-      </c>
-      <c r="B58" s="3">
-        <v>5802</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="8">
-        <v>1</v>
-      </c>
+      <c r="J58" s="8"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="8">
-        <v>1</v>
-      </c>
+      <c r="L58" s="8"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -2873,34 +2449,18 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="3">
-        <v>5802</v>
-      </c>
-      <c r="B59" s="3">
-        <v>5803</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="8">
-        <v>1</v>
-      </c>
+      <c r="J59" s="8"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="8">
-        <v>1</v>
-      </c>
+      <c r="L59" s="8"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -2909,34 +2469,18 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="3">
-        <v>5803</v>
-      </c>
-      <c r="B60" s="3">
-        <v>5804</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="8">
-        <v>1</v>
-      </c>
+      <c r="J60" s="8"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="8">
-        <v>1</v>
-      </c>
+      <c r="L60" s="8"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -2945,34 +2489,18 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="3">
-        <v>5804</v>
-      </c>
-      <c r="B61" s="3">
-        <v>5805</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="8">
-        <v>1</v>
-      </c>
+      <c r="J61" s="8"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="8">
-        <v>1</v>
-      </c>
+      <c r="L61" s="8"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -2981,34 +2509,18 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="3">
-        <v>5805</v>
-      </c>
-      <c r="B62" s="3">
-        <v>5806</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="8">
-        <v>1</v>
-      </c>
+      <c r="J62" s="8"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="8">
-        <v>1</v>
-      </c>
+      <c r="L62" s="8"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3017,34 +2529,18 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="3">
-        <v>5806</v>
-      </c>
-      <c r="B63" s="3">
-        <v>5807</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="8">
-        <v>1</v>
-      </c>
+      <c r="J63" s="8"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="8">
-        <v>1</v>
-      </c>
+      <c r="L63" s="8"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -3053,34 +2549,18 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="3">
-        <v>5807</v>
-      </c>
-      <c r="B64" s="3">
-        <v>5808</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="8">
-        <v>1</v>
-      </c>
+      <c r="J64" s="8"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="8">
-        <v>1</v>
-      </c>
+      <c r="L64" s="8"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -3089,34 +2569,18 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="3">
-        <v>5808</v>
-      </c>
-      <c r="B65" s="3">
-        <v>5809</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="8">
-        <v>1</v>
-      </c>
+      <c r="J65" s="8"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="8">
-        <v>1</v>
-      </c>
+      <c r="L65" s="8"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -3125,34 +2589,18 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="3">
-        <v>5809</v>
-      </c>
-      <c r="B66" s="3">
-        <v>5810</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="8">
-        <v>1</v>
-      </c>
+      <c r="J66" s="8"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="8">
-        <v>1</v>
-      </c>
+      <c r="L66" s="8"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -3161,34 +2609,18 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="3">
-        <v>5810</v>
-      </c>
+      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="8">
-        <v>1</v>
-      </c>
+      <c r="J67" s="8"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="8">
-        <v>1</v>
-      </c>
+      <c r="L67" s="8"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -3197,36 +2629,18 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="3">
-        <v>5820</v>
-      </c>
-      <c r="B68" s="3">
-        <v>5821</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="8">
-        <v>1</v>
-      </c>
+      <c r="J68" s="8"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="8">
-        <v>1</v>
-      </c>
+      <c r="L68" s="8"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -3235,36 +2649,18 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="3">
-        <v>5821</v>
-      </c>
-      <c r="B69" s="3">
-        <v>5822</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="8">
-        <v>1</v>
-      </c>
+      <c r="J69" s="8"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="8">
-        <v>1</v>
-      </c>
+      <c r="L69" s="8"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3273,34 +2669,18 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="3">
-        <v>5822</v>
-      </c>
-      <c r="B70" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="8">
-        <v>1</v>
-      </c>
+      <c r="J70" s="8"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="8">
-        <v>1</v>
-      </c>
+      <c r="L70" s="8"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -3309,34 +2689,18 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="3">
-        <v>5826</v>
-      </c>
-      <c r="B71" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="8">
-        <v>1</v>
-      </c>
+      <c r="J71" s="8"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="8">
-        <v>1</v>
-      </c>
+      <c r="L71" s="8"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -3345,9 +2709,7 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3367,34 +2729,18 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="3">
-        <v>0</v>
-      </c>
-      <c r="B73" s="3">
-        <v>5830</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="8">
-        <v>1</v>
-      </c>
+      <c r="J73" s="8"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L73" s="8"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -3403,34 +2749,18 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="3">
-        <v>5830</v>
-      </c>
-      <c r="B74" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="8">
-        <v>1</v>
-      </c>
+      <c r="J74" s="8"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L74" s="8"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -3439,9 +2769,7 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3461,34 +2789,18 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="3">
-        <v>0</v>
-      </c>
-      <c r="B76" s="3">
-        <v>5840</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="8">
-        <v>2</v>
-      </c>
+      <c r="J76" s="8"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="8">
-        <v>1</v>
-      </c>
+      <c r="L76" s="8"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3497,34 +2809,18 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="3">
-        <v>5840</v>
-      </c>
-      <c r="B77" s="3">
-        <v>5841</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="8">
-        <v>2</v>
-      </c>
+      <c r="J77" s="8"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="8">
-        <v>1</v>
-      </c>
+      <c r="L77" s="8"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -3533,34 +2829,18 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="3">
-        <v>5841</v>
-      </c>
-      <c r="B78" s="3">
-        <v>5842</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="8">
-        <v>2</v>
-      </c>
+      <c r="J78" s="8"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="8">
-        <v>1</v>
-      </c>
+      <c r="L78" s="8"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -3569,34 +2849,18 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="3">
-        <v>5842</v>
-      </c>
-      <c r="B79" s="3">
-        <v>5843</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="8">
-        <v>2</v>
-      </c>
+      <c r="J79" s="8"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="8">
-        <v>1</v>
-      </c>
+      <c r="L79" s="8"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -3605,34 +2869,18 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="3">
-        <v>5843</v>
-      </c>
-      <c r="B80" s="3">
-        <v>5844</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="8">
-        <v>2</v>
-      </c>
+      <c r="J80" s="8"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="8">
-        <v>1</v>
-      </c>
+      <c r="L80" s="8"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -3641,34 +2889,18 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="3">
-        <v>5844</v>
-      </c>
-      <c r="B81" s="3">
-        <v>5845</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="8">
-        <v>2</v>
-      </c>
+      <c r="J81" s="8"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="8">
-        <v>1</v>
-      </c>
+      <c r="L81" s="8"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -3677,34 +2909,18 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="3">
-        <v>5845</v>
-      </c>
-      <c r="B82" s="3">
-        <v>5846</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="8">
-        <v>2</v>
-      </c>
+      <c r="J82" s="8"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="8">
-        <v>1</v>
-      </c>
+      <c r="L82" s="8"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3713,34 +2929,18 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="3">
-        <v>5846</v>
-      </c>
-      <c r="B83" s="3">
-        <v>5847</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="8">
-        <v>2</v>
-      </c>
+      <c r="J83" s="8"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="8">
-        <v>1</v>
-      </c>
+      <c r="L83" s="8"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3749,34 +2949,18 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="3">
-        <v>5847</v>
-      </c>
+      <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="8">
-        <v>2</v>
-      </c>
+      <c r="J84" s="8"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="8">
-        <v>1</v>
-      </c>
+      <c r="L84" s="8"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -3785,36 +2969,18 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="3">
-        <v>5850</v>
-      </c>
-      <c r="B85" s="3">
-        <v>5851</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="8">
-        <v>2</v>
-      </c>
+      <c r="J85" s="8"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="8">
-        <v>1</v>
-      </c>
+      <c r="L85" s="8"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -3823,36 +2989,18 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="3">
-        <v>5851</v>
-      </c>
-      <c r="B86" s="3">
-        <v>5852</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="8">
-        <v>2</v>
-      </c>
+      <c r="J86" s="8"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="8">
-        <v>1</v>
-      </c>
+      <c r="L86" s="8"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -3861,34 +3009,18 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="3">
-        <v>5852</v>
-      </c>
-      <c r="B87" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-      <c r="J87" s="8">
-        <v>2</v>
-      </c>
+      <c r="J87" s="8"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="8">
-        <v>1</v>
-      </c>
+      <c r="L87" s="8"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -3897,34 +3029,18 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="3">
-        <v>5855</v>
-      </c>
-      <c r="B88" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-      <c r="J88" s="8">
-        <v>2</v>
-      </c>
+      <c r="J88" s="8"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="8">
-        <v>1</v>
-      </c>
+      <c r="L88" s="8"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -3933,9 +3049,7 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3955,34 +3069,18 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="3">
-        <v>0</v>
-      </c>
-      <c r="B90" s="3">
-        <v>5858</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="8">
-        <v>2</v>
-      </c>
+      <c r="J90" s="8"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L90" s="8"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -3991,34 +3089,18 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="3">
-        <v>5858</v>
-      </c>
-      <c r="B91" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-      <c r="J91" s="8">
-        <v>2</v>
-      </c>
+      <c r="J91" s="8"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L91" s="8"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -4027,9 +3109,7 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4049,34 +3129,18 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="3">
-        <v>0</v>
-      </c>
-      <c r="B93" s="3">
-        <v>5863</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="J93" s="8"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="8">
-        <v>1</v>
-      </c>
+      <c r="L93" s="8"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4085,34 +3149,18 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="3">
-        <v>5863</v>
-      </c>
-      <c r="B94" s="3">
-        <v>5864</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="J94" s="8"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="8">
-        <v>1</v>
-      </c>
+      <c r="L94" s="8"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -4121,34 +3169,18 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="3">
-        <v>5864</v>
-      </c>
+      <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="J95" s="8"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="8">
-        <v>1</v>
-      </c>
+      <c r="L95" s="8"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -4157,36 +3189,18 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="3">
-        <v>5868</v>
-      </c>
-      <c r="B96" s="3">
-        <v>5869</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="J96" s="8"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="8">
-        <v>1</v>
-      </c>
+      <c r="L96" s="8"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -4195,36 +3209,18 @@
       <c r="R96" s="4"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="3">
-        <v>5869</v>
-      </c>
-      <c r="B97" s="3">
-        <v>5870</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-      <c r="J97" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="J97" s="8"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="8">
-        <v>1</v>
-      </c>
+      <c r="L97" s="8"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -4233,34 +3229,18 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="3">
-        <v>5870</v>
-      </c>
-      <c r="B98" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-      <c r="J98" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="J98" s="8"/>
       <c r="K98" s="3"/>
-      <c r="L98" s="8">
-        <v>1</v>
-      </c>
+      <c r="L98" s="8"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -4269,34 +3249,18 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="3">
-        <v>5872</v>
-      </c>
-      <c r="B99" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="J99" s="8"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="8">
-        <v>1</v>
-      </c>
+      <c r="L99" s="8"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -4305,9 +3269,7 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4327,34 +3289,18 @@
       <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="3">
-        <v>0</v>
-      </c>
-      <c r="B101" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="3"/>
       <c r="I101" s="3"/>
-      <c r="J101" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="J101" s="8"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="L101" s="8"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704CCB1D-22A9-422D-AA56-AA2A6955C400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEDE35-1258-4269-B1E8-166EAE394FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>index</t>
   </si>
@@ -64,9 +64,6 @@
     <t>%s_EvilSmile</t>
   </si>
   <si>
-    <t>%s_EvilDown</t>
-  </si>
-  <si>
     <t>%s_EvilAsk</t>
   </si>
   <si>
@@ -79,148 +76,151 @@
     <t>%s_EvilDisagree</t>
   </si>
   <si>
-    <t>%s_EvilErr</t>
-  </si>
-  <si>
-    <t>啊…</t>
-  </si>
-  <si>
-    <t># 推门1，次数1</t>
-  </si>
-  <si>
-    <t>是沙袋！</t>
-  </si>
-  <si>
-    <t>一拳揍飞！+3800</t>
-  </si>
-  <si>
-    <t>Mushroom,Potato,Egg,Tomato</t>
-  </si>
-  <si>
-    <t>耶。</t>
-  </si>
-  <si>
-    <t>Bag_HangFly</t>
-  </si>
-  <si>
-    <t># 推门2，次数1</t>
-  </si>
-  <si>
-    <t>一拳揍飞！+3805</t>
-  </si>
-  <si>
-    <t>Power!!!</t>
-  </si>
-  <si>
-    <t># 推门3，次数1</t>
-  </si>
-  <si>
-    <t>……</t>
-  </si>
-  <si>
-    <t>沙袋</t>
-  </si>
-  <si>
-    <t>Bag_0</t>
-  </si>
-  <si>
-    <t>难道，你也不想被揍？</t>
-  </si>
-  <si>
-    <t>搞错对象了吧？！\n你这没礼貌的东西，是有脸盲症吗？！</t>
-  </si>
-  <si>
-    <t>哇哦。\n好暴躁。</t>
-  </si>
-  <si>
-    <t>要揍就快揍！\n别扯些有的没的，晦气！</t>
-  </si>
-  <si>
-    <t>哇哦，被骂了。</t>
-  </si>
-  <si>
-    <t>揍！+3818</t>
-  </si>
-  <si>
-    <t>哼。</t>
-  </si>
-  <si>
-    <t># 推门4，次数1</t>
-  </si>
-  <si>
-    <t>你和你隔壁，真的很不一样耶。\n明明都是沙袋来着。</t>
-  </si>
-  <si>
-    <t>白痴吗你是？\n世界上不可能有一模一样的两个沙袋。</t>
-  </si>
-  <si>
-    <t>话不要说得这么绝对嘛。\n有这样一句名言：历史就是不断的重复！</t>
-  </si>
-  <si>
-    <t>意思是说，也许十分钟后，世界上就会出现\n和你一模一样的沙袋哦！大概吧。</t>
-  </si>
-  <si>
-    <t>顺带一提，“十分钟”不是一个确定的数哦。\n它是我对你的寿命的估算。</t>
-  </si>
-  <si>
-    <t>关我屁事！\n要揍就揍，谁想听你乱七八糟的废话了？！</t>
-  </si>
-  <si>
-    <t>哇哦，又被骂了。</t>
-  </si>
-  <si>
-    <t>揍！+3830</t>
-  </si>
-  <si>
-    <t># 推门5，次数1</t>
-  </si>
-  <si>
-    <t>虽然你很暴躁，但从“被揍”这个角度来看，\n你的配合度很高耶。</t>
-  </si>
-  <si>
-    <t>哪里来的晦气东西？\n你谁啊？我认识你吗？</t>
-  </si>
-  <si>
-    <t>就当我单方面认识你吧。\n所以，对于“被揍”这件事，你有什么感想吗？</t>
-  </si>
-  <si>
-    <t>感想？为啥要有感想？\n这不是我的使命吗？</t>
-  </si>
-  <si>
-    <t>身为沙袋，就该做沙袋应该做的事。</t>
-  </si>
-  <si>
-    <t>打住！我才不想被沙袋教育\n当沙袋的道理呢。</t>
-  </si>
-  <si>
-    <t>这不是你问的吗？挨千刀的混蛋！</t>
-  </si>
-  <si>
-    <t>喂，我是不了解沙袋应该做什么啦。\n我只是来问一句，要不要和我一起走？</t>
-  </si>
-  <si>
-    <t>………………走？</t>
-  </si>
-  <si>
-    <t>嗯啊。跳下来，跟着我，走出门，到处看看。\n虽然世界马上要毁灭了，但还是有一些东西可以看的。</t>
-  </si>
-  <si>
-    <t>…………………………</t>
-  </si>
-  <si>
-    <t>Bag_HangStruggle</t>
-  </si>
-  <si>
-    <t>啊哦。你下不来吗？</t>
-  </si>
-  <si>
-    <t>…………………………………………………………你管我？！</t>
-  </si>
-  <si>
-    <t>废话这么多是要干嘛？！爱揍不揍！\n我不想和你说话了！</t>
-  </si>
-  <si>
-    <t>出拳。+3849</t>
+    <t>世界末日要来了！</t>
+  </si>
+  <si>
+    <t>我呢，打算赶在末日以前去死。</t>
+  </si>
+  <si>
+    <t>%s_EvilHo</t>
+  </si>
+  <si>
+    <t>一定会有谁和我想法一样吧！\n趁着还有时间，去找找好了。</t>
+  </si>
+  <si>
+    <t>说到世界末日，会想像出怎样的画面呢？</t>
+  </si>
+  <si>
+    <t>天摇地动，狂风暴雨，电闪雷鸣，彗星降临……\n人类通常都会这么想象吧。</t>
+  </si>
+  <si>
+    <t>但我不会哦，毕竟我只是一个蘑菇。</t>
+  </si>
+  <si>
+    <t>那么，蘑菇眼中的世界末日\n究竟是什么呢？</t>
+  </si>
+  <si>
+    <t>答案其实很明显啦！所谓的世界末日\n就是令所有食材胆战心惊的……</t>
+  </si>
+  <si>
+    <t>冰箱清洁——！</t>
+  </si>
+  <si>
+    <t>%s_EvilSay</t>
+  </si>
+  <si>
+    <t>食材固有一死……</t>
+  </si>
+  <si>
+    <t>%s_EvilSad</t>
+  </si>
+  <si>
+    <t>或死于垃圾桶，或死于大铁锅。</t>
+  </si>
+  <si>
+    <t>想想还是大铁锅好一点吧！\n至少闻起来很香。</t>
+  </si>
+  <si>
+    <t>咳咳，现在是粉丝来信时间——</t>
+  </si>
+  <si>
+    <t>“你用你的花言巧语，诱骗了无数食材和你一起去死…”\n“但它们并没有得到体面的死亡，而是进了人类的铁锅…”</t>
+  </si>
+  <si>
+    <t>今天的粉丝来信到此为止！\n继续读下去的话，就要超过篇幅限制了。</t>
+  </si>
+  <si>
+    <t>“你是何其恶毒、何其可恶、何其残忍的一个蘑菇啊…”\n“你简直就是人类的走狗、伥鬼、刽子手…”</t>
+  </si>
+  <si>
+    <t>今天的粉丝来信到此为止！\n继续谈感想的话，就要超过篇幅限制了。</t>
+  </si>
+  <si>
+    <t>咳咳，现在是粉丝来信时间——\n对于上几期的来信，我在此做出官方回复：</t>
+  </si>
+  <si>
+    <t>你不是粉丝吧？众所周知，粉丝是不会书写复杂文字的。\n因为它们的身躯太细长柔软了，这种体型是握不住笔的！</t>
+  </si>
+  <si>
+    <t>合理怀疑你是来砸场子的粉条哦。给我滚回你的粉条来信栏目啦！</t>
+  </si>
+  <si>
+    <t>%s_EvilScold</t>
+  </si>
+  <si>
+    <t>插播一条消息，来自粉条来信栏目组：</t>
+  </si>
+  <si>
+    <t>“你这黑心的蘑菇、无耻的败类，居然把那种信件栽赃给我们！”\n“你必须想办法，挽回我们栏目的温柔可亲形象！不然就等死吧！”</t>
+  </si>
+  <si>
+    <t>我才不会等死呢。\n我每天都会大步奔跑在去死的道路上。</t>
+  </si>
+  <si>
+    <t>“你总会说一句固定的开场白，还让它独占一个对话框…”\n“这并不公平。信息量更大的文字，理应拥有更宽广的对话框…”</t>
+  </si>
+  <si>
+    <t>有没有一种可能，我是在混篇幅呢？\n每一句话都有巨大的信息量，对我来说太累了啦。</t>
+  </si>
+  <si>
+    <t>曾几何时，我并不需要阅读粉丝来信。</t>
+  </si>
+  <si>
+    <t>只要抒发几句胡编乱造的感想就够了。</t>
+  </si>
+  <si>
+    <t>这就是所谓的，成长的代价吧。</t>
+  </si>
+  <si>
+    <t>“我很讨厌meta要素。创造它的人是天才，跟风者只会令我作呕！”</t>
+  </si>
+  <si>
+    <t>“我在此大放厥词：meta就是偷懒！meta就是耍小聪明！\nmeta就是掩盖薄弱剧情与无聊玩法的遮羞布！”</t>
+  </si>
+  <si>
+    <t>完全看不懂！来稿粉丝请注意哦，这是一个情感聊天栏目，\n其他类型的投稿，只有制作组信箱才会接收哦！</t>
+  </si>
+  <si>
+    <t>“蘑菇嘴上说着想混篇幅，实际上悄悄地取消了固定开场白。”</t>
+  </si>
+  <si>
+    <t>“这是多么暖心的举动啊！在这个混吃等死的时代，\n蘑菇简直就是业界明灯！”</t>
+  </si>
+  <si>
+    <t>嘿嘿，这个稿是我自己投的。</t>
+  </si>
+  <si>
+    <t>“我很爱解读叙事作品中的隐喻和深意。事实上，这也是我的工作。”</t>
+  </si>
+  <si>
+    <t>“请问，对于《末日菜谱》这个作品，应该从哪个方向解读呢？”\n“我通读全篇，只看见了一群神经兮兮的食材，在反复蹦跳送死…”</t>
+  </si>
+  <si>
+    <t>你这不是解读得很准确吗？</t>
+  </si>
+  <si>
+    <t>“幽默也是区分三六九等的。\n《末日菜谱》呈现出来的幽默，生硬，尴尬，混乱，低俗…”</t>
+  </si>
+  <si>
+    <t>“缺少了一种隽永的意味，注定难登大雅之堂。\n是为最低等的幽默…”</t>
+  </si>
+  <si>
+    <t>看不懂！都没人想找我聊情感话题吗？\n都说了这种投稿应该投给制作组信箱啦！</t>
+  </si>
+  <si>
+    <t>“你好，听说这里能聊情感话题，我就来投稿了！我将我的情感经历\n整理成了一万两千字的小作文，还有527张聊天记录随信发出…”</t>
+  </si>
+  <si>
+    <t>…………………………………………………………………………\n…………………………………………………………………………</t>
+  </si>
+  <si>
+    <t>%s_EvilShock</t>
+  </si>
+  <si>
+    <t>粉丝来信栏目，就此停播！\n好啦不用挽回我了，这是我深思熟虑以后的决定。</t>
+  </si>
+  <si>
+    <t>末日要来啦。\n随便谁，和我一起去死吧！</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +327,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -643,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:L42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -692,13 +693,13 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5"/>
@@ -709,20 +710,30 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -732,33 +743,29 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="3">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -768,35 +775,29 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>3800</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3">
         <v>-1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="3">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -805,19 +806,29 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -828,33 +839,29 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="B6" s="3">
+        <v>106</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="3">
         <v>2</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -864,7 +871,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>3805</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3">
         <v>-1</v>
@@ -873,26 +880,20 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="3">
+      <c r="J7" s="4"/>
+      <c r="K7" s="3">
         <v>2</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -901,19 +902,29 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -924,33 +935,29 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3">
-        <v>3810</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="3">
+      <c r="J9" s="4"/>
+      <c r="K9" s="3">
         <v>3</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -960,33 +967,29 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>3810</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3">
-        <v>3811</v>
+        <v>-1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
+      <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -996,33 +999,29 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>3811</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>3812</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="3">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1032,33 +1031,29 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>3812</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3">
-        <v>3813</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3">
+        <v>4</v>
+      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1068,33 +1063,29 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
-        <v>3813</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3">
-        <v>3814</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1104,33 +1095,29 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
-        <v>3814</v>
+        <v>0</v>
       </c>
       <c r="B14" s="3">
-        <v>3815</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1141,33 +1128,29 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>3815</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="B15" s="3">
+        <v>116</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="3">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1178,7 +1161,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>3818</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3">
         <v>-1</v>
@@ -1187,26 +1170,20 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1215,19 +1192,29 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="3">
+        <v>6</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1238,33 +1225,29 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3">
-        <v>3822</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3">
+        <v>6</v>
+      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1274,33 +1257,29 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>3822</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3">
-        <v>3823</v>
+        <v>-1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="3">
-        <v>4</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3">
+        <v>6</v>
+      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1310,33 +1289,29 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>3823</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3">
-        <v>3824</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1346,33 +1321,29 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>3824</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3">
-        <v>3825</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="3">
-        <v>4</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3">
+        <v>7</v>
+      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1382,33 +1353,29 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>3825</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3">
-        <v>3826</v>
+        <v>-1</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="3">
-        <v>4</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3">
+        <v>7</v>
+      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1418,33 +1385,29 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>3826</v>
+        <v>0</v>
       </c>
       <c r="B23" s="3">
-        <v>3827</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="3">
-        <v>4</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3">
+        <v>8</v>
+      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1454,33 +1417,29 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3">
-        <v>3827</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="B24" s="3">
+        <v>128</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3">
-        <v>4</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3">
+        <v>8</v>
+      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1490,7 +1449,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3">
-        <v>3830</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3">
         <v>-1</v>
@@ -1499,26 +1458,20 @@
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="3">
-        <v>4</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3">
+        <v>8</v>
+      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1527,19 +1480,29 @@
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>131</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="3">
+        <v>9</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -1550,33 +1513,29 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B27" s="3">
-        <v>3835</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="3">
-        <v>5</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1586,33 +1545,29 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3">
-        <v>3835</v>
+        <v>132</v>
       </c>
       <c r="B28" s="3">
-        <v>3836</v>
+        <v>-1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="3">
-        <v>5</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3">
+        <v>9</v>
+      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1622,33 +1577,29 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>3836</v>
+        <v>0</v>
       </c>
       <c r="B29" s="3">
-        <v>3837</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="3">
-        <v>5</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -1658,33 +1609,29 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>3837</v>
+        <v>135</v>
       </c>
       <c r="B30" s="3">
-        <v>3838</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="3">
-        <v>5</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -1694,33 +1641,29 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>3838</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3">
-        <v>3839</v>
+        <v>-1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="3">
-        <v>5</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -1730,33 +1673,29 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3">
-        <v>3839</v>
+        <v>0</v>
       </c>
       <c r="B32" s="3">
-        <v>3840</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="3">
-        <v>5</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3">
+        <v>11</v>
+      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -1766,33 +1705,29 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>3840</v>
+        <v>139</v>
       </c>
       <c r="B33" s="3">
-        <v>3841</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="3">
-        <v>5</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3">
+        <v>11</v>
+      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -1802,33 +1737,29 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>3841</v>
+        <v>140</v>
       </c>
       <c r="B34" s="3">
-        <v>3842</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="3">
-        <v>5</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3">
+        <v>11</v>
+      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -1838,33 +1769,29 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>3842</v>
+        <v>0</v>
       </c>
       <c r="B35" s="3">
-        <v>3843</v>
+        <v>143</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="3">
-        <v>5</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3">
+        <v>12</v>
+      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -1874,33 +1801,29 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3">
-        <v>3843</v>
+        <v>143</v>
       </c>
       <c r="B36" s="3">
-        <v>3844</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="3">
-        <v>5</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3">
+        <v>12</v>
+      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -1910,35 +1833,29 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>3844</v>
+        <v>144</v>
       </c>
       <c r="B37" s="3">
-        <v>3845</v>
+        <v>-1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="3">
-        <v>5</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3">
+        <v>12</v>
+      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -1948,33 +1865,29 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="3">
-        <v>3845</v>
+        <v>0</v>
       </c>
       <c r="B38" s="3">
-        <v>3846</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="3">
-        <v>5</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="3">
+        <v>13</v>
+      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -1984,33 +1897,29 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="3">
-        <v>3846</v>
+        <v>147</v>
       </c>
       <c r="B39" s="3">
-        <v>3847</v>
+        <v>148</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="3">
-        <v>5</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3">
+        <v>13</v>
+      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2020,33 +1929,29 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>3847</v>
+        <v>148</v>
       </c>
       <c r="B40" s="3">
-        <v>3848</v>
+        <v>-1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="3">
-        <v>5</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3">
+        <v>13</v>
+      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -2056,33 +1961,29 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3">
-        <v>3848</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>151</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="3">
-        <v>5</v>
-      </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3">
+        <v>14</v>
+      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -2092,35 +1993,29 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3">
-        <v>3849</v>
+        <v>151</v>
       </c>
       <c r="B42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>31</v>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3">
         <v>14</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="3">
-        <v>5</v>
-      </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2129,18 +2024,30 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="3">
+        <v>152</v>
+      </c>
+      <c r="B43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="8"/>
+      <c r="G43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3">
+        <v>14</v>
+      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2149,18 +2056,30 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="3">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>155</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="8"/>
+      <c r="G44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3">
+        <v>15</v>
+      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -2169,18 +2088,30 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="3">
+        <v>155</v>
+      </c>
+      <c r="B45" s="3">
+        <v>156</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
+      <c r="G45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="8"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="3">
+        <v>15</v>
+      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2189,18 +2120,30 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="3">
+        <v>156</v>
+      </c>
+      <c r="B46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="8"/>
+      <c r="G46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3">
+        <v>15</v>
+      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -2209,18 +2152,30 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="3">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="8"/>
+      <c r="G47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="8">
+        <v>16</v>
+      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>

--- a/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
+++ b/Assets/Script/Dialogue/Data/ExcelSwapData/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MagicalMeow\Recipe\Assets\Script\Dialogue\Data\ExcelSwapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEDE35-1258-4269-B1E8-166EAE394FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF5A53A-0BF9-4DC3-9CE2-A8C4F6DB941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>index</t>
   </si>
@@ -76,158 +76,167 @@
     <t>%s_EvilDisagree</t>
   </si>
   <si>
-    <t>世界末日要来了！</t>
-  </si>
-  <si>
-    <t>我呢，打算赶在末日以前去死。</t>
-  </si>
-  <si>
-    <t>%s_EvilHo</t>
-  </si>
-  <si>
-    <t>一定会有谁和我想法一样吧！\n趁着还有时间，去找找好了。</t>
-  </si>
-  <si>
-    <t>说到世界末日，会想像出怎样的画面呢？</t>
-  </si>
-  <si>
-    <t>天摇地动，狂风暴雨，电闪雷鸣，彗星降临……\n人类通常都会这么想象吧。</t>
-  </si>
-  <si>
-    <t>但我不会哦，毕竟我只是一个蘑菇。</t>
-  </si>
-  <si>
-    <t>那么，蘑菇眼中的世界末日\n究竟是什么呢？</t>
-  </si>
-  <si>
-    <t>答案其实很明显啦！所谓的世界末日\n就是令所有食材胆战心惊的……</t>
-  </si>
-  <si>
-    <t>冰箱清洁——！</t>
-  </si>
-  <si>
-    <t>%s_EvilSay</t>
-  </si>
-  <si>
-    <t>食材固有一死……</t>
-  </si>
-  <si>
-    <t>%s_EvilSad</t>
-  </si>
-  <si>
-    <t>或死于垃圾桶，或死于大铁锅。</t>
-  </si>
-  <si>
-    <t>想想还是大铁锅好一点吧！\n至少闻起来很香。</t>
-  </si>
-  <si>
-    <t>咳咳，现在是粉丝来信时间——</t>
-  </si>
-  <si>
-    <t>“你用你的花言巧语，诱骗了无数食材和你一起去死…”\n“但它们并没有得到体面的死亡，而是进了人类的铁锅…”</t>
-  </si>
-  <si>
-    <t>今天的粉丝来信到此为止！\n继续读下去的话，就要超过篇幅限制了。</t>
-  </si>
-  <si>
-    <t>“你是何其恶毒、何其可恶、何其残忍的一个蘑菇啊…”\n“你简直就是人类的走狗、伥鬼、刽子手…”</t>
-  </si>
-  <si>
-    <t>今天的粉丝来信到此为止！\n继续谈感想的话，就要超过篇幅限制了。</t>
-  </si>
-  <si>
-    <t>咳咳，现在是粉丝来信时间——\n对于上几期的来信，我在此做出官方回复：</t>
-  </si>
-  <si>
-    <t>你不是粉丝吧？众所周知，粉丝是不会书写复杂文字的。\n因为它们的身躯太细长柔软了，这种体型是握不住笔的！</t>
-  </si>
-  <si>
-    <t>合理怀疑你是来砸场子的粉条哦。给我滚回你的粉条来信栏目啦！</t>
-  </si>
-  <si>
-    <t>%s_EvilScold</t>
-  </si>
-  <si>
-    <t>插播一条消息，来自粉条来信栏目组：</t>
-  </si>
-  <si>
-    <t>“你这黑心的蘑菇、无耻的败类，居然把那种信件栽赃给我们！”\n“你必须想办法，挽回我们栏目的温柔可亲形象！不然就等死吧！”</t>
-  </si>
-  <si>
-    <t>我才不会等死呢。\n我每天都会大步奔跑在去死的道路上。</t>
-  </si>
-  <si>
-    <t>“你总会说一句固定的开场白，还让它独占一个对话框…”\n“这并不公平。信息量更大的文字，理应拥有更宽广的对话框…”</t>
-  </si>
-  <si>
-    <t>有没有一种可能，我是在混篇幅呢？\n每一句话都有巨大的信息量，对我来说太累了啦。</t>
-  </si>
-  <si>
-    <t>曾几何时，我并不需要阅读粉丝来信。</t>
-  </si>
-  <si>
-    <t>只要抒发几句胡编乱造的感想就够了。</t>
-  </si>
-  <si>
-    <t>这就是所谓的，成长的代价吧。</t>
-  </si>
-  <si>
-    <t>“我很讨厌meta要素。创造它的人是天才，跟风者只会令我作呕！”</t>
-  </si>
-  <si>
-    <t>“我在此大放厥词：meta就是偷懒！meta就是耍小聪明！\nmeta就是掩盖薄弱剧情与无聊玩法的遮羞布！”</t>
-  </si>
-  <si>
-    <t>完全看不懂！来稿粉丝请注意哦，这是一个情感聊天栏目，\n其他类型的投稿，只有制作组信箱才会接收哦！</t>
-  </si>
-  <si>
-    <t>“蘑菇嘴上说着想混篇幅，实际上悄悄地取消了固定开场白。”</t>
-  </si>
-  <si>
-    <t>“这是多么暖心的举动啊！在这个混吃等死的时代，\n蘑菇简直就是业界明灯！”</t>
-  </si>
-  <si>
-    <t>嘿嘿，这个稿是我自己投的。</t>
-  </si>
-  <si>
-    <t>“我很爱解读叙事作品中的隐喻和深意。事实上，这也是我的工作。”</t>
-  </si>
-  <si>
-    <t>“请问，对于《末日菜谱》这个作品，应该从哪个方向解读呢？”\n“我通读全篇，只看见了一群神经兮兮的食材，在反复蹦跳送死…”</t>
-  </si>
-  <si>
-    <t>你这不是解读得很准确吗？</t>
-  </si>
-  <si>
-    <t>“幽默也是区分三六九等的。\n《末日菜谱》呈现出来的幽默，生硬，尴尬，混乱，低俗…”</t>
-  </si>
-  <si>
-    <t>“缺少了一种隽永的意味，注定难登大雅之堂。\n是为最低等的幽默…”</t>
-  </si>
-  <si>
-    <t>看不懂！都没人想找我聊情感话题吗？\n都说了这种投稿应该投给制作组信箱啦！</t>
-  </si>
-  <si>
-    <t>“你好，听说这里能聊情感话题，我就来投稿了！我将我的情感经历\n整理成了一万两千字的小作文，还有527张聊天记录随信发出…”</t>
-  </si>
-  <si>
-    <t>…………………………………………………………………………\n…………………………………………………………………………</t>
-  </si>
-  <si>
-    <t>%s_EvilShock</t>
-  </si>
-  <si>
-    <t>粉丝来信栏目，就此停播！\n好啦不用挽回我了，这是我深思熟虑以后的决定。</t>
-  </si>
-  <si>
-    <t>末日要来啦。\n随便谁，和我一起去死吧！</t>
+    <t># 推门1，次数1</t>
+  </si>
+  <si>
+    <t>是沙袋！</t>
+  </si>
+  <si>
+    <t>一拳揍飞！+3800</t>
+  </si>
+  <si>
+    <t>Mushroom,Potato,Egg,Tomato</t>
+  </si>
+  <si>
+    <t>耶。</t>
+  </si>
+  <si>
+    <t>Bag_HangFly</t>
+  </si>
+  <si>
+    <t># 推门2，次数1</t>
+  </si>
+  <si>
+    <t>一拳揍飞！+3805</t>
+  </si>
+  <si>
+    <t>Power!!!</t>
+  </si>
+  <si>
+    <t># 推门3，次数1</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>沙袋</t>
+  </si>
+  <si>
+    <t>Bag_0</t>
+  </si>
+  <si>
+    <t>难道，你也不想被揍？</t>
+  </si>
+  <si>
+    <t>搞错对象了吧？！\n你这没礼貌的东西，是有脸盲症吗？！</t>
+  </si>
+  <si>
+    <t>哇哦。\n好暴躁。</t>
+  </si>
+  <si>
+    <t>%s_EvilErr</t>
+  </si>
+  <si>
+    <t>要揍就快揍！\n别扯些有的没的，晦气！</t>
+  </si>
+  <si>
+    <t>哇哦，被骂了。</t>
+  </si>
+  <si>
+    <t>揍！+3818</t>
+  </si>
+  <si>
+    <t>哼。</t>
+  </si>
+  <si>
+    <t>%s_EvilDown</t>
+  </si>
+  <si>
+    <t># 推门4，次数1</t>
+  </si>
+  <si>
+    <t>你和你隔壁，真的很不一样耶。\n明明都是沙袋来着。</t>
+  </si>
+  <si>
+    <t>白痴吗你是？\n世界上不可能有一模一样的两个沙袋。</t>
+  </si>
+  <si>
+    <t>话不要说得这么绝对嘛。\n有这样一句名言：历史就是不断的重复！</t>
+  </si>
+  <si>
+    <t>意思是说，也许十分钟后，世界上就会出现\n和你一模一样的沙袋哦！大概吧。</t>
+  </si>
+  <si>
+    <t>顺带一提，“十分钟”不是一个确定的数哦。\n它是我对你的寿命的估算。</t>
+  </si>
+  <si>
+    <t>关我屁事！\n要揍就揍，谁想听你乱七八糟的废话了？！</t>
+  </si>
+  <si>
+    <t>哇哦，又被骂了。</t>
+  </si>
+  <si>
+    <t>揍！+3830</t>
+  </si>
+  <si>
+    <t># 推门5，次数1</t>
+  </si>
+  <si>
+    <t>虽然你很暴躁，但从“被揍”这个角度来看，\n你的配合度很高耶。</t>
+  </si>
+  <si>
+    <t>哪里来的晦气东西？\n你谁啊？我认识你吗？</t>
+  </si>
+  <si>
+    <t>就当我单方面认识你吧。\n所以，对于“被揍”这件事，你有什么感想吗？</t>
+  </si>
+  <si>
+    <t>感想？为啥要有感想？\n这不是我的使命吗？</t>
+  </si>
+  <si>
+    <t>身为沙袋，就该做沙袋应该做的事。</t>
+  </si>
+  <si>
+    <t>打住！我才不想被沙袋教育\n当沙袋的道理呢。</t>
+  </si>
+  <si>
+    <t>这不是你问的吗？挨千刀的混蛋！</t>
+  </si>
+  <si>
+    <t>喂，我是不了解沙袋应该做什么啦。\n我只是来问一句，要不要和我一起走？</t>
+  </si>
+  <si>
+    <t>………………走？</t>
+  </si>
+  <si>
+    <t>嗯啊。跳下来，跟着我，走出门，到处看看。\n虽然世界马上要毁灭了，但还是有一些东西可以看的。</t>
+  </si>
+  <si>
+    <t>…………………………</t>
+  </si>
+  <si>
+    <t>Bag_HangStruggle</t>
+  </si>
+  <si>
+    <t>啊哦。你下不来吗？</t>
+  </si>
+  <si>
+    <t>…………………………………………………………你管我？！</t>
+  </si>
+  <si>
+    <t>废话这么多是要干嘛？！爱揍不揍！\n我不想和你说话了！</t>
+  </si>
+  <si>
+    <t>啊…</t>
+  </si>
+  <si>
+    <t>出拳。+3849</t>
+  </si>
+  <si>
+    <t># 推门&gt;=6，次数1</t>
+  </si>
+  <si>
+    <t>一拳揍飞！+3860</t>
+  </si>
+  <si>
+    <t>&gt;6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="等线"/>
@@ -249,12 +258,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="BlinkMacSystemFont"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="BlinkMacSystemFont"/>
       <family val="2"/>
     </font>
@@ -296,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,13 +324,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,7 +641,7 @@
   <dimension ref="A1:S254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -693,13 +689,13 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5"/>
@@ -710,30 +706,20 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -743,29 +729,33 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3">
-        <v>101</v>
-      </c>
-      <c r="B3" s="3">
-        <v>102</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -775,29 +765,35 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
-        <v>102</v>
+        <v>3800</v>
       </c>
       <c r="B4" s="3">
         <v>-1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -806,29 +802,19 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>105</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="3">
-        <v>2</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -839,29 +825,33 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
-        <v>105</v>
-      </c>
-      <c r="B6" s="3">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3">
+      <c r="J6" s="3">
         <v>2</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -871,7 +861,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>106</v>
+        <v>3805</v>
       </c>
       <c r="B7" s="3">
         <v>-1</v>
@@ -880,20 +870,26 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -902,29 +898,19 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3">
-        <v>109</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="3">
-        <v>3</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -935,29 +921,33 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3">
-        <v>110</v>
+        <v>3810</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3">
+      <c r="J9" s="3">
         <v>3</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -967,29 +957,33 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
-        <v>110</v>
+        <v>3810</v>
       </c>
       <c r="B10" s="3">
-        <v>-1</v>
+        <v>3811</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -999,29 +993,33 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
-        <v>0</v>
+        <v>3811</v>
       </c>
       <c r="B11" s="3">
-        <v>112</v>
+        <v>3812</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1031,29 +1029,33 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
-        <v>112</v>
+        <v>3812</v>
       </c>
       <c r="B12" s="3">
-        <v>113</v>
+        <v>3813</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3">
-        <v>4</v>
-      </c>
-      <c r="L12" s="4"/>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1063,29 +1065,33 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
-        <v>113</v>
+        <v>3813</v>
       </c>
       <c r="B13" s="3">
-        <v>-1</v>
+        <v>3814</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>4</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1095,29 +1101,33 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
-        <v>0</v>
+        <v>3814</v>
       </c>
       <c r="B14" s="3">
-        <v>115</v>
+        <v>3815</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4"/>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1128,29 +1138,33 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
-        <v>115</v>
-      </c>
-      <c r="B15" s="3">
-        <v>116</v>
-      </c>
+        <v>3815</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4"/>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1161,7 +1175,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
-        <v>116</v>
+        <v>3818</v>
       </c>
       <c r="B16" s="3">
         <v>-1</v>
@@ -1170,20 +1184,26 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1192,29 +1212,19 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="3">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3">
-        <v>119</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="3">
-        <v>6</v>
-      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1225,29 +1235,33 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3">
-        <v>120</v>
+        <v>3822</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3">
-        <v>6</v>
-      </c>
-      <c r="L18" s="4"/>
+      <c r="J18" s="3">
+        <v>4</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1257,29 +1271,33 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3">
-        <v>120</v>
+        <v>3822</v>
       </c>
       <c r="B19" s="3">
-        <v>-1</v>
+        <v>3823</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="G19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3">
-        <v>6</v>
-      </c>
-      <c r="L19" s="4"/>
+      <c r="J19" s="3">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1289,29 +1307,33 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="3">
-        <v>0</v>
+        <v>3823</v>
       </c>
       <c r="B20" s="3">
-        <v>123</v>
+        <v>3824</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3">
-        <v>7</v>
-      </c>
-      <c r="L20" s="4"/>
+      <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1321,29 +1343,33 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="3">
-        <v>123</v>
+        <v>3824</v>
       </c>
       <c r="B21" s="3">
-        <v>124</v>
+        <v>3825</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3">
-        <v>7</v>
-      </c>
-      <c r="L21" s="4"/>
+      <c r="J21" s="3">
+        <v>4</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1353,29 +1379,33 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>124</v>
+        <v>3825</v>
       </c>
       <c r="B22" s="3">
-        <v>-1</v>
+        <v>3826</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3">
-        <v>7</v>
-      </c>
-      <c r="L22" s="4"/>
+      <c r="J22" s="3">
+        <v>4</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1385,29 +1415,33 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>0</v>
+        <v>3826</v>
       </c>
       <c r="B23" s="3">
-        <v>127</v>
+        <v>3827</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="G23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3">
-        <v>8</v>
-      </c>
-      <c r="L23" s="4"/>
+      <c r="J23" s="3">
+        <v>4</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1417,29 +1451,33 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3">
-        <v>128</v>
-      </c>
+        <v>3827</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3">
-        <v>8</v>
-      </c>
-      <c r="L24" s="4"/>
+      <c r="J24" s="3">
+        <v>4</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1449,7 +1487,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3">
-        <v>128</v>
+        <v>3830</v>
       </c>
       <c r="B25" s="3">
         <v>-1</v>
@@ -1458,20 +1496,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3">
-        <v>8</v>
-      </c>
-      <c r="L25" s="4"/>
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1480,29 +1524,19 @@
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="3">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3">
-        <v>131</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="3">
-        <v>9</v>
-      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -1513,29 +1547,33 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="3">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="B27" s="3">
-        <v>132</v>
+        <v>3835</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="3">
-        <v>9</v>
-      </c>
-      <c r="L27" s="4"/>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1545,29 +1583,33 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3">
-        <v>132</v>
+        <v>3835</v>
       </c>
       <c r="B28" s="3">
-        <v>-1</v>
+        <v>3836</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="4"/>
+      <c r="G28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3">
-        <v>9</v>
-      </c>
-      <c r="L28" s="4"/>
+      <c r="J28" s="3">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1577,29 +1619,33 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3">
-        <v>0</v>
+        <v>3836</v>
       </c>
       <c r="B29" s="3">
-        <v>135</v>
+        <v>3837</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3">
-        <v>10</v>
-      </c>
-      <c r="L29" s="4"/>
+      <c r="J29" s="3">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -1609,29 +1655,33 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="3">
-        <v>135</v>
+        <v>3837</v>
       </c>
       <c r="B30" s="3">
-        <v>136</v>
+        <v>3838</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="4"/>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3">
-        <v>10</v>
-      </c>
-      <c r="L30" s="4"/>
+      <c r="J30" s="3">
+        <v>5</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -1641,29 +1691,33 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="3">
-        <v>136</v>
+        <v>3838</v>
       </c>
       <c r="B31" s="3">
-        <v>-1</v>
+        <v>3839</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="G31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-      <c r="L31" s="4"/>
+      <c r="J31" s="3">
+        <v>5</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -1673,29 +1727,33 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="3">
-        <v>0</v>
+        <v>3839</v>
       </c>
       <c r="B32" s="3">
-        <v>139</v>
+        <v>3840</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="3">
-        <v>11</v>
-      </c>
-      <c r="L32" s="4"/>
+      <c r="J32" s="3">
+        <v>5</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -1705,29 +1763,33 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="3">
-        <v>139</v>
+        <v>3840</v>
       </c>
       <c r="B33" s="3">
-        <v>140</v>
+        <v>3841</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="4"/>
+      <c r="G33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="3">
-        <v>11</v>
-      </c>
-      <c r="L33" s="4"/>
+      <c r="J33" s="3">
+        <v>5</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -1737,29 +1799,33 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="3">
-        <v>140</v>
+        <v>3841</v>
       </c>
       <c r="B34" s="3">
-        <v>-1</v>
+        <v>3842</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="3">
-        <v>11</v>
-      </c>
-      <c r="L34" s="4"/>
+      <c r="J34" s="3">
+        <v>5</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -1769,29 +1835,33 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="3">
-        <v>0</v>
+        <v>3842</v>
       </c>
       <c r="B35" s="3">
-        <v>143</v>
+        <v>3843</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="4"/>
+      <c r="G35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="3">
-        <v>12</v>
-      </c>
-      <c r="L35" s="4"/>
+      <c r="J35" s="3">
+        <v>5</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -1801,29 +1871,33 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="3">
-        <v>143</v>
+        <v>3843</v>
       </c>
       <c r="B36" s="3">
-        <v>144</v>
+        <v>3844</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="3">
-        <v>12</v>
-      </c>
-      <c r="L36" s="4"/>
+      <c r="J36" s="3">
+        <v>5</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -1833,29 +1907,35 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="3">
-        <v>144</v>
+        <v>3844</v>
       </c>
       <c r="B37" s="3">
-        <v>-1</v>
+        <v>3845</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="4"/>
+      <c r="F37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="3">
-        <v>12</v>
-      </c>
-      <c r="L37" s="4"/>
+      <c r="J37" s="3">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -1865,29 +1945,33 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="3">
-        <v>0</v>
+        <v>3845</v>
       </c>
       <c r="B38" s="3">
-        <v>147</v>
+        <v>3846</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="3">
-        <v>13</v>
-      </c>
-      <c r="L38" s="4"/>
+      <c r="J38" s="3">
+        <v>5</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -1897,29 +1981,33 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="3">
-        <v>147</v>
+        <v>3846</v>
       </c>
       <c r="B39" s="3">
-        <v>148</v>
+        <v>3847</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="4"/>
+      <c r="G39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="3">
-        <v>13</v>
-      </c>
-      <c r="L39" s="4"/>
+      <c r="J39" s="3">
+        <v>5</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -1929,29 +2017,33 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3">
-        <v>148</v>
+        <v>3847</v>
       </c>
       <c r="B40" s="3">
-        <v>-1</v>
+        <v>3848</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="4"/>
+      <c r="G40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="3">
-        <v>13</v>
-      </c>
-      <c r="L40" s="4"/>
+      <c r="J40" s="3">
+        <v>5</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -1961,29 +2053,33 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="3">
-        <v>0</v>
-      </c>
-      <c r="B41" s="3">
-        <v>151</v>
-      </c>
+        <v>3848</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="3">
-        <v>14</v>
-      </c>
-      <c r="L41" s="4"/>
+      <c r="J41" s="3">
+        <v>5</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -1993,29 +2089,35 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="3">
-        <v>151</v>
+        <v>3849</v>
       </c>
       <c r="B42" s="3">
-        <v>152</v>
-      </c>
-      <c r="C42" s="2" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>60</v>
+      <c r="D42" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="3">
-        <v>14</v>
-      </c>
-      <c r="L42" s="4"/>
+      <c r="J42" s="3">
+        <v>5</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2024,125 +2126,113 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="3">
-        <v>152</v>
-      </c>
-      <c r="B43" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="3">
-        <v>14</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
+      <c r="A43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3">
         <v>0</v>
       </c>
-      <c r="B44" s="3">
-        <v>155</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="3">
-        <v>15</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="3">
-        <v>155</v>
+        <v>3860</v>
       </c>
       <c r="B45" s="3">
-        <v>156</v>
+        <v>-1</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="3">
-        <v>15</v>
-      </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="3">
-        <v>156</v>
-      </c>
-      <c r="B46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="3">
-        <v>15</v>
-      </c>
+      <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -2152,29 +2242,17 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="3">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="8">
-        <v>16</v>
-      </c>
+      <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -2184,18 +2262,18 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="8"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="8"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2204,18 +2282,18 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="8"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="8"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2224,18 +2302,18 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="8"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="8"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2244,18 +2322,18 @@
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="8"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -2264,18 +2342,18 @@
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="8"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2284,18 +2362,18 @@
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="8"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="8"/>
+      <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2304,7 +2382,7 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="2"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2313,9 +2391,9 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="8"/>
+      <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="8"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2324,18 +2402,18 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="8"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="8"/>
+      <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2344,7 +2422,7 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2353,9 +2431,9 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="8"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="8"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2364,18 +2442,18 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="8"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -2384,18 +2462,18 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="8"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -2404,18 +2482,18 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="8"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -2424,18 +2502,18 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="8"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -2444,18 +2522,18 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="8"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -2464,18 +2542,18 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="8"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -2484,18 +2562,18 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="8"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -2504,18 +2582,18 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="8"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -2524,18 +2602,18 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="8"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -2544,18 +2622,18 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="8"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -2564,18 +2642,18 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -2584,18 +2662,18 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="8"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -2604,18 +2682,18 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="8"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -2624,18 +2702,18 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="8"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -2644,18 +2722,18 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="8"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -2664,7 +2742,7 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="2"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2672,10 +2750,10 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="8"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="8"/>
+      <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -2684,18 +2762,18 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="8"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -2704,18 +2782,18 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="8"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -2724,18 +2802,18 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="8"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -2744,18 +2822,18 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="8"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -2764,18 +2842,18 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="8"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -2784,18 +2862,18 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="8"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -2804,18 +2882,18 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="8"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -2824,18 +2902,18 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="8"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -2844,18 +2922,18 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="8"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -2864,18 +2942,18 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="8"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -2884,18 +2962,18 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="8"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -2904,18 +2982,18 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="8"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -2924,18 +3002,18 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="8"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -2944,18 +3022,18 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="8"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -2964,18 +3042,18 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="8"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -2984,18 +3062,18 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="8"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -3004,18 +3082,18 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="8"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -3024,18 +3102,18 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="8"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -3044,18 +3122,18 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="8"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -3064,18 +3142,18 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="8"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -3084,18 +3162,18 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="8"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -3104,18 +3182,18 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="8"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -3124,18 +3202,18 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="8"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -3144,18 +3222,18 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="8"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -3164,18 +3242,18 @@
       <c r="R96" s="4"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="8"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -3184,18 +3262,18 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="8"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -3204,18 +3282,18 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="8"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -3224,18 +3302,18 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="8"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -3244,18 +3322,18 @@
       <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="8"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -3264,18 +3342,18 @@
       <c r="R101" s="4"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -3284,18 +3362,18 @@
       <c r="R102" s="4"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -3304,18 +3382,18 @@
       <c r="R103" s="4"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -3324,18 +3402,18 @@
       <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -3344,18 +3422,18 @@
       <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -3364,18 +3442,18 @@
       <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -3384,18 +3462,18 @@
       <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -3404,18 +3482,18 @@
       <c r="R108" s="4"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -3424,18 +3502,18 @@
       <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -3444,18 +3522,18 @@
       <c r="R110" s="4"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -3464,18 +3542,18 @@
       <c r="R111" s="4"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -3484,18 +3562,18 @@
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -3504,18 +3582,18 @@
       <c r="R113" s="4"/>
     </row>
     <row r="114" spans="1:18">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -3524,18 +3602,18 @@
       <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:18">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -3544,18 +3622,18 @@
       <c r="R115" s="4"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -3564,18 +3642,18 @@
       <c r="R116" s="4"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="3"/>
+      <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -3584,18 +3662,18 @@
       <c r="R117" s="4"/>
     </row>
     <row r="118" spans="1:18">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -3604,18 +3682,18 @@
       <c r="R118" s="4"/>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -3624,18 +3702,18 @@
       <c r="R119" s="4"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -3644,18 +3722,18 @@
       <c r="R120" s="4"/>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -3664,18 +3742,18 @@
       <c r="R121" s="4"/>
     </row>
     <row r="122" spans="1:18">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -3684,18 +3762,18 @@
       <c r="R122" s="4"/>
     </row>
     <row r="123" spans="1:18">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -3704,18 +3782,18 @@
       <c r="R123" s="4"/>
     </row>
     <row r="124" spans="1:18">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -3724,18 +3802,18 @@
       <c r="R124" s="4"/>
     </row>
     <row r="125" spans="1:18">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -3744,7 +3822,7 @@
       <c r="R125" s="4"/>
     </row>
     <row r="126" spans="1:18">
-      <c r="A126" s="5"/>
+      <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -3764,18 +3842,18 @@
       <c r="R126" s="4"/>
     </row>
     <row r="127" spans="1:18">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="3"/>
+      <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -3784,18 +3862,18 @@
       <c r="R127" s="4"/>
     </row>
     <row r="128" spans="1:18">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -3804,18 +3882,18 @@
       <c r="R128" s="4"/>
     </row>
     <row r="129" spans="1:18">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -3824,18 +3902,18 @@
       <c r="R129" s="4"/>
     </row>
     <row r="130" spans="1:18">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -3844,18 +3922,18 @@
       <c r="R130" s="4"/>
     </row>
     <row r="131" spans="1:18">
-      <c r="A131" s="3"/>
+      <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -3864,18 +3942,18 @@
       <c r="R131" s="4"/>
     </row>
     <row r="132" spans="1:18">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -3884,18 +3962,18 @@
       <c r="R132" s="4"/>
     </row>
     <row r="133" spans="1:18">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -3904,18 +3982,18 @@
       <c r="R133" s="4"/>
     </row>
     <row r="134" spans="1:18">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -3924,18 +4002,18 @@
       <c r="R134" s="4"/>
     </row>
     <row r="135" spans="1:18">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -3944,18 +4022,18 @@
       <c r="R135" s="4"/>
     </row>
     <row r="136" spans="1:18">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -3964,18 +4042,18 @@
       <c r="R136" s="4"/>
     </row>
     <row r="137" spans="1:18">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -3984,18 +4062,18 @@
       <c r="R137" s="4"/>
     </row>
     <row r="138" spans="1:18">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -4004,18 +4082,18 @@
       <c r="R138" s="4"/>
     </row>
     <row r="139" spans="1:18">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -4024,7 +4102,7 @@
       <c r="R139" s="4"/>
     </row>
     <row r="140" spans="1:18">
-      <c r="A140" s="5"/>
+      <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -4044,18 +4122,18 @@
       <c r="R140" s="4"/>
     </row>
     <row r="141" spans="1:18">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="2"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="3"/>
+      <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="3"/>
+      <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -4064,18 +4142,18 @@
       <c r="R141" s="4"/>
     </row>
     <row r="142" spans="1:18">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="2"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
@@ -4084,18 +4162,18 @@
       <c r="R142" s="4"/>
     </row>
     <row r="143" spans="1:18">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="2"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -4104,18 +4182,18 @@
       <c r="R143" s="4"/>
     </row>
     <row r="144" spans="1:18">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="2"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -4124,18 +4202,18 @@
       <c r="R144" s="4"/>
     </row>
     <row r="145" spans="1:18">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="2"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
       <c r="I145" s="4"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -4144,18 +4222,18 @@
       <c r="R145" s="4"/>
     </row>
     <row r="146" spans="1:18">
-      <c r="A146" s="3"/>
+      <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="2"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
@@ -4164,7 +4242,7 @@
       <c r="R146" s="4"/>
     </row>
     <row r="147" spans="1:18">
-      <c r="A147" s="5"/>
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -4184,18 +4262,18 @@
       <c r="R147" s="4"/>
     </row>
     <row r="148" spans="1:18">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="2"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
       <c r="I148" s="4"/>
-      <c r="J148" s="3"/>
+      <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="3"/>
+      <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
@@ -4204,7 +4282,7 @@
       <c r="R148" s="4"/>
     </row>
     <row r="149" spans="1:18">
-      <c r="A149" s="5"/>
+      <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -4224,18 +4302,18 @@
       <c r="R149" s="4"/>
     </row>
     <row r="150" spans="1:18">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="3"/>
+      <c r="L150" s="4"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
@@ -4244,18 +4322,18 @@
       <c r="R150" s="4"/>
     </row>
     <row r="151" spans="1:18">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
@@ -4264,18 +4342,18 @@
       <c r="R151" s="4"/>
     </row>
     <row r="152" spans="1:18">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -4284,18 +4362,18 @@
       <c r="R152" s="4"/>
     </row>
     <row r="153" spans="1:18">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-      <c r="L153" s="3"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
@@ -4304,18 +4382,18 @@
       <c r="R153" s="4"/>
     </row>
     <row r="154" spans="1:18">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -4324,18 +4402,18 @@
       <c r="R154" s="4"/>
     </row>
     <row r="155" spans="1:18">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
@@ -4344,7 +4422,7 @@
       <c r="R155" s="4"/>
     </row>
     <row r="156" spans="1:18">
-      <c r="A156" s="5"/>
+      <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -4364,18 +4442,18 @@
       <c r="R156" s="4"/>
     </row>
     <row r="157" spans="1:18">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-      <c r="L157" s="3"/>
+      <c r="L157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
